--- a/DownloadContainer/CCrand.xlsx
+++ b/DownloadContainer/CCrand.xlsx
@@ -1,46 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svalv\Dropbox\Lele\Rpg\Container\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svalv\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075D2620-CD77-40A9-AD04-7076EEC63C87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0821FA40-DA61-42D6-9941-0D5A85798338}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="7170" windowWidth="29040" windowHeight="15840" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
-    <sheet name="Inventar" sheetId="4" r:id="rId2"/>
-    <sheet name="Pflanzen" sheetId="12" r:id="rId3"/>
-    <sheet name="Plötze" sheetId="14" r:id="rId4"/>
-    <sheet name="CharacterSheet" sheetId="1" r:id="rId5"/>
-    <sheet name="Prices+Changelog" sheetId="2" r:id="rId6"/>
-    <sheet name="Backstory" sheetId="11" r:id="rId7"/>
-    <sheet name="Abfrage" sheetId="13" r:id="rId8"/>
+    <sheet name="DatenExelintern" sheetId="15" state="hidden" r:id="rId2"/>
+    <sheet name="Inventar" sheetId="4" r:id="rId3"/>
+    <sheet name="Pflanzen" sheetId="12" r:id="rId4"/>
+    <sheet name="Plötze" sheetId="14" r:id="rId5"/>
+    <sheet name="CharacterSheet" sheetId="1" r:id="rId6"/>
+    <sheet name="Prices+Changelog" sheetId="2" r:id="rId7"/>
+    <sheet name="Backstory" sheetId="11" r:id="rId8"/>
+    <sheet name="Abfrage" sheetId="13" state="hidden" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="316">
   <si>
     <t>Ausgerüstet:</t>
   </si>
@@ -69,9 +62,6 @@
     <t>Skill</t>
   </si>
   <si>
-    <t>Modifier Skill</t>
-  </si>
-  <si>
     <t>Sprachen</t>
   </si>
   <si>
@@ -141,9 +131,6 @@
     <t>Wurfäxte</t>
   </si>
   <si>
-    <t>Physical(Ausdauer/Körperzustand)</t>
-  </si>
-  <si>
     <t>Unarmed</t>
   </si>
   <si>
@@ -456,75 +443,6 @@
     <t>Bedroll</t>
   </si>
   <si>
-    <t>Häufigkeit</t>
-  </si>
-  <si>
-    <t>Wirkung 1</t>
-  </si>
-  <si>
-    <t>W1 Effekt</t>
-  </si>
-  <si>
-    <t>Wirkung 2</t>
-  </si>
-  <si>
-    <t>W2 Effekt</t>
-  </si>
-  <si>
-    <t>Wirkung 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W3 Effekt </t>
-  </si>
-  <si>
-    <t>Wirkung 4</t>
-  </si>
-  <si>
-    <t>W4 Effekt</t>
-  </si>
-  <si>
-    <t>Freizinnkraut Blüte</t>
-  </si>
-  <si>
-    <t>Aphrodisika</t>
-  </si>
-  <si>
-    <t>Heilung</t>
-  </si>
-  <si>
-    <t>Madnika</t>
-  </si>
-  <si>
-    <t>Drain Intelligence</t>
-  </si>
-  <si>
-    <t>Kleine Dornhaube</t>
-  </si>
-  <si>
-    <t>Nebelgrantika</t>
-  </si>
-  <si>
-    <t>Herrenmantel</t>
-  </si>
-  <si>
-    <t>Sedativika</t>
-  </si>
-  <si>
-    <t>Kranichsfuß</t>
-  </si>
-  <si>
-    <t>Paralyse</t>
-  </si>
-  <si>
-    <t>Nachtsicht</t>
-  </si>
-  <si>
-    <t>Süße Stainbirne</t>
-  </si>
-  <si>
-    <t>Increase Physical</t>
-  </si>
-  <si>
     <t>Attributes</t>
   </si>
   <si>
@@ -1048,6 +966,21 @@
   </si>
   <si>
     <t>Sanity</t>
+  </si>
+  <si>
+    <t>Physical(Körperzustand)</t>
+  </si>
+  <si>
+    <t>Keine</t>
+  </si>
+  <si>
+    <t>Schwer</t>
+  </si>
+  <si>
+    <t>Natürlich</t>
+  </si>
+  <si>
+    <t>Rüstungsschwere</t>
   </si>
 </sst>
 </file>
@@ -1771,7 +1704,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1796,11 +1729,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1809,36 +1738,20 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
@@ -1852,7 +1765,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1870,7 +1782,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1889,7 +1800,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1899,22 +1809,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1925,14 +1826,189 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1943,42 +2019,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{D542633D-7DF4-465B-85AC-D052E1A8B816}"/>
   </cellStyles>
   <dxfs count="225">
@@ -3677,7 +3759,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3973,1660 +4055,2051 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4B236B-B324-43E9-BA62-F221CE945E93}">
-  <dimension ref="A1:AD34"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AE72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="8.68359375" customWidth="1"/>
-    <col min="3" max="3" width="7.68359375" customWidth="1"/>
-    <col min="4" max="4" width="6.83984375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="4.15625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="3.83984375" customWidth="1"/>
-    <col min="7" max="7" width="3.7890625" customWidth="1"/>
-    <col min="8" max="8" width="1.3671875" customWidth="1"/>
-    <col min="9" max="9" width="4.26171875" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" customWidth="1"/>
+    <col min="3" max="3" width="7.6328125" customWidth="1"/>
+    <col min="4" max="4" width="6.81640625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="4.1796875" style="15" customWidth="1"/>
+    <col min="6" max="7" width="3.81640625" customWidth="1"/>
+    <col min="8" max="8" width="1.36328125" customWidth="1"/>
+    <col min="9" max="9" width="4.26953125" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="2.41796875" customWidth="1"/>
-    <col min="12" max="12" width="2.9453125" customWidth="1"/>
-    <col min="13" max="13" width="4.47265625" customWidth="1"/>
-    <col min="14" max="14" width="1.41796875" customWidth="1"/>
-    <col min="15" max="15" width="3.3671875" customWidth="1"/>
-    <col min="16" max="16" width="3.89453125" customWidth="1"/>
-    <col min="17" max="17" width="18.1015625" customWidth="1"/>
-    <col min="18" max="18" width="3.7890625" style="55" customWidth="1"/>
-    <col min="19" max="19" width="5.15625" customWidth="1"/>
-    <col min="20" max="20" width="15.26171875" customWidth="1"/>
-    <col min="21" max="21" width="6.3125" style="15" customWidth="1"/>
-    <col min="22" max="22" width="6.7890625" customWidth="1"/>
-    <col min="23" max="23" width="3.7890625" customWidth="1"/>
-    <col min="24" max="24" width="3.47265625" customWidth="1"/>
-    <col min="25" max="25" width="7.578125" customWidth="1"/>
-    <col min="26" max="26" width="11.578125" customWidth="1"/>
-    <col min="27" max="27" width="11.5234375" customWidth="1"/>
+    <col min="11" max="11" width="2.453125" customWidth="1"/>
+    <col min="12" max="12" width="2.90625" customWidth="1"/>
+    <col min="13" max="13" width="4.453125" customWidth="1"/>
+    <col min="14" max="14" width="1.453125" customWidth="1"/>
+    <col min="15" max="15" width="3.36328125" customWidth="1"/>
+    <col min="16" max="16" width="3.90625" customWidth="1"/>
+    <col min="17" max="17" width="18.08984375" customWidth="1"/>
+    <col min="18" max="18" width="5.08984375" style="41" customWidth="1"/>
+    <col min="19" max="19" width="5.1796875" customWidth="1"/>
+    <col min="20" max="20" width="15.26953125" style="15" customWidth="1"/>
+    <col min="21" max="21" width="6.26953125" style="15" customWidth="1"/>
+    <col min="22" max="22" width="6.453125" style="15" customWidth="1"/>
+    <col min="23" max="23" width="3.81640625" style="15" customWidth="1"/>
+    <col min="24" max="24" width="3.453125" style="7" customWidth="1"/>
+    <col min="25" max="25" width="3.6328125" customWidth="1"/>
+    <col min="26" max="27" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="118" t="s">
+    <row r="1" spans="1:31" s="155" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="120" t="s">
-        <v>246</v>
-      </c>
-      <c r="C1" s="119" t="s">
+      <c r="B1" s="151" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="120" t="s">
-        <v>259</v>
-      </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="155" t="s">
-        <v>335</v>
-      </c>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="30" t="s">
+      <c r="D1" s="151" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="154"/>
+      <c r="J1" s="180" t="s">
+        <v>310</v>
+      </c>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="Q1" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="30"/>
-      <c r="S1" s="54" t="s">
+      <c r="R1" s="153"/>
+      <c r="S1" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="T1" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="U1" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31" t="s">
+      <c r="V1" s="157"/>
+      <c r="W1" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="30" t="s">
+      <c r="X1" s="153"/>
+      <c r="Z1" s="157" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA1" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA1" s="31" t="s">
+      <c r="AB1" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="36" t="s">
-        <v>297</v>
-      </c>
-      <c r="B2" s="36" t="s">
+    </row>
+    <row r="2" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="173" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="113">
+        <v>42</v>
+      </c>
+      <c r="D2" s="113">
+        <v>2</v>
+      </c>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="181">
+        <v>100</v>
+      </c>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="36">
-        <v>42</v>
-      </c>
-      <c r="D2" s="36">
-        <v>2</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="154">
-        <v>100</v>
-      </c>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="63" t="s">
+      <c r="R2" s="72">
+        <f>CharacterSheet!B2+S2</f>
+        <v>12</v>
+      </c>
+      <c r="S2" s="162"/>
+      <c r="T2" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="91">
-        <f>CharacterSheet!B2</f>
+      <c r="U2" s="186"/>
+      <c r="V2" s="186"/>
+      <c r="W2" s="187"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="158"/>
+      <c r="AA2" s="158" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB2" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC2" s="110"/>
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="110"/>
+    </row>
+    <row r="3" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="174" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="121" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="121">
         <v>12</v>
       </c>
-      <c r="S2" s="109"/>
-      <c r="T2" s="142" t="s">
-        <v>15</v>
-      </c>
-      <c r="U2" s="143"/>
-      <c r="V2" s="143"/>
-      <c r="W2" s="144"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="129"/>
-      <c r="AA2" s="129" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB2" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="D3" s="121">
+        <v>1</v>
+      </c>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="11">
+      <c r="R3" s="60">
+        <f>CharacterSheet!B3+S3</f>
         <v>12</v>
       </c>
-      <c r="D3" s="11">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="65" t="s">
+      <c r="S3" s="163"/>
+      <c r="T3" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="79">
-        <f>CharacterSheet!B3</f>
-        <v>12</v>
-      </c>
-      <c r="S3" s="94"/>
-      <c r="T3" s="63" t="s">
+      <c r="U3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="59" t="s">
+      <c r="V3" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="V3" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="W3" s="64">
+      <c r="W3" s="109">
         <f>CharacterSheet!I2</f>
         <v>29</v>
       </c>
-      <c r="X3" s="62"/>
       <c r="Y3" s="15"/>
-      <c r="Z3" s="130"/>
-      <c r="AA3" s="130" t="s">
+      <c r="Z3" s="159"/>
+      <c r="AA3" s="159" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB3" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="AB3" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
+      <c r="AC3" s="110"/>
+      <c r="AD3" s="110"/>
+      <c r="AE3" s="110"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A4" s="174" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
       <c r="P4" s="15"/>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="73">
+        <f>CharacterSheet!B4+B4</f>
+        <v>12</v>
+      </c>
+      <c r="S4" s="163"/>
+      <c r="T4" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="92">
-        <f>CharacterSheet!B4</f>
-        <v>12</v>
-      </c>
-      <c r="S4" s="94"/>
-      <c r="T4" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="U4" s="52" t="s">
+      <c r="U4" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="W4" s="66">
+      <c r="W4" s="48">
         <f>CharacterSheet!I3</f>
         <v>30</v>
       </c>
-      <c r="X4" s="62"/>
       <c r="Y4" s="15"/>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="130"/>
-      <c r="AB4" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="Z4" s="159"/>
+      <c r="AA4" s="159"/>
+      <c r="AB4" s="110" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC4" s="110"/>
+      <c r="AD4" s="110"/>
+      <c r="AE4" s="110"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A5" s="174" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="121" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="121">
         <v>15</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="121">
         <v>1</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="118"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="110"/>
       <c r="P5" s="15"/>
-      <c r="Q5" s="65" t="s">
-        <v>229</v>
-      </c>
-      <c r="R5" s="103">
-        <f>CharacterSheet!B5</f>
+      <c r="Q5" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="R5" s="83">
+        <f>CharacterSheet!B5+S5</f>
         <v>13</v>
       </c>
-      <c r="S5" s="94"/>
-      <c r="T5" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="U5" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="V5" s="52"/>
-      <c r="W5" s="66">
+      <c r="S5" s="163"/>
+      <c r="T5" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V5" s="39"/>
+      <c r="W5" s="48">
         <f>CharacterSheet!I4</f>
         <v>20</v>
       </c>
-      <c r="X5" s="62"/>
       <c r="Y5" s="15"/>
-      <c r="Z5" s="130"/>
-      <c r="AA5" s="130"/>
-    </row>
-    <row r="6" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="7"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
+      <c r="Z5" s="159"/>
+      <c r="AA5" s="159"/>
+      <c r="AB5" s="110"/>
+      <c r="AC5" s="110"/>
+      <c r="AD5" s="110"/>
+      <c r="AE5" s="110"/>
+    </row>
+    <row r="6" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="154"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="110"/>
       <c r="P6" s="15"/>
-      <c r="Q6" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="R6" s="84">
-        <f>CharacterSheet!B6</f>
+      <c r="Q6" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="65">
+        <f>CharacterSheet!B6+S6</f>
         <v>10</v>
       </c>
-      <c r="S6" s="94"/>
-      <c r="T6" s="65" t="s">
-        <v>36</v>
+      <c r="S6" s="163"/>
+      <c r="T6" s="47" t="s">
+        <v>34</v>
       </c>
       <c r="U6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="V6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="W6" s="66">
+      <c r="W6" s="48">
         <f>CharacterSheet!I5</f>
         <v>30</v>
       </c>
-      <c r="X6" s="62"/>
       <c r="Y6" s="15"/>
-      <c r="Z6" s="130"/>
-      <c r="AA6" s="130"/>
-    </row>
-    <row r="7" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="45" t="s">
+      <c r="Z6" s="159"/>
+      <c r="AA6" s="159"/>
+      <c r="AB6" s="110"/>
+      <c r="AC6" s="110"/>
+      <c r="AD6" s="110"/>
+      <c r="AE6" s="110"/>
+    </row>
+    <row r="7" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="175" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="126" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
+      <c r="E7" s="126" t="s">
+        <v>234</v>
+      </c>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="110"/>
       <c r="P7" s="15"/>
-      <c r="Q7" s="106" t="s">
-        <v>230</v>
-      </c>
-      <c r="R7" s="107">
-        <f>CharacterSheet!B7</f>
+      <c r="Q7" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="R7" s="87">
+        <f>CharacterSheet!B7+S7</f>
         <v>12</v>
       </c>
-      <c r="S7" s="94"/>
-      <c r="T7" s="65" t="s">
-        <v>208</v>
+      <c r="S7" s="163"/>
+      <c r="T7" s="47" t="s">
+        <v>183</v>
       </c>
       <c r="U7" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="V7" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="W7" s="66">
+        <v>206</v>
+      </c>
+      <c r="W7" s="48">
         <f>CharacterSheet!I6</f>
         <v>20</v>
       </c>
-      <c r="X7" s="62"/>
       <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AD7" s="15"/>
-    </row>
-    <row r="8" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="C8" s="13">
+      <c r="Z7" s="110"/>
+      <c r="AA7" s="110"/>
+      <c r="AB7" s="110"/>
+      <c r="AC7" s="110"/>
+      <c r="AD7" s="110"/>
+      <c r="AE7" s="110"/>
+    </row>
+    <row r="8" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="110" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" s="130">
         <v>10.5</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="110">
         <v>7</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="114">
         <v>1</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="131"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
       <c r="P8" s="15"/>
-      <c r="Q8" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="R8" s="108">
-        <f>CharacterSheet!B8</f>
+      <c r="Q8" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="88">
+        <f>CharacterSheet!B8+S8</f>
         <v>5</v>
       </c>
-      <c r="S8" s="94"/>
-      <c r="T8" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="U8" s="52" t="s">
-        <v>22</v>
+      <c r="S8" s="163"/>
+      <c r="T8" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="U8" s="39" t="s">
+        <v>21</v>
       </c>
       <c r="V8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="W8" s="66">
+        <v>36</v>
+      </c>
+      <c r="W8" s="48">
         <f>CharacterSheet!I7</f>
         <v>20</v>
       </c>
-      <c r="X8" s="62"/>
       <c r="Y8" s="15"/>
-      <c r="Z8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA8" s="15"/>
-    </row>
-    <row r="9" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="13">
+      <c r="Z8" s="177" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA8" s="155"/>
+      <c r="AB8" s="110"/>
+      <c r="AC8" s="110"/>
+      <c r="AD8" s="110"/>
+      <c r="AE8" s="110"/>
+    </row>
+    <row r="9" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="155" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="130">
         <v>6</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="110">
         <v>7</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="110">
         <v>1</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="24"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="133"/>
+      <c r="O9" s="129"/>
       <c r="P9" s="15"/>
-      <c r="Q9" s="113" t="s">
-        <v>209</v>
-      </c>
-      <c r="R9" s="114">
+      <c r="Q9" s="92" t="s">
+        <v>184</v>
+      </c>
+      <c r="R9" s="93">
+        <f>CharacterSheet!B9+S9</f>
         <v>5</v>
       </c>
-      <c r="S9" s="94"/>
-      <c r="T9" s="65" t="s">
-        <v>43</v>
+      <c r="S9" s="163"/>
+      <c r="T9" s="47" t="s">
+        <v>41</v>
       </c>
       <c r="U9" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="W9" s="66">
+        <v>36</v>
+      </c>
+      <c r="W9" s="48">
         <f>CharacterSheet!I8</f>
         <v>20</v>
       </c>
-      <c r="X9" s="62"/>
       <c r="Y9" s="15"/>
-      <c r="Z9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA9" s="11">
+      <c r="Z9" s="174" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA9" s="174">
         <f>Inventar!$G$22</f>
         <v>15.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="13">
+      <c r="AB9" s="110"/>
+      <c r="AC9" s="110"/>
+      <c r="AD9" s="110"/>
+      <c r="AE9" s="110"/>
+    </row>
+    <row r="10" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="155" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="130">
         <v>6</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="110">
         <v>7</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="110">
         <v>1</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="26"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="114"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="131"/>
       <c r="P10" s="15"/>
-      <c r="Q10" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="R10" s="96">
-        <f>CharacterSheet!B10</f>
+      <c r="Q10" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="R10" s="76">
+        <f>CharacterSheet!B10+S10</f>
         <v>18</v>
       </c>
-      <c r="S10" s="94">
+      <c r="S10" s="163">
         <f>$Q$17*(-1)</f>
         <v>0</v>
       </c>
-      <c r="T10" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="U10" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="V10" s="61"/>
-      <c r="W10" s="68">
+      <c r="T10" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="U10" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="V10" s="44"/>
+      <c r="W10" s="50">
         <f>CharacterSheet!I9</f>
         <v>20</v>
       </c>
-      <c r="X10" s="62"/>
       <c r="Y10" s="15"/>
-      <c r="Z10" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA10" s="11">
+      <c r="Z10" s="174" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA10" s="174">
         <f>Inventar!$G$19</f>
         <v>19.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="C11" s="13">
+      <c r="AB10" s="110"/>
+      <c r="AC10" s="110"/>
+      <c r="AD10" s="110"/>
+      <c r="AE10" s="110"/>
+    </row>
+    <row r="11" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="155" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="110" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" s="130">
         <v>10.5</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="110">
         <v>7</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="110">
         <v>1</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="26"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="118"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="131"/>
       <c r="P11" s="15"/>
-      <c r="Q11" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="R11" s="97">
-        <f>CharacterSheet!B11</f>
+      <c r="Q11" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="R11" s="77">
+        <f>CharacterSheet!B11+S11</f>
         <v>10</v>
       </c>
-      <c r="S11" s="94"/>
-      <c r="T11" s="142" t="s">
-        <v>52</v>
-      </c>
-      <c r="U11" s="148"/>
-      <c r="V11" s="148"/>
-      <c r="W11" s="149"/>
-      <c r="X11" s="7"/>
+      <c r="S11" s="163"/>
+      <c r="T11" s="191" t="s">
+        <v>50</v>
+      </c>
+      <c r="U11" s="192"/>
+      <c r="V11" s="192"/>
+      <c r="W11" s="193"/>
       <c r="Y11" s="15"/>
-      <c r="Z11" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA11" s="11">
+      <c r="Z11" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA11" s="174">
         <f>R2*4</f>
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="C12" s="47">
+      <c r="AB11" s="110"/>
+      <c r="AC11" s="110"/>
+      <c r="AD11" s="110"/>
+      <c r="AE11" s="110"/>
+    </row>
+    <row r="12" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="176" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="125" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" s="134">
         <v>10.5</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="125">
         <v>7</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="125">
         <v>1</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="26"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="118"/>
+      <c r="N12" s="110"/>
+      <c r="O12" s="131"/>
       <c r="P12" s="15"/>
-      <c r="Q12" s="98" t="s">
-        <v>217</v>
-      </c>
-      <c r="R12" s="116">
+      <c r="Q12" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="R12" s="94">
         <f>ROUNDUP((R7+R5)/2,0)</f>
         <v>13</v>
       </c>
-      <c r="S12" s="94"/>
-      <c r="T12" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="U12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="V12" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="W12" s="64">
+      <c r="S12" s="163"/>
+      <c r="T12" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="U12" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="W12" s="46">
         <f>CharacterSheet!I10</f>
         <v>20</v>
       </c>
-      <c r="X12" s="65"/>
       <c r="Y12" s="15"/>
-      <c r="Z12" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA12" s="11">
+      <c r="Z12" s="174" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA12" s="174">
         <f>AA11-AA10</f>
         <v>28.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="48">
+      <c r="AB12" s="110"/>
+      <c r="AC12" s="110"/>
+      <c r="AD12" s="110"/>
+      <c r="AE12" s="110"/>
+    </row>
+    <row r="13" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="177" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="135"/>
+      <c r="C13" s="136">
         <f>SUM(C8:C12)</f>
         <v>43.5</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="55"/>
-      <c r="T13" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="U13" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="V13" s="49"/>
-      <c r="W13" s="66">
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="114"/>
+      <c r="M13" s="118"/>
+      <c r="N13" s="110"/>
+      <c r="O13" s="131"/>
+      <c r="P13" s="110"/>
+      <c r="Q13" s="110"/>
+      <c r="R13" s="110"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="U13" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="V13" s="36"/>
+      <c r="W13" s="48">
         <f>CharacterSheet!I11</f>
         <v>24</v>
       </c>
-      <c r="X13" s="62"/>
       <c r="Y13" s="15"/>
-      <c r="Z13" s="115" t="s">
-        <v>210</v>
-      </c>
-      <c r="AA13" s="11" t="str">
+      <c r="Z13" s="178" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA13" s="174" t="str">
         <f>IF(AA9&gt;30,"Schwer",IF(AA9&gt;18,"Mittel","Leicht"))</f>
         <v>Leicht</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" ht="14.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="38"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="145" t="s">
-        <v>61</v>
-      </c>
-      <c r="R14" s="15"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="U14" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="V14" s="49"/>
-      <c r="W14" s="66">
+      <c r="AB13" s="110"/>
+      <c r="AC13" s="110"/>
+      <c r="AD13" s="110"/>
+      <c r="AE13" s="110"/>
+    </row>
+    <row r="14" spans="1:31" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="137"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="118"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="131"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="188" t="s">
+        <v>59</v>
+      </c>
+      <c r="R14" s="110"/>
+      <c r="S14" s="111"/>
+      <c r="T14" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="U14" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="V14" s="36"/>
+      <c r="W14" s="48">
         <f>CharacterSheet!I12</f>
         <v>20</v>
       </c>
-      <c r="X14" s="62"/>
       <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-    </row>
-    <row r="15" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="146"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="55"/>
-      <c r="T15" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="U15" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="V15" s="60" t="s">
-        <v>231</v>
-      </c>
-      <c r="W15" s="68">
+      <c r="Z14" s="110"/>
+      <c r="AA14" s="110"/>
+      <c r="AB14" s="110"/>
+      <c r="AC14" s="110"/>
+      <c r="AD14" s="110"/>
+      <c r="AE14" s="110"/>
+    </row>
+    <row r="15" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="110"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="135" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="135" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="118"/>
+      <c r="N15" s="110"/>
+      <c r="O15" s="131"/>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="189"/>
+      <c r="R15" s="110"/>
+      <c r="S15" s="111"/>
+      <c r="T15" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="U15" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="V15" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="W15" s="50">
         <f>CharacterSheet!I13</f>
         <v>20</v>
       </c>
-      <c r="X15" s="65"/>
       <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-    </row>
-    <row r="16" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="43">
+      <c r="Z15" s="110"/>
+      <c r="AA15" s="110"/>
+      <c r="AB15" s="110"/>
+      <c r="AC15" s="110"/>
+      <c r="AD15" s="110"/>
+      <c r="AE15" s="110"/>
+    </row>
+    <row r="16" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="164" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="165">
         <f>CharacterSheet!B15</f>
         <v>275</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="138">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="139">
         <f>B16-C16</f>
         <v>275</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="147"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="76"/>
-      <c r="T16" s="142" t="s">
-        <v>64</v>
-      </c>
-      <c r="U16" s="143"/>
-      <c r="V16" s="143"/>
-      <c r="W16" s="144"/>
-      <c r="X16" s="7"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="110"/>
+      <c r="O16" s="131"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="190"/>
+      <c r="R16" s="110"/>
+      <c r="S16" s="112"/>
+      <c r="T16" s="185" t="s">
+        <v>62</v>
+      </c>
+      <c r="U16" s="186"/>
+      <c r="V16" s="186"/>
+      <c r="W16" s="187"/>
       <c r="Y16" s="15"/>
-      <c r="Z16" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA16" s="15"/>
-    </row>
-    <row r="17" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="57">
+      <c r="Z16" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA16" s="110"/>
+      <c r="AB16" s="110"/>
+      <c r="AC16" s="110"/>
+      <c r="AD16" s="110"/>
+      <c r="AE16" s="110"/>
+    </row>
+    <row r="17" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="166" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="167">
         <f>CharacterSheet!B16</f>
         <v>12</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="138">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="140">
         <f>B17+C17</f>
         <v>12</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="36">
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="141"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="113">
         <v>0</v>
       </c>
-      <c r="R17" s="15"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="U17" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="V17" s="69" t="s">
-        <v>231</v>
-      </c>
-      <c r="W17" s="64">
+      <c r="R17" s="110"/>
+      <c r="S17" s="111"/>
+      <c r="T17" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="U17" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="V17" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="W17" s="46">
         <f>CharacterSheet!I14</f>
         <v>20</v>
       </c>
-      <c r="X17" s="65"/>
       <c r="Y17" s="15"/>
-      <c r="Z17" s="6" t="s">
+      <c r="Z17" s="160" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA17" s="161" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB17" s="161" t="s">
         <v>71</v>
       </c>
-      <c r="AA17" s="10" t="s">
+      <c r="AC17" s="161" t="s">
         <v>72</v>
       </c>
-      <c r="AB17" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC17" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="41">
+      <c r="AD17" s="110"/>
+      <c r="AE17" s="110"/>
+    </row>
+    <row r="18" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="168" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="168">
         <f>CharacterSheet!B17</f>
         <v>55</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="138">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="139">
         <f>B18+C18</f>
         <v>55</v>
       </c>
-      <c r="E18" s="15" t="str">
+      <c r="E18" s="110" t="str">
         <f>IF(D18=0,"Verkrüppelt",IF(D18&lt;=B18*0.2,"Verstümmelt",""))</f>
         <v/>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="U18" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="V18" s="53"/>
-      <c r="W18" s="66">
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="119" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="125"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="120" t="s">
+        <v>74</v>
+      </c>
+      <c r="N18" s="110"/>
+      <c r="O18" s="110"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="110"/>
+      <c r="R18" s="110"/>
+      <c r="S18" s="111"/>
+      <c r="T18" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="U18" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="V18" s="40"/>
+      <c r="W18" s="48">
         <f>CharacterSheet!I15</f>
         <v>35</v>
       </c>
-      <c r="X18" s="62"/>
       <c r="Y18" s="15"/>
-      <c r="Z18" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA18" s="15">
+      <c r="Z18" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA18" s="110">
         <v>3</v>
       </c>
-      <c r="AB18" s="15">
+      <c r="AB18" s="110">
         <v>5</v>
       </c>
-      <c r="AC18" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="39">
+      <c r="AC18" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD18" s="110"/>
+      <c r="AE18" s="110"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A19" s="169" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="169">
         <f>CharacterSheet!B18</f>
         <v>193</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="138">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="139">
         <f>B19+C19</f>
         <v>193</v>
       </c>
-      <c r="E19" s="15" t="str">
+      <c r="E19" s="110" t="str">
         <f t="shared" ref="E19:E23" si="0">IF(D19=0,"Verkrüppelt",IF(D19&lt;=B19*0.2,"Verstümmelt",""))</f>
         <v/>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="U19" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="V19" s="53"/>
-      <c r="W19" s="66">
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="122"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="110"/>
+      <c r="O19" s="110"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="114"/>
+      <c r="R19" s="114"/>
+      <c r="S19" s="111"/>
+      <c r="T19" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="U19" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="V19" s="40"/>
+      <c r="W19" s="48">
         <f>CharacterSheet!I16</f>
         <v>20</v>
       </c>
-      <c r="X19" s="62"/>
       <c r="Y19" s="15"/>
-      <c r="Z19" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA19" s="15">
+      <c r="Z19" s="110" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA19" s="110">
         <v>4</v>
       </c>
-      <c r="AB19" s="15">
+      <c r="AB19" s="110">
         <v>2</v>
       </c>
-      <c r="AC19" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="B20" s="39">
+      <c r="AC19" s="110" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD19" s="110"/>
+      <c r="AE19" s="110"/>
+    </row>
+    <row r="20" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="169" t="s">
+        <v>216</v>
+      </c>
+      <c r="B20" s="169">
         <f>CharacterSheet!B19</f>
         <v>55</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C20" s="138">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="139">
         <f t="shared" ref="D20:D23" si="1">B20+C20</f>
         <v>55</v>
       </c>
-      <c r="E20" s="15" t="str">
+      <c r="E20" s="110" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="65" t="s">
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="110"/>
+      <c r="O20" s="110"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="114"/>
+      <c r="R20" s="114"/>
+      <c r="S20" s="111"/>
+      <c r="T20" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="U20" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="V20" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="U20" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="V20" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="W20" s="66">
+      <c r="W20" s="48">
         <f>CharacterSheet!I17</f>
         <v>20</v>
       </c>
-      <c r="X20" s="62"/>
       <c r="Y20" s="15"/>
-      <c r="Z20" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="15"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="B21" s="39">
+      <c r="Z20" s="143" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA20" s="110"/>
+      <c r="AB20" s="110"/>
+      <c r="AC20" s="110"/>
+      <c r="AD20" s="110"/>
+      <c r="AE20" s="110"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A21" s="169" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" s="169">
         <f>CharacterSheet!B20</f>
         <v>55</v>
       </c>
-      <c r="C21" s="44">
+      <c r="C21" s="138">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="139">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="E21" s="15" t="str">
+      <c r="E21" s="110" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="R21" s="18"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="65" t="s">
-        <v>87</v>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="118"/>
+      <c r="N21" s="110"/>
+      <c r="O21" s="110"/>
+      <c r="P21" s="110"/>
+      <c r="Q21" s="115" t="s">
+        <v>63</v>
+      </c>
+      <c r="R21" s="116"/>
+      <c r="S21" s="111"/>
+      <c r="T21" s="47" t="s">
+        <v>85</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="W21" s="66">
+        <v>206</v>
+      </c>
+      <c r="W21" s="48">
         <f>CharacterSheet!I18</f>
         <v>28</v>
       </c>
-      <c r="X21" s="62"/>
       <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="15"/>
-    </row>
-    <row r="22" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="B22" s="39">
+      <c r="Z21" s="110"/>
+      <c r="AA21" s="110"/>
+      <c r="AB21" s="110"/>
+      <c r="AC21" s="110"/>
+      <c r="AD21" s="110"/>
+      <c r="AE21" s="110"/>
+    </row>
+    <row r="22" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="169" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" s="169">
         <f>CharacterSheet!B21</f>
         <v>69</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="138">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D22" s="139">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="E22" s="15" t="str">
+      <c r="E22" s="110" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="J22" s="20"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="R22" s="20"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="67" t="s">
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="142" t="s">
         <v>91</v>
       </c>
-      <c r="U22" s="70" t="s">
-        <v>211</v>
-      </c>
-      <c r="V22" s="104" t="s">
-        <v>82</v>
-      </c>
-      <c r="W22" s="68">
+      <c r="J22" s="118"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="110"/>
+      <c r="O22" s="110"/>
+      <c r="P22" s="110"/>
+      <c r="Q22" s="117" t="s">
+        <v>67</v>
+      </c>
+      <c r="R22" s="118"/>
+      <c r="S22" s="111"/>
+      <c r="T22" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="U22" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="V22" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="W22" s="50">
         <f>CharacterSheet!I19</f>
         <v>20</v>
       </c>
-      <c r="X22" s="65"/>
       <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
-    </row>
-    <row r="23" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A23" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="B23" s="39">
+      <c r="Z22" s="110"/>
+      <c r="AA22" s="110"/>
+      <c r="AB22" s="110"/>
+      <c r="AC22" s="110"/>
+      <c r="AD22" s="110"/>
+      <c r="AE22" s="110"/>
+    </row>
+    <row r="23" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="169" t="s">
+        <v>219</v>
+      </c>
+      <c r="B23" s="169">
         <f>CharacterSheet!B22</f>
         <v>69</v>
       </c>
-      <c r="C23" s="44">
+      <c r="C23" s="138">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D23" s="139">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="E23" s="15" t="str">
+      <c r="E23" s="110" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="R23" s="23"/>
-      <c r="S23" s="76"/>
-      <c r="T23" s="142" t="s">
-        <v>94</v>
-      </c>
-      <c r="U23" s="143"/>
-      <c r="V23" s="143"/>
-      <c r="W23" s="144"/>
-      <c r="X23" s="7"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="118"/>
+      <c r="N23" s="110"/>
+      <c r="O23" s="110"/>
+      <c r="P23" s="110"/>
+      <c r="Q23" s="119" t="s">
+        <v>73</v>
+      </c>
+      <c r="R23" s="120"/>
+      <c r="S23" s="112"/>
+      <c r="T23" s="185" t="s">
+        <v>92</v>
+      </c>
+      <c r="U23" s="186"/>
+      <c r="V23" s="186"/>
+      <c r="W23" s="187"/>
       <c r="Y23" s="15"/>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="15"/>
-    </row>
-    <row r="24" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="E24" s="15" t="str">
+      <c r="Z23" s="110"/>
+      <c r="AA23" s="110"/>
+      <c r="AB23" s="110"/>
+      <c r="AC23" s="110"/>
+      <c r="AD23" s="110"/>
+      <c r="AE23" s="110"/>
+    </row>
+    <row r="24" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="143"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110" t="str">
         <f>IF(D20=0,"Verkrüppelt",IF(D20&lt;=B20*0.2,"Verstümmelt",""))</f>
         <v/>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="U24" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="V24" s="105"/>
-      <c r="W24" s="64">
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="117"/>
+      <c r="M24" s="118"/>
+      <c r="N24" s="110"/>
+      <c r="O24" s="110"/>
+      <c r="P24" s="110"/>
+      <c r="Q24" s="110"/>
+      <c r="R24" s="110"/>
+      <c r="S24" s="111"/>
+      <c r="T24" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="U24" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="V24" s="85"/>
+      <c r="W24" s="46">
         <f>CharacterSheet!I20</f>
         <v>20</v>
       </c>
-      <c r="X24" s="65"/>
       <c r="Y24" s="15"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="15"/>
-    </row>
-    <row r="25" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="124" t="s">
-        <v>247</v>
-      </c>
-      <c r="B25" s="125" t="s">
-        <v>248</v>
-      </c>
-      <c r="C25" s="125" t="s">
+      <c r="Z24" s="110"/>
+      <c r="AA24" s="110"/>
+      <c r="AB24" s="110"/>
+      <c r="AC24" s="110"/>
+      <c r="AD24" s="110"/>
+      <c r="AE24" s="110"/>
+    </row>
+    <row r="25" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="170" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" s="144" t="s">
+        <v>223</v>
+      </c>
+      <c r="C25" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="126" t="s">
-        <v>285</v>
-      </c>
-      <c r="E25" s="15" t="str">
+      <c r="D25" s="145" t="s">
+        <v>260</v>
+      </c>
+      <c r="E25" s="110" t="str">
         <f>IF(D21=0,"Verkrüppelt",IF(D21&lt;=B21*0.2,"Verstümmelt",""))</f>
         <v/>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="55"/>
-      <c r="T25" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="U25" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="V25" s="104"/>
-      <c r="W25" s="68">
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="118"/>
+      <c r="N25" s="110"/>
+      <c r="O25" s="110"/>
+      <c r="P25" s="110"/>
+      <c r="Q25" s="110"/>
+      <c r="R25" s="110"/>
+      <c r="S25" s="111"/>
+      <c r="T25" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="U25" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" s="84"/>
+      <c r="W25" s="50">
         <f>CharacterSheet!I21</f>
         <v>28</v>
       </c>
-      <c r="X25" s="65"/>
       <c r="Y25" s="15"/>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="15"/>
-      <c r="AB25" s="15"/>
-      <c r="AC25" s="15"/>
-    </row>
-    <row r="26" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="123" t="s">
+      <c r="Z25" s="110"/>
+      <c r="AA25" s="110"/>
+      <c r="AB25" s="110"/>
+      <c r="AC25" s="110"/>
+      <c r="AD25" s="110"/>
+      <c r="AE25" s="110"/>
+    </row>
+    <row r="26" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="171" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="123" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="123">
+      <c r="C26" s="146">
         <v>10</v>
       </c>
-      <c r="D26" s="123">
+      <c r="D26" s="146">
         <v>1</v>
       </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="76"/>
-      <c r="T26" s="142" t="s">
-        <v>99</v>
-      </c>
-      <c r="U26" s="143"/>
-      <c r="V26" s="143"/>
-      <c r="W26" s="144"/>
-      <c r="X26" s="7"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="119"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="119"/>
+      <c r="M26" s="120"/>
+      <c r="N26" s="110"/>
+      <c r="O26" s="110"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="110"/>
+      <c r="R26" s="110"/>
+      <c r="S26" s="112"/>
+      <c r="T26" s="185" t="s">
+        <v>97</v>
+      </c>
+      <c r="U26" s="186"/>
+      <c r="V26" s="186"/>
+      <c r="W26" s="187"/>
       <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="15"/>
-    </row>
-    <row r="27" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="122" t="s">
+      <c r="Z26" s="110"/>
+      <c r="AA26" s="110"/>
+      <c r="AB26" s="110"/>
+      <c r="AC26" s="110"/>
+      <c r="AD26" s="110"/>
+      <c r="AE26" s="110"/>
+    </row>
+    <row r="27" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="172" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="122" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="122">
+      <c r="C27" s="147">
         <v>5</v>
       </c>
-      <c r="D27" s="122">
+      <c r="D27" s="147">
         <v>1</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="55"/>
-      <c r="T27" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="U27" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="V27" s="73"/>
-      <c r="W27" s="64">
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="110"/>
+      <c r="N27" s="110"/>
+      <c r="O27" s="110"/>
+      <c r="P27" s="110"/>
+      <c r="Q27" s="110"/>
+      <c r="R27" s="110"/>
+      <c r="S27" s="111"/>
+      <c r="T27" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="U27" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="V27" s="55"/>
+      <c r="W27" s="46">
         <f>CharacterSheet!I22</f>
         <v>20</v>
       </c>
-      <c r="X27" s="65"/>
       <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="15"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="15"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="122" t="s">
+      <c r="Z27" s="110"/>
+      <c r="AA27" s="110"/>
+      <c r="AB27" s="110"/>
+      <c r="AC27" s="110"/>
+      <c r="AD27" s="110"/>
+      <c r="AE27" s="110"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A28" s="172" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="122" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="122">
+      <c r="C28" s="147">
         <v>7</v>
       </c>
-      <c r="D28" s="122">
+      <c r="D28" s="147">
         <v>1</v>
       </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="150" t="s">
-        <v>279</v>
-      </c>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="152"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="U28" s="50" t="s">
-        <v>88</v>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="194" t="s">
+        <v>254</v>
+      </c>
+      <c r="J28" s="195"/>
+      <c r="K28" s="195"/>
+      <c r="L28" s="195"/>
+      <c r="M28" s="196"/>
+      <c r="N28" s="110"/>
+      <c r="O28" s="110"/>
+      <c r="P28" s="110"/>
+      <c r="Q28" s="110"/>
+      <c r="R28" s="110"/>
+      <c r="S28" s="111"/>
+      <c r="T28" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="U28" s="37" t="s">
+        <v>86</v>
       </c>
       <c r="V28" s="14"/>
-      <c r="W28" s="66">
+      <c r="W28" s="48">
         <f>CharacterSheet!I23</f>
         <v>20</v>
       </c>
-      <c r="X28" s="62"/>
       <c r="Y28" s="15"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="15"/>
-      <c r="AB28" s="15"/>
-      <c r="AC28" s="15"/>
-    </row>
-    <row r="29" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A29" s="122" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="122"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="122"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="128"/>
-      <c r="I29" s="139" t="s">
-        <v>311</v>
-      </c>
-      <c r="J29" s="140"/>
-      <c r="K29" s="140"/>
-      <c r="L29" s="140"/>
-      <c r="M29" s="141"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="55"/>
-      <c r="T29" s="67" t="s">
-        <v>102</v>
-      </c>
-      <c r="U29" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="V29" s="60" t="s">
-        <v>231</v>
-      </c>
-      <c r="W29" s="68">
+      <c r="Z28" s="110"/>
+      <c r="AA28" s="110"/>
+      <c r="AB28" s="110"/>
+      <c r="AC28" s="110"/>
+      <c r="AD28" s="110"/>
+      <c r="AE28" s="110"/>
+    </row>
+    <row r="29" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="172" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="147"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="182" t="s">
+        <v>286</v>
+      </c>
+      <c r="J29" s="183"/>
+      <c r="K29" s="183"/>
+      <c r="L29" s="183"/>
+      <c r="M29" s="184"/>
+      <c r="N29" s="110"/>
+      <c r="O29" s="110"/>
+      <c r="P29" s="110"/>
+      <c r="Q29" s="110"/>
+      <c r="R29" s="110"/>
+      <c r="S29" s="111"/>
+      <c r="T29" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="U29" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="V29" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="W29" s="50">
         <f>CharacterSheet!I24</f>
         <v>20</v>
       </c>
-      <c r="X29" s="65"/>
       <c r="Y29" s="15"/>
-      <c r="Z29" s="15"/>
-      <c r="AA29" s="15"/>
-      <c r="AB29" s="15"/>
-      <c r="AC29" s="15"/>
-    </row>
-    <row r="30" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A30" s="122" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="122" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="122">
+      <c r="Z29" s="110"/>
+      <c r="AA29" s="110"/>
+      <c r="AB29" s="110"/>
+      <c r="AC29" s="110"/>
+      <c r="AD29" s="110"/>
+      <c r="AE29" s="110"/>
+    </row>
+    <row r="30" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="172" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="147" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="147">
         <v>7</v>
       </c>
-      <c r="D30" s="122">
+      <c r="D30" s="147">
         <v>1</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="128"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="128"/>
-      <c r="K30" s="128"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="76"/>
-      <c r="T30" s="142" t="s">
-        <v>103</v>
-      </c>
-      <c r="U30" s="143"/>
-      <c r="V30" s="143"/>
-      <c r="W30" s="144"/>
-      <c r="X30" s="7"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="110"/>
+      <c r="N30" s="110"/>
+      <c r="O30" s="110"/>
+      <c r="P30" s="110"/>
+      <c r="Q30" s="110"/>
+      <c r="R30" s="110"/>
+      <c r="S30" s="112"/>
+      <c r="T30" s="185" t="s">
+        <v>101</v>
+      </c>
+      <c r="U30" s="186"/>
+      <c r="V30" s="186"/>
+      <c r="W30" s="187"/>
       <c r="Y30" s="15"/>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="15"/>
-      <c r="AB30" s="15"/>
-      <c r="AC30" s="15"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="121"/>
-      <c r="B31" s="121"/>
-      <c r="C31" s="121"/>
-      <c r="D31" s="121"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="55"/>
-      <c r="T31" s="63" t="s">
-        <v>104</v>
-      </c>
-      <c r="U31" s="74" t="s">
-        <v>231</v>
-      </c>
-      <c r="V31" s="74"/>
-      <c r="W31" s="64">
+      <c r="Z30" s="110"/>
+      <c r="AA30" s="110"/>
+      <c r="AB30" s="110"/>
+      <c r="AC30" s="110"/>
+      <c r="AD30" s="110"/>
+      <c r="AE30" s="110"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A31" s="149"/>
+      <c r="B31" s="149"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="110"/>
+      <c r="M31" s="110"/>
+      <c r="N31" s="110"/>
+      <c r="O31" s="110"/>
+      <c r="P31" s="110"/>
+      <c r="Q31" s="110"/>
+      <c r="R31" s="110"/>
+      <c r="S31" s="111"/>
+      <c r="T31" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="U31" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="V31" s="56"/>
+      <c r="W31" s="46">
         <f>CharacterSheet!I25</f>
         <v>20</v>
       </c>
-      <c r="X31" s="62"/>
       <c r="Y31" s="15"/>
-      <c r="Z31" s="15"/>
-      <c r="AA31" s="15"/>
-      <c r="AB31" s="15"/>
-      <c r="AC31" s="15"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="121"/>
-      <c r="B32" s="121"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="55"/>
-      <c r="T32" s="65" t="s">
-        <v>219</v>
-      </c>
-      <c r="U32" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="V32" s="51"/>
-      <c r="W32" s="66">
+      <c r="Z31" s="110"/>
+      <c r="AA31" s="110"/>
+      <c r="AB31" s="110"/>
+      <c r="AC31" s="110"/>
+      <c r="AD31" s="110"/>
+      <c r="AE31" s="110"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A32" s="149"/>
+      <c r="B32" s="149"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="110"/>
+      <c r="M32" s="110"/>
+      <c r="N32" s="110"/>
+      <c r="O32" s="110"/>
+      <c r="P32" s="110"/>
+      <c r="Q32" s="110"/>
+      <c r="R32" s="110"/>
+      <c r="S32" s="111"/>
+      <c r="T32" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="U32" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="V32" s="38"/>
+      <c r="W32" s="48">
         <f>CharacterSheet!I26</f>
         <v>20</v>
       </c>
-      <c r="X32" s="62"/>
       <c r="Y32" s="15"/>
-      <c r="Z32" s="15"/>
-      <c r="AA32" s="15"/>
-      <c r="AB32" s="15"/>
-      <c r="AC32" s="15"/>
-    </row>
-    <row r="33" spans="1:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="121"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="55"/>
-      <c r="T33" s="67" t="s">
-        <v>105</v>
-      </c>
-      <c r="U33" s="75" t="s">
-        <v>231</v>
-      </c>
-      <c r="V33" s="75"/>
-      <c r="W33" s="68">
+      <c r="Z32" s="110"/>
+      <c r="AA32" s="110"/>
+      <c r="AB32" s="110"/>
+      <c r="AC32" s="110"/>
+      <c r="AD32" s="110"/>
+      <c r="AE32" s="110"/>
+    </row>
+    <row r="33" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="149"/>
+      <c r="B33" s="149"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="110"/>
+      <c r="L33" s="110"/>
+      <c r="M33" s="110"/>
+      <c r="N33" s="110"/>
+      <c r="O33" s="110"/>
+      <c r="P33" s="110"/>
+      <c r="Q33" s="110"/>
+      <c r="R33" s="110"/>
+      <c r="S33" s="111"/>
+      <c r="T33" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="U33" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="V33" s="57"/>
+      <c r="W33" s="50">
         <f>CharacterSheet!I27</f>
         <v>35</v>
       </c>
-      <c r="X33" s="62"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="121"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
+      <c r="Z33" s="110"/>
+      <c r="AA33" s="110"/>
+      <c r="AB33" s="110"/>
+      <c r="AC33" s="110"/>
+      <c r="AD33" s="110"/>
+      <c r="AE33" s="110"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A34" s="99"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="Z34" s="110"/>
+      <c r="AA34" s="110"/>
+      <c r="AB34" s="110"/>
+      <c r="AC34" s="110"/>
+      <c r="AD34" s="110"/>
+      <c r="AE34" s="110"/>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z35" s="110"/>
+      <c r="AA35" s="110"/>
+      <c r="AB35" s="110"/>
+      <c r="AC35" s="110"/>
+      <c r="AD35" s="110"/>
+      <c r="AE35" s="110"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z36" s="110"/>
+      <c r="AA36" s="110"/>
+      <c r="AB36" s="110"/>
+      <c r="AC36" s="110"/>
+      <c r="AD36" s="110"/>
+      <c r="AE36" s="110"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z37" s="110"/>
+      <c r="AA37" s="110"/>
+      <c r="AB37" s="110"/>
+      <c r="AC37" s="110"/>
+      <c r="AD37" s="110"/>
+      <c r="AE37" s="110"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z38" s="110"/>
+      <c r="AA38" s="110"/>
+      <c r="AB38" s="110"/>
+      <c r="AC38" s="110"/>
+      <c r="AD38" s="110"/>
+      <c r="AE38" s="110"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z39" s="110"/>
+      <c r="AA39" s="110"/>
+      <c r="AB39" s="110"/>
+      <c r="AC39" s="110"/>
+      <c r="AD39" s="110"/>
+      <c r="AE39" s="110"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z40" s="110"/>
+      <c r="AA40" s="110"/>
+      <c r="AB40" s="110"/>
+      <c r="AC40" s="110"/>
+      <c r="AD40" s="110"/>
+      <c r="AE40" s="110"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z41" s="110"/>
+      <c r="AA41" s="110"/>
+      <c r="AB41" s="110"/>
+      <c r="AC41" s="110"/>
+      <c r="AD41" s="110"/>
+      <c r="AE41" s="110"/>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z42" s="110"/>
+      <c r="AA42" s="110"/>
+      <c r="AB42" s="110"/>
+      <c r="AC42" s="110"/>
+      <c r="AD42" s="110"/>
+      <c r="AE42" s="110"/>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z43" s="110"/>
+      <c r="AA43" s="110"/>
+      <c r="AB43" s="110"/>
+      <c r="AC43" s="110"/>
+      <c r="AD43" s="110"/>
+      <c r="AE43" s="110"/>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z44" s="110"/>
+      <c r="AA44" s="110"/>
+      <c r="AB44" s="110"/>
+      <c r="AC44" s="110"/>
+      <c r="AD44" s="110"/>
+      <c r="AE44" s="110"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z45" s="110"/>
+      <c r="AA45" s="110"/>
+      <c r="AB45" s="110"/>
+      <c r="AC45" s="110"/>
+      <c r="AD45" s="110"/>
+      <c r="AE45" s="110"/>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z46" s="110"/>
+      <c r="AA46" s="110"/>
+      <c r="AB46" s="110"/>
+      <c r="AC46" s="110"/>
+      <c r="AD46" s="110"/>
+      <c r="AE46" s="110"/>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z47" s="110"/>
+      <c r="AA47" s="110"/>
+      <c r="AB47" s="110"/>
+      <c r="AC47" s="110"/>
+      <c r="AD47" s="110"/>
+      <c r="AE47" s="110"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z48" s="110"/>
+      <c r="AA48" s="110"/>
+      <c r="AB48" s="110"/>
+      <c r="AC48" s="110"/>
+      <c r="AD48" s="110"/>
+      <c r="AE48" s="110"/>
+    </row>
+    <row r="49" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z49" s="110"/>
+      <c r="AA49" s="110"/>
+      <c r="AB49" s="110"/>
+      <c r="AC49" s="110"/>
+      <c r="AD49" s="110"/>
+      <c r="AE49" s="110"/>
+    </row>
+    <row r="50" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z50" s="110"/>
+      <c r="AA50" s="110"/>
+      <c r="AB50" s="110"/>
+      <c r="AC50" s="110"/>
+      <c r="AD50" s="110"/>
+      <c r="AE50" s="110"/>
+    </row>
+    <row r="51" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z51" s="110"/>
+      <c r="AA51" s="110"/>
+      <c r="AB51" s="110"/>
+      <c r="AC51" s="110"/>
+      <c r="AD51" s="110"/>
+      <c r="AE51" s="110"/>
+    </row>
+    <row r="52" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z52" s="110"/>
+      <c r="AA52" s="110"/>
+      <c r="AB52" s="110"/>
+      <c r="AC52" s="110"/>
+      <c r="AD52" s="110"/>
+      <c r="AE52" s="110"/>
+    </row>
+    <row r="53" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z53" s="110"/>
+      <c r="AA53" s="110"/>
+      <c r="AB53" s="110"/>
+      <c r="AC53" s="110"/>
+      <c r="AD53" s="110"/>
+      <c r="AE53" s="110"/>
+    </row>
+    <row r="54" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z54" s="110"/>
+      <c r="AA54" s="110"/>
+      <c r="AB54" s="110"/>
+      <c r="AC54" s="110"/>
+      <c r="AD54" s="110"/>
+      <c r="AE54" s="110"/>
+    </row>
+    <row r="55" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z55" s="110"/>
+      <c r="AA55" s="110"/>
+      <c r="AB55" s="110"/>
+      <c r="AC55" s="110"/>
+      <c r="AD55" s="110"/>
+      <c r="AE55" s="110"/>
+    </row>
+    <row r="56" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z56" s="110"/>
+      <c r="AA56" s="110"/>
+      <c r="AB56" s="110"/>
+      <c r="AC56" s="110"/>
+      <c r="AD56" s="110"/>
+      <c r="AE56" s="110"/>
+    </row>
+    <row r="57" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z57" s="110"/>
+      <c r="AA57" s="110"/>
+      <c r="AB57" s="110"/>
+      <c r="AC57" s="110"/>
+      <c r="AD57" s="110"/>
+      <c r="AE57" s="110"/>
+    </row>
+    <row r="58" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z58" s="110"/>
+      <c r="AA58" s="110"/>
+      <c r="AB58" s="110"/>
+      <c r="AC58" s="110"/>
+      <c r="AD58" s="110"/>
+      <c r="AE58" s="110"/>
+    </row>
+    <row r="59" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z59" s="110"/>
+      <c r="AA59" s="110"/>
+      <c r="AB59" s="110"/>
+      <c r="AC59" s="110"/>
+      <c r="AD59" s="110"/>
+      <c r="AE59" s="110"/>
+    </row>
+    <row r="60" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z60" s="110"/>
+      <c r="AA60" s="110"/>
+      <c r="AB60" s="110"/>
+      <c r="AC60" s="110"/>
+      <c r="AD60" s="110"/>
+      <c r="AE60" s="110"/>
+    </row>
+    <row r="61" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z61" s="110"/>
+      <c r="AA61" s="110"/>
+      <c r="AB61" s="110"/>
+      <c r="AC61" s="110"/>
+      <c r="AD61" s="110"/>
+      <c r="AE61" s="110"/>
+    </row>
+    <row r="62" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z62" s="110"/>
+      <c r="AA62" s="110"/>
+      <c r="AB62" s="110"/>
+      <c r="AC62" s="110"/>
+      <c r="AD62" s="110"/>
+      <c r="AE62" s="110"/>
+    </row>
+    <row r="63" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z63" s="110"/>
+      <c r="AA63" s="110"/>
+      <c r="AB63" s="110"/>
+      <c r="AC63" s="110"/>
+      <c r="AD63" s="110"/>
+      <c r="AE63" s="110"/>
+    </row>
+    <row r="64" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z64" s="110"/>
+      <c r="AA64" s="110"/>
+      <c r="AB64" s="110"/>
+      <c r="AC64" s="110"/>
+      <c r="AD64" s="110"/>
+      <c r="AE64" s="110"/>
+    </row>
+    <row r="65" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z65" s="110"/>
+      <c r="AA65" s="110"/>
+      <c r="AB65" s="110"/>
+      <c r="AC65" s="110"/>
+      <c r="AD65" s="110"/>
+      <c r="AE65" s="110"/>
+    </row>
+    <row r="66" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z66" s="110"/>
+      <c r="AA66" s="110"/>
+      <c r="AB66" s="110"/>
+      <c r="AC66" s="110"/>
+      <c r="AD66" s="110"/>
+      <c r="AE66" s="110"/>
+    </row>
+    <row r="67" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z67" s="110"/>
+      <c r="AA67" s="110"/>
+      <c r="AB67" s="110"/>
+      <c r="AC67" s="110"/>
+      <c r="AD67" s="110"/>
+      <c r="AE67" s="110"/>
+    </row>
+    <row r="68" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z68" s="110"/>
+      <c r="AA68" s="110"/>
+      <c r="AB68" s="110"/>
+      <c r="AC68" s="110"/>
+      <c r="AD68" s="110"/>
+      <c r="AE68" s="110"/>
+    </row>
+    <row r="69" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z69" s="110"/>
+      <c r="AA69" s="110"/>
+      <c r="AB69" s="110"/>
+      <c r="AC69" s="110"/>
+      <c r="AD69" s="110"/>
+      <c r="AE69" s="110"/>
+    </row>
+    <row r="70" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z70" s="110"/>
+      <c r="AA70" s="110"/>
+      <c r="AB70" s="110"/>
+      <c r="AC70" s="110"/>
+      <c r="AD70" s="110"/>
+      <c r="AE70" s="110"/>
+    </row>
+    <row r="71" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z71" s="110"/>
+      <c r="AA71" s="110"/>
+      <c r="AB71" s="110"/>
+      <c r="AC71" s="110"/>
+      <c r="AD71" s="110"/>
+      <c r="AE71" s="110"/>
+    </row>
+    <row r="72" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z72" s="110"/>
+      <c r="AA72" s="110"/>
+      <c r="AB72" s="110"/>
+      <c r="AC72" s="110"/>
+      <c r="AD72" s="110"/>
+      <c r="AE72" s="110"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="J2:L2"/>
@@ -6026,35 +6499,94 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A1E1B24B-B73F-4697-BC8A-5BF3BF7F2CAB}">
+          <x14:formula1>
+            <xm:f>DatenExelintern!$A$2:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B8:B12</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76877D7D-C28B-49C4-AA36-E564794A89D6}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3873B7C-30AB-4500-9500-D99D9D1729B3}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.68359375" customWidth="1"/>
-    <col min="3" max="3" width="11.83984375" customWidth="1"/>
-    <col min="5" max="5" width="6.578125" customWidth="1"/>
-    <col min="6" max="6" width="6.68359375" customWidth="1"/>
+    <col min="1" max="1" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+    <col min="5" max="5" width="6.54296875" customWidth="1"/>
+    <col min="6" max="6" width="6.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="15">
         <v>30000</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E1" s="15">
         <f>13490-E2+E3</f>
@@ -6065,65 +6597,65 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B2" s="15">
         <f>SUM(B7:B703)</f>
         <v>27510</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E2" s="15">
         <f>200</f>
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="15">
         <f>B1-B2</f>
         <v>2490</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E3" s="15">
         <f>15000</f>
         <v>15000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="5" spans="1:9" s="15" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="31" t="s">
+    <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:9" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="31" t="s">
+    </row>
+    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
         <v>112</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="15" t="s">
-        <v>114</v>
       </c>
       <c r="B7" s="15">
         <v>5000</v>
@@ -6138,9 +6670,9 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B8" s="15">
         <v>2250</v>
@@ -6151,15 +6683,15 @@
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B9" s="15">
         <v>3000</v>
@@ -6176,9 +6708,9 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="15">
         <f>E10*1000</f>
@@ -6191,53 +6723,53 @@
         <f>0.5*E10</f>
         <v>1</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="30">
         <v>2</v>
       </c>
-      <c r="F10" s="33" t="s">
-        <v>118</v>
+      <c r="F10" s="29" t="s">
+        <v>116</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" s="15" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="31" t="s">
+    <row r="14" spans="1:9" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="31" t="s">
-        <v>113</v>
+      <c r="F14" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B15" s="15">
         <v>2000</v>
@@ -6250,15 +6782,15 @@
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="100" t="s">
-        <v>120</v>
+      <c r="G15" s="80" t="s">
+        <v>118</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B16" s="15">
         <v>2000</v>
@@ -6270,7 +6802,7 @@
         <v>1.25</v>
       </c>
       <c r="E16" s="15"/>
-      <c r="F16" s="29"/>
+      <c r="F16" s="25"/>
       <c r="G16" s="7">
         <f>SUM(C15:C19)</f>
         <v>43.5</v>
@@ -6278,9 +6810,9 @@
       <c r="H16" s="7"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B17" s="15">
         <v>3000</v>
@@ -6297,9 +6829,9 @@
       <c r="H17" s="7"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B18" s="15">
         <v>3000</v>
@@ -6311,16 +6843,16 @@
         <v>3</v>
       </c>
       <c r="E18" s="15"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30" t="s">
-        <v>125</v>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26" t="s">
+        <v>123</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B19" s="15">
         <v>3000</v>
@@ -6340,7 +6872,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -6351,20 +6883,20 @@
       <c r="H20" s="7"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30" t="s">
-        <v>127</v>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26" t="s">
+        <v>125</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -6381,7 +6913,7 @@
       </c>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -6392,7 +6924,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -6403,7 +6935,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -6414,30 +6946,30 @@
       <c r="H25" s="7"/>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="31" t="s">
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="31" t="s">
-        <v>113</v>
+      <c r="F26" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -6445,16 +6977,16 @@
       <c r="H27" s="7"/>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B28" s="15">
         <f>200*E28</f>
         <v>400</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D28" s="15">
         <f>0.5*E28</f>
@@ -6468,16 +7000,16 @@
       <c r="H28" s="7"/>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B29" s="15">
         <f>420*E29</f>
         <v>1260</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D29" s="15">
         <f>0.5*E29</f>
@@ -6491,7 +7023,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -6502,32 +7034,32 @@
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
     </row>
-    <row r="32" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="31" t="s">
+    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="31" t="s">
-        <v>113</v>
+      <c r="F32" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B33" s="15">
         <v>100</v>
@@ -6537,9 +7069,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B34" s="15">
         <v>500</v>
@@ -6555,265 +7087,112 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DC7A07-5BA1-48E5-9BF5-5D6824B8082D}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.15625" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="15">
-        <v>300</v>
-      </c>
-      <c r="C2" s="15">
-        <v>5</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="E2" s="15">
-        <v>3</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="G2" s="15">
-        <v>4</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="I2" s="15">
-        <v>1</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="K2" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" s="15">
-        <v>200</v>
-      </c>
-      <c r="C3" s="15">
-        <v>7</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="15">
-        <v>5</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="G3" s="15">
-        <v>3</v>
-      </c>
-      <c r="H3" s="15">
-        <v>0</v>
-      </c>
-      <c r="I3" s="15">
-        <v>0</v>
-      </c>
-      <c r="J3" s="15">
-        <v>0</v>
-      </c>
-      <c r="K3" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" s="15">
-        <v>50</v>
-      </c>
-      <c r="C4" s="15">
-        <v>10</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="15">
-        <v>2</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G4" s="15">
-        <v>1</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="I4" s="15">
-        <v>3</v>
-      </c>
-      <c r="J4" s="15">
-        <v>0</v>
-      </c>
-      <c r="K4" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="15">
-        <v>50</v>
-      </c>
-      <c r="C5" s="15">
-        <v>10</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" s="15">
-        <v>2</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="G5" s="15">
-        <v>2</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="I5" s="15">
-        <v>1</v>
-      </c>
-      <c r="J5" s="15">
-        <v>0</v>
-      </c>
-      <c r="K5" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="B6" s="15">
-        <v>50</v>
-      </c>
-      <c r="C6" s="15">
-        <v>10</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="15">
-        <v>2</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="G6" s="15">
-        <v>4</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="I6" s="15">
-        <v>4</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="K6" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="15">
-        <v>50</v>
-      </c>
-      <c r="C7" s="15">
-        <v>10</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="15">
-        <v>2</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G7" s="15">
-        <v>1</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="I7" s="15">
-        <v>3</v>
-      </c>
-      <c r="J7" s="15">
-        <v>0</v>
-      </c>
-      <c r="K7" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="179"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="179"/>
+      <c r="H1" s="179"/>
+      <c r="I1" s="179"/>
+      <c r="J1" s="179"/>
+      <c r="K1" s="179"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -6826,7 +7205,7 @@
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -6844,73 +7223,74 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE86972-147E-4E91-B657-780DABB21689}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="131" t="s">
-        <v>299</v>
-      </c>
-      <c r="B1" s="132" t="s">
-        <v>300</v>
-      </c>
-      <c r="C1" s="118" t="s">
-        <v>301</v>
-      </c>
-      <c r="D1" s="119" t="s">
-        <v>302</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>303</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="120" t="s">
-        <v>312</v>
-      </c>
-      <c r="J1" s="135" t="s">
-        <v>112</v>
-      </c>
-      <c r="K1" s="135" t="s">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="101" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="96" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="97" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="98" t="s">
+        <v>287</v>
+      </c>
+      <c r="J1" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="135" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="135" t="s">
+      <c r="L1" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="135" t="s">
-        <v>113</v>
+      <c r="N1" s="105" t="s">
+        <v>111</v>
       </c>
       <c r="O1" s="15"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="133" t="s">
-        <v>90</v>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="103" t="s">
+        <v>88</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="16" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="D2" s="18">
         <v>1</v>
       </c>
-      <c r="E2" s="150"/>
+      <c r="E2" s="197"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
-      <c r="I2" s="136"/>
+      <c r="I2" s="106"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
@@ -6918,58 +7298,58 @@
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
     </row>
-    <row r="3" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="134" t="s">
-        <v>92</v>
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="104" t="s">
+        <v>90</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="19" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="D3" s="20">
         <v>0</v>
       </c>
-      <c r="E3" s="153"/>
+      <c r="E3" s="198"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="I3" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K3" s="22" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M3" s="22" t="s">
         <v>3</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O3" s="15"/>
     </row>
-    <row r="4" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="134" t="s">
-        <v>235</v>
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="104" t="s">
+        <v>210</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="19" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="D4" s="20">
         <v>1</v>
       </c>
-      <c r="E4" s="31" t="s">
-        <v>308</v>
+      <c r="E4" s="27" t="s">
+        <v>283</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="I4" s="15" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="J4" s="15">
         <v>22500</v>
@@ -6983,23 +7363,23 @@
       <c r="M4" s="15">
         <v>1</v>
       </c>
-      <c r="N4" s="137" t="s">
-        <v>314</v>
-      </c>
-      <c r="O4" s="137"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="134" t="s">
-        <v>236</v>
+      <c r="N4" s="107" t="s">
+        <v>289</v>
+      </c>
+      <c r="O4" s="107"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="104" t="s">
+        <v>211</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="19" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="D5" s="20">
         <v>0</v>
       </c>
-      <c r="E5" s="150"/>
+      <c r="E5" s="197"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="I5" s="15"/>
@@ -7010,45 +7390,45 @@
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
     </row>
-    <row r="6" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="134" t="s">
-        <v>239</v>
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="104" t="s">
+        <v>214</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="19"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="153"/>
+      <c r="E6" s="198"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="I6" s="22" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M6" s="22" t="s">
         <v>3</v>
       </c>
       <c r="N6" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O6" s="15"/>
     </row>
-    <row r="7" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="134" t="s">
-        <v>240</v>
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="104" t="s">
+        <v>215</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="19"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="31" t="s">
-        <v>310</v>
+      <c r="E7" s="27" t="s">
+        <v>285</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
@@ -7060,14 +7440,14 @@
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="134" t="s">
-        <v>237</v>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="104" t="s">
+        <v>212</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="19"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="150"/>
+      <c r="E8" s="197"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="I8" s="15"/>
@@ -7078,37 +7458,37 @@
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
     </row>
-    <row r="9" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="134" t="s">
-        <v>238</v>
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="104" t="s">
+        <v>213</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="19"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="153"/>
+      <c r="E9" s="198"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="I9" s="22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K9" s="22"/>
       <c r="L9" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M9" s="22" t="s">
         <v>3</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O9" s="15"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="134" t="s">
-        <v>263</v>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="104" t="s">
+        <v>238</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="19"/>
@@ -7124,9 +7504,9 @@
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="19"/>
@@ -7135,7 +7515,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="I11" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J11" s="15">
         <f>420*M11</f>
@@ -7150,13 +7530,13 @@
         <v>4</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="O11" s="15"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="19"/>
@@ -7165,7 +7545,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="I12" s="15" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="J12" s="15">
         <f>900*M12</f>
@@ -7180,13 +7560,13 @@
         <v>4</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="19"/>
@@ -7195,7 +7575,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="I13" s="15" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="J13" s="15">
         <f>420*M13</f>
@@ -7210,13 +7590,13 @@
         <v>4</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="19"/>
@@ -7225,7 +7605,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="I14" s="15" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="J14" s="15">
         <f>900*M14</f>
@@ -7240,13 +7620,13 @@
         <v>4</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="O14" s="15"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="19"/>
@@ -7255,7 +7635,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="I15" s="15" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="J15" s="15">
         <f>5000*M15</f>
@@ -7270,13 +7650,13 @@
         <v>2</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="O15" s="15"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="19"/>
@@ -7285,7 +7665,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="I16" s="15" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="J16" s="15">
         <f>5000*M16</f>
@@ -7300,13 +7680,13 @@
         <v>3</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="O16" s="15"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="19"/>
@@ -7315,7 +7695,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="I17" s="15" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="J17" s="15">
         <f>3000*M17</f>
@@ -7330,13 +7710,13 @@
         <v>1</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="O17" s="15"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="19"/>
@@ -7345,7 +7725,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="I18" s="15" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="J18" s="15">
         <f>2000*M18</f>
@@ -7359,14 +7739,14 @@
       <c r="M18" s="15">
         <v>2</v>
       </c>
-      <c r="N18" s="138" t="s">
-        <v>330</v>
+      <c r="N18" s="108" t="s">
+        <v>305</v>
       </c>
       <c r="O18" s="15"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="19" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="19"/>
@@ -7375,7 +7755,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="I19" s="15" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="J19" s="15">
         <v>4200</v>
@@ -7383,12 +7763,12 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
-      <c r="N19" s="138"/>
+      <c r="N19" s="108"/>
       <c r="O19" s="15"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="19" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="19"/>
@@ -7404,9 +7784,9 @@
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
     </row>
-    <row r="21" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="19" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="19"/>
@@ -7415,28 +7795,28 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="I21" s="22" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K21" s="22" t="s">
         <v>1</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M21" s="22" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O21" s="15"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="19" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="19"/>
@@ -7452,9 +7832,9 @@
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="19" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="19"/>
@@ -7463,7 +7843,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="I23" s="15" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="J23" s="15">
         <v>50</v>
@@ -7478,9 +7858,9 @@
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
     </row>
-    <row r="24" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="21" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="21"/>
@@ -7489,7 +7869,7 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="I24" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J24" s="15">
         <v>100</v>
@@ -7504,7 +7884,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -7513,7 +7893,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="I25" s="15" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="J25" s="15">
         <v>400</v>
@@ -7528,7 +7908,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -7537,7 +7917,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="I26" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J26" s="15">
         <v>500</v>
@@ -7552,7 +7932,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -7568,7 +7948,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -7584,7 +7964,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -7600,7 +7980,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -7616,7 +7996,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="15"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -7626,7 +8006,7 @@
       <c r="G31" s="15"/>
       <c r="O31" s="15"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -7636,7 +8016,7 @@
       <c r="G32" s="15"/>
       <c r="O32" s="15"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -7646,7 +8026,7 @@
       <c r="G33" s="15"/>
       <c r="O33" s="15"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -7656,7 +8036,7 @@
       <c r="G34" s="15"/>
       <c r="O34" s="15"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="O35" s="15"/>
     </row>
   </sheetData>
@@ -7669,64 +8049,65 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D94E68-96A6-4585-A3BB-4985596F1D86}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="7.41796875" customWidth="1"/>
-    <col min="3" max="3" width="3.26171875" customWidth="1"/>
-    <col min="4" max="4" width="2.83984375" customWidth="1"/>
-    <col min="5" max="5" width="19.578125" customWidth="1"/>
-    <col min="6" max="6" width="4.68359375" customWidth="1"/>
-    <col min="7" max="7" width="5.41796875" style="15" customWidth="1"/>
-    <col min="8" max="8" width="4.26171875" customWidth="1"/>
-    <col min="9" max="9" width="6.68359375" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="4.54296875" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" customWidth="1"/>
+    <col min="6" max="6" width="4.6328125" customWidth="1"/>
+    <col min="7" max="7" width="5.453125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="4.26953125" customWidth="1"/>
+    <col min="9" max="9" width="6.6328125" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="16.15625" customWidth="1"/>
+    <col min="11" max="11" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="E1" s="31" t="s">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="I1" s="31" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31" t="s">
-        <v>10</v>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27" t="s">
+        <v>9</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="N1" s="15"/>
       <c r="O1" s="15">
@@ -7735,11 +8116,11 @@
       </c>
       <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="91">
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="72">
         <v>12</v>
       </c>
       <c r="C2" s="15">
@@ -7748,44 +8129,44 @@
       <c r="D2" s="15">
         <v>10</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="G2" s="46" t="s">
         <v>22</v>
-      </c>
-      <c r="G2" s="64" t="s">
-        <v>23</v>
       </c>
       <c r="H2" s="17">
         <v>-9</v>
       </c>
-      <c r="I2" s="88">
+      <c r="I2" s="69">
         <v>29</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="15" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="L2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="N2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>74</v>
-      </c>
       <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="79">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="60">
         <v>12</v>
       </c>
       <c r="C3" s="15">
@@ -7794,27 +8175,27 @@
       <c r="D3" s="15">
         <v>10</v>
       </c>
-      <c r="E3" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="52" t="s">
+      <c r="E3" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="58" t="s">
         <v>22</v>
-      </c>
-      <c r="G3" s="77" t="s">
-        <v>23</v>
       </c>
       <c r="H3" s="7">
         <v>-10</v>
       </c>
-      <c r="I3" s="89">
+      <c r="I3" s="70">
         <v>30</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M3" s="15">
         <v>3</v>
@@ -7823,15 +8204,15 @@
         <v>5</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="92">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="73">
         <v>12</v>
       </c>
       <c r="C4" s="15">
@@ -7840,21 +8221,21 @@
       <c r="D4" s="15">
         <v>10</v>
       </c>
-      <c r="E4" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="77"/>
+      <c r="E4" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="58"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="89">
+      <c r="I4" s="70">
         <v>20</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M4" s="15">
         <v>4</v>
@@ -7863,68 +8244,68 @@
         <v>2</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="93">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="B5" s="74">
         <v>13</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15">
         <v>10</v>
       </c>
-      <c r="E5" s="65" t="s">
-        <v>36</v>
+      <c r="E5" s="47" t="s">
+        <v>34</v>
       </c>
       <c r="F5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="48" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="66" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>-10</v>
       </c>
-      <c r="I5" s="89">
+      <c r="I5" s="70">
         <v>30</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="84">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="65">
         <v>10</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15">
         <v>10</v>
       </c>
-      <c r="E6" s="65" t="s">
-        <v>208</v>
+      <c r="E6" s="47" t="s">
+        <v>183</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" s="84" t="s">
-        <v>231</v>
+        <v>86</v>
+      </c>
+      <c r="G6" s="65" t="s">
+        <v>206</v>
       </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="89">
+      <c r="I6" s="70">
         <v>20</v>
       </c>
       <c r="J6" s="15"/>
@@ -7935,11 +8316,11 @@
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
     </row>
-    <row r="7" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="65" t="s">
-        <v>249</v>
-      </c>
-      <c r="B7" s="86">
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" s="67">
         <v>12</v>
       </c>
       <c r="C7" s="15">
@@ -7948,17 +8329,17 @@
       <c r="D7" s="15">
         <v>10</v>
       </c>
-      <c r="E7" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="66" t="s">
-        <v>38</v>
+      <c r="E7" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>36</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="89">
+      <c r="I7" s="70">
         <v>20</v>
       </c>
       <c r="J7" s="15"/>
@@ -7969,11 +8350,11 @@
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
     </row>
-    <row r="8" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="95">
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="75">
         <v>5</v>
       </c>
       <c r="C8" s="15">
@@ -7982,22 +8363,22 @@
       <c r="D8" s="15">
         <v>10</v>
       </c>
-      <c r="E8" s="65" t="s">
-        <v>43</v>
+      <c r="E8" s="47" t="s">
+        <v>41</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="66" t="s">
-        <v>38</v>
+        <v>21</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>36</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="89">
+      <c r="I8" s="70">
         <v>20</v>
       </c>
       <c r="J8" s="15"/>
-      <c r="K8" s="110" t="s">
-        <v>11</v>
+      <c r="K8" s="89" t="s">
+        <v>10</v>
       </c>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
@@ -8005,29 +8386,29 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
     </row>
-    <row r="9" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="65" t="s">
-        <v>209</v>
-      </c>
-      <c r="B9" s="95">
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="75">
         <v>5</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="78"/>
+      <c r="E9" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="59"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="90">
+      <c r="I9" s="71">
         <v>20</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
@@ -8035,32 +8416,32 @@
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="102">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="82">
         <f>ROUND((B8+B5+B7+B9)/2,0)</f>
         <v>18</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="64" t="s">
-        <v>38</v>
+      <c r="E10" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>36</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="88">
+      <c r="I10" s="69">
         <v>20</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
@@ -8068,30 +8449,30 @@
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
     </row>
-    <row r="11" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="101">
+    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="81">
         <f>B5-Inventar!H22</f>
         <v>10</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="79"/>
+      <c r="E11" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="60"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="89">
+      <c r="I11" s="70">
         <v>24</v>
       </c>
       <c r="J11" s="15"/>
       <c r="K11" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
@@ -8099,20 +8480,20 @@
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="79"/>
+      <c r="E12" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="60"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="89">
+      <c r="I12" s="70">
         <v>20</v>
       </c>
       <c r="J12" s="15"/>
@@ -8123,22 +8504,26 @@
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
     </row>
-    <row r="13" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>261</v>
+      </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="68" t="s">
-        <v>231</v>
+      <c r="E13" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>206</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="90">
+      <c r="I13" s="71">
         <v>20</v>
       </c>
       <c r="J13" s="15"/>
@@ -8149,22 +8534,22 @@
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
     </row>
-    <row r="14" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
-      <c r="E14" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="69" t="s">
-        <v>67</v>
+      <c r="E14" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>65</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="88">
+      <c r="I14" s="69">
         <v>20</v>
       </c>
       <c r="J14" s="15"/>
@@ -8175,9 +8560,9 @@
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B15" s="3">
         <v>275</v>
@@ -8186,17 +8571,17 @@
         <v>-3</v>
       </c>
       <c r="D15" s="15"/>
-      <c r="E15" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="80"/>
+      <c r="E15" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="61"/>
       <c r="H15" s="7">
         <v>-15</v>
       </c>
-      <c r="I15" s="89">
+      <c r="I15" s="70">
         <v>35</v>
       </c>
       <c r="J15" s="15"/>
@@ -8207,24 +8592,24 @@
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
     </row>
-    <row r="16" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5">
         <v>12</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="80"/>
+      <c r="E16" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="61"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="89">
+      <c r="I16" s="70">
         <v>20</v>
       </c>
       <c r="J16" s="15"/>
@@ -8235,61 +8620,61 @@
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="40">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="35">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
         <v>55</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="65" t="s">
-        <v>80</v>
+      <c r="E17" s="47" t="s">
+        <v>78</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="G17" s="66" t="s">
-        <v>169</v>
+        <v>143</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>144</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="89">
+      <c r="I17" s="70">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="39">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="34">
         <f>ROUNDUP(CharacterSheet!$B$15*0.7,0)</f>
         <v>193</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="65" t="s">
-        <v>87</v>
+      <c r="E18" s="47" t="s">
+        <v>85</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="66" t="s">
-        <v>231</v>
+        <v>86</v>
+      </c>
+      <c r="G18" s="48" t="s">
+        <v>206</v>
       </c>
       <c r="H18" s="7">
         <v>-8</v>
       </c>
-      <c r="I18" s="89">
+      <c r="I18" s="70">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="B19" s="39">
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19" s="34">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
         <v>55</v>
       </c>
@@ -8297,27 +8682,27 @@
         <v>25</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="E19" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="70" t="s">
-        <v>211</v>
-      </c>
-      <c r="G19" s="81" t="s">
-        <v>169</v>
+        <v>145</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" s="62" t="s">
+        <v>144</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="90">
+      <c r="I19" s="71">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="B20" s="39">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="B20" s="34">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
         <v>55</v>
       </c>
@@ -8326,158 +8711,158 @@
         <v>0</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="82"/>
+        <v>84</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="63"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="88">
+      <c r="I20" s="69">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="B21" s="39">
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" s="34">
         <f>ROUNDUP(CharacterSheet!$B$15*0.25,0)</f>
         <v>69</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="81"/>
-      <c r="H21" s="37">
+      <c r="E21" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="62"/>
+      <c r="H21" s="32">
         <v>-8</v>
       </c>
-      <c r="I21" s="90">
+      <c r="I21" s="71">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="B22" s="39">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="B22" s="34">
         <f>ROUNDUP(CharacterSheet!$B$15*0.25,0)</f>
         <v>69</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="D22" s="15"/>
-      <c r="E22" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" s="83"/>
+      <c r="E22" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="64"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="88">
+      <c r="I22" s="69">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" s="84"/>
+      <c r="E23" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="65"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="89">
+      <c r="I23" s="70">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="67" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" s="68" t="s">
-        <v>231</v>
+      <c r="E24" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="50" t="s">
+        <v>206</v>
       </c>
       <c r="H24" s="7"/>
-      <c r="I24" s="90">
+      <c r="I24" s="71">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="63" t="s">
-        <v>104</v>
-      </c>
-      <c r="F25" s="74" t="s">
-        <v>231</v>
-      </c>
-      <c r="G25" s="85"/>
+      <c r="E25" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="G25" s="66"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="88">
+      <c r="I25" s="69">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
-      <c r="E26" s="65" t="s">
-        <v>219</v>
-      </c>
-      <c r="F26" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="G26" s="86"/>
+      <c r="E26" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="G26" s="67"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="89">
+      <c r="I26" s="70">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="67" t="s">
-        <v>105</v>
-      </c>
-      <c r="F27" s="75" t="s">
-        <v>231</v>
-      </c>
-      <c r="G27" s="87"/>
+      <c r="E27" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="G27" s="68"/>
       <c r="H27" s="22">
         <v>-15</v>
       </c>
-      <c r="I27" s="90">
+      <c r="I27" s="71">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -8487,7 +8872,7 @@
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -8891,32 +9276,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB29849-F989-443C-A326-7D0CBD1A3348}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M21" sqref="M21:M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="5.15625" customWidth="1"/>
-    <col min="9" max="9" width="7.41796875" customWidth="1"/>
-    <col min="11" max="11" width="12.83984375" customWidth="1"/>
-    <col min="12" max="12" width="8.83984375" customWidth="1"/>
-    <col min="13" max="13" width="8.41796875" customWidth="1"/>
-    <col min="15" max="15" width="3.578125" customWidth="1"/>
+    <col min="7" max="7" width="5.1796875" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" customWidth="1"/>
+    <col min="12" max="12" width="8.81640625" customWidth="1"/>
+    <col min="13" max="13" width="8.453125" customWidth="1"/>
+    <col min="15" max="15" width="3.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -8930,46 +9316,46 @@
       <c r="N1" s="15"/>
       <c r="O1" s="15"/>
     </row>
-    <row r="2" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
-      <c r="H2" s="111" t="s">
-        <v>175</v>
-      </c>
-      <c r="I2" s="112" t="s">
-        <v>176</v>
-      </c>
-      <c r="J2" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="K2" s="112" t="s">
-        <v>172</v>
-      </c>
-      <c r="L2" s="112" t="s">
-        <v>177</v>
-      </c>
-      <c r="M2" s="112" t="s">
-        <v>178</v>
-      </c>
-      <c r="N2" s="99" t="s">
-        <v>179</v>
-      </c>
-      <c r="O2" s="27"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="H2" s="90" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="K2" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="L2" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="M2" s="91" t="s">
+        <v>153</v>
+      </c>
+      <c r="N2" s="79" t="s">
+        <v>154</v>
+      </c>
+      <c r="O2" s="24"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -8986,16 +9372,16 @@
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="B4" s="15">
         <v>1</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="E4" s="15">
         <v>1</v>
@@ -9003,10 +9389,10 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="J4" s="15">
         <v>10</v>
@@ -9021,20 +9407,20 @@
         <v>0</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="O4" s="15"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="B5" s="15">
         <v>2</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="E5" s="15">
         <v>2</v>
@@ -9042,10 +9428,10 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="J5" s="15">
         <v>10</v>
@@ -9060,20 +9446,20 @@
         <v>2</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="O5" s="15"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="B6" s="15">
         <v>4</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="E6" s="15">
         <v>4</v>
@@ -9089,16 +9475,16 @@
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="B7" s="15">
         <v>6</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="E7" s="15">
         <v>6</v>
@@ -9114,16 +9500,16 @@
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="B8" s="15">
         <v>8</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="E8" s="15">
         <v>8</v>
@@ -9139,9 +9525,9 @@
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="B9" s="15">
         <v>10</v>
@@ -9160,7 +9546,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -9177,12 +9563,12 @@
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -9198,7 +9584,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
     </row>
-    <row r="12" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -9215,9 +9601,9 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="B13" s="15">
         <v>0.5</v>
@@ -9225,7 +9611,7 @@
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="16" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="15"/>
@@ -9238,9 +9624,9 @@
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="B14" s="15">
         <v>1</v>
@@ -9248,7 +9634,7 @@
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="19" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="F14" s="20">
         <v>4</v>
@@ -9263,9 +9649,9 @@
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="B15" s="15">
         <v>2</v>
@@ -9284,9 +9670,9 @@
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="B16" s="15">
         <v>4</v>
@@ -9294,10 +9680,10 @@
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="19" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -9309,9 +9695,9 @@
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="B17" s="15">
         <v>6</v>
@@ -9325,9 +9711,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="B18" s="15">
         <v>8</v>
@@ -9341,7 +9727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -9353,12 +9739,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -9369,7 +9755,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -9381,9 +9767,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="B22" s="15">
         <v>1</v>
@@ -9397,9 +9783,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="B23" s="15">
         <v>2</v>
@@ -9413,9 +9799,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="B24" s="15">
         <v>3</v>
@@ -9429,9 +9815,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="B25" s="15">
         <v>4</v>
@@ -9445,9 +9831,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="B26" s="15">
         <v>5</v>
@@ -9461,9 +9847,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="B27" s="15">
         <v>6</v>
@@ -9477,7 +9863,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -9489,7 +9875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -9501,7 +9887,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -9513,7 +9899,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -9525,34 +9911,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33B352E-B27D-4A46-8C46-2B25FAECD2D5}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="127.41796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="32" t="s">
-        <v>207</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -9560,56 +9923,81 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33B352E-B27D-4A46-8C46-2B25FAECD2D5}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="127.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4CBAC1-0082-4C21-987A-8C7484178B5D}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.15625" customWidth="1"/>
-    <col min="2" max="2" width="8.41796875" customWidth="1"/>
-    <col min="4" max="4" width="5.9453125" customWidth="1"/>
-    <col min="5" max="5" width="15.83984375" customWidth="1"/>
-    <col min="6" max="6" width="8.41796875" customWidth="1"/>
-    <col min="7" max="7" width="13.47265625" customWidth="1"/>
-    <col min="8" max="8" width="6.578125" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" customWidth="1"/>
+    <col min="4" max="4" width="5.90625" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" customWidth="1"/>
+    <col min="8" max="8" width="6.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="117" t="s">
-        <v>278</v>
-      </c>
-      <c r="F1" s="117" t="s">
-        <v>234</v>
-      </c>
-      <c r="G1" s="127" t="s">
-        <v>261</v>
-      </c>
-      <c r="H1" s="127" t="s">
-        <v>262</v>
-      </c>
-      <c r="I1" s="127" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1" s="95" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="95" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="H1" s="100" t="s">
+        <v>237</v>
+      </c>
+      <c r="I1" s="100" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <f>CharacterSheet!B2</f>
@@ -9623,15 +10011,15 @@
         <f>CharacterSheet!I2</f>
         <v>29</v>
       </c>
-      <c r="E2" s="127" t="s">
-        <v>289</v>
+      <c r="E2" s="100" t="s">
+        <v>264</v>
       </c>
       <c r="F2" s="15">
         <f>CharacterSheet!B15</f>
         <v>275</v>
       </c>
-      <c r="G2" s="127" t="s">
-        <v>251</v>
+      <c r="G2" s="100" t="s">
+        <v>226</v>
       </c>
       <c r="H2">
         <f>Status!C26</f>
@@ -9642,9 +10030,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="15">
         <f>CharacterSheet!B3</f>
@@ -9658,15 +10046,15 @@
         <f>CharacterSheet!I3</f>
         <v>30</v>
       </c>
-      <c r="E3" s="127" t="s">
-        <v>288</v>
+      <c r="E3" s="100" t="s">
+        <v>263</v>
       </c>
       <c r="F3" s="15">
         <f>CharacterSheet!B16</f>
         <v>12</v>
       </c>
-      <c r="G3" s="127" t="s">
-        <v>252</v>
+      <c r="G3" s="100" t="s">
+        <v>227</v>
       </c>
       <c r="H3" s="15">
         <f>Status!C27</f>
@@ -9677,9 +10065,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="15">
         <f>CharacterSheet!B4</f>
@@ -9693,15 +10081,15 @@
         <f>CharacterSheet!I4</f>
         <v>20</v>
       </c>
-      <c r="E4" s="117" t="s">
-        <v>291</v>
+      <c r="E4" s="95" t="s">
+        <v>266</v>
       </c>
       <c r="F4" s="15">
         <f>CharacterSheet!B17</f>
         <v>55</v>
       </c>
-      <c r="G4" s="127" t="s">
-        <v>253</v>
+      <c r="G4" s="100" t="s">
+        <v>228</v>
       </c>
       <c r="H4" s="15">
         <f>Status!C28</f>
@@ -9712,9 +10100,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="15">
         <f>CharacterSheet!B5</f>
@@ -9728,15 +10116,15 @@
         <f>CharacterSheet!I5</f>
         <v>30</v>
       </c>
-      <c r="E5" s="117" t="s">
-        <v>292</v>
+      <c r="E5" s="95" t="s">
+        <v>267</v>
       </c>
       <c r="F5" s="15">
         <f>CharacterSheet!B18</f>
         <v>193</v>
       </c>
-      <c r="G5" s="127" t="s">
-        <v>254</v>
+      <c r="G5" s="100" t="s">
+        <v>229</v>
       </c>
       <c r="H5">
         <f>Status!C30</f>
@@ -9747,9 +10135,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B6" s="15">
         <f>CharacterSheet!B6</f>
@@ -9763,15 +10151,15 @@
         <f>CharacterSheet!I6</f>
         <v>20</v>
       </c>
-      <c r="E6" s="117" t="s">
-        <v>293</v>
+      <c r="E6" s="95" t="s">
+        <v>268</v>
       </c>
       <c r="F6" s="15">
         <f>CharacterSheet!B19</f>
         <v>55</v>
       </c>
-      <c r="G6" s="127" t="s">
-        <v>255</v>
+      <c r="G6" s="100" t="s">
+        <v>230</v>
       </c>
       <c r="H6">
         <f>Status!D2</f>
@@ -9782,9 +10170,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="B7" s="15">
         <f>CharacterSheet!B7</f>
@@ -9798,15 +10186,15 @@
         <f>CharacterSheet!I7</f>
         <v>20</v>
       </c>
-      <c r="E7" s="117" t="s">
-        <v>294</v>
+      <c r="E7" s="95" t="s">
+        <v>269</v>
       </c>
       <c r="F7" s="15">
         <f>CharacterSheet!B20</f>
         <v>55</v>
       </c>
-      <c r="G7" s="127" t="s">
-        <v>256</v>
+      <c r="G7" s="100" t="s">
+        <v>231</v>
       </c>
       <c r="H7" s="15">
         <f>Status!D3</f>
@@ -9817,7 +10205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="str">
         <f>CharacterSheet!A8</f>
         <v>Luck</v>
@@ -9834,15 +10222,15 @@
         <f>CharacterSheet!I8</f>
         <v>20</v>
       </c>
-      <c r="E8" s="117" t="s">
-        <v>295</v>
+      <c r="E8" s="95" t="s">
+        <v>270</v>
       </c>
       <c r="F8" s="15">
         <f>CharacterSheet!B21</f>
         <v>69</v>
       </c>
-      <c r="G8" s="127" t="s">
-        <v>257</v>
+      <c r="G8" s="100" t="s">
+        <v>232</v>
       </c>
       <c r="H8" s="15">
         <f>Status!D4</f>
@@ -9850,7 +10238,7 @@
       </c>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="str">
         <f>CharacterSheet!A9</f>
         <v>Glaube</v>
@@ -9867,15 +10255,15 @@
         <f>CharacterSheet!I9</f>
         <v>20</v>
       </c>
-      <c r="E9" s="117" t="s">
-        <v>296</v>
+      <c r="E9" s="95" t="s">
+        <v>271</v>
       </c>
       <c r="F9" s="15">
         <f>CharacterSheet!B22</f>
         <v>69</v>
       </c>
-      <c r="G9" s="127" t="s">
-        <v>258</v>
+      <c r="G9" s="100" t="s">
+        <v>233</v>
       </c>
       <c r="H9" s="15">
         <f>Status!D5</f>
@@ -9883,9 +10271,9 @@
       </c>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="B10" s="15">
         <f>CharacterSheet!B10</f>
@@ -9899,27 +10287,27 @@
         <f>CharacterSheet!I10</f>
         <v>20</v>
       </c>
-      <c r="E10" s="127" t="s">
-        <v>228</v>
+      <c r="E10" s="100" t="s">
+        <v>203</v>
       </c>
       <c r="F10" s="15" t="str">
         <f>CharacterSheet!B1</f>
         <v>Mensch</v>
       </c>
-      <c r="G10" s="127" t="s">
-        <v>263</v>
+      <c r="G10" s="100" t="s">
+        <v>238</v>
       </c>
       <c r="H10">
         <f>Status!D8</f>
         <v>7</v>
       </c>
       <c r="I10" s="15"/>
-      <c r="J10" s="127"/>
+      <c r="J10" s="100"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="B11" s="15">
         <f>CharacterSheet!B11</f>
@@ -9934,25 +10322,25 @@
         <v>24</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="H11" s="15">
         <f>Status!D9</f>
         <v>7</v>
       </c>
       <c r="I11" s="15"/>
-      <c r="J11" s="127"/>
+      <c r="J11" s="100"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="B12">
         <f>Inventar!G22</f>
@@ -9967,22 +10355,22 @@
         <v>20</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="H12" s="15">
         <f>Status!D10</f>
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="B13">
         <f>Inventar!G19</f>
@@ -9997,23 +10385,23 @@
         <v>20</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="F13" t="str">
         <f>Status!B2</f>
         <v>Schwert</v>
       </c>
       <c r="G13" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="H13" s="15">
         <f>Status!D11</f>
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="B14" s="15">
         <f>Status!AA11</f>
@@ -10028,23 +10416,23 @@
         <v>20</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="F14" s="15" t="str">
         <f>Status!B3</f>
         <v>Dolch</v>
       </c>
       <c r="G14" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="H14" s="15">
         <f>Status!D12</f>
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="B15" t="str">
         <f>Status!AA13</f>
@@ -10059,23 +10447,23 @@
         <v>35</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="F15" s="15">
         <f>Status!B4</f>
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="H15">
         <f>Status!E8</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="B16">
         <f>Status!R12</f>
@@ -10090,23 +10478,23 @@
         <v>20</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" s="15" t="str">
         <f>Status!B5</f>
         <v>Leichter Schild</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="H16" s="15">
         <f>Status!E9</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="B17">
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
@@ -10121,23 +10509,23 @@
         <v>20</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="F17" s="15">
         <f>Status!C2</f>
         <v>42</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="H17" s="15">
         <f>Status!E10</f>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="B18" s="15">
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
@@ -10152,23 +10540,23 @@
         <v>28</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="F18" s="15">
         <f>Status!C3</f>
         <v>12</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="H18" s="15">
         <f>Status!E11</f>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="B19">
         <f>CharacterSheet!B8+CharacterSheet!B9</f>
@@ -10183,26 +10571,27 @@
         <v>20</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="F19" s="15">
         <f>Status!C4</f>
         <v>0</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="H19" s="15">
         <f>Status!E12</f>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="117" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" t="s">
-        <v>286</v>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="95" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="str">
+        <f>CharacterSheet!B13</f>
+        <v>Random</v>
       </c>
       <c r="C20" s="15" t="str">
         <f>CharacterSheet!E20</f>
@@ -10213,23 +10602,23 @@
         <v>20</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="F20" s="15">
         <f>Status!C5</f>
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="H20" t="str">
         <f>Status!B8</f>
         <v>Mittel</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="117" t="s">
-        <v>90</v>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="95" t="s">
+        <v>88</v>
       </c>
       <c r="B21">
         <f>Status!D16</f>
@@ -10244,23 +10633,23 @@
         <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="F21" s="13">
         <f>Status!C13</f>
         <v>43.5</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="H21" s="15" t="str">
         <f>Status!B9</f>
         <v>Leicht</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="117" t="s">
-        <v>92</v>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="95" t="s">
+        <v>90</v>
       </c>
       <c r="B22" s="15">
         <f>Status!D17</f>
@@ -10283,16 +10672,16 @@
         <v>10.5</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="H22" s="15" t="str">
         <f>Status!B10</f>
         <v>Leicht</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="117" t="s">
-        <v>235</v>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="95" t="s">
+        <v>210</v>
       </c>
       <c r="B23" s="15">
         <f>Status!D18</f>
@@ -10315,16 +10704,16 @@
         <v>6</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="H23" s="15" t="str">
         <f>Status!B11</f>
         <v>Mittel</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="117" t="s">
-        <v>236</v>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="95" t="s">
+        <v>211</v>
       </c>
       <c r="B24" s="15">
         <f>Status!D19</f>
@@ -10347,16 +10736,16 @@
         <v>6</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="H24" s="15" t="str">
         <f>Status!B12</f>
         <v>Mittel</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="117" t="s">
-        <v>239</v>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="95" t="s">
+        <v>214</v>
       </c>
       <c r="B25" s="15">
         <f>Status!D20</f>
@@ -10379,16 +10768,16 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="117" t="s">
-        <v>240</v>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="95" t="s">
+        <v>215</v>
       </c>
       <c r="B26" s="15">
         <f>Status!D21</f>
         <v>55</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="D26" s="15">
         <f>CharacterSheet!I26</f>
@@ -10403,9 +10792,9 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="117" t="s">
-        <v>237</v>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="95" t="s">
+        <v>212</v>
       </c>
       <c r="B27" s="15">
         <f>Status!D22</f>
@@ -10420,16 +10809,16 @@
         <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="F27" t="str">
         <f>Status!I29</f>
         <v>Plötze</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="117" t="s">
-        <v>238</v>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="95" t="s">
+        <v>213</v>
       </c>
       <c r="B28" s="15">
         <f>Status!D23</f>
@@ -10437,9 +10826,9 @@
       </c>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="127" t="s">
-        <v>290</v>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="100" t="s">
+        <v>265</v>
       </c>
       <c r="B29">
         <f>Status!Q17</f>
@@ -10447,10 +10836,10 @@
       </c>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C31" s="15"/>
     </row>
   </sheetData>

--- a/DownloadContainer/CCrand.xlsx
+++ b/DownloadContainer/CCrand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svalv\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\###Orbis\Container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0821FA40-DA61-42D6-9941-0D5A85798338}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F427F39-770E-4204-B04B-D77F55528976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
@@ -27,6 +27,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1704,7 +1713,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1914,12 +1923,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -2058,9 +2061,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{D542633D-7DF4-465B-85AC-D052E1A8B816}"/>
   </cellStyles>
   <dxfs count="225">
@@ -3759,7 +3763,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4059,90 +4063,90 @@
   <dimension ref="A1:AE72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="AD25" sqref="AD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" customWidth="1"/>
-    <col min="3" max="3" width="7.6328125" customWidth="1"/>
-    <col min="4" max="4" width="6.81640625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="4.1796875" style="15" customWidth="1"/>
-    <col min="6" max="7" width="3.81640625" customWidth="1"/>
-    <col min="8" max="8" width="1.36328125" customWidth="1"/>
-    <col min="9" max="9" width="4.26953125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" style="15" customWidth="1"/>
+    <col min="6" max="7" width="3.85546875" customWidth="1"/>
+    <col min="8" max="8" width="1.42578125" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="2.453125" customWidth="1"/>
-    <col min="12" max="12" width="2.90625" customWidth="1"/>
-    <col min="13" max="13" width="4.453125" customWidth="1"/>
-    <col min="14" max="14" width="1.453125" customWidth="1"/>
-    <col min="15" max="15" width="3.36328125" customWidth="1"/>
-    <col min="16" max="16" width="3.90625" customWidth="1"/>
-    <col min="17" max="17" width="18.08984375" customWidth="1"/>
-    <col min="18" max="18" width="5.08984375" style="41" customWidth="1"/>
-    <col min="19" max="19" width="5.1796875" customWidth="1"/>
-    <col min="20" max="20" width="15.26953125" style="15" customWidth="1"/>
-    <col min="21" max="21" width="6.26953125" style="15" customWidth="1"/>
-    <col min="22" max="22" width="6.453125" style="15" customWidth="1"/>
-    <col min="23" max="23" width="3.81640625" style="15" customWidth="1"/>
-    <col min="24" max="24" width="3.453125" style="7" customWidth="1"/>
-    <col min="25" max="25" width="3.6328125" customWidth="1"/>
-    <col min="26" max="27" width="11.54296875" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" customWidth="1"/>
+    <col min="12" max="12" width="2.85546875" customWidth="1"/>
+    <col min="13" max="13" width="4.42578125" customWidth="1"/>
+    <col min="14" max="14" width="1.42578125" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" customWidth="1"/>
+    <col min="16" max="16" width="3.85546875" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" customWidth="1"/>
+    <col min="18" max="18" width="5.140625" style="41" customWidth="1"/>
+    <col min="19" max="19" width="5.140625" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" style="15" customWidth="1"/>
+    <col min="21" max="21" width="6.28515625" style="15" customWidth="1"/>
+    <col min="22" max="22" width="6.42578125" style="15" customWidth="1"/>
+    <col min="23" max="23" width="3.85546875" style="15" customWidth="1"/>
+    <col min="24" max="24" width="3.42578125" style="7" customWidth="1"/>
+    <col min="25" max="25" width="3.5703125" customWidth="1"/>
+    <col min="26" max="27" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="155" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="150" t="s">
+    <row r="1" spans="1:31" s="153" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="149" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="152" t="s">
+      <c r="C1" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="151" t="s">
+      <c r="D1" s="149" t="s">
         <v>234</v>
       </c>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="154"/>
-      <c r="J1" s="180" t="s">
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="152"/>
+      <c r="J1" s="178" t="s">
         <v>310</v>
       </c>
-      <c r="K1" s="180"/>
-      <c r="L1" s="180"/>
-      <c r="Q1" s="153" t="s">
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="Q1" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="153"/>
-      <c r="S1" s="156" t="s">
+      <c r="R1" s="151"/>
+      <c r="S1" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="157" t="s">
+      <c r="T1" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="157" t="s">
+      <c r="U1" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="157"/>
-      <c r="W1" s="157" t="s">
+      <c r="V1" s="155"/>
+      <c r="W1" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="153"/>
-      <c r="Z1" s="157" t="s">
+      <c r="X1" s="151"/>
+      <c r="Z1" s="155" t="s">
         <v>273</v>
       </c>
-      <c r="AA1" s="157" t="s">
+      <c r="AA1" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="AB1" s="157" t="s">
+      <c r="AB1" s="155" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="173" t="s">
+    <row r="2" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="171" t="s">
         <v>272</v>
       </c>
       <c r="B2" s="113" t="s">
@@ -4159,11 +4163,11 @@
       <c r="G2" s="114"/>
       <c r="H2" s="114"/>
       <c r="I2" s="110"/>
-      <c r="J2" s="181">
+      <c r="J2" s="179">
         <v>100</v>
       </c>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="179"/>
       <c r="M2" s="110"/>
       <c r="N2" s="110"/>
       <c r="O2" s="110"/>
@@ -4175,16 +4179,16 @@
         <f>CharacterSheet!B2+S2</f>
         <v>12</v>
       </c>
-      <c r="S2" s="162"/>
-      <c r="T2" s="185" t="s">
+      <c r="S2" s="160"/>
+      <c r="T2" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="186"/>
-      <c r="V2" s="186"/>
-      <c r="W2" s="187"/>
+      <c r="U2" s="184"/>
+      <c r="V2" s="184"/>
+      <c r="W2" s="185"/>
       <c r="Y2" s="15"/>
-      <c r="Z2" s="158"/>
-      <c r="AA2" s="158" t="s">
+      <c r="Z2" s="156"/>
+      <c r="AA2" s="156" t="s">
         <v>15</v>
       </c>
       <c r="AB2" s="110" t="s">
@@ -4194,8 +4198,8 @@
       <c r="AD2" s="110"/>
       <c r="AE2" s="110"/>
     </row>
-    <row r="3" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="174" t="s">
+    <row r="3" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="172" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="121" t="s">
@@ -4226,7 +4230,7 @@
         <f>CharacterSheet!B3+S3</f>
         <v>12</v>
       </c>
-      <c r="S3" s="163"/>
+      <c r="S3" s="161"/>
       <c r="T3" s="92" t="s">
         <v>20</v>
       </c>
@@ -4241,8 +4245,8 @@
         <v>29</v>
       </c>
       <c r="Y3" s="15"/>
-      <c r="Z3" s="159"/>
-      <c r="AA3" s="159" t="s">
+      <c r="Z3" s="157"/>
+      <c r="AA3" s="157" t="s">
         <v>23</v>
       </c>
       <c r="AB3" s="110" t="s">
@@ -4252,8 +4256,8 @@
       <c r="AD3" s="110"/>
       <c r="AE3" s="110"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A4" s="174" t="s">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="172" t="s">
         <v>225</v>
       </c>
       <c r="B4" s="121"/>
@@ -4278,7 +4282,7 @@
         <f>CharacterSheet!B4+B4</f>
         <v>12</v>
       </c>
-      <c r="S4" s="163"/>
+      <c r="S4" s="161"/>
       <c r="T4" s="47" t="s">
         <v>28</v>
       </c>
@@ -4293,8 +4297,8 @@
         <v>30</v>
       </c>
       <c r="Y4" s="15"/>
-      <c r="Z4" s="159"/>
-      <c r="AA4" s="159"/>
+      <c r="Z4" s="157"/>
+      <c r="AA4" s="157"/>
       <c r="AB4" s="110" t="s">
         <v>29</v>
       </c>
@@ -4302,8 +4306,8 @@
       <c r="AD4" s="110"/>
       <c r="AE4" s="110"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A5" s="174" t="s">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="172" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="121" t="s">
@@ -4334,7 +4338,7 @@
         <f>CharacterSheet!B5+S5</f>
         <v>13</v>
       </c>
-      <c r="S5" s="163"/>
+      <c r="S5" s="161"/>
       <c r="T5" s="47" t="s">
         <v>32</v>
       </c>
@@ -4347,15 +4351,15 @@
         <v>20</v>
       </c>
       <c r="Y5" s="15"/>
-      <c r="Z5" s="159"/>
-      <c r="AA5" s="159"/>
+      <c r="Z5" s="157"/>
+      <c r="AA5" s="157"/>
       <c r="AB5" s="110"/>
       <c r="AC5" s="110"/>
       <c r="AD5" s="110"/>
       <c r="AE5" s="110"/>
     </row>
-    <row r="6" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="154"/>
+    <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="152"/>
       <c r="B6" s="124"/>
       <c r="C6" s="114"/>
       <c r="D6" s="114"/>
@@ -4378,7 +4382,7 @@
         <f>CharacterSheet!B6+S6</f>
         <v>10</v>
       </c>
-      <c r="S6" s="163"/>
+      <c r="S6" s="161"/>
       <c r="T6" s="47" t="s">
         <v>34</v>
       </c>
@@ -4393,15 +4397,15 @@
         <v>30</v>
       </c>
       <c r="Y6" s="15"/>
-      <c r="Z6" s="159"/>
-      <c r="AA6" s="159"/>
+      <c r="Z6" s="157"/>
+      <c r="AA6" s="157"/>
       <c r="AB6" s="110"/>
       <c r="AC6" s="110"/>
       <c r="AD6" s="110"/>
       <c r="AE6" s="110"/>
     </row>
-    <row r="7" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="175" t="s">
+    <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="173" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="126" t="s">
@@ -4434,7 +4438,7 @@
         <f>CharacterSheet!B7+S7</f>
         <v>12</v>
       </c>
-      <c r="S7" s="163"/>
+      <c r="S7" s="161"/>
       <c r="T7" s="47" t="s">
         <v>183</v>
       </c>
@@ -4456,8 +4460,8 @@
       <c r="AD7" s="110"/>
       <c r="AE7" s="110"/>
     </row>
-    <row r="8" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="155" t="s">
+    <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="153" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="110" t="s">
@@ -4490,7 +4494,7 @@
         <f>CharacterSheet!B8+S8</f>
         <v>5</v>
       </c>
-      <c r="S8" s="163"/>
+      <c r="S8" s="161"/>
       <c r="T8" s="47" t="s">
         <v>35</v>
       </c>
@@ -4505,17 +4509,17 @@
         <v>20</v>
       </c>
       <c r="Y8" s="15"/>
-      <c r="Z8" s="177" t="s">
+      <c r="Z8" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="AA8" s="155"/>
+      <c r="AA8" s="153"/>
       <c r="AB8" s="110"/>
       <c r="AC8" s="110"/>
       <c r="AD8" s="110"/>
       <c r="AE8" s="110"/>
     </row>
-    <row r="9" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="155" t="s">
+    <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="153" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="110" t="s">
@@ -4548,7 +4552,7 @@
         <f>CharacterSheet!B9+S9</f>
         <v>5</v>
       </c>
-      <c r="S9" s="163"/>
+      <c r="S9" s="161"/>
       <c r="T9" s="47" t="s">
         <v>41</v>
       </c>
@@ -4563,10 +4567,10 @@
         <v>20</v>
       </c>
       <c r="Y9" s="15"/>
-      <c r="Z9" s="174" t="s">
+      <c r="Z9" s="172" t="s">
         <v>46</v>
       </c>
-      <c r="AA9" s="174">
+      <c r="AA9" s="172">
         <f>Inventar!$G$22</f>
         <v>15.5</v>
       </c>
@@ -4575,8 +4579,8 @@
       <c r="AD9" s="110"/>
       <c r="AE9" s="110"/>
     </row>
-    <row r="10" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="155" t="s">
+    <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="153" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="110" t="s">
@@ -4611,7 +4615,7 @@
         <f>CharacterSheet!B10+S10</f>
         <v>18</v>
       </c>
-      <c r="S10" s="163">
+      <c r="S10" s="161">
         <f>$Q$17*(-1)</f>
         <v>0</v>
       </c>
@@ -4627,10 +4631,10 @@
         <v>20</v>
       </c>
       <c r="Y10" s="15"/>
-      <c r="Z10" s="174" t="s">
+      <c r="Z10" s="172" t="s">
         <v>51</v>
       </c>
-      <c r="AA10" s="174">
+      <c r="AA10" s="172">
         <f>Inventar!$G$19</f>
         <v>19.5</v>
       </c>
@@ -4639,8 +4643,8 @@
       <c r="AD10" s="110"/>
       <c r="AE10" s="110"/>
     </row>
-    <row r="11" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="155" t="s">
+    <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="153" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="110" t="s">
@@ -4673,18 +4677,18 @@
         <f>CharacterSheet!B11+S11</f>
         <v>10</v>
       </c>
-      <c r="S11" s="163"/>
-      <c r="T11" s="191" t="s">
+      <c r="S11" s="161"/>
+      <c r="T11" s="189" t="s">
         <v>50</v>
       </c>
-      <c r="U11" s="192"/>
-      <c r="V11" s="192"/>
-      <c r="W11" s="193"/>
+      <c r="U11" s="190"/>
+      <c r="V11" s="190"/>
+      <c r="W11" s="191"/>
       <c r="Y11" s="15"/>
-      <c r="Z11" s="174" t="s">
+      <c r="Z11" s="172" t="s">
         <v>54</v>
       </c>
-      <c r="AA11" s="174">
+      <c r="AA11" s="172">
         <f>R2*4</f>
         <v>48</v>
       </c>
@@ -4693,8 +4697,8 @@
       <c r="AD11" s="110"/>
       <c r="AE11" s="110"/>
     </row>
-    <row r="12" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="176" t="s">
+    <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="174" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="125" t="s">
@@ -4727,7 +4731,7 @@
         <f>ROUNDUP((R7+R5)/2,0)</f>
         <v>13</v>
       </c>
-      <c r="S12" s="163"/>
+      <c r="S12" s="161"/>
       <c r="T12" s="45" t="s">
         <v>53</v>
       </c>
@@ -4742,10 +4746,10 @@
         <v>20</v>
       </c>
       <c r="Y12" s="15"/>
-      <c r="Z12" s="174" t="s">
+      <c r="Z12" s="172" t="s">
         <v>57</v>
       </c>
-      <c r="AA12" s="174">
+      <c r="AA12" s="172">
         <f>AA11-AA10</f>
         <v>28.5</v>
       </c>
@@ -4754,8 +4758,8 @@
       <c r="AD12" s="110"/>
       <c r="AE12" s="110"/>
     </row>
-    <row r="13" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="177" t="s">
+    <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="175" t="s">
         <v>51</v>
       </c>
       <c r="B13" s="135"/>
@@ -4793,10 +4797,10 @@
         <v>24</v>
       </c>
       <c r="Y13" s="15"/>
-      <c r="Z13" s="178" t="s">
+      <c r="Z13" s="176" t="s">
         <v>185</v>
       </c>
-      <c r="AA13" s="174" t="str">
+      <c r="AA13" s="172" t="str">
         <f>IF(AA9&gt;30,"Schwer",IF(AA9&gt;18,"Mittel","Leicht"))</f>
         <v>Leicht</v>
       </c>
@@ -4805,7 +4809,7 @@
       <c r="AD13" s="110"/>
       <c r="AE13" s="110"/>
     </row>
-    <row r="14" spans="1:31" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="137"/>
       <c r="B14" s="124"/>
       <c r="C14" s="110"/>
@@ -4822,7 +4826,7 @@
       <c r="N14" s="110"/>
       <c r="O14" s="131"/>
       <c r="P14" s="110"/>
-      <c r="Q14" s="188" t="s">
+      <c r="Q14" s="186" t="s">
         <v>59</v>
       </c>
       <c r="R14" s="110"/>
@@ -4846,7 +4850,7 @@
       <c r="AD14" s="110"/>
       <c r="AE14" s="110"/>
     </row>
-    <row r="15" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="110"/>
       <c r="B15" s="110"/>
       <c r="C15" s="135" t="s">
@@ -4867,7 +4871,7 @@
       <c r="N15" s="110"/>
       <c r="O15" s="131"/>
       <c r="P15" s="110"/>
-      <c r="Q15" s="189"/>
+      <c r="Q15" s="187"/>
       <c r="R15" s="110"/>
       <c r="S15" s="111"/>
       <c r="T15" s="49" t="s">
@@ -4891,11 +4895,11 @@
       <c r="AD15" s="110"/>
       <c r="AE15" s="110"/>
     </row>
-    <row r="16" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="164" t="s">
+    <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="162" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="165">
+      <c r="B16" s="163">
         <f>CharacterSheet!B15</f>
         <v>275</v>
       </c>
@@ -4903,7 +4907,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D16" s="139">
+      <c r="D16" s="167">
         <f>B16-C16</f>
         <v>275</v>
       </c>
@@ -4919,15 +4923,15 @@
       <c r="N16" s="110"/>
       <c r="O16" s="131"/>
       <c r="P16" s="110"/>
-      <c r="Q16" s="190"/>
+      <c r="Q16" s="188"/>
       <c r="R16" s="110"/>
       <c r="S16" s="112"/>
-      <c r="T16" s="185" t="s">
+      <c r="T16" s="183" t="s">
         <v>62</v>
       </c>
-      <c r="U16" s="186"/>
-      <c r="V16" s="186"/>
-      <c r="W16" s="187"/>
+      <c r="U16" s="184"/>
+      <c r="V16" s="184"/>
+      <c r="W16" s="185"/>
       <c r="Y16" s="15"/>
       <c r="Z16" s="135" t="s">
         <v>66</v>
@@ -4938,11 +4942,11 @@
       <c r="AD16" s="110"/>
       <c r="AE16" s="110"/>
     </row>
-    <row r="17" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="166" t="s">
+    <row r="17" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="164" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="167">
+      <c r="B17" s="165">
         <f>CharacterSheet!B16</f>
         <v>12</v>
       </c>
@@ -4950,13 +4954,13 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D17" s="140">
+      <c r="D17" s="197">
         <f>B17+C17</f>
         <v>12</v>
       </c>
       <c r="E17" s="110"/>
       <c r="F17" s="110"/>
-      <c r="G17" s="141"/>
+      <c r="G17" s="139"/>
       <c r="H17" s="110"/>
       <c r="I17" s="117"/>
       <c r="J17" s="114"/>
@@ -4964,7 +4968,7 @@
       <c r="L17" s="114"/>
       <c r="M17" s="118"/>
       <c r="N17" s="110"/>
-      <c r="O17" s="141"/>
+      <c r="O17" s="139"/>
       <c r="P17" s="110"/>
       <c r="Q17" s="113">
         <v>0</v>
@@ -4985,26 +4989,26 @@
         <v>20</v>
       </c>
       <c r="Y17" s="15"/>
-      <c r="Z17" s="160" t="s">
+      <c r="Z17" s="158" t="s">
         <v>69</v>
       </c>
-      <c r="AA17" s="161" t="s">
+      <c r="AA17" s="159" t="s">
         <v>70</v>
       </c>
-      <c r="AB17" s="161" t="s">
+      <c r="AB17" s="159" t="s">
         <v>71</v>
       </c>
-      <c r="AC17" s="161" t="s">
+      <c r="AC17" s="159" t="s">
         <v>72</v>
       </c>
       <c r="AD17" s="110"/>
       <c r="AE17" s="110"/>
     </row>
-    <row r="18" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="168" t="s">
+    <row r="18" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="166" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="168">
+      <c r="B18" s="166">
         <f>CharacterSheet!B17</f>
         <v>55</v>
       </c>
@@ -5012,7 +5016,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D18" s="139">
+      <c r="D18" s="167">
         <f>B18+C18</f>
         <v>55</v>
       </c>
@@ -5065,11 +5069,11 @@
       <c r="AD18" s="110"/>
       <c r="AE18" s="110"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A19" s="169" t="s">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="169">
+      <c r="B19" s="167">
         <f>CharacterSheet!B18</f>
         <v>193</v>
       </c>
@@ -5077,7 +5081,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D19" s="139">
+      <c r="D19" s="167">
         <f>B19+C19</f>
         <v>193</v>
       </c>
@@ -5126,11 +5130,11 @@
       <c r="AD19" s="110"/>
       <c r="AE19" s="110"/>
     </row>
-    <row r="20" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="169" t="s">
+    <row r="20" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="167" t="s">
         <v>216</v>
       </c>
-      <c r="B20" s="169">
+      <c r="B20" s="167">
         <f>CharacterSheet!B19</f>
         <v>55</v>
       </c>
@@ -5138,7 +5142,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D20" s="139">
+      <c r="D20" s="167">
         <f t="shared" ref="D20:D23" si="1">B20+C20</f>
         <v>55</v>
       </c>
@@ -5174,7 +5178,7 @@
         <v>20</v>
       </c>
       <c r="Y20" s="15"/>
-      <c r="Z20" s="143" t="s">
+      <c r="Z20" s="141" t="s">
         <v>87</v>
       </c>
       <c r="AA20" s="110"/>
@@ -5183,11 +5187,11 @@
       <c r="AD20" s="110"/>
       <c r="AE20" s="110"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A21" s="169" t="s">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" s="167" t="s">
         <v>217</v>
       </c>
-      <c r="B21" s="169">
+      <c r="B21" s="167">
         <f>CharacterSheet!B20</f>
         <v>55</v>
       </c>
@@ -5195,7 +5199,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D21" s="139">
+      <c r="D21" s="167">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
@@ -5240,11 +5244,11 @@
       <c r="AD21" s="110"/>
       <c r="AE21" s="110"/>
     </row>
-    <row r="22" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="169" t="s">
+    <row r="22" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="167" t="s">
         <v>218</v>
       </c>
-      <c r="B22" s="169">
+      <c r="B22" s="167">
         <f>CharacterSheet!B21</f>
         <v>69</v>
       </c>
@@ -5252,7 +5256,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D22" s="139">
+      <c r="D22" s="167">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
@@ -5263,7 +5267,7 @@
       <c r="F22" s="110"/>
       <c r="G22" s="110"/>
       <c r="H22" s="110"/>
-      <c r="I22" s="142" t="s">
+      <c r="I22" s="140" t="s">
         <v>91</v>
       </c>
       <c r="J22" s="118"/>
@@ -5299,11 +5303,11 @@
       <c r="AD22" s="110"/>
       <c r="AE22" s="110"/>
     </row>
-    <row r="23" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="169" t="s">
+    <row r="23" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="167" t="s">
         <v>219</v>
       </c>
-      <c r="B23" s="169">
+      <c r="B23" s="167">
         <f>CharacterSheet!B22</f>
         <v>69</v>
       </c>
@@ -5311,7 +5315,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D23" s="139">
+      <c r="D23" s="167">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
@@ -5335,12 +5339,12 @@
       </c>
       <c r="R23" s="120"/>
       <c r="S23" s="112"/>
-      <c r="T23" s="185" t="s">
+      <c r="T23" s="183" t="s">
         <v>92</v>
       </c>
-      <c r="U23" s="186"/>
-      <c r="V23" s="186"/>
-      <c r="W23" s="187"/>
+      <c r="U23" s="184"/>
+      <c r="V23" s="184"/>
+      <c r="W23" s="185"/>
       <c r="Y23" s="15"/>
       <c r="Z23" s="110"/>
       <c r="AA23" s="110"/>
@@ -5349,10 +5353,10 @@
       <c r="AD23" s="110"/>
       <c r="AE23" s="110"/>
     </row>
-    <row r="24" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="143"/>
-      <c r="B24" s="143"/>
-      <c r="C24" s="143"/>
+    <row r="24" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="141"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="141"/>
       <c r="D24" s="110"/>
       <c r="E24" s="110" t="str">
         <f>IF(D20=0,"Verkrüppelt",IF(D20&lt;=B20*0.2,"Verstümmelt",""))</f>
@@ -5391,17 +5395,17 @@
       <c r="AD24" s="110"/>
       <c r="AE24" s="110"/>
     </row>
-    <row r="25" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="170" t="s">
+    <row r="25" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="168" t="s">
         <v>222</v>
       </c>
-      <c r="B25" s="144" t="s">
+      <c r="B25" s="142" t="s">
         <v>223</v>
       </c>
-      <c r="C25" s="144" t="s">
+      <c r="C25" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="145" t="s">
+      <c r="D25" s="143" t="s">
         <v>260</v>
       </c>
       <c r="E25" s="110" t="str">
@@ -5441,17 +5445,17 @@
       <c r="AD25" s="110"/>
       <c r="AE25" s="110"/>
     </row>
-    <row r="26" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="171" t="s">
+    <row r="26" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="146" t="s">
+      <c r="B26" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="146">
+      <c r="C26" s="144">
         <v>10</v>
       </c>
-      <c r="D26" s="146">
+      <c r="D26" s="144">
         <v>1</v>
       </c>
       <c r="E26" s="110"/>
@@ -5469,12 +5473,12 @@
       <c r="Q26" s="110"/>
       <c r="R26" s="110"/>
       <c r="S26" s="112"/>
-      <c r="T26" s="185" t="s">
+      <c r="T26" s="183" t="s">
         <v>97</v>
       </c>
-      <c r="U26" s="186"/>
-      <c r="V26" s="186"/>
-      <c r="W26" s="187"/>
+      <c r="U26" s="184"/>
+      <c r="V26" s="184"/>
+      <c r="W26" s="185"/>
       <c r="Y26" s="15"/>
       <c r="Z26" s="110"/>
       <c r="AA26" s="110"/>
@@ -5483,17 +5487,17 @@
       <c r="AD26" s="110"/>
       <c r="AE26" s="110"/>
     </row>
-    <row r="27" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="172" t="s">
+    <row r="27" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="147" t="s">
+      <c r="B27" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="147">
+      <c r="C27" s="145">
         <v>5</v>
       </c>
-      <c r="D27" s="147">
+      <c r="D27" s="145">
         <v>1</v>
       </c>
       <c r="E27" s="110"/>
@@ -5530,30 +5534,30 @@
       <c r="AD27" s="110"/>
       <c r="AE27" s="110"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A28" s="172" t="s">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="170" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="147" t="s">
+      <c r="B28" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="147">
+      <c r="C28" s="145">
         <v>7</v>
       </c>
-      <c r="D28" s="147">
+      <c r="D28" s="145">
         <v>1</v>
       </c>
       <c r="E28" s="110"/>
       <c r="F28" s="110"/>
       <c r="G28" s="110"/>
       <c r="H28" s="110"/>
-      <c r="I28" s="194" t="s">
+      <c r="I28" s="192" t="s">
         <v>254</v>
       </c>
-      <c r="J28" s="195"/>
-      <c r="K28" s="195"/>
-      <c r="L28" s="195"/>
-      <c r="M28" s="196"/>
+      <c r="J28" s="193"/>
+      <c r="K28" s="193"/>
+      <c r="L28" s="193"/>
+      <c r="M28" s="194"/>
       <c r="N28" s="110"/>
       <c r="O28" s="110"/>
       <c r="P28" s="110"/>
@@ -5579,24 +5583,24 @@
       <c r="AD28" s="110"/>
       <c r="AE28" s="110"/>
     </row>
-    <row r="29" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="172" t="s">
+    <row r="29" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="147"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
+      <c r="B29" s="145"/>
+      <c r="C29" s="145"/>
+      <c r="D29" s="145"/>
       <c r="E29" s="110"/>
       <c r="F29" s="110"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="148"/>
-      <c r="I29" s="182" t="s">
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="180" t="s">
         <v>286</v>
       </c>
-      <c r="J29" s="183"/>
-      <c r="K29" s="183"/>
-      <c r="L29" s="183"/>
-      <c r="M29" s="184"/>
+      <c r="J29" s="181"/>
+      <c r="K29" s="181"/>
+      <c r="L29" s="181"/>
+      <c r="M29" s="182"/>
       <c r="N29" s="110"/>
       <c r="O29" s="110"/>
       <c r="P29" s="110"/>
@@ -5624,26 +5628,26 @@
       <c r="AD29" s="110"/>
       <c r="AE29" s="110"/>
     </row>
-    <row r="30" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="172" t="s">
+    <row r="30" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="170" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="147" t="s">
+      <c r="B30" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="147">
+      <c r="C30" s="145">
         <v>7</v>
       </c>
-      <c r="D30" s="147">
+      <c r="D30" s="145">
         <v>1</v>
       </c>
       <c r="E30" s="110"/>
       <c r="F30" s="110"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="148"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="148"/>
-      <c r="K30" s="148"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="146"/>
       <c r="L30" s="114"/>
       <c r="M30" s="110"/>
       <c r="N30" s="110"/>
@@ -5652,12 +5656,12 @@
       <c r="Q30" s="110"/>
       <c r="R30" s="110"/>
       <c r="S30" s="112"/>
-      <c r="T30" s="185" t="s">
+      <c r="T30" s="183" t="s">
         <v>101</v>
       </c>
-      <c r="U30" s="186"/>
-      <c r="V30" s="186"/>
-      <c r="W30" s="187"/>
+      <c r="U30" s="184"/>
+      <c r="V30" s="184"/>
+      <c r="W30" s="185"/>
       <c r="Y30" s="15"/>
       <c r="Z30" s="110"/>
       <c r="AA30" s="110"/>
@@ -5666,11 +5670,11 @@
       <c r="AD30" s="110"/>
       <c r="AE30" s="110"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A31" s="149"/>
-      <c r="B31" s="149"/>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31" s="147"/>
+      <c r="B31" s="147"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="147"/>
       <c r="E31" s="110"/>
       <c r="F31" s="110"/>
       <c r="G31" s="110"/>
@@ -5705,11 +5709,11 @@
       <c r="AD31" s="110"/>
       <c r="AE31" s="110"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A32" s="149"/>
-      <c r="B32" s="149"/>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32" s="147"/>
+      <c r="B32" s="147"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
       <c r="E32" s="110"/>
       <c r="F32" s="110"/>
       <c r="G32" s="110"/>
@@ -5744,11 +5748,11 @@
       <c r="AD32" s="110"/>
       <c r="AE32" s="110"/>
     </row>
-    <row r="33" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="149"/>
-      <c r="B33" s="149"/>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
+    <row r="33" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="147"/>
+      <c r="B33" s="147"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="147"/>
       <c r="E33" s="110"/>
       <c r="F33" s="110"/>
       <c r="G33" s="110"/>
@@ -5782,7 +5786,7 @@
       <c r="AD33" s="110"/>
       <c r="AE33" s="110"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="99"/>
       <c r="B34" s="99"/>
       <c r="C34" s="99"/>
@@ -5794,7 +5798,7 @@
       <c r="AD34" s="110"/>
       <c r="AE34" s="110"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Z35" s="110"/>
       <c r="AA35" s="110"/>
       <c r="AB35" s="110"/>
@@ -5802,7 +5806,7 @@
       <c r="AD35" s="110"/>
       <c r="AE35" s="110"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Z36" s="110"/>
       <c r="AA36" s="110"/>
       <c r="AB36" s="110"/>
@@ -5810,7 +5814,7 @@
       <c r="AD36" s="110"/>
       <c r="AE36" s="110"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Z37" s="110"/>
       <c r="AA37" s="110"/>
       <c r="AB37" s="110"/>
@@ -5818,7 +5822,7 @@
       <c r="AD37" s="110"/>
       <c r="AE37" s="110"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Z38" s="110"/>
       <c r="AA38" s="110"/>
       <c r="AB38" s="110"/>
@@ -5826,7 +5830,7 @@
       <c r="AD38" s="110"/>
       <c r="AE38" s="110"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Z39" s="110"/>
       <c r="AA39" s="110"/>
       <c r="AB39" s="110"/>
@@ -5834,7 +5838,7 @@
       <c r="AD39" s="110"/>
       <c r="AE39" s="110"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Z40" s="110"/>
       <c r="AA40" s="110"/>
       <c r="AB40" s="110"/>
@@ -5842,7 +5846,7 @@
       <c r="AD40" s="110"/>
       <c r="AE40" s="110"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Z41" s="110"/>
       <c r="AA41" s="110"/>
       <c r="AB41" s="110"/>
@@ -5850,7 +5854,7 @@
       <c r="AD41" s="110"/>
       <c r="AE41" s="110"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Z42" s="110"/>
       <c r="AA42" s="110"/>
       <c r="AB42" s="110"/>
@@ -5858,7 +5862,7 @@
       <c r="AD42" s="110"/>
       <c r="AE42" s="110"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Z43" s="110"/>
       <c r="AA43" s="110"/>
       <c r="AB43" s="110"/>
@@ -5866,7 +5870,7 @@
       <c r="AD43" s="110"/>
       <c r="AE43" s="110"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Z44" s="110"/>
       <c r="AA44" s="110"/>
       <c r="AB44" s="110"/>
@@ -5874,7 +5878,7 @@
       <c r="AD44" s="110"/>
       <c r="AE44" s="110"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Z45" s="110"/>
       <c r="AA45" s="110"/>
       <c r="AB45" s="110"/>
@@ -5882,7 +5886,7 @@
       <c r="AD45" s="110"/>
       <c r="AE45" s="110"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Z46" s="110"/>
       <c r="AA46" s="110"/>
       <c r="AB46" s="110"/>
@@ -5890,7 +5894,7 @@
       <c r="AD46" s="110"/>
       <c r="AE46" s="110"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Z47" s="110"/>
       <c r="AA47" s="110"/>
       <c r="AB47" s="110"/>
@@ -5898,7 +5902,7 @@
       <c r="AD47" s="110"/>
       <c r="AE47" s="110"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Z48" s="110"/>
       <c r="AA48" s="110"/>
       <c r="AB48" s="110"/>
@@ -5906,7 +5910,7 @@
       <c r="AD48" s="110"/>
       <c r="AE48" s="110"/>
     </row>
-    <row r="49" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="49" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z49" s="110"/>
       <c r="AA49" s="110"/>
       <c r="AB49" s="110"/>
@@ -5914,7 +5918,7 @@
       <c r="AD49" s="110"/>
       <c r="AE49" s="110"/>
     </row>
-    <row r="50" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="50" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z50" s="110"/>
       <c r="AA50" s="110"/>
       <c r="AB50" s="110"/>
@@ -5922,7 +5926,7 @@
       <c r="AD50" s="110"/>
       <c r="AE50" s="110"/>
     </row>
-    <row r="51" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="51" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z51" s="110"/>
       <c r="AA51" s="110"/>
       <c r="AB51" s="110"/>
@@ -5930,7 +5934,7 @@
       <c r="AD51" s="110"/>
       <c r="AE51" s="110"/>
     </row>
-    <row r="52" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="52" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z52" s="110"/>
       <c r="AA52" s="110"/>
       <c r="AB52" s="110"/>
@@ -5938,7 +5942,7 @@
       <c r="AD52" s="110"/>
       <c r="AE52" s="110"/>
     </row>
-    <row r="53" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="53" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z53" s="110"/>
       <c r="AA53" s="110"/>
       <c r="AB53" s="110"/>
@@ -5946,7 +5950,7 @@
       <c r="AD53" s="110"/>
       <c r="AE53" s="110"/>
     </row>
-    <row r="54" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="54" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z54" s="110"/>
       <c r="AA54" s="110"/>
       <c r="AB54" s="110"/>
@@ -5954,7 +5958,7 @@
       <c r="AD54" s="110"/>
       <c r="AE54" s="110"/>
     </row>
-    <row r="55" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="55" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z55" s="110"/>
       <c r="AA55" s="110"/>
       <c r="AB55" s="110"/>
@@ -5962,7 +5966,7 @@
       <c r="AD55" s="110"/>
       <c r="AE55" s="110"/>
     </row>
-    <row r="56" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="56" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z56" s="110"/>
       <c r="AA56" s="110"/>
       <c r="AB56" s="110"/>
@@ -5970,7 +5974,7 @@
       <c r="AD56" s="110"/>
       <c r="AE56" s="110"/>
     </row>
-    <row r="57" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="57" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z57" s="110"/>
       <c r="AA57" s="110"/>
       <c r="AB57" s="110"/>
@@ -5978,7 +5982,7 @@
       <c r="AD57" s="110"/>
       <c r="AE57" s="110"/>
     </row>
-    <row r="58" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="58" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z58" s="110"/>
       <c r="AA58" s="110"/>
       <c r="AB58" s="110"/>
@@ -5986,7 +5990,7 @@
       <c r="AD58" s="110"/>
       <c r="AE58" s="110"/>
     </row>
-    <row r="59" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="59" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z59" s="110"/>
       <c r="AA59" s="110"/>
       <c r="AB59" s="110"/>
@@ -5994,7 +5998,7 @@
       <c r="AD59" s="110"/>
       <c r="AE59" s="110"/>
     </row>
-    <row r="60" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="60" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z60" s="110"/>
       <c r="AA60" s="110"/>
       <c r="AB60" s="110"/>
@@ -6002,7 +6006,7 @@
       <c r="AD60" s="110"/>
       <c r="AE60" s="110"/>
     </row>
-    <row r="61" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="61" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z61" s="110"/>
       <c r="AA61" s="110"/>
       <c r="AB61" s="110"/>
@@ -6010,7 +6014,7 @@
       <c r="AD61" s="110"/>
       <c r="AE61" s="110"/>
     </row>
-    <row r="62" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="62" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z62" s="110"/>
       <c r="AA62" s="110"/>
       <c r="AB62" s="110"/>
@@ -6018,7 +6022,7 @@
       <c r="AD62" s="110"/>
       <c r="AE62" s="110"/>
     </row>
-    <row r="63" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="63" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z63" s="110"/>
       <c r="AA63" s="110"/>
       <c r="AB63" s="110"/>
@@ -6026,7 +6030,7 @@
       <c r="AD63" s="110"/>
       <c r="AE63" s="110"/>
     </row>
-    <row r="64" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="64" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z64" s="110"/>
       <c r="AA64" s="110"/>
       <c r="AB64" s="110"/>
@@ -6034,7 +6038,7 @@
       <c r="AD64" s="110"/>
       <c r="AE64" s="110"/>
     </row>
-    <row r="65" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="65" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z65" s="110"/>
       <c r="AA65" s="110"/>
       <c r="AB65" s="110"/>
@@ -6042,7 +6046,7 @@
       <c r="AD65" s="110"/>
       <c r="AE65" s="110"/>
     </row>
-    <row r="66" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="66" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z66" s="110"/>
       <c r="AA66" s="110"/>
       <c r="AB66" s="110"/>
@@ -6050,7 +6054,7 @@
       <c r="AD66" s="110"/>
       <c r="AE66" s="110"/>
     </row>
-    <row r="67" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="67" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z67" s="110"/>
       <c r="AA67" s="110"/>
       <c r="AB67" s="110"/>
@@ -6058,7 +6062,7 @@
       <c r="AD67" s="110"/>
       <c r="AE67" s="110"/>
     </row>
-    <row r="68" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="68" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z68" s="110"/>
       <c r="AA68" s="110"/>
       <c r="AB68" s="110"/>
@@ -6066,7 +6070,7 @@
       <c r="AD68" s="110"/>
       <c r="AE68" s="110"/>
     </row>
-    <row r="69" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="69" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z69" s="110"/>
       <c r="AA69" s="110"/>
       <c r="AB69" s="110"/>
@@ -6074,7 +6078,7 @@
       <c r="AD69" s="110"/>
       <c r="AE69" s="110"/>
     </row>
-    <row r="70" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="70" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z70" s="110"/>
       <c r="AA70" s="110"/>
       <c r="AB70" s="110"/>
@@ -6082,7 +6086,7 @@
       <c r="AD70" s="110"/>
       <c r="AE70" s="110"/>
     </row>
-    <row r="71" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="71" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z71" s="110"/>
       <c r="AA71" s="110"/>
       <c r="AB71" s="110"/>
@@ -6090,7 +6094,7 @@
       <c r="AD71" s="110"/>
       <c r="AE71" s="110"/>
     </row>
-    <row r="72" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="72" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z72" s="110"/>
       <c r="AA72" s="110"/>
       <c r="AB72" s="110"/>
@@ -6523,34 +6527,34 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>314</v>
       </c>
@@ -6569,15 +6573,14 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" customWidth="1"/>
-    <col min="5" max="5" width="6.54296875" customWidth="1"/>
-    <col min="6" max="6" width="6.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="5" max="6" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>104</v>
       </c>
@@ -6597,7 +6600,7 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>106</v>
       </c>
@@ -6613,7 +6616,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>84</v>
       </c>
@@ -6629,8 +6632,8 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:9" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>109</v>
       </c>
@@ -6650,10 +6653,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>112</v>
       </c>
@@ -6670,7 +6673,7 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>113</v>
       </c>
@@ -6689,7 +6692,7 @@
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>115</v>
       </c>
@@ -6708,7 +6711,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>31</v>
       </c>
@@ -6733,19 +6736,19 @@
       <c r="H10" s="8"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>117</v>
       </c>
@@ -6767,7 +6770,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>119</v>
       </c>
@@ -6788,7 +6791,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>120</v>
       </c>
@@ -6810,7 +6813,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>121</v>
       </c>
@@ -6829,7 +6832,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>122</v>
       </c>
@@ -6850,7 +6853,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>124</v>
       </c>
@@ -6872,7 +6875,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -6883,7 +6886,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -6896,7 +6899,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -6913,7 +6916,7 @@
       </c>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -6924,7 +6927,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -6935,7 +6938,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -6946,7 +6949,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
         <v>126</v>
       </c>
@@ -6969,7 +6972,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -6977,7 +6980,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>128</v>
       </c>
@@ -7000,7 +7003,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>130</v>
       </c>
@@ -7023,7 +7026,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -7034,7 +7037,7 @@
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
     </row>
-    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="27" t="s">
         <v>132</v>
       </c>
@@ -7057,7 +7060,7 @@
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>134</v>
       </c>
@@ -7069,7 +7072,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>135</v>
       </c>
@@ -7096,25 +7099,25 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="179"/>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
-      <c r="H1" s="179"/>
-      <c r="I1" s="179"/>
-      <c r="J1" s="179"/>
-      <c r="K1" s="179"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="177"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -7127,7 +7130,7 @@
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -7140,7 +7143,7 @@
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -7153,7 +7156,7 @@
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -7166,7 +7169,7 @@
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -7179,7 +7182,7 @@
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -7192,7 +7195,7 @@
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -7205,7 +7208,7 @@
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -7232,9 +7235,9 @@
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="101" t="s">
         <v>274</v>
       </c>
@@ -7276,7 +7279,7 @@
       </c>
       <c r="O1" s="15"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="103" t="s">
         <v>88</v>
       </c>
@@ -7287,7 +7290,7 @@
       <c r="D2" s="18">
         <v>1</v>
       </c>
-      <c r="E2" s="197"/>
+      <c r="E2" s="195"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="I2" s="106"/>
@@ -7298,7 +7301,7 @@
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="104" t="s">
         <v>90</v>
       </c>
@@ -7309,7 +7312,7 @@
       <c r="D3" s="20">
         <v>0</v>
       </c>
-      <c r="E3" s="198"/>
+      <c r="E3" s="196"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="I3" s="22" t="s">
@@ -7332,7 +7335,7 @@
       </c>
       <c r="O3" s="15"/>
     </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="104" t="s">
         <v>210</v>
       </c>
@@ -7368,7 +7371,7 @@
       </c>
       <c r="O4" s="107"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
         <v>211</v>
       </c>
@@ -7379,7 +7382,7 @@
       <c r="D5" s="20">
         <v>0</v>
       </c>
-      <c r="E5" s="197"/>
+      <c r="E5" s="195"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="I5" s="15"/>
@@ -7390,14 +7393,14 @@
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
     </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="104" t="s">
         <v>214</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="19"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="198"/>
+      <c r="E6" s="196"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="I6" s="22" t="s">
@@ -7420,7 +7423,7 @@
       </c>
       <c r="O6" s="15"/>
     </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="104" t="s">
         <v>215</v>
       </c>
@@ -7440,14 +7443,14 @@
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="104" t="s">
         <v>212</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="19"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="197"/>
+      <c r="E8" s="195"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="I8" s="15"/>
@@ -7458,14 +7461,14 @@
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
     </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="104" t="s">
         <v>213</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="19"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="198"/>
+      <c r="E9" s="196"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="I9" s="22" t="s">
@@ -7486,7 +7489,7 @@
       </c>
       <c r="O9" s="15"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="104" t="s">
         <v>238</v>
       </c>
@@ -7504,7 +7507,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>239</v>
       </c>
@@ -7534,7 +7537,7 @@
       </c>
       <c r="O11" s="15"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>240</v>
       </c>
@@ -7564,7 +7567,7 @@
       </c>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>241</v>
       </c>
@@ -7594,7 +7597,7 @@
       </c>
       <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>242</v>
       </c>
@@ -7624,7 +7627,7 @@
       </c>
       <c r="O14" s="15"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>243</v>
       </c>
@@ -7654,7 +7657,7 @@
       </c>
       <c r="O15" s="15"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>245</v>
       </c>
@@ -7684,7 +7687,7 @@
       </c>
       <c r="O16" s="15"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>248</v>
       </c>
@@ -7714,7 +7717,7 @@
       </c>
       <c r="O17" s="15"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>249</v>
       </c>
@@ -7744,7 +7747,7 @@
       </c>
       <c r="O18" s="15"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>252</v>
       </c>
@@ -7766,7 +7769,7 @@
       <c r="N19" s="108"/>
       <c r="O19" s="15"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>244</v>
       </c>
@@ -7784,7 +7787,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
     </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>246</v>
       </c>
@@ -7814,7 +7817,7 @@
       </c>
       <c r="O21" s="15"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>247</v>
       </c>
@@ -7832,7 +7835,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>250</v>
       </c>
@@ -7858,7 +7861,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
     </row>
-    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>251</v>
       </c>
@@ -7884,7 +7887,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -7908,7 +7911,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -7932,7 +7935,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -7948,7 +7951,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -7964,7 +7967,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -7980,7 +7983,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -7996,7 +7999,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="15"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -8006,7 +8009,7 @@
       <c r="G31" s="15"/>
       <c r="O31" s="15"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -8016,7 +8019,7 @@
       <c r="G32" s="15"/>
       <c r="O32" s="15"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -8026,7 +8029,7 @@
       <c r="G33" s="15"/>
       <c r="O33" s="15"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -8036,7 +8039,7 @@
       <c r="G34" s="15"/>
       <c r="O34" s="15"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O35" s="15"/>
     </row>
   </sheetData>
@@ -8058,22 +8061,22 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="4.54296875" customWidth="1"/>
-    <col min="5" max="5" width="19.54296875" customWidth="1"/>
-    <col min="6" max="6" width="4.6328125" customWidth="1"/>
-    <col min="7" max="7" width="5.453125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="4.26953125" customWidth="1"/>
-    <col min="9" max="9" width="6.6328125" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="16.1796875" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>136</v>
       </c>
@@ -8116,7 +8119,7 @@
       </c>
       <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>13</v>
       </c>
@@ -8162,7 +8165,7 @@
       </c>
       <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>19</v>
       </c>
@@ -8208,7 +8211,7 @@
       </c>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>27</v>
       </c>
@@ -8248,7 +8251,7 @@
       </c>
       <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
         <v>311</v>
       </c>
@@ -8284,7 +8287,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
         <v>33</v>
       </c>
@@ -8316,7 +8319,7 @@
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
     </row>
-    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>224</v>
       </c>
@@ -8350,7 +8353,7 @@
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
     </row>
-    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>40</v>
       </c>
@@ -8386,7 +8389,7 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
     </row>
-    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
         <v>184</v>
       </c>
@@ -8416,7 +8419,7 @@
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
@@ -8449,7 +8452,7 @@
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
     </row>
-    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="49" t="s">
         <v>49</v>
       </c>
@@ -8480,7 +8483,7 @@
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="15"/>
@@ -8504,7 +8507,7 @@
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
     </row>
-    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
         <v>69</v>
       </c>
@@ -8534,7 +8537,7 @@
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
     </row>
-    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -8560,7 +8563,7 @@
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>88</v>
       </c>
@@ -8592,7 +8595,7 @@
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
     </row>
-    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>90</v>
       </c>
@@ -8620,7 +8623,7 @@
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>93</v>
       </c>
@@ -8644,7 +8647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
         <v>95</v>
       </c>
@@ -8670,7 +8673,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
         <v>216</v>
       </c>
@@ -8698,7 +8701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
         <v>217</v>
       </c>
@@ -8725,7 +8728,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
         <v>218</v>
       </c>
@@ -8749,7 +8752,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
         <v>219</v>
       </c>
@@ -8773,7 +8776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -8790,7 +8793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -8809,7 +8812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -8826,7 +8829,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -8843,7 +8846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -8862,7 +8865,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -8872,7 +8875,7 @@
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -9285,17 +9288,17 @@
       <selection activeCell="M21" sqref="M21:M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="5.1796875" customWidth="1"/>
-    <col min="9" max="9" width="7.453125" customWidth="1"/>
-    <col min="11" max="11" width="12.81640625" customWidth="1"/>
-    <col min="12" max="12" width="8.81640625" customWidth="1"/>
-    <col min="13" max="13" width="8.453125" customWidth="1"/>
-    <col min="15" max="15" width="3.54296875" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" customWidth="1"/>
+    <col min="15" max="15" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>147</v>
       </c>
@@ -9316,7 +9319,7 @@
       <c r="N1" s="15"/>
       <c r="O1" s="15"/>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>136</v>
       </c>
@@ -9355,7 +9358,7 @@
       </c>
       <c r="O2" s="24"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -9372,7 +9375,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>155</v>
       </c>
@@ -9411,7 +9414,7 @@
       </c>
       <c r="O4" s="15"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>160</v>
       </c>
@@ -9450,7 +9453,7 @@
       </c>
       <c r="O5" s="15"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>165</v>
       </c>
@@ -9475,7 +9478,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>167</v>
       </c>
@@ -9500,7 +9503,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>169</v>
       </c>
@@ -9525,7 +9528,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>171</v>
       </c>
@@ -9546,7 +9549,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -9563,7 +9566,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>88</v>
       </c>
@@ -9584,7 +9587,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
     </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -9601,7 +9604,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>173</v>
       </c>
@@ -9624,7 +9627,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>175</v>
       </c>
@@ -9649,7 +9652,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>177</v>
       </c>
@@ -9670,7 +9673,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>178</v>
       </c>
@@ -9695,7 +9698,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>180</v>
       </c>
@@ -9711,7 +9714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>181</v>
       </c>
@@ -9727,7 +9730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -9739,7 +9742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>90</v>
       </c>
@@ -9755,7 +9758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -9767,7 +9770,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>155</v>
       </c>
@@ -9783,7 +9786,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>160</v>
       </c>
@@ -9799,7 +9802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>165</v>
       </c>
@@ -9815,7 +9818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>167</v>
       </c>
@@ -9831,7 +9834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>169</v>
       </c>
@@ -9847,7 +9850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>171</v>
       </c>
@@ -9863,7 +9866,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -9875,7 +9878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -9887,7 +9890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -9899,7 +9902,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -9911,7 +9914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -9931,12 +9934,12 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="127.453125" customWidth="1"/>
+    <col min="1" max="1" width="127.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>182</v>
       </c>
@@ -9955,18 +9958,18 @@
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" customWidth="1"/>
-    <col min="4" max="4" width="5.90625" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" customWidth="1"/>
-    <col min="6" max="6" width="8.453125" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" customWidth="1"/>
-    <col min="8" max="8" width="6.54296875" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>187</v>
       </c>
@@ -9995,7 +9998,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -10030,7 +10033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>36</v>
       </c>
@@ -10065,7 +10068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>65</v>
       </c>
@@ -10100,7 +10103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>22</v>
       </c>
@@ -10135,7 +10138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>86</v>
       </c>
@@ -10170,7 +10173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>206</v>
       </c>
@@ -10205,7 +10208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="str">
         <f>CharacterSheet!A8</f>
         <v>Luck</v>
@@ -10238,7 +10241,7 @@
       </c>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="str">
         <f>CharacterSheet!A9</f>
         <v>Glaube</v>
@@ -10271,7 +10274,7 @@
       </c>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>196</v>
       </c>
@@ -10305,7 +10308,7 @@
       <c r="J10" s="100"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>197</v>
       </c>
@@ -10338,7 +10341,7 @@
       <c r="J11" s="100"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>198</v>
       </c>
@@ -10368,7 +10371,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>199</v>
       </c>
@@ -10399,7 +10402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>262</v>
       </c>
@@ -10430,7 +10433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>185</v>
       </c>
@@ -10461,7 +10464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>192</v>
       </c>
@@ -10492,7 +10495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>201</v>
       </c>
@@ -10523,7 +10526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>202</v>
       </c>
@@ -10554,7 +10557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>195</v>
       </c>
@@ -10585,7 +10588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="95" t="s">
         <v>69</v>
       </c>
@@ -10616,7 +10619,7 @@
         <v>Mittel</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="95" t="s">
         <v>88</v>
       </c>
@@ -10647,7 +10650,7 @@
         <v>Leicht</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="95" t="s">
         <v>90</v>
       </c>
@@ -10679,7 +10682,7 @@
         <v>Leicht</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="95" t="s">
         <v>210</v>
       </c>
@@ -10711,7 +10714,7 @@
         <v>Mittel</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="95" t="s">
         <v>211</v>
       </c>
@@ -10743,7 +10746,7 @@
         <v>Mittel</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="95" t="s">
         <v>214</v>
       </c>
@@ -10768,7 +10771,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="95" t="s">
         <v>215</v>
       </c>
@@ -10792,7 +10795,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="95" t="s">
         <v>212</v>
       </c>
@@ -10816,7 +10819,7 @@
         <v>Plötze</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="95" t="s">
         <v>213</v>
       </c>
@@ -10826,7 +10829,7 @@
       </c>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="100" t="s">
         <v>265</v>
       </c>
@@ -10836,10 +10839,10 @@
       </c>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C31" s="15"/>
     </row>
   </sheetData>

--- a/DownloadContainer/CCrand.xlsx
+++ b/DownloadContainer/CCrand.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\###Orbis\Container\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\User\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F427F39-770E-4204-B04B-D77F55528976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A82132-EB57-40A9-9624-8855F11AF3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="314">
   <si>
     <t>Ausgerüstet:</t>
   </si>
@@ -455,9 +455,6 @@
     <t>Attributes</t>
   </si>
   <si>
-    <t>Mensch</t>
-  </si>
-  <si>
     <t>Atributpunkte</t>
   </si>
   <si>
@@ -468,9 +465,6 @@
   </si>
   <si>
     <t>Contacts:</t>
-  </si>
-  <si>
-    <t>Points: cha+exp+luck</t>
   </si>
   <si>
     <t>Int*2</t>
@@ -1994,6 +1988,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2061,7 +2056,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -4062,8 +4056,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AE72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AD25" sqref="AD25"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AA22" sqref="AA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4100,23 +4094,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="149" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C1" s="150" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="149" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E1" s="151"/>
       <c r="F1" s="151"/>
       <c r="G1" s="151"/>
       <c r="H1" s="152"/>
-      <c r="J1" s="178" t="s">
-        <v>310</v>
-      </c>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
+      <c r="J1" s="179" t="s">
+        <v>308</v>
+      </c>
+      <c r="K1" s="179"/>
+      <c r="L1" s="179"/>
       <c r="Q1" s="151" t="s">
         <v>4</v>
       </c>
@@ -4136,7 +4130,7 @@
       </c>
       <c r="X1" s="151"/>
       <c r="Z1" s="155" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AA1" s="155" t="s">
         <v>9</v>
@@ -4147,7 +4141,7 @@
     </row>
     <row r="2" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="171" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B2" s="113" t="s">
         <v>12</v>
@@ -4163,11 +4157,11 @@
       <c r="G2" s="114"/>
       <c r="H2" s="114"/>
       <c r="I2" s="110"/>
-      <c r="J2" s="179">
+      <c r="J2" s="180">
         <v>100</v>
       </c>
-      <c r="K2" s="179"/>
-      <c r="L2" s="179"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
       <c r="M2" s="110"/>
       <c r="N2" s="110"/>
       <c r="O2" s="110"/>
@@ -4180,12 +4174,12 @@
         <v>12</v>
       </c>
       <c r="S2" s="160"/>
-      <c r="T2" s="183" t="s">
+      <c r="T2" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="184"/>
-      <c r="V2" s="184"/>
-      <c r="W2" s="185"/>
+      <c r="U2" s="185"/>
+      <c r="V2" s="185"/>
+      <c r="W2" s="186"/>
       <c r="Y2" s="15"/>
       <c r="Z2" s="156"/>
       <c r="AA2" s="156" t="s">
@@ -4258,7 +4252,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="172" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B4" s="121"/>
       <c r="C4" s="121"/>
@@ -4311,7 +4305,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="121" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C5" s="121">
         <v>15</v>
@@ -4332,7 +4326,7 @@
       <c r="O5" s="110"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="47" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="R5" s="83">
         <f>CharacterSheet!B5+S5</f>
@@ -4418,7 +4412,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="126" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F7" s="114"/>
       <c r="G7" s="114"/>
@@ -4432,7 +4426,7 @@
       <c r="O7" s="110"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="86" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="R7" s="87">
         <f>CharacterSheet!B7+S7</f>
@@ -4440,13 +4434,13 @@
       </c>
       <c r="S7" s="161"/>
       <c r="T7" s="47" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="U7" s="11" t="s">
         <v>86</v>
       </c>
       <c r="V7" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="W7" s="48">
         <f>CharacterSheet!I6</f>
@@ -4465,7 +4459,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="110" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C8" s="130">
         <v>10.5</v>
@@ -4546,7 +4540,7 @@
       <c r="O9" s="129"/>
       <c r="P9" s="15"/>
       <c r="Q9" s="92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="R9" s="93">
         <f>CharacterSheet!B9+S9</f>
@@ -4648,7 +4642,7 @@
         <v>55</v>
       </c>
       <c r="B11" s="110" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C11" s="130">
         <v>10.5</v>
@@ -4678,12 +4672,12 @@
         <v>10</v>
       </c>
       <c r="S11" s="161"/>
-      <c r="T11" s="189" t="s">
+      <c r="T11" s="190" t="s">
         <v>50</v>
       </c>
-      <c r="U11" s="190"/>
-      <c r="V11" s="190"/>
-      <c r="W11" s="191"/>
+      <c r="U11" s="191"/>
+      <c r="V11" s="191"/>
+      <c r="W11" s="192"/>
       <c r="Y11" s="15"/>
       <c r="Z11" s="172" t="s">
         <v>54</v>
@@ -4702,7 +4696,7 @@
         <v>58</v>
       </c>
       <c r="B12" s="125" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C12" s="134">
         <v>10.5</v>
@@ -4725,7 +4719,7 @@
       <c r="O12" s="131"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="78" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R12" s="94">
         <f>ROUNDUP((R7+R5)/2,0)</f>
@@ -4798,7 +4792,7 @@
       </c>
       <c r="Y13" s="15"/>
       <c r="Z13" s="176" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AA13" s="172" t="str">
         <f>IF(AA9&gt;30,"Schwer",IF(AA9&gt;18,"Mittel","Leicht"))</f>
@@ -4826,7 +4820,7 @@
       <c r="N14" s="110"/>
       <c r="O14" s="131"/>
       <c r="P14" s="110"/>
-      <c r="Q14" s="186" t="s">
+      <c r="Q14" s="187" t="s">
         <v>59</v>
       </c>
       <c r="R14" s="110"/>
@@ -4871,7 +4865,7 @@
       <c r="N15" s="110"/>
       <c r="O15" s="131"/>
       <c r="P15" s="110"/>
-      <c r="Q15" s="187"/>
+      <c r="Q15" s="188"/>
       <c r="R15" s="110"/>
       <c r="S15" s="111"/>
       <c r="T15" s="49" t="s">
@@ -4881,7 +4875,7 @@
         <v>36</v>
       </c>
       <c r="V15" s="43" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="W15" s="50">
         <f>CharacterSheet!I13</f>
@@ -4923,15 +4917,15 @@
       <c r="N16" s="110"/>
       <c r="O16" s="131"/>
       <c r="P16" s="110"/>
-      <c r="Q16" s="188"/>
+      <c r="Q16" s="189"/>
       <c r="R16" s="110"/>
       <c r="S16" s="112"/>
-      <c r="T16" s="183" t="s">
+      <c r="T16" s="184" t="s">
         <v>62</v>
       </c>
-      <c r="U16" s="184"/>
-      <c r="V16" s="184"/>
-      <c r="W16" s="185"/>
+      <c r="U16" s="185"/>
+      <c r="V16" s="185"/>
+      <c r="W16" s="186"/>
       <c r="Y16" s="15"/>
       <c r="Z16" s="135" t="s">
         <v>66</v>
@@ -4954,7 +4948,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="178">
         <f>B17+C17</f>
         <v>12</v>
       </c>
@@ -4982,7 +4976,7 @@
         <v>65</v>
       </c>
       <c r="V17" s="51" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="W17" s="46">
         <f>CharacterSheet!I14</f>
@@ -5132,7 +5126,7 @@
     </row>
     <row r="20" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="167" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B20" s="167">
         <f>CharacterSheet!B19</f>
@@ -5189,7 +5183,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="167" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B21" s="167">
         <f>CharacterSheet!B20</f>
@@ -5230,7 +5224,7 @@
         <v>86</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="W21" s="48">
         <f>CharacterSheet!I18</f>
@@ -5246,7 +5240,7 @@
     </row>
     <row r="22" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="167" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B22" s="167">
         <f>CharacterSheet!B21</f>
@@ -5286,7 +5280,7 @@
         <v>89</v>
       </c>
       <c r="U22" s="52" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="V22" s="84" t="s">
         <v>80</v>
@@ -5305,7 +5299,7 @@
     </row>
     <row r="23" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="167" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B23" s="167">
         <f>CharacterSheet!B22</f>
@@ -5339,12 +5333,12 @@
       </c>
       <c r="R23" s="120"/>
       <c r="S23" s="112"/>
-      <c r="T23" s="183" t="s">
+      <c r="T23" s="184" t="s">
         <v>92</v>
       </c>
-      <c r="U23" s="184"/>
-      <c r="V23" s="184"/>
-      <c r="W23" s="185"/>
+      <c r="U23" s="185"/>
+      <c r="V23" s="185"/>
+      <c r="W23" s="186"/>
       <c r="Y23" s="15"/>
       <c r="Z23" s="110"/>
       <c r="AA23" s="110"/>
@@ -5397,16 +5391,16 @@
     </row>
     <row r="25" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="168" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B25" s="142" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C25" s="142" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="143" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E25" s="110" t="str">
         <f>IF(D21=0,"Verkrüppelt",IF(D21&lt;=B21*0.2,"Verstümmelt",""))</f>
@@ -5473,12 +5467,12 @@
       <c r="Q26" s="110"/>
       <c r="R26" s="110"/>
       <c r="S26" s="112"/>
-      <c r="T26" s="183" t="s">
+      <c r="T26" s="184" t="s">
         <v>97</v>
       </c>
-      <c r="U26" s="184"/>
-      <c r="V26" s="184"/>
-      <c r="W26" s="185"/>
+      <c r="U26" s="185"/>
+      <c r="V26" s="185"/>
+      <c r="W26" s="186"/>
       <c r="Y26" s="15"/>
       <c r="Z26" s="110"/>
       <c r="AA26" s="110"/>
@@ -5551,13 +5545,13 @@
       <c r="F28" s="110"/>
       <c r="G28" s="110"/>
       <c r="H28" s="110"/>
-      <c r="I28" s="192" t="s">
-        <v>254</v>
-      </c>
-      <c r="J28" s="193"/>
-      <c r="K28" s="193"/>
-      <c r="L28" s="193"/>
-      <c r="M28" s="194"/>
+      <c r="I28" s="193" t="s">
+        <v>252</v>
+      </c>
+      <c r="J28" s="194"/>
+      <c r="K28" s="194"/>
+      <c r="L28" s="194"/>
+      <c r="M28" s="195"/>
       <c r="N28" s="110"/>
       <c r="O28" s="110"/>
       <c r="P28" s="110"/>
@@ -5594,13 +5588,13 @@
       <c r="F29" s="110"/>
       <c r="G29" s="146"/>
       <c r="H29" s="146"/>
-      <c r="I29" s="180" t="s">
-        <v>286</v>
-      </c>
-      <c r="J29" s="181"/>
-      <c r="K29" s="181"/>
-      <c r="L29" s="181"/>
-      <c r="M29" s="182"/>
+      <c r="I29" s="181" t="s">
+        <v>284</v>
+      </c>
+      <c r="J29" s="182"/>
+      <c r="K29" s="182"/>
+      <c r="L29" s="182"/>
+      <c r="M29" s="183"/>
       <c r="N29" s="110"/>
       <c r="O29" s="110"/>
       <c r="P29" s="110"/>
@@ -5614,7 +5608,7 @@
         <v>86</v>
       </c>
       <c r="V29" s="43" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="W29" s="50">
         <f>CharacterSheet!I24</f>
@@ -5656,12 +5650,12 @@
       <c r="Q30" s="110"/>
       <c r="R30" s="110"/>
       <c r="S30" s="112"/>
-      <c r="T30" s="183" t="s">
+      <c r="T30" s="184" t="s">
         <v>101</v>
       </c>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="185"/>
+      <c r="U30" s="185"/>
+      <c r="V30" s="185"/>
+      <c r="W30" s="186"/>
       <c r="Y30" s="15"/>
       <c r="Z30" s="110"/>
       <c r="AA30" s="110"/>
@@ -5694,7 +5688,7 @@
         <v>102</v>
       </c>
       <c r="U31" s="56" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="V31" s="56"/>
       <c r="W31" s="46">
@@ -5730,10 +5724,10 @@
       <c r="R32" s="110"/>
       <c r="S32" s="111"/>
       <c r="T32" s="47" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U32" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="V32" s="38"/>
       <c r="W32" s="48">
@@ -5772,7 +5766,7 @@
         <v>103</v>
       </c>
       <c r="U33" s="57" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="V33" s="57"/>
       <c r="W33" s="50">
@@ -6531,12 +6525,12 @@
   <sheetData>
     <row r="1" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -6546,17 +6540,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -7239,28 +7233,28 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="101" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="102" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1" s="96" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="D1" s="97" t="s">
         <v>275</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="E1" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="F1" s="27" t="s">
         <v>277</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>278</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>279</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I1" s="98" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J1" s="105" t="s">
         <v>110</v>
@@ -7285,12 +7279,12 @@
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D2" s="18">
         <v>1</v>
       </c>
-      <c r="E2" s="195"/>
+      <c r="E2" s="196"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="I2" s="106"/>
@@ -7307,12 +7301,12 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D3" s="20">
         <v>0</v>
       </c>
-      <c r="E3" s="196"/>
+      <c r="E3" s="197"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="I3" s="22" t="s">
@@ -7337,22 +7331,22 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="104" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D4" s="20">
         <v>1</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="I4" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J4" s="15">
         <v>22500</v>
@@ -7367,22 +7361,22 @@
         <v>1</v>
       </c>
       <c r="N4" s="107" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O4" s="107"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D5" s="20">
         <v>0</v>
       </c>
-      <c r="E5" s="195"/>
+      <c r="E5" s="196"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="I5" s="15"/>
@@ -7395,16 +7389,16 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="104" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="19"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="196"/>
+      <c r="E6" s="197"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="I6" s="22" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J6" s="22" t="s">
         <v>110</v>
@@ -7425,13 +7419,13 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="104" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="19"/>
       <c r="D7" s="20"/>
       <c r="E7" s="27" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
@@ -7445,12 +7439,12 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="104" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="19"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="195"/>
+      <c r="E8" s="196"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="I8" s="15"/>
@@ -7463,12 +7457,12 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="104" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="19"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="196"/>
+      <c r="E9" s="197"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="I9" s="22" t="s">
@@ -7491,7 +7485,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="104" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="19"/>
@@ -7509,7 +7503,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="19"/>
@@ -7533,13 +7527,13 @@
         <v>4</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="19"/>
@@ -7548,7 +7542,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="I12" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J12" s="15">
         <f>900*M12</f>
@@ -7563,13 +7557,13 @@
         <v>4</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="19"/>
@@ -7578,7 +7572,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="I13" s="15" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J13" s="15">
         <f>420*M13</f>
@@ -7593,13 +7587,13 @@
         <v>4</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="19"/>
@@ -7608,7 +7602,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="I14" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J14" s="15">
         <f>900*M14</f>
@@ -7623,13 +7617,13 @@
         <v>4</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O14" s="15"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="19"/>
@@ -7638,7 +7632,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="I15" s="15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J15" s="15">
         <f>5000*M15</f>
@@ -7653,13 +7647,13 @@
         <v>2</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O15" s="15"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="19"/>
@@ -7668,7 +7662,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="I16" s="15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J16" s="15">
         <f>5000*M16</f>
@@ -7683,13 +7677,13 @@
         <v>3</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O16" s="15"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="19"/>
@@ -7698,7 +7692,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="I17" s="15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J17" s="15">
         <f>3000*M17</f>
@@ -7713,13 +7707,13 @@
         <v>1</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O17" s="15"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="19"/>
@@ -7728,7 +7722,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="I18" s="15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J18" s="15">
         <f>2000*M18</f>
@@ -7743,13 +7737,13 @@
         <v>2</v>
       </c>
       <c r="N18" s="108" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O18" s="15"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="19"/>
@@ -7758,7 +7752,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="I19" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J19" s="15">
         <v>4200</v>
@@ -7771,7 +7765,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="19"/>
@@ -7789,7 +7783,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="19"/>
@@ -7798,7 +7792,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="I21" s="22" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J21" s="22" t="s">
         <v>110</v>
@@ -7819,7 +7813,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="19"/>
@@ -7837,7 +7831,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="19"/>
@@ -7846,7 +7840,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="I23" s="15" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J23" s="15">
         <v>50</v>
@@ -7863,7 +7857,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="21"/>
@@ -7896,7 +7890,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="I25" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J25" s="15">
         <v>400</v>
@@ -8057,8 +8051,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8066,7 +8060,7 @@
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="4.5703125" customWidth="1"/>
     <col min="7" max="7" width="5.42578125" style="15" customWidth="1"/>
@@ -8080,14 +8074,12 @@
       <c r="A1" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="27" t="s">
         <v>138</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>139</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>6</v>
@@ -8097,7 +8089,7 @@
       </c>
       <c r="G1" s="27"/>
       <c r="H1" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I1" s="27" t="s">
         <v>8</v>
@@ -8107,16 +8099,11 @@
         <v>9</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>142</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="M1" s="15"/>
       <c r="N1" s="15"/>
-      <c r="O1" s="15">
-        <f>B4+B7+B8+B9</f>
-        <v>34</v>
-      </c>
+      <c r="O1" s="15"/>
       <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8149,7 +8136,7 @@
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>69</v>
@@ -8253,7 +8240,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B5" s="74">
         <v>13</v>
@@ -8299,13 +8286,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>86</v>
       </c>
       <c r="G6" s="65" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="70">
@@ -8321,7 +8308,7 @@
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B7" s="67">
         <v>12</v>
@@ -8391,7 +8378,7 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B9" s="75">
         <v>5</v>
@@ -8512,7 +8499,7 @@
         <v>69</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -8523,7 +8510,7 @@
         <v>36</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="71">
@@ -8637,10 +8624,10 @@
         <v>78</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G17" s="48" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="70">
@@ -8664,7 +8651,7 @@
         <v>86</v>
       </c>
       <c r="G18" s="48" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H18" s="7">
         <v>-8</v>
@@ -8675,7 +8662,7 @@
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B19" s="34">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
@@ -8685,16 +8672,16 @@
         <v>25</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E19" s="49" t="s">
         <v>89</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G19" s="62" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="71">
@@ -8703,7 +8690,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B20" s="34">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
@@ -8730,7 +8717,7 @@
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B21" s="34">
         <f>ROUNDUP(CharacterSheet!$B$15*0.25,0)</f>
@@ -8754,14 +8741,14 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B22" s="34">
         <f>ROUNDUP(CharacterSheet!$B$15*0.25,0)</f>
         <v>69</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="45" t="s">
@@ -8805,7 +8792,7 @@
         <v>86</v>
       </c>
       <c r="G24" s="50" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="71">
@@ -8821,7 +8808,7 @@
         <v>102</v>
       </c>
       <c r="F25" s="56" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G25" s="66"/>
       <c r="H25" s="7"/>
@@ -8835,10 +8822,10 @@
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="47" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G26" s="67"/>
       <c r="H26" s="7"/>
@@ -8855,7 +8842,7 @@
         <v>103</v>
       </c>
       <c r="F27" s="57" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G27" s="68"/>
       <c r="H27" s="22">
@@ -8889,6 +8876,7 @@
       <c r="I30" s="15"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="F3:G4 F6:G6">
     <cfRule type="containsText" dxfId="114" priority="110" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F3)))</formula>
@@ -9300,12 +9288,12 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -9324,37 +9312,37 @@
         <v>136</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="J2" s="91" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" s="91" t="s">
+        <v>145</v>
+      </c>
+      <c r="L2" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="I2" s="91" t="s">
+      <c r="M2" s="91" t="s">
         <v>151</v>
       </c>
-      <c r="J2" s="91" t="s">
-        <v>140</v>
-      </c>
-      <c r="K2" s="91" t="s">
-        <v>147</v>
-      </c>
-      <c r="L2" s="91" t="s">
+      <c r="N2" s="79" t="s">
         <v>152</v>
-      </c>
-      <c r="M2" s="91" t="s">
-        <v>153</v>
-      </c>
-      <c r="N2" s="79" t="s">
-        <v>154</v>
       </c>
       <c r="O2" s="24"/>
     </row>
@@ -9377,14 +9365,14 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B4" s="15">
         <v>1</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E4" s="15">
         <v>1</v>
@@ -9392,10 +9380,10 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J4" s="15">
         <v>10</v>
@@ -9410,20 +9398,20 @@
         <v>0</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O4" s="15"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B5" s="15">
         <v>2</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E5" s="15">
         <v>2</v>
@@ -9431,10 +9419,10 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J5" s="15">
         <v>10</v>
@@ -9449,20 +9437,20 @@
         <v>2</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O5" s="15"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B6" s="15">
         <v>4</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E6" s="15">
         <v>4</v>
@@ -9480,14 +9468,14 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B7" s="15">
         <v>6</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E7" s="15">
         <v>6</v>
@@ -9505,14 +9493,14 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B8" s="15">
         <v>8</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E8" s="15">
         <v>8</v>
@@ -9530,7 +9518,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B9" s="15">
         <v>10</v>
@@ -9571,7 +9559,7 @@
         <v>88</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -9606,7 +9594,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B13" s="15">
         <v>0.5</v>
@@ -9614,7 +9602,7 @@
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="15"/>
@@ -9629,7 +9617,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B14" s="15">
         <v>1</v>
@@ -9637,7 +9625,7 @@
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F14" s="20">
         <v>4</v>
@@ -9654,7 +9642,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B15" s="15">
         <v>2</v>
@@ -9675,7 +9663,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B16" s="15">
         <v>4</v>
@@ -9683,10 +9671,10 @@
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -9700,7 +9688,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B17" s="15">
         <v>6</v>
@@ -9716,7 +9704,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B18" s="15">
         <v>8</v>
@@ -9747,7 +9735,7 @@
         <v>90</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -9772,7 +9760,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B22" s="15">
         <v>1</v>
@@ -9788,7 +9776,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B23" s="15">
         <v>2</v>
@@ -9804,7 +9792,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B24" s="15">
         <v>3</v>
@@ -9820,7 +9808,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B25" s="15">
         <v>4</v>
@@ -9836,7 +9824,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B26" s="15">
         <v>5</v>
@@ -9852,7 +9840,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B27" s="15">
         <v>6</v>
@@ -9941,7 +9929,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -9971,31 +9959,31 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="95" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F1" s="95" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G1" s="100" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H1" s="100" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I1" s="100" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -10015,14 +10003,14 @@
         <v>29</v>
       </c>
       <c r="E2" s="100" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F2" s="15">
         <f>CharacterSheet!B15</f>
         <v>275</v>
       </c>
       <c r="G2" s="100" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H2">
         <f>Status!C26</f>
@@ -10050,14 +10038,14 @@
         <v>30</v>
       </c>
       <c r="E3" s="100" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F3" s="15">
         <f>CharacterSheet!B16</f>
         <v>12</v>
       </c>
       <c r="G3" s="100" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H3" s="15">
         <f>Status!C27</f>
@@ -10085,14 +10073,14 @@
         <v>20</v>
       </c>
       <c r="E4" s="95" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F4" s="15">
         <f>CharacterSheet!B17</f>
         <v>55</v>
       </c>
       <c r="G4" s="100" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H4" s="15">
         <f>Status!C28</f>
@@ -10120,14 +10108,14 @@
         <v>30</v>
       </c>
       <c r="E5" s="95" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F5" s="15">
         <f>CharacterSheet!B18</f>
         <v>193</v>
       </c>
       <c r="G5" s="100" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H5">
         <f>Status!C30</f>
@@ -10155,14 +10143,14 @@
         <v>20</v>
       </c>
       <c r="E6" s="95" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F6" s="15">
         <f>CharacterSheet!B19</f>
         <v>55</v>
       </c>
       <c r="G6" s="100" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H6">
         <f>Status!D2</f>
@@ -10175,7 +10163,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B7" s="15">
         <f>CharacterSheet!B7</f>
@@ -10190,14 +10178,14 @@
         <v>20</v>
       </c>
       <c r="E7" s="95" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F7" s="15">
         <f>CharacterSheet!B20</f>
         <v>55</v>
       </c>
       <c r="G7" s="100" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H7" s="15">
         <f>Status!D3</f>
@@ -10226,14 +10214,14 @@
         <v>20</v>
       </c>
       <c r="E8" s="95" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F8" s="15">
         <f>CharacterSheet!B21</f>
         <v>69</v>
       </c>
       <c r="G8" s="100" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H8" s="15">
         <f>Status!D4</f>
@@ -10259,14 +10247,14 @@
         <v>20</v>
       </c>
       <c r="E9" s="95" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F9" s="15">
         <f>CharacterSheet!B22</f>
         <v>69</v>
       </c>
       <c r="G9" s="100" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H9" s="15">
         <f>Status!D5</f>
@@ -10276,7 +10264,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B10" s="15">
         <f>CharacterSheet!B10</f>
@@ -10291,14 +10279,14 @@
         <v>20</v>
       </c>
       <c r="E10" s="100" t="s">
-        <v>203</v>
-      </c>
-      <c r="F10" s="15" t="str">
+        <v>201</v>
+      </c>
+      <c r="F10" s="15">
         <f>CharacterSheet!B1</f>
-        <v>Mensch</v>
+        <v>0</v>
       </c>
       <c r="G10" s="100" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H10">
         <f>Status!D8</f>
@@ -10310,7 +10298,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B11" s="15">
         <f>CharacterSheet!B11</f>
@@ -10325,13 +10313,13 @@
         <v>24</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H11" s="15">
         <f>Status!D9</f>
@@ -10343,7 +10331,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B12">
         <f>Inventar!G22</f>
@@ -10358,13 +10346,13 @@
         <v>20</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H12" s="15">
         <f>Status!D10</f>
@@ -10373,7 +10361,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B13">
         <f>Inventar!G19</f>
@@ -10388,14 +10376,14 @@
         <v>20</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F13" t="str">
         <f>Status!B2</f>
         <v>Schwert</v>
       </c>
       <c r="G13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H13" s="15">
         <f>Status!D11</f>
@@ -10404,7 +10392,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B14" s="15">
         <f>Status!AA11</f>
@@ -10419,14 +10407,14 @@
         <v>20</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F14" s="15" t="str">
         <f>Status!B3</f>
         <v>Dolch</v>
       </c>
       <c r="G14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H14" s="15">
         <f>Status!D12</f>
@@ -10435,7 +10423,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B15" t="str">
         <f>Status!AA13</f>
@@ -10450,14 +10438,14 @@
         <v>35</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F15" s="15">
         <f>Status!B4</f>
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H15">
         <f>Status!E8</f>
@@ -10466,7 +10454,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B16">
         <f>Status!R12</f>
@@ -10488,7 +10476,7 @@
         <v>Leichter Schild</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H16" s="15">
         <f>Status!E9</f>
@@ -10497,7 +10485,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B17">
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
@@ -10512,14 +10500,14 @@
         <v>20</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F17" s="15">
         <f>Status!C2</f>
         <v>42</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H17" s="15">
         <f>Status!E10</f>
@@ -10528,7 +10516,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B18" s="15">
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
@@ -10543,14 +10531,14 @@
         <v>28</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F18" s="15">
         <f>Status!C3</f>
         <v>12</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H18" s="15">
         <f>Status!E11</f>
@@ -10559,7 +10547,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B19">
         <f>CharacterSheet!B8+CharacterSheet!B9</f>
@@ -10574,14 +10562,14 @@
         <v>20</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F19" s="15">
         <f>Status!C4</f>
         <v>0</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H19" s="15">
         <f>Status!E12</f>
@@ -10605,14 +10593,14 @@
         <v>20</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F20" s="15">
         <f>Status!C5</f>
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H20" t="str">
         <f>Status!B8</f>
@@ -10636,14 +10624,14 @@
         <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F21" s="13">
         <f>Status!C13</f>
         <v>43.5</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H21" s="15" t="str">
         <f>Status!B9</f>
@@ -10675,7 +10663,7 @@
         <v>10.5</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H22" s="15" t="str">
         <f>Status!B10</f>
@@ -10684,7 +10672,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="95" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B23" s="15">
         <f>Status!D18</f>
@@ -10707,7 +10695,7 @@
         <v>6</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H23" s="15" t="str">
         <f>Status!B11</f>
@@ -10716,7 +10704,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="95" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B24" s="15">
         <f>Status!D19</f>
@@ -10739,7 +10727,7 @@
         <v>6</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H24" s="15" t="str">
         <f>Status!B12</f>
@@ -10748,7 +10736,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="95" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B25" s="15">
         <f>Status!D20</f>
@@ -10773,14 +10761,14 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="95" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B26" s="15">
         <f>Status!D21</f>
         <v>55</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D26" s="15">
         <f>CharacterSheet!I26</f>
@@ -10797,7 +10785,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="95" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B27" s="15">
         <f>Status!D22</f>
@@ -10812,7 +10800,7 @@
         <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F27" t="str">
         <f>Status!I29</f>
@@ -10821,7 +10809,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="95" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B28" s="15">
         <f>Status!D23</f>
@@ -10831,7 +10819,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="100" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B29">
         <f>Status!Q17</f>

--- a/DownloadContainer/CCrand.xlsx
+++ b/DownloadContainer/CCrand.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\User\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\###Orbis\DownloadContainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A82132-EB57-40A9-9624-8855F11AF3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7130AE3F-412C-4791-948E-EFFB2C9FD039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
@@ -1707,25 +1707,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -1742,10 +1737,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1779,13 +1772,8 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1795,15 +1783,12 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2055,6 +2040,63 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4065,8 +4107,8 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" style="11" customWidth="1"/>
     <col min="6" max="7" width="3.85546875" customWidth="1"/>
     <col min="8" max="8" width="1.42578125" customWidth="1"/>
     <col min="9" max="9" width="4.28515625" customWidth="1"/>
@@ -4078,2023 +4120,2023 @@
     <col min="15" max="15" width="3.42578125" customWidth="1"/>
     <col min="16" max="16" width="3.85546875" customWidth="1"/>
     <col min="17" max="17" width="18.140625" customWidth="1"/>
-    <col min="18" max="18" width="5.140625" style="41" customWidth="1"/>
+    <col min="18" max="18" width="5.140625" style="34" customWidth="1"/>
     <col min="19" max="19" width="5.140625" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" style="15" customWidth="1"/>
-    <col min="21" max="21" width="6.28515625" style="15" customWidth="1"/>
-    <col min="22" max="22" width="6.42578125" style="15" customWidth="1"/>
-    <col min="23" max="23" width="3.85546875" style="15" customWidth="1"/>
-    <col min="24" max="24" width="3.42578125" style="7" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" style="11" customWidth="1"/>
+    <col min="21" max="21" width="6.28515625" style="11" customWidth="1"/>
+    <col min="22" max="22" width="6.42578125" style="11" customWidth="1"/>
+    <col min="23" max="23" width="3.85546875" style="11" customWidth="1"/>
+    <col min="24" max="24" width="3.42578125" style="5" customWidth="1"/>
     <col min="25" max="25" width="3.5703125" customWidth="1"/>
     <col min="26" max="27" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="153" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="148" t="s">
+    <row r="1" spans="1:31" s="138" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="134" t="s">
         <v>219</v>
       </c>
-      <c r="C1" s="150" t="s">
+      <c r="C1" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="149" t="s">
+      <c r="D1" s="134" t="s">
         <v>232</v>
       </c>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="152"/>
-      <c r="J1" s="179" t="s">
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="137"/>
+      <c r="J1" s="164" t="s">
         <v>308</v>
       </c>
-      <c r="K1" s="179"/>
-      <c r="L1" s="179"/>
-      <c r="Q1" s="151" t="s">
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="Q1" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="151"/>
-      <c r="S1" s="154" t="s">
+      <c r="R1" s="136"/>
+      <c r="S1" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="155" t="s">
+      <c r="T1" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="155" t="s">
+      <c r="U1" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="155"/>
-      <c r="W1" s="155" t="s">
+      <c r="V1" s="140"/>
+      <c r="W1" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="151"/>
-      <c r="Z1" s="155" t="s">
+      <c r="X1" s="136"/>
+      <c r="Z1" s="140" t="s">
         <v>271</v>
       </c>
-      <c r="AA1" s="155" t="s">
+      <c r="AA1" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="AB1" s="155" t="s">
+      <c r="AB1" s="140" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="156" t="s">
         <v>270</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="113">
+      <c r="C2" s="98">
         <v>42</v>
       </c>
-      <c r="D2" s="113">
+      <c r="D2" s="98">
         <v>2</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="180">
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="165">
         <v>100</v>
       </c>
-      <c r="K2" s="180"/>
-      <c r="L2" s="180"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="45" t="s">
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="72">
+      <c r="R2" s="62">
         <f>CharacterSheet!B2+S2</f>
         <v>12</v>
       </c>
-      <c r="S2" s="160"/>
-      <c r="T2" s="184" t="s">
+      <c r="S2" s="145"/>
+      <c r="T2" s="169" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="185"/>
-      <c r="V2" s="185"/>
-      <c r="W2" s="186"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="156"/>
-      <c r="AA2" s="156" t="s">
+      <c r="U2" s="170"/>
+      <c r="V2" s="170"/>
+      <c r="W2" s="171"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="141"/>
+      <c r="AA2" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="110" t="s">
+      <c r="AB2" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="110"/>
-      <c r="AD2" s="110"/>
-      <c r="AE2" s="110"/>
+      <c r="AC2" s="95"/>
+      <c r="AD2" s="95"/>
+      <c r="AE2" s="95"/>
     </row>
     <row r="3" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="172" t="s">
+      <c r="A3" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="121">
+      <c r="C3" s="106">
         <v>12</v>
       </c>
-      <c r="D3" s="121">
+      <c r="D3" s="106">
         <v>1</v>
       </c>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="47" t="s">
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="60">
+      <c r="R3" s="53">
         <f>CharacterSheet!B3+S3</f>
         <v>12</v>
       </c>
-      <c r="S3" s="161"/>
-      <c r="T3" s="92" t="s">
+      <c r="S3" s="146"/>
+      <c r="T3" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="31" t="s">
+      <c r="U3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="31" t="s">
+      <c r="V3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="109">
+      <c r="W3" s="94">
         <f>CharacterSheet!I2</f>
         <v>29</v>
       </c>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="157"/>
-      <c r="AA3" s="157" t="s">
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="142"/>
+      <c r="AA3" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="AB3" s="110" t="s">
+      <c r="AB3" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="110"/>
-      <c r="AE3" s="110"/>
+      <c r="AC3" s="95"/>
+      <c r="AD3" s="95"/>
+      <c r="AE3" s="95"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="172" t="s">
+      <c r="A4" s="157" t="s">
         <v>223</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="47" t="s">
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="73">
+      <c r="R4" s="63">
         <f>CharacterSheet!B4+B4</f>
         <v>12</v>
       </c>
-      <c r="S4" s="161"/>
-      <c r="T4" s="47" t="s">
+      <c r="S4" s="146"/>
+      <c r="T4" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="U4" s="39" t="s">
+      <c r="U4" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="39" t="s">
+      <c r="V4" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="48">
+      <c r="W4" s="41">
         <f>CharacterSheet!I3</f>
         <v>30</v>
       </c>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="157"/>
-      <c r="AA4" s="157"/>
-      <c r="AB4" s="110" t="s">
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="142"/>
+      <c r="AA4" s="142"/>
+      <c r="AB4" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="AC4" s="110"/>
-      <c r="AD4" s="110"/>
-      <c r="AE4" s="110"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="95"/>
+      <c r="AE4" s="95"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="172" t="s">
+      <c r="A5" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="106" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="121">
+      <c r="C5" s="106">
         <v>15</v>
       </c>
-      <c r="D5" s="121">
+      <c r="D5" s="106">
         <v>1</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="47" t="s">
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="R5" s="83">
+      <c r="R5" s="69">
         <f>CharacterSheet!B5+S5</f>
         <v>13</v>
       </c>
-      <c r="S5" s="161"/>
-      <c r="T5" s="47" t="s">
+      <c r="S5" s="146"/>
+      <c r="T5" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="39" t="s">
+      <c r="U5" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="39"/>
-      <c r="W5" s="48">
+      <c r="V5" s="32"/>
+      <c r="W5" s="41">
         <f>CharacterSheet!I4</f>
         <v>20</v>
       </c>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="157"/>
-      <c r="AA5" s="157"/>
-      <c r="AB5" s="110"/>
-      <c r="AC5" s="110"/>
-      <c r="AD5" s="110"/>
-      <c r="AE5" s="110"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="142"/>
+      <c r="AA5" s="142"/>
+      <c r="AB5" s="95"/>
+      <c r="AC5" s="95"/>
+      <c r="AD5" s="95"/>
+      <c r="AE5" s="95"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="152"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="110"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="47" t="s">
+      <c r="A6" s="137"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="R6" s="65">
+      <c r="R6" s="58">
         <f>CharacterSheet!B6+S6</f>
         <v>10</v>
       </c>
-      <c r="S6" s="161"/>
-      <c r="T6" s="47" t="s">
+      <c r="S6" s="146"/>
+      <c r="T6" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="U6" s="11" t="s">
+      <c r="U6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="V6" s="11" t="s">
+      <c r="V6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="W6" s="48">
+      <c r="W6" s="41">
         <f>CharacterSheet!I5</f>
         <v>30</v>
       </c>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="157"/>
-      <c r="AA6" s="157"/>
-      <c r="AB6" s="110"/>
-      <c r="AC6" s="110"/>
-      <c r="AD6" s="110"/>
-      <c r="AE6" s="110"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="142"/>
+      <c r="AA6" s="142"/>
+      <c r="AB6" s="95"/>
+      <c r="AC6" s="95"/>
+      <c r="AD6" s="95"/>
+      <c r="AE6" s="95"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="173" t="s">
+      <c r="A7" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="127" t="s">
+      <c r="C7" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="128" t="s">
+      <c r="D7" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="126" t="s">
+      <c r="E7" s="111" t="s">
         <v>232</v>
       </c>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="86" t="s">
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="R7" s="87">
+      <c r="R7" s="73">
         <f>CharacterSheet!B7+S7</f>
         <v>12</v>
       </c>
-      <c r="S7" s="161"/>
-      <c r="T7" s="47" t="s">
+      <c r="S7" s="146"/>
+      <c r="T7" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="U7" s="11" t="s">
+      <c r="U7" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="V7" s="14" t="s">
+      <c r="V7" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="W7" s="48">
+      <c r="W7" s="41">
         <f>CharacterSheet!I6</f>
         <v>20</v>
       </c>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="110"/>
-      <c r="AA7" s="110"/>
-      <c r="AB7" s="110"/>
-      <c r="AC7" s="110"/>
-      <c r="AD7" s="110"/>
-      <c r="AE7" s="110"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="95"/>
+      <c r="AA7" s="95"/>
+      <c r="AB7" s="95"/>
+      <c r="AC7" s="95"/>
+      <c r="AD7" s="95"/>
+      <c r="AE7" s="95"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="153" t="s">
+      <c r="A8" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="95" t="s">
         <v>257</v>
       </c>
-      <c r="C8" s="130">
+      <c r="C8" s="115">
         <v>10.5</v>
       </c>
-      <c r="D8" s="110">
+      <c r="D8" s="95">
         <v>7</v>
       </c>
-      <c r="E8" s="114">
+      <c r="E8" s="99">
         <v>1</v>
       </c>
-      <c r="F8" s="114"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="131"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="45" t="s">
+      <c r="F8" s="99"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="88">
+      <c r="R8" s="74">
         <f>CharacterSheet!B8+S8</f>
         <v>5</v>
       </c>
-      <c r="S8" s="161"/>
-      <c r="T8" s="47" t="s">
+      <c r="S8" s="146"/>
+      <c r="T8" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="U8" s="39" t="s">
+      <c r="U8" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="V8" s="11" t="s">
+      <c r="V8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="W8" s="48">
+      <c r="W8" s="41">
         <f>CharacterSheet!I7</f>
         <v>20</v>
       </c>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="175" t="s">
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="160" t="s">
         <v>42</v>
       </c>
-      <c r="AA8" s="153"/>
-      <c r="AB8" s="110"/>
-      <c r="AC8" s="110"/>
-      <c r="AD8" s="110"/>
-      <c r="AE8" s="110"/>
+      <c r="AA8" s="138"/>
+      <c r="AB8" s="95"/>
+      <c r="AC8" s="95"/>
+      <c r="AD8" s="95"/>
+      <c r="AE8" s="95"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="153" t="s">
+      <c r="A9" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="130">
+      <c r="C9" s="115">
         <v>6</v>
       </c>
-      <c r="D9" s="110">
+      <c r="D9" s="95">
         <v>7</v>
       </c>
-      <c r="E9" s="110">
+      <c r="E9" s="95">
         <v>1</v>
       </c>
-      <c r="F9" s="110"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="123"/>
-      <c r="L9" s="123"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="133"/>
-      <c r="O9" s="129"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="92" t="s">
+      <c r="F9" s="95"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="114"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="R9" s="93">
+      <c r="R9" s="78">
         <f>CharacterSheet!B9+S9</f>
         <v>5</v>
       </c>
-      <c r="S9" s="161"/>
-      <c r="T9" s="47" t="s">
+      <c r="S9" s="146"/>
+      <c r="T9" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="U9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="V9" s="11" t="s">
+      <c r="V9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="W9" s="48">
+      <c r="W9" s="41">
         <f>CharacterSheet!I8</f>
         <v>20</v>
       </c>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="172" t="s">
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="AA9" s="172">
+      <c r="AA9" s="157">
         <f>Inventar!$G$22</f>
         <v>15.5</v>
       </c>
-      <c r="AB9" s="110"/>
-      <c r="AC9" s="110"/>
-      <c r="AD9" s="110"/>
-      <c r="AE9" s="110"/>
+      <c r="AB9" s="95"/>
+      <c r="AC9" s="95"/>
+      <c r="AD9" s="95"/>
+      <c r="AE9" s="95"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="153" t="s">
+      <c r="A10" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="130">
+      <c r="C10" s="115">
         <v>6</v>
       </c>
-      <c r="D10" s="110">
+      <c r="D10" s="95">
         <v>7</v>
       </c>
-      <c r="E10" s="110">
+      <c r="E10" s="95">
         <v>1</v>
       </c>
-      <c r="F10" s="110"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114" t="s">
+      <c r="F10" s="95"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="114"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="110"/>
-      <c r="O10" s="131"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="47" t="s">
+      <c r="L10" s="99"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="R10" s="76">
+      <c r="R10" s="64">
         <f>CharacterSheet!B10+S10</f>
         <v>18</v>
       </c>
-      <c r="S10" s="161">
+      <c r="S10" s="146">
         <f>$Q$17*(-1)</f>
         <v>0</v>
       </c>
-      <c r="T10" s="49" t="s">
+      <c r="T10" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="U10" s="44" t="s">
+      <c r="U10" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="V10" s="44"/>
-      <c r="W10" s="50">
+      <c r="V10" s="37"/>
+      <c r="W10" s="43">
         <f>CharacterSheet!I9</f>
         <v>20</v>
       </c>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="172" t="s">
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="157" t="s">
         <v>51</v>
       </c>
-      <c r="AA10" s="172">
+      <c r="AA10" s="157">
         <f>Inventar!$G$19</f>
         <v>19.5</v>
       </c>
-      <c r="AB10" s="110"/>
-      <c r="AC10" s="110"/>
-      <c r="AD10" s="110"/>
-      <c r="AE10" s="110"/>
+      <c r="AB10" s="95"/>
+      <c r="AC10" s="95"/>
+      <c r="AD10" s="95"/>
+      <c r="AE10" s="95"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="153" t="s">
+      <c r="A11" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="95" t="s">
         <v>257</v>
       </c>
-      <c r="C11" s="130">
+      <c r="C11" s="115">
         <v>10.5</v>
       </c>
-      <c r="D11" s="110">
+      <c r="D11" s="95">
         <v>7</v>
       </c>
-      <c r="E11" s="110">
+      <c r="E11" s="95">
         <v>1</v>
       </c>
-      <c r="F11" s="110"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="114"/>
-      <c r="M11" s="118"/>
-      <c r="N11" s="110"/>
-      <c r="O11" s="131"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="47" t="s">
+      <c r="F11" s="95"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="116"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="R11" s="77">
+      <c r="R11" s="65">
         <f>CharacterSheet!B11+S11</f>
         <v>10</v>
       </c>
-      <c r="S11" s="161"/>
-      <c r="T11" s="190" t="s">
+      <c r="S11" s="146"/>
+      <c r="T11" s="175" t="s">
         <v>50</v>
       </c>
-      <c r="U11" s="191"/>
-      <c r="V11" s="191"/>
-      <c r="W11" s="192"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="172" t="s">
+      <c r="U11" s="176"/>
+      <c r="V11" s="176"/>
+      <c r="W11" s="177"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="157" t="s">
         <v>54</v>
       </c>
-      <c r="AA11" s="172">
+      <c r="AA11" s="157">
         <f>R2*4</f>
         <v>48</v>
       </c>
-      <c r="AB11" s="110"/>
-      <c r="AC11" s="110"/>
-      <c r="AD11" s="110"/>
-      <c r="AE11" s="110"/>
+      <c r="AB11" s="95"/>
+      <c r="AC11" s="95"/>
+      <c r="AD11" s="95"/>
+      <c r="AE11" s="95"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="174" t="s">
+      <c r="A12" s="159" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="125" t="s">
+      <c r="B12" s="110" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="134">
+      <c r="C12" s="119">
         <v>10.5</v>
       </c>
-      <c r="D12" s="125">
+      <c r="D12" s="110">
         <v>7</v>
       </c>
-      <c r="E12" s="125">
+      <c r="E12" s="110">
         <v>1</v>
       </c>
-      <c r="F12" s="110"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="110"/>
-      <c r="O12" s="131"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="78" t="s">
+      <c r="F12" s="95"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="116"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="R12" s="94">
+      <c r="R12" s="79">
         <f>ROUNDUP((R7+R5)/2,0)</f>
         <v>13</v>
       </c>
-      <c r="S12" s="161"/>
-      <c r="T12" s="45" t="s">
+      <c r="S12" s="146"/>
+      <c r="T12" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="U12" s="42" t="s">
+      <c r="U12" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="V12" s="42" t="s">
+      <c r="V12" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="W12" s="46">
+      <c r="W12" s="39">
         <f>CharacterSheet!I10</f>
         <v>20</v>
       </c>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="172" t="s">
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="AA12" s="172">
+      <c r="AA12" s="157">
         <f>AA11-AA10</f>
         <v>28.5</v>
       </c>
-      <c r="AB12" s="110"/>
-      <c r="AC12" s="110"/>
-      <c r="AD12" s="110"/>
-      <c r="AE12" s="110"/>
+      <c r="AB12" s="95"/>
+      <c r="AC12" s="95"/>
+      <c r="AD12" s="95"/>
+      <c r="AE12" s="95"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="175" t="s">
+      <c r="A13" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="135"/>
-      <c r="C13" s="136">
+      <c r="B13" s="120"/>
+      <c r="C13" s="121">
         <f>SUM(C8:C12)</f>
         <v>43.5</v>
       </c>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114" t="s">
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="114"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="110"/>
-      <c r="O13" s="131"/>
-      <c r="P13" s="110"/>
-      <c r="Q13" s="110"/>
-      <c r="R13" s="110"/>
-      <c r="S13" s="111"/>
-      <c r="T13" s="47" t="s">
+      <c r="L13" s="99"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="U13" s="36" t="s">
+      <c r="U13" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="36"/>
-      <c r="W13" s="48">
+      <c r="V13" s="29"/>
+      <c r="W13" s="41">
         <f>CharacterSheet!I11</f>
         <v>24</v>
       </c>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="176" t="s">
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="161" t="s">
         <v>183</v>
       </c>
-      <c r="AA13" s="172" t="str">
+      <c r="AA13" s="157" t="str">
         <f>IF(AA9&gt;30,"Schwer",IF(AA9&gt;18,"Mittel","Leicht"))</f>
         <v>Leicht</v>
       </c>
-      <c r="AB13" s="110"/>
-      <c r="AC13" s="110"/>
-      <c r="AD13" s="110"/>
-      <c r="AE13" s="110"/>
+      <c r="AB13" s="95"/>
+      <c r="AC13" s="95"/>
+      <c r="AD13" s="95"/>
+      <c r="AE13" s="95"/>
     </row>
     <row r="14" spans="1:31" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="137"/>
-      <c r="B14" s="124"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="110"/>
-      <c r="O14" s="131"/>
-      <c r="P14" s="110"/>
-      <c r="Q14" s="187" t="s">
+      <c r="A14" s="122"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="116"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="172" t="s">
         <v>59</v>
       </c>
-      <c r="R14" s="110"/>
-      <c r="S14" s="111"/>
-      <c r="T14" s="47" t="s">
+      <c r="R14" s="95"/>
+      <c r="S14" s="96"/>
+      <c r="T14" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="U14" s="36" t="s">
+      <c r="U14" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="V14" s="36"/>
-      <c r="W14" s="48">
+      <c r="V14" s="29"/>
+      <c r="W14" s="41">
         <f>CharacterSheet!I12</f>
         <v>20</v>
       </c>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="110"/>
-      <c r="AA14" s="110"/>
-      <c r="AB14" s="110"/>
-      <c r="AC14" s="110"/>
-      <c r="AD14" s="110"/>
-      <c r="AE14" s="110"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="95"/>
+      <c r="AA14" s="95"/>
+      <c r="AB14" s="95"/>
+      <c r="AC14" s="95"/>
+      <c r="AD14" s="95"/>
+      <c r="AE14" s="95"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="110"/>
-      <c r="B15" s="110"/>
-      <c r="C15" s="135" t="s">
+      <c r="A15" s="95"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="120" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="135" t="s">
+      <c r="D15" s="120" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="118"/>
-      <c r="N15" s="110"/>
-      <c r="O15" s="131"/>
-      <c r="P15" s="110"/>
-      <c r="Q15" s="188"/>
-      <c r="R15" s="110"/>
-      <c r="S15" s="111"/>
-      <c r="T15" s="49" t="s">
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="116"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="173"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="96"/>
+      <c r="T15" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="U15" s="44" t="s">
+      <c r="U15" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="V15" s="43" t="s">
+      <c r="V15" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="W15" s="50">
+      <c r="W15" s="43">
         <f>CharacterSheet!I13</f>
         <v>20</v>
       </c>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="110"/>
-      <c r="AA15" s="110"/>
-      <c r="AB15" s="110"/>
-      <c r="AC15" s="110"/>
-      <c r="AD15" s="110"/>
-      <c r="AE15" s="110"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="95"/>
+      <c r="AA15" s="95"/>
+      <c r="AB15" s="95"/>
+      <c r="AC15" s="95"/>
+      <c r="AD15" s="95"/>
+      <c r="AE15" s="95"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="162" t="s">
+      <c r="A16" s="147" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="163">
+      <c r="B16" s="148">
         <f>CharacterSheet!B15</f>
         <v>275</v>
       </c>
-      <c r="C16" s="138">
+      <c r="C16" s="123">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D16" s="167">
+      <c r="D16" s="152">
         <f>B16-C16</f>
         <v>275</v>
       </c>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="131"/>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="189"/>
-      <c r="R16" s="110"/>
-      <c r="S16" s="112"/>
-      <c r="T16" s="184" t="s">
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="116"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="174"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="97"/>
+      <c r="T16" s="169" t="s">
         <v>62</v>
       </c>
-      <c r="U16" s="185"/>
-      <c r="V16" s="185"/>
-      <c r="W16" s="186"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="135" t="s">
+      <c r="U16" s="170"/>
+      <c r="V16" s="170"/>
+      <c r="W16" s="171"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="AA16" s="110"/>
-      <c r="AB16" s="110"/>
-      <c r="AC16" s="110"/>
-      <c r="AD16" s="110"/>
-      <c r="AE16" s="110"/>
+      <c r="AA16" s="95"/>
+      <c r="AB16" s="95"/>
+      <c r="AC16" s="95"/>
+      <c r="AD16" s="95"/>
+      <c r="AE16" s="95"/>
     </row>
     <row r="17" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="164" t="s">
+      <c r="A17" s="149" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="165">
+      <c r="B17" s="150">
         <f>CharacterSheet!B16</f>
         <v>12</v>
       </c>
-      <c r="C17" s="138">
+      <c r="C17" s="123">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D17" s="178">
+      <c r="D17" s="163">
         <f>B17+C17</f>
         <v>12</v>
       </c>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="118"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="139"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="113">
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="124"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="98">
         <v>0</v>
       </c>
-      <c r="R17" s="110"/>
-      <c r="S17" s="111"/>
-      <c r="T17" s="45" t="s">
+      <c r="R17" s="95"/>
+      <c r="S17" s="96"/>
+      <c r="T17" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="U17" s="51" t="s">
+      <c r="U17" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="V17" s="51" t="s">
+      <c r="V17" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="W17" s="46">
+      <c r="W17" s="39">
         <f>CharacterSheet!I14</f>
         <v>20</v>
       </c>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="158" t="s">
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="AA17" s="159" t="s">
+      <c r="AA17" s="144" t="s">
         <v>70</v>
       </c>
-      <c r="AB17" s="159" t="s">
+      <c r="AB17" s="144" t="s">
         <v>71</v>
       </c>
-      <c r="AC17" s="159" t="s">
+      <c r="AC17" s="144" t="s">
         <v>72</v>
       </c>
-      <c r="AD17" s="110"/>
-      <c r="AE17" s="110"/>
+      <c r="AD17" s="95"/>
+      <c r="AE17" s="95"/>
     </row>
     <row r="18" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="166" t="s">
+      <c r="A18" s="151" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="166">
+      <c r="B18" s="151">
         <f>CharacterSheet!B17</f>
         <v>55</v>
       </c>
-      <c r="C18" s="138">
+      <c r="C18" s="123">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D18" s="167">
+      <c r="D18" s="152">
         <f>B18+C18</f>
         <v>55</v>
       </c>
-      <c r="E18" s="110" t="str">
+      <c r="E18" s="95" t="str">
         <f>IF(D18=0,"Verkrüppelt",IF(D18&lt;=B18*0.2,"Verstümmelt",""))</f>
         <v/>
       </c>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="119" t="s">
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="125"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="120" t="s">
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="N18" s="110"/>
-      <c r="O18" s="110"/>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="110"/>
-      <c r="R18" s="110"/>
-      <c r="S18" s="111"/>
-      <c r="T18" s="47" t="s">
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="96"/>
+      <c r="T18" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="U18" s="40" t="s">
+      <c r="U18" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="V18" s="40"/>
-      <c r="W18" s="48">
+      <c r="V18" s="33"/>
+      <c r="W18" s="41">
         <f>CharacterSheet!I15</f>
         <v>35</v>
       </c>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="110" t="s">
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="AA18" s="110">
+      <c r="AA18" s="95">
         <v>3</v>
       </c>
-      <c r="AB18" s="110">
+      <c r="AB18" s="95">
         <v>5</v>
       </c>
-      <c r="AC18" s="110" t="s">
+      <c r="AC18" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="AD18" s="110"/>
-      <c r="AE18" s="110"/>
+      <c r="AD18" s="95"/>
+      <c r="AE18" s="95"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19" s="167" t="s">
+      <c r="A19" s="152" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="167">
+      <c r="B19" s="152">
         <f>CharacterSheet!B18</f>
         <v>193</v>
       </c>
-      <c r="C19" s="138">
+      <c r="C19" s="123">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D19" s="167">
+      <c r="D19" s="152">
         <f>B19+C19</f>
         <v>193</v>
       </c>
-      <c r="E19" s="110" t="str">
+      <c r="E19" s="95" t="str">
         <f t="shared" ref="E19:E23" si="0">IF(D19=0,"Verkrüppelt",IF(D19&lt;=B19*0.2,"Verstümmelt",""))</f>
         <v/>
       </c>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="122"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="110"/>
-      <c r="O19" s="110"/>
-      <c r="P19" s="110"/>
-      <c r="Q19" s="114"/>
-      <c r="R19" s="114"/>
-      <c r="S19" s="111"/>
-      <c r="T19" s="47" t="s">
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="99"/>
+      <c r="S19" s="96"/>
+      <c r="T19" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="U19" s="40" t="s">
+      <c r="U19" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="V19" s="40"/>
-      <c r="W19" s="48">
+      <c r="V19" s="33"/>
+      <c r="W19" s="41">
         <f>CharacterSheet!I16</f>
         <v>20</v>
       </c>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="110" t="s">
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="AA19" s="110">
+      <c r="AA19" s="95">
         <v>4</v>
       </c>
-      <c r="AB19" s="110">
+      <c r="AB19" s="95">
         <v>2</v>
       </c>
-      <c r="AC19" s="110" t="s">
+      <c r="AC19" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="AD19" s="110"/>
-      <c r="AE19" s="110"/>
+      <c r="AD19" s="95"/>
+      <c r="AE19" s="95"/>
     </row>
     <row r="20" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="167" t="s">
+      <c r="A20" s="152" t="s">
         <v>214</v>
       </c>
-      <c r="B20" s="167">
+      <c r="B20" s="152">
         <f>CharacterSheet!B19</f>
         <v>55</v>
       </c>
-      <c r="C20" s="138">
+      <c r="C20" s="123">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D20" s="167">
+      <c r="D20" s="152">
         <f t="shared" ref="D20:D23" si="1">B20+C20</f>
         <v>55</v>
       </c>
-      <c r="E20" s="110" t="str">
+      <c r="E20" s="95" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="118"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="117"/>
-      <c r="M20" s="118"/>
-      <c r="N20" s="110"/>
-      <c r="O20" s="110"/>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="114"/>
-      <c r="R20" s="114"/>
-      <c r="S20" s="111"/>
-      <c r="T20" s="47" t="s">
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="103"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="99"/>
+      <c r="R20" s="99"/>
+      <c r="S20" s="96"/>
+      <c r="T20" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="U20" s="11" t="s">
+      <c r="U20" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="V20" s="11" t="s">
+      <c r="V20" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="W20" s="48">
+      <c r="W20" s="41">
         <f>CharacterSheet!I17</f>
         <v>20</v>
       </c>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="141" t="s">
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="126" t="s">
         <v>87</v>
       </c>
-      <c r="AA20" s="110"/>
-      <c r="AB20" s="110"/>
-      <c r="AC20" s="110"/>
-      <c r="AD20" s="110"/>
-      <c r="AE20" s="110"/>
+      <c r="AA20" s="95"/>
+      <c r="AB20" s="95"/>
+      <c r="AC20" s="95"/>
+      <c r="AD20" s="95"/>
+      <c r="AE20" s="95"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A21" s="167" t="s">
+      <c r="A21" s="152" t="s">
         <v>215</v>
       </c>
-      <c r="B21" s="167">
+      <c r="B21" s="152">
         <f>CharacterSheet!B20</f>
         <v>55</v>
       </c>
-      <c r="C21" s="138">
+      <c r="C21" s="123">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D21" s="167">
+      <c r="D21" s="152">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="E21" s="110" t="str">
+      <c r="E21" s="95" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="117"/>
-      <c r="M21" s="118"/>
-      <c r="N21" s="110"/>
-      <c r="O21" s="110"/>
-      <c r="P21" s="110"/>
-      <c r="Q21" s="115" t="s">
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="103"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="R21" s="116"/>
-      <c r="S21" s="111"/>
-      <c r="T21" s="47" t="s">
+      <c r="R21" s="101"/>
+      <c r="S21" s="96"/>
+      <c r="T21" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="U21" s="11" t="s">
+      <c r="U21" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="V21" s="11" t="s">
+      <c r="V21" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="W21" s="48">
+      <c r="W21" s="41">
         <f>CharacterSheet!I18</f>
         <v>28</v>
       </c>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="110"/>
-      <c r="AA21" s="110"/>
-      <c r="AB21" s="110"/>
-      <c r="AC21" s="110"/>
-      <c r="AD21" s="110"/>
-      <c r="AE21" s="110"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="95"/>
+      <c r="AB21" s="95"/>
+      <c r="AC21" s="95"/>
+      <c r="AD21" s="95"/>
+      <c r="AE21" s="95"/>
     </row>
     <row r="22" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="167" t="s">
+      <c r="A22" s="152" t="s">
         <v>216</v>
       </c>
-      <c r="B22" s="167">
+      <c r="B22" s="152">
         <f>CharacterSheet!B21</f>
         <v>69</v>
       </c>
-      <c r="C22" s="138">
+      <c r="C22" s="123">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D22" s="167">
+      <c r="D22" s="152">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="E22" s="110" t="str">
+      <c r="E22" s="95" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="140" t="s">
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="125" t="s">
         <v>91</v>
       </c>
-      <c r="J22" s="118"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="117"/>
-      <c r="M22" s="118"/>
-      <c r="N22" s="110"/>
-      <c r="O22" s="110"/>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="117" t="s">
+      <c r="J22" s="103"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="103"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="95"/>
+      <c r="Q22" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="R22" s="118"/>
-      <c r="S22" s="111"/>
-      <c r="T22" s="49" t="s">
+      <c r="R22" s="103"/>
+      <c r="S22" s="96"/>
+      <c r="T22" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="U22" s="52" t="s">
+      <c r="U22" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="V22" s="84" t="s">
+      <c r="V22" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="W22" s="50">
+      <c r="W22" s="43">
         <f>CharacterSheet!I19</f>
         <v>20</v>
       </c>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="110"/>
-      <c r="AA22" s="110"/>
-      <c r="AB22" s="110"/>
-      <c r="AC22" s="110"/>
-      <c r="AD22" s="110"/>
-      <c r="AE22" s="110"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="95"/>
+      <c r="AA22" s="95"/>
+      <c r="AB22" s="95"/>
+      <c r="AC22" s="95"/>
+      <c r="AD22" s="95"/>
+      <c r="AE22" s="95"/>
     </row>
     <row r="23" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="167" t="s">
+      <c r="A23" s="152" t="s">
         <v>217</v>
       </c>
-      <c r="B23" s="167">
+      <c r="B23" s="152">
         <f>CharacterSheet!B22</f>
         <v>69</v>
       </c>
-      <c r="C23" s="138">
+      <c r="C23" s="123">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D23" s="167">
+      <c r="D23" s="152">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="E23" s="110" t="str">
+      <c r="E23" s="95" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="118"/>
-      <c r="N23" s="110"/>
-      <c r="O23" s="110"/>
-      <c r="P23" s="110"/>
-      <c r="Q23" s="119" t="s">
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="103"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="R23" s="120"/>
-      <c r="S23" s="112"/>
-      <c r="T23" s="184" t="s">
+      <c r="R23" s="105"/>
+      <c r="S23" s="97"/>
+      <c r="T23" s="169" t="s">
         <v>92</v>
       </c>
-      <c r="U23" s="185"/>
-      <c r="V23" s="185"/>
-      <c r="W23" s="186"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="110"/>
-      <c r="AA23" s="110"/>
-      <c r="AB23" s="110"/>
-      <c r="AC23" s="110"/>
-      <c r="AD23" s="110"/>
-      <c r="AE23" s="110"/>
+      <c r="U23" s="170"/>
+      <c r="V23" s="170"/>
+      <c r="W23" s="171"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="95"/>
+      <c r="AA23" s="95"/>
+      <c r="AB23" s="95"/>
+      <c r="AC23" s="95"/>
+      <c r="AD23" s="95"/>
+      <c r="AE23" s="95"/>
     </row>
     <row r="24" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="141"/>
-      <c r="B24" s="141"/>
-      <c r="C24" s="141"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110" t="str">
+      <c r="A24" s="126"/>
+      <c r="B24" s="126"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95" t="str">
         <f>IF(D20=0,"Verkrüppelt",IF(D20&lt;=B20*0.2,"Verstümmelt",""))</f>
         <v/>
       </c>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="117"/>
-      <c r="M24" s="118"/>
-      <c r="N24" s="110"/>
-      <c r="O24" s="110"/>
-      <c r="P24" s="110"/>
-      <c r="Q24" s="110"/>
-      <c r="R24" s="110"/>
-      <c r="S24" s="111"/>
-      <c r="T24" s="45" t="s">
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="103"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="96"/>
+      <c r="T24" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="U24" s="53" t="s">
+      <c r="U24" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="V24" s="85"/>
-      <c r="W24" s="46">
+      <c r="V24" s="71"/>
+      <c r="W24" s="39">
         <f>CharacterSheet!I20</f>
         <v>20</v>
       </c>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="110"/>
-      <c r="AA24" s="110"/>
-      <c r="AB24" s="110"/>
-      <c r="AC24" s="110"/>
-      <c r="AD24" s="110"/>
-      <c r="AE24" s="110"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="95"/>
+      <c r="AA24" s="95"/>
+      <c r="AB24" s="95"/>
+      <c r="AC24" s="95"/>
+      <c r="AD24" s="95"/>
+      <c r="AE24" s="95"/>
     </row>
     <row r="25" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="168" t="s">
+      <c r="A25" s="153" t="s">
         <v>220</v>
       </c>
-      <c r="B25" s="142" t="s">
+      <c r="B25" s="127" t="s">
         <v>221</v>
       </c>
-      <c r="C25" s="142" t="s">
+      <c r="C25" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="143" t="s">
+      <c r="D25" s="128" t="s">
         <v>258</v>
       </c>
-      <c r="E25" s="110" t="str">
+      <c r="E25" s="95" t="str">
         <f>IF(D21=0,"Verkrüppelt",IF(D21&lt;=B21*0.2,"Verstümmelt",""))</f>
         <v/>
       </c>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="118"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="117"/>
-      <c r="M25" s="118"/>
-      <c r="N25" s="110"/>
-      <c r="O25" s="110"/>
-      <c r="P25" s="110"/>
-      <c r="Q25" s="110"/>
-      <c r="R25" s="110"/>
-      <c r="S25" s="111"/>
-      <c r="T25" s="49" t="s">
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="103"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="96"/>
+      <c r="T25" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="U25" s="52" t="s">
+      <c r="U25" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="V25" s="84"/>
-      <c r="W25" s="50">
+      <c r="V25" s="70"/>
+      <c r="W25" s="43">
         <f>CharacterSheet!I21</f>
         <v>28</v>
       </c>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="110"/>
-      <c r="AA25" s="110"/>
-      <c r="AB25" s="110"/>
-      <c r="AC25" s="110"/>
-      <c r="AD25" s="110"/>
-      <c r="AE25" s="110"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="95"/>
+      <c r="AA25" s="95"/>
+      <c r="AB25" s="95"/>
+      <c r="AC25" s="95"/>
+      <c r="AD25" s="95"/>
+      <c r="AE25" s="95"/>
     </row>
     <row r="26" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="169" t="s">
+      <c r="A26" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="144" t="s">
+      <c r="B26" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="144">
+      <c r="C26" s="129">
         <v>10</v>
       </c>
-      <c r="D26" s="144">
+      <c r="D26" s="129">
         <v>1</v>
       </c>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="120"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="119"/>
-      <c r="M26" s="120"/>
-      <c r="N26" s="110"/>
-      <c r="O26" s="110"/>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="110"/>
-      <c r="R26" s="110"/>
-      <c r="S26" s="112"/>
-      <c r="T26" s="184" t="s">
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="95"/>
+      <c r="Q26" s="95"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="97"/>
+      <c r="T26" s="169" t="s">
         <v>97</v>
       </c>
-      <c r="U26" s="185"/>
-      <c r="V26" s="185"/>
-      <c r="W26" s="186"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="110"/>
-      <c r="AA26" s="110"/>
-      <c r="AB26" s="110"/>
-      <c r="AC26" s="110"/>
-      <c r="AD26" s="110"/>
-      <c r="AE26" s="110"/>
+      <c r="U26" s="170"/>
+      <c r="V26" s="170"/>
+      <c r="W26" s="171"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="95"/>
+      <c r="AA26" s="95"/>
+      <c r="AB26" s="95"/>
+      <c r="AC26" s="95"/>
+      <c r="AD26" s="95"/>
+      <c r="AE26" s="95"/>
     </row>
     <row r="27" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="170" t="s">
+      <c r="A27" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="145" t="s">
+      <c r="B27" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="145">
+      <c r="C27" s="130">
         <v>5</v>
       </c>
-      <c r="D27" s="145">
+      <c r="D27" s="130">
         <v>1</v>
       </c>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="110"/>
-      <c r="L27" s="110"/>
-      <c r="M27" s="110"/>
-      <c r="N27" s="110"/>
-      <c r="O27" s="110"/>
-      <c r="P27" s="110"/>
-      <c r="Q27" s="110"/>
-      <c r="R27" s="110"/>
-      <c r="S27" s="111"/>
-      <c r="T27" s="45" t="s">
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="96"/>
+      <c r="T27" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="U27" s="54" t="s">
+      <c r="U27" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="V27" s="55"/>
-      <c r="W27" s="46">
+      <c r="V27" s="48"/>
+      <c r="W27" s="39">
         <f>CharacterSheet!I22</f>
         <v>20</v>
       </c>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="110"/>
-      <c r="AA27" s="110"/>
-      <c r="AB27" s="110"/>
-      <c r="AC27" s="110"/>
-      <c r="AD27" s="110"/>
-      <c r="AE27" s="110"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="95"/>
+      <c r="AA27" s="95"/>
+      <c r="AB27" s="95"/>
+      <c r="AC27" s="95"/>
+      <c r="AD27" s="95"/>
+      <c r="AE27" s="95"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" s="170" t="s">
+      <c r="A28" s="155" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="145" t="s">
+      <c r="B28" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="145">
+      <c r="C28" s="130">
         <v>7</v>
       </c>
-      <c r="D28" s="145">
+      <c r="D28" s="130">
         <v>1</v>
       </c>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="193" t="s">
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="178" t="s">
         <v>252</v>
       </c>
-      <c r="J28" s="194"/>
-      <c r="K28" s="194"/>
-      <c r="L28" s="194"/>
-      <c r="M28" s="195"/>
-      <c r="N28" s="110"/>
-      <c r="O28" s="110"/>
-      <c r="P28" s="110"/>
-      <c r="Q28" s="110"/>
-      <c r="R28" s="110"/>
-      <c r="S28" s="111"/>
-      <c r="T28" s="47" t="s">
+      <c r="J28" s="179"/>
+      <c r="K28" s="179"/>
+      <c r="L28" s="179"/>
+      <c r="M28" s="180"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="95"/>
+      <c r="Q28" s="95"/>
+      <c r="R28" s="95"/>
+      <c r="S28" s="96"/>
+      <c r="T28" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="U28" s="37" t="s">
+      <c r="U28" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="V28" s="14"/>
-      <c r="W28" s="48">
+      <c r="V28" s="10"/>
+      <c r="W28" s="41">
         <f>CharacterSheet!I23</f>
         <v>20</v>
       </c>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="110"/>
-      <c r="AA28" s="110"/>
-      <c r="AB28" s="110"/>
-      <c r="AC28" s="110"/>
-      <c r="AD28" s="110"/>
-      <c r="AE28" s="110"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="95"/>
+      <c r="AA28" s="95"/>
+      <c r="AB28" s="95"/>
+      <c r="AC28" s="95"/>
+      <c r="AD28" s="95"/>
+      <c r="AE28" s="95"/>
     </row>
     <row r="29" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="170" t="s">
+      <c r="A29" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="145"/>
-      <c r="C29" s="145"/>
-      <c r="D29" s="145"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="181" t="s">
+      <c r="B29" s="130"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="166" t="s">
         <v>284</v>
       </c>
-      <c r="J29" s="182"/>
-      <c r="K29" s="182"/>
-      <c r="L29" s="182"/>
-      <c r="M29" s="183"/>
-      <c r="N29" s="110"/>
-      <c r="O29" s="110"/>
-      <c r="P29" s="110"/>
-      <c r="Q29" s="110"/>
-      <c r="R29" s="110"/>
-      <c r="S29" s="111"/>
-      <c r="T29" s="49" t="s">
+      <c r="J29" s="167"/>
+      <c r="K29" s="167"/>
+      <c r="L29" s="167"/>
+      <c r="M29" s="168"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="95"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="U29" s="43" t="s">
+      <c r="U29" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="V29" s="43" t="s">
+      <c r="V29" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="W29" s="50">
+      <c r="W29" s="43">
         <f>CharacterSheet!I24</f>
         <v>20</v>
       </c>
-      <c r="Y29" s="15"/>
-      <c r="Z29" s="110"/>
-      <c r="AA29" s="110"/>
-      <c r="AB29" s="110"/>
-      <c r="AC29" s="110"/>
-      <c r="AD29" s="110"/>
-      <c r="AE29" s="110"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="95"/>
+      <c r="AA29" s="95"/>
+      <c r="AB29" s="95"/>
+      <c r="AC29" s="95"/>
+      <c r="AD29" s="95"/>
+      <c r="AE29" s="95"/>
     </row>
     <row r="30" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="170" t="s">
+      <c r="A30" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="145" t="s">
+      <c r="B30" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="145">
+      <c r="C30" s="130">
         <v>7</v>
       </c>
-      <c r="D30" s="145">
+      <c r="D30" s="130">
         <v>1</v>
       </c>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="146"/>
-      <c r="K30" s="146"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="110"/>
-      <c r="N30" s="110"/>
-      <c r="O30" s="110"/>
-      <c r="P30" s="110"/>
-      <c r="Q30" s="110"/>
-      <c r="R30" s="110"/>
-      <c r="S30" s="112"/>
-      <c r="T30" s="184" t="s">
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="131"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="131"/>
+      <c r="J30" s="131"/>
+      <c r="K30" s="131"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="97"/>
+      <c r="T30" s="169" t="s">
         <v>101</v>
       </c>
-      <c r="U30" s="185"/>
-      <c r="V30" s="185"/>
-      <c r="W30" s="186"/>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="110"/>
-      <c r="AA30" s="110"/>
-      <c r="AB30" s="110"/>
-      <c r="AC30" s="110"/>
-      <c r="AD30" s="110"/>
-      <c r="AE30" s="110"/>
+      <c r="U30" s="170"/>
+      <c r="V30" s="170"/>
+      <c r="W30" s="171"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="95"/>
+      <c r="AA30" s="95"/>
+      <c r="AB30" s="95"/>
+      <c r="AC30" s="95"/>
+      <c r="AD30" s="95"/>
+      <c r="AE30" s="95"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="147"/>
-      <c r="B31" s="147"/>
-      <c r="C31" s="147"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="110"/>
-      <c r="H31" s="110"/>
-      <c r="I31" s="110"/>
-      <c r="J31" s="110"/>
-      <c r="K31" s="110"/>
-      <c r="L31" s="110"/>
-      <c r="M31" s="110"/>
-      <c r="N31" s="110"/>
-      <c r="O31" s="110"/>
-      <c r="P31" s="110"/>
-      <c r="Q31" s="110"/>
-      <c r="R31" s="110"/>
-      <c r="S31" s="111"/>
-      <c r="T31" s="45" t="s">
+      <c r="A31" s="132"/>
+      <c r="B31" s="132"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="96"/>
+      <c r="T31" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="U31" s="56" t="s">
+      <c r="U31" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="V31" s="56"/>
-      <c r="W31" s="46">
+      <c r="V31" s="49"/>
+      <c r="W31" s="39">
         <f>CharacterSheet!I25</f>
         <v>20</v>
       </c>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="110"/>
-      <c r="AA31" s="110"/>
-      <c r="AB31" s="110"/>
-      <c r="AC31" s="110"/>
-      <c r="AD31" s="110"/>
-      <c r="AE31" s="110"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="95"/>
+      <c r="AA31" s="95"/>
+      <c r="AB31" s="95"/>
+      <c r="AC31" s="95"/>
+      <c r="AD31" s="95"/>
+      <c r="AE31" s="95"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A32" s="147"/>
-      <c r="B32" s="147"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="110"/>
-      <c r="K32" s="110"/>
-      <c r="L32" s="110"/>
-      <c r="M32" s="110"/>
-      <c r="N32" s="110"/>
-      <c r="O32" s="110"/>
-      <c r="P32" s="110"/>
-      <c r="Q32" s="110"/>
-      <c r="R32" s="110"/>
-      <c r="S32" s="111"/>
-      <c r="T32" s="47" t="s">
+      <c r="A32" s="132"/>
+      <c r="B32" s="132"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="95"/>
+      <c r="Q32" s="95"/>
+      <c r="R32" s="95"/>
+      <c r="S32" s="96"/>
+      <c r="T32" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="U32" s="38" t="s">
+      <c r="U32" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="V32" s="38"/>
-      <c r="W32" s="48">
+      <c r="V32" s="31"/>
+      <c r="W32" s="41">
         <f>CharacterSheet!I26</f>
         <v>20</v>
       </c>
-      <c r="Y32" s="15"/>
-      <c r="Z32" s="110"/>
-      <c r="AA32" s="110"/>
-      <c r="AB32" s="110"/>
-      <c r="AC32" s="110"/>
-      <c r="AD32" s="110"/>
-      <c r="AE32" s="110"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="95"/>
+      <c r="AA32" s="95"/>
+      <c r="AB32" s="95"/>
+      <c r="AC32" s="95"/>
+      <c r="AD32" s="95"/>
+      <c r="AE32" s="95"/>
     </row>
     <row r="33" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="147"/>
-      <c r="B33" s="147"/>
-      <c r="C33" s="147"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="110"/>
-      <c r="I33" s="110"/>
-      <c r="J33" s="110"/>
-      <c r="K33" s="110"/>
-      <c r="L33" s="110"/>
-      <c r="M33" s="110"/>
-      <c r="N33" s="110"/>
-      <c r="O33" s="110"/>
-      <c r="P33" s="110"/>
-      <c r="Q33" s="110"/>
-      <c r="R33" s="110"/>
-      <c r="S33" s="111"/>
-      <c r="T33" s="49" t="s">
+      <c r="A33" s="132"/>
+      <c r="B33" s="132"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="96"/>
+      <c r="T33" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="U33" s="57" t="s">
+      <c r="U33" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="V33" s="57"/>
-      <c r="W33" s="50">
+      <c r="V33" s="50"/>
+      <c r="W33" s="43">
         <f>CharacterSheet!I27</f>
         <v>35</v>
       </c>
-      <c r="Z33" s="110"/>
-      <c r="AA33" s="110"/>
-      <c r="AB33" s="110"/>
-      <c r="AC33" s="110"/>
-      <c r="AD33" s="110"/>
-      <c r="AE33" s="110"/>
+      <c r="Z33" s="95"/>
+      <c r="AA33" s="95"/>
+      <c r="AB33" s="95"/>
+      <c r="AC33" s="95"/>
+      <c r="AD33" s="95"/>
+      <c r="AE33" s="95"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A34" s="99"/>
-      <c r="B34" s="99"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="Z34" s="110"/>
-      <c r="AA34" s="110"/>
-      <c r="AB34" s="110"/>
-      <c r="AC34" s="110"/>
-      <c r="AD34" s="110"/>
-      <c r="AE34" s="110"/>
+      <c r="A34" s="84"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="Z34" s="95"/>
+      <c r="AA34" s="95"/>
+      <c r="AB34" s="95"/>
+      <c r="AC34" s="95"/>
+      <c r="AD34" s="95"/>
+      <c r="AE34" s="95"/>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Z35" s="110"/>
-      <c r="AA35" s="110"/>
-      <c r="AB35" s="110"/>
-      <c r="AC35" s="110"/>
-      <c r="AD35" s="110"/>
-      <c r="AE35" s="110"/>
+      <c r="Z35" s="95"/>
+      <c r="AA35" s="95"/>
+      <c r="AB35" s="95"/>
+      <c r="AC35" s="95"/>
+      <c r="AD35" s="95"/>
+      <c r="AE35" s="95"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Z36" s="110"/>
-      <c r="AA36" s="110"/>
-      <c r="AB36" s="110"/>
-      <c r="AC36" s="110"/>
-      <c r="AD36" s="110"/>
-      <c r="AE36" s="110"/>
+      <c r="Z36" s="95"/>
+      <c r="AA36" s="95"/>
+      <c r="AB36" s="95"/>
+      <c r="AC36" s="95"/>
+      <c r="AD36" s="95"/>
+      <c r="AE36" s="95"/>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Z37" s="110"/>
-      <c r="AA37" s="110"/>
-      <c r="AB37" s="110"/>
-      <c r="AC37" s="110"/>
-      <c r="AD37" s="110"/>
-      <c r="AE37" s="110"/>
+      <c r="Z37" s="95"/>
+      <c r="AA37" s="95"/>
+      <c r="AB37" s="95"/>
+      <c r="AC37" s="95"/>
+      <c r="AD37" s="95"/>
+      <c r="AE37" s="95"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Z38" s="110"/>
-      <c r="AA38" s="110"/>
-      <c r="AB38" s="110"/>
-      <c r="AC38" s="110"/>
-      <c r="AD38" s="110"/>
-      <c r="AE38" s="110"/>
+      <c r="Z38" s="95"/>
+      <c r="AA38" s="95"/>
+      <c r="AB38" s="95"/>
+      <c r="AC38" s="95"/>
+      <c r="AD38" s="95"/>
+      <c r="AE38" s="95"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Z39" s="110"/>
-      <c r="AA39" s="110"/>
-      <c r="AB39" s="110"/>
-      <c r="AC39" s="110"/>
-      <c r="AD39" s="110"/>
-      <c r="AE39" s="110"/>
+      <c r="Z39" s="95"/>
+      <c r="AA39" s="95"/>
+      <c r="AB39" s="95"/>
+      <c r="AC39" s="95"/>
+      <c r="AD39" s="95"/>
+      <c r="AE39" s="95"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Z40" s="110"/>
-      <c r="AA40" s="110"/>
-      <c r="AB40" s="110"/>
-      <c r="AC40" s="110"/>
-      <c r="AD40" s="110"/>
-      <c r="AE40" s="110"/>
+      <c r="Z40" s="95"/>
+      <c r="AA40" s="95"/>
+      <c r="AB40" s="95"/>
+      <c r="AC40" s="95"/>
+      <c r="AD40" s="95"/>
+      <c r="AE40" s="95"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Z41" s="110"/>
-      <c r="AA41" s="110"/>
-      <c r="AB41" s="110"/>
-      <c r="AC41" s="110"/>
-      <c r="AD41" s="110"/>
-      <c r="AE41" s="110"/>
+      <c r="Z41" s="95"/>
+      <c r="AA41" s="95"/>
+      <c r="AB41" s="95"/>
+      <c r="AC41" s="95"/>
+      <c r="AD41" s="95"/>
+      <c r="AE41" s="95"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Z42" s="110"/>
-      <c r="AA42" s="110"/>
-      <c r="AB42" s="110"/>
-      <c r="AC42" s="110"/>
-      <c r="AD42" s="110"/>
-      <c r="AE42" s="110"/>
+      <c r="Z42" s="95"/>
+      <c r="AA42" s="95"/>
+      <c r="AB42" s="95"/>
+      <c r="AC42" s="95"/>
+      <c r="AD42" s="95"/>
+      <c r="AE42" s="95"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Z43" s="110"/>
-      <c r="AA43" s="110"/>
-      <c r="AB43" s="110"/>
-      <c r="AC43" s="110"/>
-      <c r="AD43" s="110"/>
-      <c r="AE43" s="110"/>
+      <c r="Z43" s="95"/>
+      <c r="AA43" s="95"/>
+      <c r="AB43" s="95"/>
+      <c r="AC43" s="95"/>
+      <c r="AD43" s="95"/>
+      <c r="AE43" s="95"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Z44" s="110"/>
-      <c r="AA44" s="110"/>
-      <c r="AB44" s="110"/>
-      <c r="AC44" s="110"/>
-      <c r="AD44" s="110"/>
-      <c r="AE44" s="110"/>
+      <c r="Z44" s="95"/>
+      <c r="AA44" s="95"/>
+      <c r="AB44" s="95"/>
+      <c r="AC44" s="95"/>
+      <c r="AD44" s="95"/>
+      <c r="AE44" s="95"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Z45" s="110"/>
-      <c r="AA45" s="110"/>
-      <c r="AB45" s="110"/>
-      <c r="AC45" s="110"/>
-      <c r="AD45" s="110"/>
-      <c r="AE45" s="110"/>
+      <c r="Z45" s="95"/>
+      <c r="AA45" s="95"/>
+      <c r="AB45" s="95"/>
+      <c r="AC45" s="95"/>
+      <c r="AD45" s="95"/>
+      <c r="AE45" s="95"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Z46" s="110"/>
-      <c r="AA46" s="110"/>
-      <c r="AB46" s="110"/>
-      <c r="AC46" s="110"/>
-      <c r="AD46" s="110"/>
-      <c r="AE46" s="110"/>
+      <c r="Z46" s="95"/>
+      <c r="AA46" s="95"/>
+      <c r="AB46" s="95"/>
+      <c r="AC46" s="95"/>
+      <c r="AD46" s="95"/>
+      <c r="AE46" s="95"/>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Z47" s="110"/>
-      <c r="AA47" s="110"/>
-      <c r="AB47" s="110"/>
-      <c r="AC47" s="110"/>
-      <c r="AD47" s="110"/>
-      <c r="AE47" s="110"/>
+      <c r="Z47" s="95"/>
+      <c r="AA47" s="95"/>
+      <c r="AB47" s="95"/>
+      <c r="AC47" s="95"/>
+      <c r="AD47" s="95"/>
+      <c r="AE47" s="95"/>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Z48" s="110"/>
-      <c r="AA48" s="110"/>
-      <c r="AB48" s="110"/>
-      <c r="AC48" s="110"/>
-      <c r="AD48" s="110"/>
-      <c r="AE48" s="110"/>
+      <c r="Z48" s="95"/>
+      <c r="AA48" s="95"/>
+      <c r="AB48" s="95"/>
+      <c r="AC48" s="95"/>
+      <c r="AD48" s="95"/>
+      <c r="AE48" s="95"/>
     </row>
     <row r="49" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z49" s="110"/>
-      <c r="AA49" s="110"/>
-      <c r="AB49" s="110"/>
-      <c r="AC49" s="110"/>
-      <c r="AD49" s="110"/>
-      <c r="AE49" s="110"/>
+      <c r="Z49" s="95"/>
+      <c r="AA49" s="95"/>
+      <c r="AB49" s="95"/>
+      <c r="AC49" s="95"/>
+      <c r="AD49" s="95"/>
+      <c r="AE49" s="95"/>
     </row>
     <row r="50" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z50" s="110"/>
-      <c r="AA50" s="110"/>
-      <c r="AB50" s="110"/>
-      <c r="AC50" s="110"/>
-      <c r="AD50" s="110"/>
-      <c r="AE50" s="110"/>
+      <c r="Z50" s="95"/>
+      <c r="AA50" s="95"/>
+      <c r="AB50" s="95"/>
+      <c r="AC50" s="95"/>
+      <c r="AD50" s="95"/>
+      <c r="AE50" s="95"/>
     </row>
     <row r="51" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z51" s="110"/>
-      <c r="AA51" s="110"/>
-      <c r="AB51" s="110"/>
-      <c r="AC51" s="110"/>
-      <c r="AD51" s="110"/>
-      <c r="AE51" s="110"/>
+      <c r="Z51" s="95"/>
+      <c r="AA51" s="95"/>
+      <c r="AB51" s="95"/>
+      <c r="AC51" s="95"/>
+      <c r="AD51" s="95"/>
+      <c r="AE51" s="95"/>
     </row>
     <row r="52" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z52" s="110"/>
-      <c r="AA52" s="110"/>
-      <c r="AB52" s="110"/>
-      <c r="AC52" s="110"/>
-      <c r="AD52" s="110"/>
-      <c r="AE52" s="110"/>
+      <c r="Z52" s="95"/>
+      <c r="AA52" s="95"/>
+      <c r="AB52" s="95"/>
+      <c r="AC52" s="95"/>
+      <c r="AD52" s="95"/>
+      <c r="AE52" s="95"/>
     </row>
     <row r="53" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z53" s="110"/>
-      <c r="AA53" s="110"/>
-      <c r="AB53" s="110"/>
-      <c r="AC53" s="110"/>
-      <c r="AD53" s="110"/>
-      <c r="AE53" s="110"/>
+      <c r="Z53" s="95"/>
+      <c r="AA53" s="95"/>
+      <c r="AB53" s="95"/>
+      <c r="AC53" s="95"/>
+      <c r="AD53" s="95"/>
+      <c r="AE53" s="95"/>
     </row>
     <row r="54" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z54" s="110"/>
-      <c r="AA54" s="110"/>
-      <c r="AB54" s="110"/>
-      <c r="AC54" s="110"/>
-      <c r="AD54" s="110"/>
-      <c r="AE54" s="110"/>
+      <c r="Z54" s="95"/>
+      <c r="AA54" s="95"/>
+      <c r="AB54" s="95"/>
+      <c r="AC54" s="95"/>
+      <c r="AD54" s="95"/>
+      <c r="AE54" s="95"/>
     </row>
     <row r="55" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z55" s="110"/>
-      <c r="AA55" s="110"/>
-      <c r="AB55" s="110"/>
-      <c r="AC55" s="110"/>
-      <c r="AD55" s="110"/>
-      <c r="AE55" s="110"/>
+      <c r="Z55" s="95"/>
+      <c r="AA55" s="95"/>
+      <c r="AB55" s="95"/>
+      <c r="AC55" s="95"/>
+      <c r="AD55" s="95"/>
+      <c r="AE55" s="95"/>
     </row>
     <row r="56" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z56" s="110"/>
-      <c r="AA56" s="110"/>
-      <c r="AB56" s="110"/>
-      <c r="AC56" s="110"/>
-      <c r="AD56" s="110"/>
-      <c r="AE56" s="110"/>
+      <c r="Z56" s="95"/>
+      <c r="AA56" s="95"/>
+      <c r="AB56" s="95"/>
+      <c r="AC56" s="95"/>
+      <c r="AD56" s="95"/>
+      <c r="AE56" s="95"/>
     </row>
     <row r="57" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z57" s="110"/>
-      <c r="AA57" s="110"/>
-      <c r="AB57" s="110"/>
-      <c r="AC57" s="110"/>
-      <c r="AD57" s="110"/>
-      <c r="AE57" s="110"/>
+      <c r="Z57" s="95"/>
+      <c r="AA57" s="95"/>
+      <c r="AB57" s="95"/>
+      <c r="AC57" s="95"/>
+      <c r="AD57" s="95"/>
+      <c r="AE57" s="95"/>
     </row>
     <row r="58" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z58" s="110"/>
-      <c r="AA58" s="110"/>
-      <c r="AB58" s="110"/>
-      <c r="AC58" s="110"/>
-      <c r="AD58" s="110"/>
-      <c r="AE58" s="110"/>
+      <c r="Z58" s="95"/>
+      <c r="AA58" s="95"/>
+      <c r="AB58" s="95"/>
+      <c r="AC58" s="95"/>
+      <c r="AD58" s="95"/>
+      <c r="AE58" s="95"/>
     </row>
     <row r="59" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z59" s="110"/>
-      <c r="AA59" s="110"/>
-      <c r="AB59" s="110"/>
-      <c r="AC59" s="110"/>
-      <c r="AD59" s="110"/>
-      <c r="AE59" s="110"/>
+      <c r="Z59" s="95"/>
+      <c r="AA59" s="95"/>
+      <c r="AB59" s="95"/>
+      <c r="AC59" s="95"/>
+      <c r="AD59" s="95"/>
+      <c r="AE59" s="95"/>
     </row>
     <row r="60" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z60" s="110"/>
-      <c r="AA60" s="110"/>
-      <c r="AB60" s="110"/>
-      <c r="AC60" s="110"/>
-      <c r="AD60" s="110"/>
-      <c r="AE60" s="110"/>
+      <c r="Z60" s="95"/>
+      <c r="AA60" s="95"/>
+      <c r="AB60" s="95"/>
+      <c r="AC60" s="95"/>
+      <c r="AD60" s="95"/>
+      <c r="AE60" s="95"/>
     </row>
     <row r="61" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z61" s="110"/>
-      <c r="AA61" s="110"/>
-      <c r="AB61" s="110"/>
-      <c r="AC61" s="110"/>
-      <c r="AD61" s="110"/>
-      <c r="AE61" s="110"/>
+      <c r="Z61" s="95"/>
+      <c r="AA61" s="95"/>
+      <c r="AB61" s="95"/>
+      <c r="AC61" s="95"/>
+      <c r="AD61" s="95"/>
+      <c r="AE61" s="95"/>
     </row>
     <row r="62" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z62" s="110"/>
-      <c r="AA62" s="110"/>
-      <c r="AB62" s="110"/>
-      <c r="AC62" s="110"/>
-      <c r="AD62" s="110"/>
-      <c r="AE62" s="110"/>
+      <c r="Z62" s="95"/>
+      <c r="AA62" s="95"/>
+      <c r="AB62" s="95"/>
+      <c r="AC62" s="95"/>
+      <c r="AD62" s="95"/>
+      <c r="AE62" s="95"/>
     </row>
     <row r="63" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z63" s="110"/>
-      <c r="AA63" s="110"/>
-      <c r="AB63" s="110"/>
-      <c r="AC63" s="110"/>
-      <c r="AD63" s="110"/>
-      <c r="AE63" s="110"/>
+      <c r="Z63" s="95"/>
+      <c r="AA63" s="95"/>
+      <c r="AB63" s="95"/>
+      <c r="AC63" s="95"/>
+      <c r="AD63" s="95"/>
+      <c r="AE63" s="95"/>
     </row>
     <row r="64" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z64" s="110"/>
-      <c r="AA64" s="110"/>
-      <c r="AB64" s="110"/>
-      <c r="AC64" s="110"/>
-      <c r="AD64" s="110"/>
-      <c r="AE64" s="110"/>
+      <c r="Z64" s="95"/>
+      <c r="AA64" s="95"/>
+      <c r="AB64" s="95"/>
+      <c r="AC64" s="95"/>
+      <c r="AD64" s="95"/>
+      <c r="AE64" s="95"/>
     </row>
     <row r="65" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z65" s="110"/>
-      <c r="AA65" s="110"/>
-      <c r="AB65" s="110"/>
-      <c r="AC65" s="110"/>
-      <c r="AD65" s="110"/>
-      <c r="AE65" s="110"/>
+      <c r="Z65" s="95"/>
+      <c r="AA65" s="95"/>
+      <c r="AB65" s="95"/>
+      <c r="AC65" s="95"/>
+      <c r="AD65" s="95"/>
+      <c r="AE65" s="95"/>
     </row>
     <row r="66" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z66" s="110"/>
-      <c r="AA66" s="110"/>
-      <c r="AB66" s="110"/>
-      <c r="AC66" s="110"/>
-      <c r="AD66" s="110"/>
-      <c r="AE66" s="110"/>
+      <c r="Z66" s="95"/>
+      <c r="AA66" s="95"/>
+      <c r="AB66" s="95"/>
+      <c r="AC66" s="95"/>
+      <c r="AD66" s="95"/>
+      <c r="AE66" s="95"/>
     </row>
     <row r="67" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z67" s="110"/>
-      <c r="AA67" s="110"/>
-      <c r="AB67" s="110"/>
-      <c r="AC67" s="110"/>
-      <c r="AD67" s="110"/>
-      <c r="AE67" s="110"/>
+      <c r="Z67" s="95"/>
+      <c r="AA67" s="95"/>
+      <c r="AB67" s="95"/>
+      <c r="AC67" s="95"/>
+      <c r="AD67" s="95"/>
+      <c r="AE67" s="95"/>
     </row>
     <row r="68" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z68" s="110"/>
-      <c r="AA68" s="110"/>
-      <c r="AB68" s="110"/>
-      <c r="AC68" s="110"/>
-      <c r="AD68" s="110"/>
-      <c r="AE68" s="110"/>
+      <c r="Z68" s="95"/>
+      <c r="AA68" s="95"/>
+      <c r="AB68" s="95"/>
+      <c r="AC68" s="95"/>
+      <c r="AD68" s="95"/>
+      <c r="AE68" s="95"/>
     </row>
     <row r="69" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z69" s="110"/>
-      <c r="AA69" s="110"/>
-      <c r="AB69" s="110"/>
-      <c r="AC69" s="110"/>
-      <c r="AD69" s="110"/>
-      <c r="AE69" s="110"/>
+      <c r="Z69" s="95"/>
+      <c r="AA69" s="95"/>
+      <c r="AB69" s="95"/>
+      <c r="AC69" s="95"/>
+      <c r="AD69" s="95"/>
+      <c r="AE69" s="95"/>
     </row>
     <row r="70" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z70" s="110"/>
-      <c r="AA70" s="110"/>
-      <c r="AB70" s="110"/>
-      <c r="AC70" s="110"/>
-      <c r="AD70" s="110"/>
-      <c r="AE70" s="110"/>
+      <c r="Z70" s="95"/>
+      <c r="AA70" s="95"/>
+      <c r="AB70" s="95"/>
+      <c r="AC70" s="95"/>
+      <c r="AD70" s="95"/>
+      <c r="AE70" s="95"/>
     </row>
     <row r="71" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z71" s="110"/>
-      <c r="AA71" s="110"/>
-      <c r="AB71" s="110"/>
-      <c r="AC71" s="110"/>
-      <c r="AD71" s="110"/>
-      <c r="AE71" s="110"/>
+      <c r="Z71" s="95"/>
+      <c r="AA71" s="95"/>
+      <c r="AB71" s="95"/>
+      <c r="AC71" s="95"/>
+      <c r="AD71" s="95"/>
+      <c r="AE71" s="95"/>
     </row>
     <row r="72" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z72" s="110"/>
-      <c r="AA72" s="110"/>
-      <c r="AB72" s="110"/>
-      <c r="AC72" s="110"/>
-      <c r="AD72" s="110"/>
-      <c r="AE72" s="110"/>
+      <c r="Z72" s="95"/>
+      <c r="AA72" s="95"/>
+      <c r="AB72" s="95"/>
+      <c r="AC72" s="95"/>
+      <c r="AD72" s="95"/>
+      <c r="AE72" s="95"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -6523,8 +6565,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>313</v>
       </c>
     </row>
@@ -6575,506 +6617,506 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="15">
+      <c r="B1" s="11">
         <v>30000</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="15">
+      <c r="E1" s="11">
         <f>13490-E2+E3</f>
         <v>28290</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-    </row>
-    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="11">
         <f>SUM(B7:B703)</f>
         <v>27510</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="11">
         <f>200</f>
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="11">
         <f>B1-B2</f>
         <v>2490</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="11">
         <f>15000</f>
         <v>15000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:9" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+    <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+    <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="11">
         <v>5000</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="11">
         <v>30</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="11">
         <v>2250</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="11">
         <v>12</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="11">
         <v>3000</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="11">
         <v>15</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="11">
         <v>3</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="11">
         <f>E10*1000</f>
         <v>2000</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="11">
         <v>25</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="11">
         <f>0.5*E10</f>
         <v>1</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="25">
         <v>2</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="11">
         <v>2000</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="11">
         <v>6</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="9">
         <v>1.25</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="80" t="s">
+      <c r="E15" s="11"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="11">
         <v>2000</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="11">
         <v>6</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="9">
         <v>1.25</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="7">
+      <c r="E16" s="11"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="5">
         <f>SUM(C15:C19)</f>
         <v>43.5</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="11">
         <v>3000</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="9">
         <v>10.5</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="11">
         <v>3</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="11">
         <v>3000</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="9">
         <v>10.5</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="11">
         <v>3</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26" t="s">
+      <c r="E18" s="11"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="11">
         <v>3000</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="9">
         <v>10.5</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="11">
         <v>3</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7">
+      <c r="E19" s="11"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5">
         <f>SUM(D8:D115)</f>
         <v>19.5</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7">
+      <c r="A22" s="8"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5">
         <f>SUM(D6:D25)</f>
         <v>15.5</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="5">
         <f>ROUND(G22/5,0)</f>
         <v>3</v>
       </c>
-      <c r="I22" s="8"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="11">
         <f>200*E28</f>
         <v>400</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="11">
         <f>0.5*E28</f>
         <v>1</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="5">
         <v>2</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="11">
         <f>420*E29</f>
         <v>1260</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="11">
         <f>0.5*E29</f>
         <v>1.5</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="5">
         <v>3</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="27" t="s">
+      <c r="F32" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="11">
         <v>100</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15">
+      <c r="C33" s="11"/>
+      <c r="D33" s="11">
         <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="11">
         <v>500</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15">
+      <c r="C34" s="11"/>
+      <c r="D34" s="11">
         <v>1</v>
       </c>
     </row>
@@ -7098,122 +7140,122 @@
     <col min="1" max="1" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="177"/>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177"/>
-      <c r="I1" s="177"/>
-      <c r="J1" s="177"/>
-      <c r="K1" s="177"/>
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="162"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -7232,809 +7274,809 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="86" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="87" t="s">
         <v>273</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="81" t="s">
         <v>274</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="82" t="s">
         <v>275</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="98" t="s">
+      <c r="I1" s="83" t="s">
         <v>285</v>
       </c>
-      <c r="J1" s="105" t="s">
+      <c r="J1" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="105" t="s">
+      <c r="K1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="105" t="s">
+      <c r="L1" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="105" t="s">
+      <c r="M1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="105" t="s">
+      <c r="N1" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="O1" s="15"/>
+      <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="13">
         <v>1</v>
       </c>
-      <c r="E2" s="196"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="15">
         <v>0</v>
       </c>
-      <c r="E3" s="197"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="I3" s="22" t="s">
+      <c r="E3" s="182"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="I3" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="O3" s="15"/>
+      <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="89" t="s">
         <v>208</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="19" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="15">
         <v>1</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="I4" s="15" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="I4" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="11">
         <v>22500</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="11">
         <v>34</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="11">
         <v>2</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="11">
         <v>1</v>
       </c>
-      <c r="N4" s="107" t="s">
+      <c r="N4" s="92" t="s">
         <v>287</v>
       </c>
-      <c r="O4" s="107"/>
+      <c r="O4" s="92"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="89" t="s">
         <v>209</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="15">
         <v>0</v>
       </c>
-      <c r="E5" s="196"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="89" t="s">
         <v>212</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="197"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="I6" s="22" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="I6" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="O6" s="15"/>
+      <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="89" t="s">
         <v>213</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="27" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="89" t="s">
         <v>210</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="89" t="s">
         <v>211</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="197"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="I9" s="22" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="I9" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22" t="s">
+      <c r="K9" s="17"/>
+      <c r="L9" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="M9" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="22" t="s">
+      <c r="N9" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="O9" s="15"/>
+      <c r="O9" s="11"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="89" t="s">
         <v>236</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="I11" s="15" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="I11" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="11">
         <f>420*M11</f>
         <v>1680</v>
       </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15">
+      <c r="K11" s="11"/>
+      <c r="L11" s="11">
         <f>0.5*M11</f>
         <v>2</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="11">
         <v>4</v>
       </c>
-      <c r="N11" s="15" t="s">
+      <c r="N11" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="O11" s="15"/>
+      <c r="O11" s="11"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="I12" s="15" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="I12" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="11">
         <f>900*M12</f>
         <v>3600</v>
       </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15">
+      <c r="K12" s="11"/>
+      <c r="L12" s="11">
         <f t="shared" ref="L12:L18" si="0">0.5*M12</f>
         <v>2</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="11">
         <v>4</v>
       </c>
-      <c r="N12" s="15" t="s">
+      <c r="N12" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="O12" s="15"/>
+      <c r="O12" s="11"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="I13" s="15" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="I13" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="11">
         <f>420*M13</f>
         <v>1680</v>
       </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15">
+      <c r="K13" s="11"/>
+      <c r="L13" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="11">
         <v>4</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="N13" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="O13" s="15"/>
+      <c r="O13" s="11"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="I14" s="15" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="I14" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="11">
         <f>900*M14</f>
         <v>3600</v>
       </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15">
+      <c r="K14" s="11"/>
+      <c r="L14" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="11">
         <v>4</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="N14" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="O14" s="15"/>
+      <c r="O14" s="11"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="I15" s="15" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="I15" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="11">
         <f>5000*M15</f>
         <v>10000</v>
       </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15">
+      <c r="K15" s="11"/>
+      <c r="L15" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M15" s="15">
+      <c r="M15" s="11">
         <v>2</v>
       </c>
-      <c r="N15" s="15" t="s">
+      <c r="N15" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="O15" s="15"/>
+      <c r="O15" s="11"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="I16" s="15" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="I16" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="11">
         <f>5000*M16</f>
         <v>15000</v>
       </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15">
+      <c r="K16" s="11"/>
+      <c r="L16" s="11">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="11">
         <v>3</v>
       </c>
-      <c r="N16" s="15" t="s">
+      <c r="N16" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="O16" s="15"/>
+      <c r="O16" s="11"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="I17" s="15" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="I17" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="11">
         <f>3000*M17</f>
         <v>3000</v>
       </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15">
+      <c r="K17" s="11"/>
+      <c r="L17" s="11">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="11">
         <v>1</v>
       </c>
-      <c r="N17" s="15" t="s">
+      <c r="N17" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="O17" s="15"/>
+      <c r="O17" s="11"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="I18" s="15" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="I18" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="11">
         <f>2000*M18</f>
         <v>4000</v>
       </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15">
+      <c r="K18" s="11"/>
+      <c r="L18" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M18" s="11">
         <v>2</v>
       </c>
-      <c r="N18" s="108" t="s">
+      <c r="N18" s="93" t="s">
         <v>303</v>
       </c>
-      <c r="O18" s="15"/>
+      <c r="O18" s="11"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="I19" s="15" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="I19" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="11">
         <v>4200</v>
       </c>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="15"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="11"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="I21" s="22" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="I21" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="J21" s="22" t="s">
+      <c r="J21" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="K21" s="22" t="s">
+      <c r="K21" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="L21" s="22" t="s">
+      <c r="L21" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M21" s="22" t="s">
+      <c r="M21" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="22" t="s">
+      <c r="N21" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="O21" s="15"/>
+      <c r="O21" s="11"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="I23" s="15" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="I23" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J23" s="11">
         <v>50</v>
       </c>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15">
+      <c r="K23" s="11"/>
+      <c r="L23" s="11">
         <v>1</v>
       </c>
-      <c r="M23" s="15">
+      <c r="M23" s="11">
         <v>3</v>
       </c>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="I24" s="15" t="s">
+      <c r="B24" s="18"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="I24" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J24" s="11">
         <v>100</v>
       </c>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15">
+      <c r="K24" s="11"/>
+      <c r="L24" s="11">
         <v>0.5</v>
       </c>
-      <c r="M24" s="15">
+      <c r="M24" s="11">
         <v>2</v>
       </c>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="I25" s="15" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="I25" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J25" s="11">
         <v>400</v>
       </c>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15">
+      <c r="K25" s="11"/>
+      <c r="L25" s="11">
         <v>4</v>
       </c>
-      <c r="M25" s="15">
+      <c r="M25" s="11">
         <v>1</v>
       </c>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="I26" s="15" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="I26" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J26" s="11">
         <v>500</v>
       </c>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15">
+      <c r="K26" s="11"/>
+      <c r="L26" s="11">
         <v>1</v>
       </c>
-      <c r="M26" s="15">
+      <c r="M26" s="11">
         <v>1</v>
       </c>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="O31" s="15"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="O31" s="11"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="O32" s="15"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="O32" s="11"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="O33" s="15"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="O33" s="11"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="O34" s="15"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="O34" s="11"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O35" s="15"/>
+      <c r="O35" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8049,10 +8091,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D94E68-96A6-4585-A3BB-4985596F1D86}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8063,817 +8105,1318 @@
     <col min="4" max="4" width="8.5703125" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="4.5703125" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="11" customWidth="1"/>
     <col min="8" max="8" width="4.28515625" customWidth="1"/>
     <col min="9" max="9" width="6.5703125" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
     <col min="11" max="11" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27" t="s">
+      <c r="J1" s="22"/>
+      <c r="K1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="8"/>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="72">
+      <c r="B2" s="183">
         <v>12</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="95">
         <v>-4</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="95">
         <v>10</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="108">
         <v>-9</v>
       </c>
-      <c r="I2" s="69">
+      <c r="I2" s="197">
         <v>29</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15" t="s">
+      <c r="J2" s="95"/>
+      <c r="K2" s="95" t="s">
         <v>218</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="144" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="144" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="144" t="s">
         <v>72</v>
       </c>
-      <c r="P2" s="9"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="P2" s="198"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="95"/>
+      <c r="X2" s="95"/>
+      <c r="Y2" s="95"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="60">
+      <c r="B3" s="184">
         <v>12</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="95">
         <v>-2</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="95">
         <v>10</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="99">
         <v>-10</v>
       </c>
-      <c r="I3" s="70">
+      <c r="I3" s="199">
         <v>30</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15" t="s">
+      <c r="J3" s="95"/>
+      <c r="K3" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="95">
         <v>3</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="95">
         <v>5</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="P3" s="126"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="95"/>
+      <c r="V3" s="95"/>
+      <c r="W3" s="95"/>
+      <c r="X3" s="95"/>
+      <c r="Y3" s="95"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="73">
+      <c r="B4" s="185">
         <v>12</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="95">
         <v>-4</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="95">
         <v>10</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="58"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="70">
+      <c r="G4" s="51"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="199">
         <v>20</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15" t="s">
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="95">
         <v>4</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="95">
         <v>2</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="P4" s="99"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="95"/>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="74">
+      <c r="B5" s="186">
         <v>13</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15">
+      <c r="C5" s="95"/>
+      <c r="D5" s="95">
         <v>10</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="99">
         <v>-10</v>
       </c>
-      <c r="I5" s="70">
+      <c r="I5" s="199">
         <v>30</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="8" t="s">
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="126" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="95"/>
+      <c r="U5" s="95"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
+      <c r="X5" s="95"/>
+      <c r="Y5" s="95"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="65">
+      <c r="B6" s="187">
         <v>10</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15">
+      <c r="C6" s="95"/>
+      <c r="D6" s="95">
         <v>10</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="65" t="s">
+      <c r="G6" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="70">
+      <c r="H6" s="99"/>
+      <c r="I6" s="199">
         <v>20</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="47" t="s">
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="95"/>
+      <c r="W6" s="95"/>
+      <c r="X6" s="95"/>
+      <c r="Y6" s="95"/>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="B7" s="67">
+      <c r="B7" s="188">
         <v>12</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="95">
         <v>-4</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="95">
         <v>10</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="70">
+      <c r="H7" s="99"/>
+      <c r="I7" s="199">
         <v>20</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47" t="s">
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="95"/>
+      <c r="T7" s="95"/>
+      <c r="U7" s="95"/>
+      <c r="V7" s="95"/>
+      <c r="W7" s="95"/>
+      <c r="X7" s="95"/>
+      <c r="Y7" s="95"/>
+    </row>
+    <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="75">
+      <c r="B8" s="189">
         <v>5</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="95">
         <v>-8</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="95">
         <v>10</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="70">
+      <c r="H8" s="99"/>
+      <c r="I8" s="199">
         <v>20</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="89" t="s">
+      <c r="J8" s="95"/>
+      <c r="K8" s="200" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47" t="s">
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="95"/>
+      <c r="S8" s="95"/>
+      <c r="T8" s="95"/>
+      <c r="U8" s="95"/>
+      <c r="V8" s="95"/>
+      <c r="W8" s="95"/>
+      <c r="X8" s="95"/>
+      <c r="Y8" s="95"/>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="75">
+      <c r="B9" s="189">
         <v>5</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="49" t="s">
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="59"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="71">
+      <c r="G9" s="52"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="201">
         <v>20</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15" t="s">
+      <c r="J9" s="95"/>
+      <c r="K9" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="95"/>
+      <c r="Q9" s="95"/>
+      <c r="R9" s="95"/>
+      <c r="S9" s="95"/>
+      <c r="T9" s="95"/>
+      <c r="U9" s="95"/>
+      <c r="V9" s="95"/>
+      <c r="W9" s="95"/>
+      <c r="X9" s="95"/>
+      <c r="Y9" s="95"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="82">
+      <c r="B10" s="190">
         <f>ROUND((B8+B5+B7+B9)/2,0)</f>
         <v>18</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="45" t="s">
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="69">
+      <c r="H10" s="99"/>
+      <c r="I10" s="197">
         <v>20</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15" t="s">
+      <c r="J10" s="95"/>
+      <c r="K10" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="49" t="s">
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="95"/>
+      <c r="R10" s="95"/>
+      <c r="S10" s="95"/>
+      <c r="T10" s="95"/>
+      <c r="U10" s="95"/>
+      <c r="V10" s="95"/>
+      <c r="W10" s="95"/>
+      <c r="X10" s="95"/>
+      <c r="Y10" s="95"/>
+    </row>
+    <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="81">
+      <c r="B11" s="191">
         <f>B5-Inventar!H22</f>
         <v>10</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="47" t="s">
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="70">
+      <c r="G11" s="53"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="199">
         <v>24</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15" t="s">
+      <c r="J11" s="95"/>
+      <c r="K11" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="47" t="s">
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="95"/>
+      <c r="R11" s="95"/>
+      <c r="S11" s="95"/>
+      <c r="T11" s="95"/>
+      <c r="U11" s="95"/>
+      <c r="V11" s="95"/>
+      <c r="W11" s="95"/>
+      <c r="X11" s="95"/>
+      <c r="Y11" s="95"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="70">
+      <c r="G12" s="53"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="199">
         <v>20</v>
       </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="95"/>
+      <c r="U12" s="95"/>
+      <c r="V12" s="95"/>
+      <c r="W12" s="95"/>
+      <c r="X12" s="95"/>
+      <c r="Y12" s="95"/>
+    </row>
+    <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="126" t="s">
         <v>259</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="49" t="s">
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="71">
+      <c r="H13" s="99"/>
+      <c r="I13" s="201">
         <v>20</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="45" t="s">
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="95"/>
+      <c r="V13" s="95"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="95"/>
+      <c r="Y13" s="95"/>
+    </row>
+    <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="44" t="s">
         <v>65</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="69">
+      <c r="H14" s="99"/>
+      <c r="I14" s="197">
         <v>20</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="95"/>
+      <c r="U14" s="95"/>
+      <c r="V14" s="95"/>
+      <c r="W14" s="95"/>
+      <c r="X14" s="95"/>
+      <c r="Y14" s="95"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="192">
         <v>275</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="95">
         <v>-3</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="47" t="s">
+      <c r="D15" s="95"/>
+      <c r="E15" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="7">
+      <c r="G15" s="54"/>
+      <c r="H15" s="99">
         <v>-15</v>
       </c>
-      <c r="I15" s="70">
+      <c r="I15" s="199">
         <v>35</v>
       </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="95"/>
+      <c r="U15" s="95"/>
+      <c r="V15" s="95"/>
+      <c r="W15" s="95"/>
+      <c r="X15" s="95"/>
+      <c r="Y15" s="95"/>
+    </row>
+    <row r="16" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="193">
         <v>12</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="47" t="s">
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="70">
+      <c r="G16" s="54"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="199">
         <v>20</v>
       </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="95"/>
+      <c r="T16" s="95"/>
+      <c r="U16" s="95"/>
+      <c r="V16" s="95"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="95"/>
+      <c r="Y16" s="95"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="194">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
         <v>55</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="47" t="s">
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G17" s="48" t="s">
+      <c r="G17" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="70">
+      <c r="H17" s="99"/>
+      <c r="I17" s="199">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="95"/>
+      <c r="V17" s="95"/>
+      <c r="W17" s="95"/>
+      <c r="X17" s="95"/>
+      <c r="Y17" s="95"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="195">
         <f>ROUNDUP(CharacterSheet!$B$15*0.7,0)</f>
         <v>193</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="47" t="s">
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G18" s="48" t="s">
+      <c r="G18" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="99">
         <v>-8</v>
       </c>
-      <c r="I18" s="70">
+      <c r="I18" s="199">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="34" t="s">
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="95"/>
+      <c r="T18" s="95"/>
+      <c r="U18" s="95"/>
+      <c r="V18" s="95"/>
+      <c r="W18" s="95"/>
+      <c r="X18" s="95"/>
+      <c r="Y18" s="95"/>
+    </row>
+    <row r="19" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="B19" s="34">
+      <c r="B19" s="195">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
         <v>55</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="95">
         <v>25</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="95" t="s">
         <v>143</v>
       </c>
-      <c r="E19" s="49" t="s">
+      <c r="E19" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="52" t="s">
+      <c r="F19" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="G19" s="62" t="s">
+      <c r="G19" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="71">
+      <c r="H19" s="99"/>
+      <c r="I19" s="201">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="95"/>
+      <c r="U19" s="95"/>
+      <c r="V19" s="95"/>
+      <c r="W19" s="95"/>
+      <c r="X19" s="95"/>
+      <c r="Y19" s="95"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="B20" s="34">
+      <c r="B20" s="195">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
         <v>55</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="95">
         <f>C19+(SUM(C2:C8)+C15+C16)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="63"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="69">
+      <c r="G20" s="56"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="197">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="34" t="s">
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="95"/>
+      <c r="T20" s="95"/>
+      <c r="U20" s="95"/>
+      <c r="V20" s="95"/>
+      <c r="W20" s="95"/>
+      <c r="X20" s="95"/>
+      <c r="Y20" s="95"/>
+    </row>
+    <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="B21" s="34">
+      <c r="B21" s="195">
         <f>ROUNDUP(CharacterSheet!$B$15*0.25,0)</f>
         <v>69</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="49" t="s">
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="62"/>
-      <c r="H21" s="32">
+      <c r="G21" s="55"/>
+      <c r="H21" s="109">
         <v>-8</v>
       </c>
-      <c r="I21" s="71">
+      <c r="I21" s="201">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="95"/>
+      <c r="S21" s="95"/>
+      <c r="T21" s="95"/>
+      <c r="U21" s="95"/>
+      <c r="V21" s="95"/>
+      <c r="W21" s="95"/>
+      <c r="X21" s="95"/>
+      <c r="Y21" s="95"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="B22" s="34">
+      <c r="B22" s="195">
         <f>ROUNDUP(CharacterSheet!$B$15*0.25,0)</f>
         <v>69</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="196" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="45" t="s">
+      <c r="D22" s="95"/>
+      <c r="E22" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="54" t="s">
+      <c r="F22" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="69">
+      <c r="G22" s="57"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="197">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="47" t="s">
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="95"/>
+      <c r="Q22" s="95"/>
+      <c r="R22" s="95"/>
+      <c r="S22" s="95"/>
+      <c r="T22" s="95"/>
+      <c r="U22" s="95"/>
+      <c r="V22" s="95"/>
+      <c r="W22" s="95"/>
+      <c r="X22" s="95"/>
+      <c r="Y22" s="95"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="65"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="70">
+      <c r="G23" s="58"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="199">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="49" t="s">
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="95"/>
+      <c r="T23" s="95"/>
+      <c r="U23" s="95"/>
+      <c r="V23" s="95"/>
+      <c r="W23" s="95"/>
+      <c r="X23" s="95"/>
+      <c r="Y23" s="95"/>
+    </row>
+    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="F24" s="43" t="s">
+      <c r="F24" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="50" t="s">
+      <c r="G24" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="71">
+      <c r="H24" s="99"/>
+      <c r="I24" s="201">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="45" t="s">
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="95"/>
+      <c r="U24" s="95"/>
+      <c r="V24" s="95"/>
+      <c r="W24" s="95"/>
+      <c r="X24" s="95"/>
+      <c r="Y24" s="95"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="F25" s="56" t="s">
+      <c r="F25" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="G25" s="66"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="69">
+      <c r="G25" s="59"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="197">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="47" t="s">
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="95"/>
+      <c r="U25" s="95"/>
+      <c r="V25" s="95"/>
+      <c r="W25" s="95"/>
+      <c r="X25" s="95"/>
+      <c r="Y25" s="95"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="F26" s="38" t="s">
+      <c r="F26" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="G26" s="67"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="70">
+      <c r="G26" s="60"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="199">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="49" t="s">
+      <c r="J26" s="95"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="95"/>
+      <c r="Q26" s="95"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="95"/>
+      <c r="U26" s="95"/>
+      <c r="V26" s="95"/>
+      <c r="W26" s="95"/>
+      <c r="X26" s="95"/>
+      <c r="Y26" s="95"/>
+    </row>
+    <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="F27" s="57" t="s">
+      <c r="F27" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="G27" s="68"/>
-      <c r="H27" s="22">
+      <c r="G27" s="61"/>
+      <c r="H27" s="110">
         <v>-15</v>
       </c>
-      <c r="I27" s="71">
+      <c r="I27" s="201">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="H30" s="15">
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="95"/>
+      <c r="T27" s="95"/>
+      <c r="U27" s="95"/>
+      <c r="V27" s="95"/>
+      <c r="W27" s="95"/>
+      <c r="X27" s="95"/>
+      <c r="Y27" s="95"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="95"/>
+      <c r="Q28" s="95"/>
+      <c r="R28" s="95"/>
+      <c r="S28" s="95"/>
+      <c r="T28" s="95"/>
+      <c r="U28" s="95"/>
+      <c r="V28" s="95"/>
+      <c r="W28" s="95"/>
+      <c r="X28" s="95"/>
+      <c r="Y28" s="95"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B29" s="95"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="95"/>
+      <c r="S29" s="95"/>
+      <c r="T29" s="95"/>
+      <c r="U29" s="95"/>
+      <c r="V29" s="95"/>
+      <c r="W29" s="95"/>
+      <c r="X29" s="95"/>
+      <c r="Y29" s="95"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="H30" s="95">
         <f>SUM(H2:H28)</f>
         <v>-75</v>
       </c>
-      <c r="I30" s="15"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="95"/>
+      <c r="T30" s="95"/>
+      <c r="U30" s="95"/>
+      <c r="V30" s="95"/>
+      <c r="W30" s="95"/>
+      <c r="X30" s="95"/>
+      <c r="Y30" s="95"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B31" s="95"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="95"/>
+      <c r="T31" s="95"/>
+      <c r="U31" s="95"/>
+      <c r="V31" s="95"/>
+      <c r="W31" s="95"/>
+      <c r="X31" s="95"/>
+      <c r="Y31" s="95"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B32" s="95"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="95"/>
+      <c r="Q32" s="95"/>
+      <c r="R32" s="95"/>
+      <c r="S32" s="95"/>
+      <c r="T32" s="95"/>
+      <c r="U32" s="95"/>
+      <c r="V32" s="95"/>
+      <c r="W32" s="95"/>
+      <c r="X32" s="95"/>
+      <c r="Y32" s="95"/>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B33" s="95"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="95"/>
+      <c r="U33" s="95"/>
+      <c r="V33" s="95"/>
+      <c r="W33" s="95"/>
+      <c r="X33" s="95"/>
+      <c r="Y33" s="95"/>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B34" s="95"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="95"/>
+      <c r="Q34" s="95"/>
+      <c r="R34" s="95"/>
+      <c r="S34" s="95"/>
+      <c r="T34" s="95"/>
+      <c r="U34" s="95"/>
+      <c r="V34" s="95"/>
+      <c r="W34" s="95"/>
+      <c r="X34" s="95"/>
+      <c r="Y34" s="95"/>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B35" s="95"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="95"/>
+      <c r="O35" s="95"/>
+      <c r="P35" s="95"/>
+      <c r="Q35" s="95"/>
+      <c r="R35" s="95"/>
+      <c r="S35" s="95"/>
+      <c r="T35" s="95"/>
+      <c r="U35" s="95"/>
+      <c r="V35" s="95"/>
+      <c r="W35" s="95"/>
+      <c r="X35" s="95"/>
+      <c r="Y35" s="95"/>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="H36" s="95"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="95"/>
+      <c r="N36" s="95"/>
+      <c r="O36" s="95"/>
+      <c r="P36" s="95"/>
+      <c r="Q36" s="95"/>
+      <c r="R36" s="95"/>
+      <c r="S36" s="95"/>
+      <c r="T36" s="95"/>
+      <c r="U36" s="95"/>
+      <c r="V36" s="95"/>
+      <c r="W36" s="95"/>
+      <c r="X36" s="95"/>
+      <c r="Y36" s="95"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -9287,490 +9830,490 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="90" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="I2" s="91" t="s">
+      <c r="I2" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="J2" s="91" t="s">
+      <c r="J2" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="K2" s="91" t="s">
+      <c r="K2" s="76" t="s">
         <v>145</v>
       </c>
-      <c r="L2" s="91" t="s">
+      <c r="L2" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="M2" s="91" t="s">
+      <c r="M2" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="N2" s="79" t="s">
+      <c r="N2" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="O2" s="24"/>
+      <c r="O2" s="19"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="11">
         <v>1</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="11">
         <v>10</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="11">
         <v>2</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="11">
         <v>2</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="11">
         <v>0</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="O4" s="15"/>
+      <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>2</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="11">
         <v>10</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="11">
         <v>2</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="11">
         <v>12</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="11">
         <v>2</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="O5" s="15"/>
+      <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="11">
         <v>4</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="11">
         <v>4</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="11">
         <v>6</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <v>6</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="11">
         <v>8</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="11">
         <v>8</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="11">
         <v>10</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="11">
         <v>0.5</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="11">
         <v>1</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="19" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="15">
         <v>4</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="11">
         <v>4</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="19" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="11">
         <v>6</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="19">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="14">
         <v>6</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="15">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="11">
         <v>8</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="19">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="14">
         <v>7</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="15">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="19">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="14">
         <v>8</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="15">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="19">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="14">
         <v>9</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="15">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="19">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="14">
         <v>10</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="15">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="11">
         <v>1</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="19">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="14">
         <v>11</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9778,15 +10321,15 @@
       <c r="A23" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="11">
         <v>2</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="19">
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="14">
         <v>12</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="15">
         <v>17</v>
       </c>
     </row>
@@ -9794,15 +10337,15 @@
       <c r="A24" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="11">
         <v>3</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="19">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="14">
         <v>13</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="15">
         <v>17</v>
       </c>
     </row>
@@ -9810,15 +10353,15 @@
       <c r="A25" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="11">
         <v>4</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="19">
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="14">
         <v>14</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="15">
         <v>17</v>
       </c>
     </row>
@@ -9826,15 +10369,15 @@
       <c r="A26" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="11">
         <v>5</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="19">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="14">
         <v>15</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="15">
         <v>18</v>
       </c>
     </row>
@@ -9842,71 +10385,71 @@
       <c r="A27" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="11">
         <v>6</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="19">
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="14">
         <v>16</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="15">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="19">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="14">
         <v>17</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="15">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="19">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="14">
         <v>18</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="15">
         <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="19">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="14">
         <v>19</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="15">
         <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="21">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="16">
         <v>20</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="18">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -9928,7 +10471,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="23" t="s">
         <v>180</v>
       </c>
     </row>
@@ -9970,19 +10513,19 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="80" t="s">
         <v>251</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="80" t="s">
         <v>207</v>
       </c>
-      <c r="G1" s="100" t="s">
+      <c r="G1" s="85" t="s">
         <v>234</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="85" t="s">
         <v>235</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="85" t="s">
         <v>271</v>
       </c>
     </row>
@@ -10002,14 +10545,14 @@
         <f>CharacterSheet!I2</f>
         <v>29</v>
       </c>
-      <c r="E2" s="100" t="s">
+      <c r="E2" s="85" t="s">
         <v>262</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="11">
         <f>CharacterSheet!B15</f>
         <v>275</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="85" t="s">
         <v>224</v>
       </c>
       <c r="H2">
@@ -10022,297 +10565,297 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="11">
         <f>CharacterSheet!B3</f>
         <v>12</v>
       </c>
-      <c r="C3" s="15" t="str">
+      <c r="C3" s="11" t="str">
         <f>CharacterSheet!E3</f>
         <v>Armed</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="11">
         <f>CharacterSheet!I3</f>
         <v>30</v>
       </c>
-      <c r="E3" s="100" t="s">
+      <c r="E3" s="85" t="s">
         <v>261</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="11">
         <f>CharacterSheet!B16</f>
         <v>12</v>
       </c>
-      <c r="G3" s="100" t="s">
+      <c r="G3" s="85" t="s">
         <v>225</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="11">
         <f>Status!C27</f>
         <v>5</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="11">
         <f>Status!Z3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="11">
         <f>CharacterSheet!B4</f>
         <v>12</v>
       </c>
-      <c r="C4" s="15" t="str">
+      <c r="C4" s="11" t="str">
         <f>CharacterSheet!E4</f>
         <v>Unarmed</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="11">
         <f>CharacterSheet!I4</f>
         <v>20</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="80" t="s">
         <v>264</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="11">
         <f>CharacterSheet!B17</f>
         <v>55</v>
       </c>
-      <c r="G4" s="100" t="s">
+      <c r="G4" s="85" t="s">
         <v>226</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="11">
         <f>Status!C28</f>
         <v>7</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="11">
         <f>Status!Z4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="11">
         <f>CharacterSheet!B5</f>
         <v>13</v>
       </c>
-      <c r="C5" s="15" t="str">
+      <c r="C5" s="11" t="str">
         <f>CharacterSheet!E5</f>
         <v>Blocken</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="11">
         <f>CharacterSheet!I5</f>
         <v>30</v>
       </c>
-      <c r="E5" s="95" t="s">
+      <c r="E5" s="80" t="s">
         <v>265</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="11">
         <f>CharacterSheet!B18</f>
         <v>193</v>
       </c>
-      <c r="G5" s="100" t="s">
+      <c r="G5" s="85" t="s">
         <v>227</v>
       </c>
       <c r="H5">
         <f>Status!C30</f>
         <v>7</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="11">
         <f>Status!Z5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="11">
         <f>CharacterSheet!B6</f>
         <v>10</v>
       </c>
-      <c r="C6" s="15" t="str">
+      <c r="C6" s="11" t="str">
         <f>CharacterSheet!E6</f>
         <v>Artillerie</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="11">
         <f>CharacterSheet!I6</f>
         <v>20</v>
       </c>
-      <c r="E6" s="95" t="s">
+      <c r="E6" s="80" t="s">
         <v>266</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="11">
         <f>CharacterSheet!B19</f>
         <v>55</v>
       </c>
-      <c r="G6" s="100" t="s">
+      <c r="G6" s="85" t="s">
         <v>228</v>
       </c>
       <c r="H6">
         <f>Status!D2</f>
         <v>2</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="11">
         <f>Status!Z6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="11">
         <f>CharacterSheet!B7</f>
         <v>12</v>
       </c>
-      <c r="C7" s="15" t="str">
+      <c r="C7" s="11" t="str">
         <f>CharacterSheet!E7</f>
         <v>Ranged</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="11">
         <f>CharacterSheet!I7</f>
         <v>20</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="80" t="s">
         <v>267</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="11">
         <f>CharacterSheet!B20</f>
         <v>55</v>
       </c>
-      <c r="G7" s="100" t="s">
+      <c r="G7" s="85" t="s">
         <v>229</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="11">
         <f>Status!D3</f>
         <v>1</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="11">
         <f>Status!Z7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="str">
+      <c r="A8" s="11" t="str">
         <f>CharacterSheet!A8</f>
         <v>Luck</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="11">
         <f>CharacterSheet!B8</f>
         <v>5</v>
       </c>
-      <c r="C8" s="15" t="str">
+      <c r="C8" s="11" t="str">
         <f>CharacterSheet!E8</f>
         <v>throwing</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="11">
         <f>CharacterSheet!I8</f>
         <v>20</v>
       </c>
-      <c r="E8" s="95" t="s">
+      <c r="E8" s="80" t="s">
         <v>268</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="11">
         <f>CharacterSheet!B21</f>
         <v>69</v>
       </c>
-      <c r="G8" s="100" t="s">
+      <c r="G8" s="85" t="s">
         <v>230</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="11">
         <f>Status!D4</f>
         <v>0</v>
       </c>
-      <c r="I8" s="15"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="str">
+      <c r="A9" s="11" t="str">
         <f>CharacterSheet!A9</f>
         <v>Glaube</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="11">
         <f>CharacterSheet!B9</f>
         <v>5</v>
       </c>
-      <c r="C9" s="15" t="str">
+      <c r="C9" s="11" t="str">
         <f>CharacterSheet!E9</f>
         <v>Dodge</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="11">
         <f>CharacterSheet!I9</f>
         <v>20</v>
       </c>
-      <c r="E9" s="95" t="s">
+      <c r="E9" s="80" t="s">
         <v>269</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="11">
         <f>CharacterSheet!B22</f>
         <v>69</v>
       </c>
-      <c r="G9" s="100" t="s">
+      <c r="G9" s="85" t="s">
         <v>231</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="11">
         <f>Status!D5</f>
         <v>1</v>
       </c>
-      <c r="I9" s="15"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="11">
         <f>CharacterSheet!B10</f>
         <v>18</v>
       </c>
-      <c r="C10" s="15" t="str">
+      <c r="C10" s="11" t="str">
         <f>CharacterSheet!E10</f>
         <v>Acrobatics</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="11">
         <f>CharacterSheet!I10</f>
         <v>20</v>
       </c>
-      <c r="E10" s="100" t="s">
+      <c r="E10" s="85" t="s">
         <v>201</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="11">
         <f>CharacterSheet!B1</f>
         <v>0</v>
       </c>
-      <c r="G10" s="100" t="s">
+      <c r="G10" s="85" t="s">
         <v>236</v>
       </c>
       <c r="H10">
         <f>Status!D8</f>
         <v>7</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="15"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="11">
         <f>CharacterSheet!B11</f>
         <v>10</v>
       </c>
-      <c r="C11" s="15" t="str">
+      <c r="C11" s="11" t="str">
         <f>CharacterSheet!E11</f>
         <v>Schleichen</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="11">
         <f>CharacterSheet!I11</f>
         <v>24</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="11" t="s">
         <v>206</v>
       </c>
       <c r="F11">
@@ -10321,13 +10864,13 @@
       <c r="G11" t="s">
         <v>237</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="11">
         <f>Status!D9</f>
         <v>7</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="15"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -10337,15 +10880,15 @@
         <f>Inventar!G22</f>
         <v>15.5</v>
       </c>
-      <c r="C12" s="15" t="str">
+      <c r="C12" s="11" t="str">
         <f>CharacterSheet!E12</f>
         <v>Taschendiebstahl</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="11">
         <f>CharacterSheet!I12</f>
         <v>20</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="11" t="s">
         <v>205</v>
       </c>
       <c r="F12">
@@ -10354,7 +10897,7 @@
       <c r="G12" t="s">
         <v>238</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="11">
         <f>Status!D10</f>
         <v>7</v>
       </c>
@@ -10367,15 +10910,15 @@
         <f>Inventar!G19</f>
         <v>19.5</v>
       </c>
-      <c r="C13" s="15" t="str">
+      <c r="C13" s="11" t="str">
         <f>CharacterSheet!E13</f>
         <v>Schlossknacken</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="11">
         <f>CharacterSheet!I13</f>
         <v>20</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="11" t="s">
         <v>188</v>
       </c>
       <c r="F13" t="str">
@@ -10385,38 +10928,38 @@
       <c r="G13" t="s">
         <v>239</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="11">
         <f>Status!D11</f>
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="11">
         <f>Status!AA11</f>
         <v>48</v>
       </c>
-      <c r="C14" s="15" t="str">
+      <c r="C14" s="11" t="str">
         <f>CharacterSheet!E14</f>
         <v>Lying</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="11">
         <f>CharacterSheet!I14</f>
         <v>20</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="F14" s="15" t="str">
+      <c r="F14" s="11" t="str">
         <f>Status!B3</f>
         <v>Dolch</v>
       </c>
       <c r="G14" t="s">
         <v>240</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="11">
         <f>Status!D12</f>
         <v>7</v>
       </c>
@@ -10429,18 +10972,18 @@
         <f>Status!AA13</f>
         <v>Leicht</v>
       </c>
-      <c r="C15" s="15" t="str">
+      <c r="C15" s="11" t="str">
         <f>CharacterSheet!E15</f>
         <v>Persuation</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="11">
         <f>CharacterSheet!I15</f>
         <v>35</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="11">
         <f>Status!B4</f>
         <v>0</v>
       </c>
@@ -10460,25 +11003,25 @@
         <f>Status!R12</f>
         <v>13</v>
       </c>
-      <c r="C16" s="15" t="str">
+      <c r="C16" s="11" t="str">
         <f>CharacterSheet!E16</f>
         <v>Performance</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="11">
         <f>CharacterSheet!I16</f>
         <v>20</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="15" t="str">
+      <c r="F16" s="11" t="str">
         <f>Status!B5</f>
         <v>Leichter Schild</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="11">
         <f>Status!E9</f>
         <v>1</v>
       </c>
@@ -10491,25 +11034,25 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>11</v>
       </c>
-      <c r="C17" s="15" t="str">
+      <c r="C17" s="11" t="str">
         <f>CharacterSheet!E17</f>
         <v>Feilschen</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="11">
         <f>CharacterSheet!I17</f>
         <v>20</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="11">
         <f>Status!C2</f>
         <v>42</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="11">
         <f>Status!E10</f>
         <v>1</v>
       </c>
@@ -10518,29 +11061,29 @@
       <c r="A18" t="s">
         <v>200</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="11">
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>13</v>
       </c>
-      <c r="C18" s="15" t="str">
+      <c r="C18" s="11" t="str">
         <f>CharacterSheet!E18</f>
         <v>Insight</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="11">
         <f>CharacterSheet!I18</f>
         <v>28</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="11">
         <f>Status!C3</f>
         <v>12</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="11">
         <f>Status!E11</f>
         <v>1</v>
       </c>
@@ -10553,49 +11096,49 @@
         <f>CharacterSheet!B8+CharacterSheet!B9</f>
         <v>10</v>
       </c>
-      <c r="C19" s="15" t="str">
+      <c r="C19" s="11" t="str">
         <f>CharacterSheet!E19</f>
         <v>Intimidation</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="11">
         <f>CharacterSheet!I19</f>
         <v>20</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="11">
         <f>Status!C4</f>
         <v>0</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="11">
         <f>Status!E12</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="95" t="s">
+      <c r="A20" s="80" t="s">
         <v>69</v>
       </c>
       <c r="B20" t="str">
         <f>CharacterSheet!B13</f>
         <v>Random</v>
       </c>
-      <c r="C20" s="15" t="str">
+      <c r="C20" s="11" t="str">
         <f>CharacterSheet!E20</f>
         <v xml:space="preserve">Swimming </v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="11">
         <f>CharacterSheet!I20</f>
         <v>20</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="11">
         <f>Status!C5</f>
         <v>15</v>
       </c>
@@ -10608,194 +11151,194 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="80" t="s">
         <v>88</v>
       </c>
       <c r="B21">
         <f>Status!D16</f>
         <v>275</v>
       </c>
-      <c r="C21" s="15" t="str">
+      <c r="C21" s="11" t="str">
         <f>CharacterSheet!E21</f>
         <v>Running</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="11">
         <f>CharacterSheet!I21</f>
         <v>28</v>
       </c>
       <c r="E21" t="s">
         <v>187</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="9">
         <f>Status!C13</f>
         <v>43.5</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="H21" s="15" t="str">
+      <c r="H21" s="11" t="str">
         <f>Status!B9</f>
         <v>Leicht</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="11">
         <f>Status!D17</f>
         <v>12</v>
       </c>
-      <c r="C22" s="15" t="str">
+      <c r="C22" s="11" t="str">
         <f>CharacterSheet!E22</f>
         <v>Handwerk</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="11">
         <f>CharacterSheet!I22</f>
         <v>20</v>
       </c>
-      <c r="E22" s="15" t="str">
+      <c r="E22" s="11" t="str">
         <f>Status!A8</f>
         <v>Helm</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="9">
         <f>Status!C8</f>
         <v>10.5</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="H22" s="15" t="str">
+      <c r="H22" s="11" t="str">
         <f>Status!B10</f>
         <v>Leicht</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="95" t="s">
+      <c r="A23" s="80" t="s">
         <v>208</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="11">
         <f>Status!D18</f>
         <v>55</v>
       </c>
-      <c r="C23" s="15" t="str">
+      <c r="C23" s="11" t="str">
         <f>CharacterSheet!E23</f>
         <v>Alchemie</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="11">
         <f>CharacterSheet!I23</f>
         <v>20</v>
       </c>
-      <c r="E23" s="15" t="str">
+      <c r="E23" s="11" t="str">
         <f>Status!A9</f>
         <v>Brust</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="9">
         <f>Status!C9</f>
         <v>6</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="H23" s="15" t="str">
+      <c r="H23" s="11" t="str">
         <f>Status!B11</f>
         <v>Mittel</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="95" t="s">
+      <c r="A24" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="11">
         <f>Status!D19</f>
         <v>193</v>
       </c>
-      <c r="C24" s="15" t="str">
+      <c r="C24" s="11" t="str">
         <f>CharacterSheet!E24</f>
         <v>Vehicles</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="11">
         <f>CharacterSheet!I24</f>
         <v>20</v>
       </c>
-      <c r="E24" s="15" t="str">
+      <c r="E24" s="11" t="str">
         <f>Status!A10</f>
         <v>Arme</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="9">
         <f>Status!C10</f>
         <v>6</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="H24" s="15" t="str">
+      <c r="H24" s="11" t="str">
         <f>Status!B12</f>
         <v>Mittel</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="95" t="s">
+      <c r="A25" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="11">
         <f>Status!D20</f>
         <v>55</v>
       </c>
-      <c r="C25" s="15" t="str">
+      <c r="C25" s="11" t="str">
         <f>CharacterSheet!E25</f>
         <v>Animal Handling</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="11">
         <f>CharacterSheet!I25</f>
         <v>20</v>
       </c>
-      <c r="E25" s="15" t="str">
+      <c r="E25" s="11" t="str">
         <f>Status!A11</f>
         <v>Gürtel</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="9">
         <f>Status!C11</f>
         <v>10.5</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="95" t="s">
+      <c r="A26" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="11">
         <f>Status!D21</f>
         <v>55</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="11">
         <f>CharacterSheet!I26</f>
         <v>20</v>
       </c>
-      <c r="E26" s="15" t="str">
+      <c r="E26" s="11" t="str">
         <f>Status!A12</f>
         <v>Beine</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="9">
         <f>Status!C12</f>
         <v>10.5</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="95" t="s">
+      <c r="A27" s="80" t="s">
         <v>210</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="11">
         <f>Status!D22</f>
         <v>69</v>
       </c>
-      <c r="C27" s="15" t="str">
+      <c r="C27" s="11" t="str">
         <f>CharacterSheet!E27</f>
         <v>Perception</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="11">
         <f>CharacterSheet!I27</f>
         <v>35</v>
       </c>
@@ -10808,30 +11351,30 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="95" t="s">
+      <c r="A28" s="80" t="s">
         <v>211</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="11">
         <f>Status!D23</f>
         <v>69</v>
       </c>
-      <c r="C28" s="15"/>
+      <c r="C28" s="11"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="100" t="s">
+      <c r="A29" s="85" t="s">
         <v>263</v>
       </c>
       <c r="B29">
         <f>Status!Q17</f>
         <v>0</v>
       </c>
-      <c r="C29" s="15"/>
+      <c r="C29" s="11"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="15"/>
+      <c r="C30" s="11"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="15"/>
+      <c r="C31" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/DownloadContainer/CCrand.xlsx
+++ b/DownloadContainer/CCrand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\###Orbis\DownloadContainer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\Container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7130AE3F-412C-4791-948E-EFFB2C9FD039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E458185F-A840-4E30-A5EB-085E0B682B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
@@ -1974,6 +1974,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2040,63 +2097,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4098,8 +4098,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AE72"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AA22" sqref="AA22"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4148,11 +4148,11 @@
       <c r="F1" s="136"/>
       <c r="G1" s="136"/>
       <c r="H1" s="137"/>
-      <c r="J1" s="164" t="s">
+      <c r="J1" s="183" t="s">
         <v>308</v>
       </c>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
       <c r="Q1" s="136" t="s">
         <v>4</v>
       </c>
@@ -4199,11 +4199,11 @@
       <c r="G2" s="99"/>
       <c r="H2" s="99"/>
       <c r="I2" s="95"/>
-      <c r="J2" s="165">
+      <c r="J2" s="184">
         <v>100</v>
       </c>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
       <c r="M2" s="95"/>
       <c r="N2" s="95"/>
       <c r="O2" s="95"/>
@@ -4216,12 +4216,12 @@
         <v>12</v>
       </c>
       <c r="S2" s="145"/>
-      <c r="T2" s="169" t="s">
+      <c r="T2" s="188" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="170"/>
-      <c r="V2" s="170"/>
-      <c r="W2" s="171"/>
+      <c r="U2" s="189"/>
+      <c r="V2" s="189"/>
+      <c r="W2" s="190"/>
       <c r="Y2" s="11"/>
       <c r="Z2" s="141"/>
       <c r="AA2" s="141" t="s">
@@ -4315,7 +4315,7 @@
         <v>27</v>
       </c>
       <c r="R4" s="63">
-        <f>CharacterSheet!B4+B4</f>
+        <f>CharacterSheet!B4+S4</f>
         <v>12</v>
       </c>
       <c r="S4" s="146"/>
@@ -4714,12 +4714,12 @@
         <v>10</v>
       </c>
       <c r="S11" s="146"/>
-      <c r="T11" s="175" t="s">
+      <c r="T11" s="194" t="s">
         <v>50</v>
       </c>
-      <c r="U11" s="176"/>
-      <c r="V11" s="176"/>
-      <c r="W11" s="177"/>
+      <c r="U11" s="195"/>
+      <c r="V11" s="195"/>
+      <c r="W11" s="196"/>
       <c r="Y11" s="11"/>
       <c r="Z11" s="157" t="s">
         <v>54</v>
@@ -4862,7 +4862,7 @@
       <c r="N14" s="95"/>
       <c r="O14" s="116"/>
       <c r="P14" s="95"/>
-      <c r="Q14" s="172" t="s">
+      <c r="Q14" s="191" t="s">
         <v>59</v>
       </c>
       <c r="R14" s="95"/>
@@ -4907,7 +4907,7 @@
       <c r="N15" s="95"/>
       <c r="O15" s="116"/>
       <c r="P15" s="95"/>
-      <c r="Q15" s="173"/>
+      <c r="Q15" s="192"/>
       <c r="R15" s="95"/>
       <c r="S15" s="96"/>
       <c r="T15" s="42" t="s">
@@ -4959,15 +4959,15 @@
       <c r="N16" s="95"/>
       <c r="O16" s="116"/>
       <c r="P16" s="95"/>
-      <c r="Q16" s="174"/>
+      <c r="Q16" s="193"/>
       <c r="R16" s="95"/>
       <c r="S16" s="97"/>
-      <c r="T16" s="169" t="s">
+      <c r="T16" s="188" t="s">
         <v>62</v>
       </c>
-      <c r="U16" s="170"/>
-      <c r="V16" s="170"/>
-      <c r="W16" s="171"/>
+      <c r="U16" s="189"/>
+      <c r="V16" s="189"/>
+      <c r="W16" s="190"/>
       <c r="Y16" s="11"/>
       <c r="Z16" s="120" t="s">
         <v>66</v>
@@ -5375,12 +5375,12 @@
       </c>
       <c r="R23" s="105"/>
       <c r="S23" s="97"/>
-      <c r="T23" s="169" t="s">
+      <c r="T23" s="188" t="s">
         <v>92</v>
       </c>
-      <c r="U23" s="170"/>
-      <c r="V23" s="170"/>
-      <c r="W23" s="171"/>
+      <c r="U23" s="189"/>
+      <c r="V23" s="189"/>
+      <c r="W23" s="190"/>
       <c r="Y23" s="11"/>
       <c r="Z23" s="95"/>
       <c r="AA23" s="95"/>
@@ -5509,12 +5509,12 @@
       <c r="Q26" s="95"/>
       <c r="R26" s="95"/>
       <c r="S26" s="97"/>
-      <c r="T26" s="169" t="s">
+      <c r="T26" s="188" t="s">
         <v>97</v>
       </c>
-      <c r="U26" s="170"/>
-      <c r="V26" s="170"/>
-      <c r="W26" s="171"/>
+      <c r="U26" s="189"/>
+      <c r="V26" s="189"/>
+      <c r="W26" s="190"/>
       <c r="Y26" s="11"/>
       <c r="Z26" s="95"/>
       <c r="AA26" s="95"/>
@@ -5587,13 +5587,13 @@
       <c r="F28" s="95"/>
       <c r="G28" s="95"/>
       <c r="H28" s="95"/>
-      <c r="I28" s="178" t="s">
+      <c r="I28" s="197" t="s">
         <v>252</v>
       </c>
-      <c r="J28" s="179"/>
-      <c r="K28" s="179"/>
-      <c r="L28" s="179"/>
-      <c r="M28" s="180"/>
+      <c r="J28" s="198"/>
+      <c r="K28" s="198"/>
+      <c r="L28" s="198"/>
+      <c r="M28" s="199"/>
       <c r="N28" s="95"/>
       <c r="O28" s="95"/>
       <c r="P28" s="95"/>
@@ -5630,13 +5630,13 @@
       <c r="F29" s="95"/>
       <c r="G29" s="131"/>
       <c r="H29" s="131"/>
-      <c r="I29" s="166" t="s">
+      <c r="I29" s="185" t="s">
         <v>284</v>
       </c>
-      <c r="J29" s="167"/>
-      <c r="K29" s="167"/>
-      <c r="L29" s="167"/>
-      <c r="M29" s="168"/>
+      <c r="J29" s="186"/>
+      <c r="K29" s="186"/>
+      <c r="L29" s="186"/>
+      <c r="M29" s="187"/>
       <c r="N29" s="95"/>
       <c r="O29" s="95"/>
       <c r="P29" s="95"/>
@@ -5692,12 +5692,12 @@
       <c r="Q30" s="95"/>
       <c r="R30" s="95"/>
       <c r="S30" s="97"/>
-      <c r="T30" s="169" t="s">
+      <c r="T30" s="188" t="s">
         <v>101</v>
       </c>
-      <c r="U30" s="170"/>
-      <c r="V30" s="170"/>
-      <c r="W30" s="171"/>
+      <c r="U30" s="189"/>
+      <c r="V30" s="189"/>
+      <c r="W30" s="190"/>
       <c r="Y30" s="11"/>
       <c r="Z30" s="95"/>
       <c r="AA30" s="95"/>
@@ -7326,7 +7326,7 @@
       <c r="D2" s="13">
         <v>1</v>
       </c>
-      <c r="E2" s="181"/>
+      <c r="E2" s="200"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="I2" s="91"/>
@@ -7348,7 +7348,7 @@
       <c r="D3" s="15">
         <v>0</v>
       </c>
-      <c r="E3" s="182"/>
+      <c r="E3" s="201"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="I3" s="17" t="s">
@@ -7418,7 +7418,7 @@
       <c r="D5" s="15">
         <v>0</v>
       </c>
-      <c r="E5" s="181"/>
+      <c r="E5" s="200"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="I5" s="11"/>
@@ -7436,7 +7436,7 @@
       <c r="B6" s="15"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="182"/>
+      <c r="E6" s="201"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="I6" s="17" t="s">
@@ -7486,7 +7486,7 @@
       <c r="B8" s="15"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="181"/>
+      <c r="E8" s="200"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="I8" s="11"/>
@@ -7504,7 +7504,7 @@
       <c r="B9" s="15"/>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="182"/>
+      <c r="E9" s="201"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="I9" s="17" t="s">
@@ -8093,7 +8093,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -8152,7 +8152,7 @@
       <c r="A2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="183">
+      <c r="B2" s="164">
         <v>12</v>
       </c>
       <c r="C2" s="95">
@@ -8173,7 +8173,7 @@
       <c r="H2" s="108">
         <v>-9</v>
       </c>
-      <c r="I2" s="197">
+      <c r="I2" s="178">
         <v>29</v>
       </c>
       <c r="J2" s="95"/>
@@ -8192,7 +8192,7 @@
       <c r="O2" s="144" t="s">
         <v>72</v>
       </c>
-      <c r="P2" s="198"/>
+      <c r="P2" s="179"/>
       <c r="Q2" s="95"/>
       <c r="R2" s="95"/>
       <c r="S2" s="95"/>
@@ -8207,7 +8207,7 @@
       <c r="A3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="184">
+      <c r="B3" s="165">
         <v>12</v>
       </c>
       <c r="C3" s="95">
@@ -8228,7 +8228,7 @@
       <c r="H3" s="99">
         <v>-10</v>
       </c>
-      <c r="I3" s="199">
+      <c r="I3" s="180">
         <v>30</v>
       </c>
       <c r="J3" s="95"/>
@@ -8262,7 +8262,7 @@
       <c r="A4" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="185">
+      <c r="B4" s="166">
         <v>12</v>
       </c>
       <c r="C4" s="95">
@@ -8279,7 +8279,7 @@
       </c>
       <c r="G4" s="51"/>
       <c r="H4" s="99"/>
-      <c r="I4" s="199">
+      <c r="I4" s="180">
         <v>20</v>
       </c>
       <c r="J4" s="95"/>
@@ -8311,7 +8311,7 @@
       <c r="A5" s="40" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="186">
+      <c r="B5" s="167">
         <v>13</v>
       </c>
       <c r="C5" s="95"/>
@@ -8330,7 +8330,7 @@
       <c r="H5" s="99">
         <v>-10</v>
       </c>
-      <c r="I5" s="199">
+      <c r="I5" s="180">
         <v>30</v>
       </c>
       <c r="J5" s="95"/>
@@ -8356,7 +8356,7 @@
       <c r="A6" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="187">
+      <c r="B6" s="168">
         <v>10</v>
       </c>
       <c r="C6" s="95"/>
@@ -8373,7 +8373,7 @@
         <v>204</v>
       </c>
       <c r="H6" s="99"/>
-      <c r="I6" s="199">
+      <c r="I6" s="180">
         <v>20</v>
       </c>
       <c r="J6" s="95"/>
@@ -8397,7 +8397,7 @@
       <c r="A7" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="B7" s="188">
+      <c r="B7" s="169">
         <v>12</v>
       </c>
       <c r="C7" s="95">
@@ -8416,7 +8416,7 @@
         <v>36</v>
       </c>
       <c r="H7" s="99"/>
-      <c r="I7" s="199">
+      <c r="I7" s="180">
         <v>20</v>
       </c>
       <c r="J7" s="95"/>
@@ -8440,7 +8440,7 @@
       <c r="A8" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="189">
+      <c r="B8" s="170">
         <v>5</v>
       </c>
       <c r="C8" s="95">
@@ -8459,11 +8459,11 @@
         <v>36</v>
       </c>
       <c r="H8" s="99"/>
-      <c r="I8" s="199">
+      <c r="I8" s="180">
         <v>20</v>
       </c>
       <c r="J8" s="95"/>
-      <c r="K8" s="200" t="s">
+      <c r="K8" s="181" t="s">
         <v>10</v>
       </c>
       <c r="L8" s="95"/>
@@ -8485,7 +8485,7 @@
       <c r="A9" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="189">
+      <c r="B9" s="170">
         <v>5</v>
       </c>
       <c r="C9" s="95"/>
@@ -8498,7 +8498,7 @@
       </c>
       <c r="G9" s="52"/>
       <c r="H9" s="99"/>
-      <c r="I9" s="201">
+      <c r="I9" s="182">
         <v>20</v>
       </c>
       <c r="J9" s="95"/>
@@ -8524,7 +8524,7 @@
       <c r="A10" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="190">
+      <c r="B10" s="171">
         <f>ROUND((B8+B5+B7+B9)/2,0)</f>
         <v>18</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>36</v>
       </c>
       <c r="H10" s="99"/>
-      <c r="I10" s="197">
+      <c r="I10" s="178">
         <v>20</v>
       </c>
       <c r="J10" s="95"/>
@@ -8566,7 +8566,7 @@
       <c r="A11" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="191">
+      <c r="B11" s="172">
         <f>B5-Inventar!H22</f>
         <v>10</v>
       </c>
@@ -8580,7 +8580,7 @@
       </c>
       <c r="G11" s="53"/>
       <c r="H11" s="99"/>
-      <c r="I11" s="199">
+      <c r="I11" s="180">
         <v>24</v>
       </c>
       <c r="J11" s="95"/>
@@ -8615,7 +8615,7 @@
       </c>
       <c r="G12" s="53"/>
       <c r="H12" s="99"/>
-      <c r="I12" s="199">
+      <c r="I12" s="180">
         <v>20</v>
       </c>
       <c r="J12" s="95"/>
@@ -8654,7 +8654,7 @@
         <v>204</v>
       </c>
       <c r="H13" s="99"/>
-      <c r="I13" s="201">
+      <c r="I13" s="182">
         <v>20</v>
       </c>
       <c r="J13" s="95"/>
@@ -8689,7 +8689,7 @@
         <v>86</v>
       </c>
       <c r="H14" s="99"/>
-      <c r="I14" s="197">
+      <c r="I14" s="178">
         <v>20</v>
       </c>
       <c r="J14" s="95"/>
@@ -8713,7 +8713,7 @@
       <c r="A15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="192">
+      <c r="B15" s="173">
         <v>275</v>
       </c>
       <c r="C15" s="95">
@@ -8730,7 +8730,7 @@
       <c r="H15" s="99">
         <v>-15</v>
       </c>
-      <c r="I15" s="199">
+      <c r="I15" s="180">
         <v>35</v>
       </c>
       <c r="J15" s="95"/>
@@ -8754,7 +8754,7 @@
       <c r="A16" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="193">
+      <c r="B16" s="174">
         <v>12</v>
       </c>
       <c r="C16" s="95"/>
@@ -8767,7 +8767,7 @@
       </c>
       <c r="G16" s="54"/>
       <c r="H16" s="99"/>
-      <c r="I16" s="199">
+      <c r="I16" s="180">
         <v>20</v>
       </c>
       <c r="J16" s="95"/>
@@ -8791,7 +8791,7 @@
       <c r="A17" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="194">
+      <c r="B17" s="175">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
         <v>55</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>142</v>
       </c>
       <c r="H17" s="99"/>
-      <c r="I17" s="199">
+      <c r="I17" s="180">
         <v>20</v>
       </c>
       <c r="J17" s="95"/>
@@ -8831,7 +8831,7 @@
       <c r="A18" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="195">
+      <c r="B18" s="176">
         <f>ROUNDUP(CharacterSheet!$B$15*0.7,0)</f>
         <v>193</v>
       </c>
@@ -8849,7 +8849,7 @@
       <c r="H18" s="99">
         <v>-8</v>
       </c>
-      <c r="I18" s="199">
+      <c r="I18" s="180">
         <v>28</v>
       </c>
       <c r="J18" s="95"/>
@@ -8873,7 +8873,7 @@
       <c r="A19" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="B19" s="195">
+      <c r="B19" s="176">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
         <v>55</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>142</v>
       </c>
       <c r="H19" s="99"/>
-      <c r="I19" s="201">
+      <c r="I19" s="182">
         <v>20</v>
       </c>
       <c r="J19" s="95"/>
@@ -8917,7 +8917,7 @@
       <c r="A20" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="B20" s="195">
+      <c r="B20" s="176">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
         <v>55</v>
       </c>
@@ -8936,7 +8936,7 @@
       </c>
       <c r="G20" s="56"/>
       <c r="H20" s="99"/>
-      <c r="I20" s="197">
+      <c r="I20" s="178">
         <v>20</v>
       </c>
       <c r="J20" s="95"/>
@@ -8960,7 +8960,7 @@
       <c r="A21" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="B21" s="195">
+      <c r="B21" s="176">
         <f>ROUNDUP(CharacterSheet!$B$15*0.25,0)</f>
         <v>69</v>
       </c>
@@ -8976,7 +8976,7 @@
       <c r="H21" s="109">
         <v>-8</v>
       </c>
-      <c r="I21" s="201">
+      <c r="I21" s="182">
         <v>28</v>
       </c>
       <c r="J21" s="95"/>
@@ -9000,11 +9000,11 @@
       <c r="A22" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="B22" s="195">
+      <c r="B22" s="176">
         <f>ROUNDUP(CharacterSheet!$B$15*0.25,0)</f>
         <v>69</v>
       </c>
-      <c r="C22" s="196" t="s">
+      <c r="C22" s="177" t="s">
         <v>144</v>
       </c>
       <c r="D22" s="95"/>
@@ -9016,7 +9016,7 @@
       </c>
       <c r="G22" s="57"/>
       <c r="H22" s="99"/>
-      <c r="I22" s="197">
+      <c r="I22" s="178">
         <v>20</v>
       </c>
       <c r="J22" s="95"/>
@@ -9049,7 +9049,7 @@
       </c>
       <c r="G23" s="58"/>
       <c r="H23" s="99"/>
-      <c r="I23" s="199">
+      <c r="I23" s="180">
         <v>20</v>
       </c>
       <c r="J23" s="95"/>
@@ -9084,7 +9084,7 @@
         <v>204</v>
       </c>
       <c r="H24" s="99"/>
-      <c r="I24" s="201">
+      <c r="I24" s="182">
         <v>20</v>
       </c>
       <c r="J24" s="95"/>
@@ -9117,7 +9117,7 @@
       </c>
       <c r="G25" s="59"/>
       <c r="H25" s="99"/>
-      <c r="I25" s="197">
+      <c r="I25" s="178">
         <v>20</v>
       </c>
       <c r="J25" s="95"/>
@@ -9150,7 +9150,7 @@
       </c>
       <c r="G26" s="60"/>
       <c r="H26" s="99"/>
-      <c r="I26" s="199">
+      <c r="I26" s="180">
         <v>20</v>
       </c>
       <c r="J26" s="95"/>
@@ -9185,7 +9185,7 @@
       <c r="H27" s="110">
         <v>-15</v>
       </c>
-      <c r="I27" s="201">
+      <c r="I27" s="182">
         <v>35</v>
       </c>
       <c r="J27" s="95"/>

--- a/DownloadContainer/CCrand.xlsx
+++ b/DownloadContainer/CCrand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\Container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E458185F-A840-4E30-A5EB-085E0B682B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765E1C13-1E56-4E62-9D92-2E4D514521FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
+    <workbookView xWindow="-57720" yWindow="8235" windowWidth="29040" windowHeight="15840" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="316">
   <si>
     <t>Ausgerüstet:</t>
   </si>
@@ -89,12 +89,6 @@
     <t>Kampf</t>
   </si>
   <si>
-    <t>Kaiserlich 10</t>
-  </si>
-  <si>
-    <t>literatur</t>
-  </si>
-  <si>
     <t>Secondary</t>
   </si>
   <si>
@@ -113,12 +107,6 @@
     <t>Phy</t>
   </si>
   <si>
-    <t>Rah Kari 6</t>
-  </si>
-  <si>
-    <t>kirche des allgotts</t>
-  </si>
-  <si>
     <t>Rücken</t>
   </si>
   <si>
@@ -131,9 +119,6 @@
     <t>Armed</t>
   </si>
   <si>
-    <t>Pferdezucht</t>
-  </si>
-  <si>
     <t>Köcher</t>
   </si>
   <si>
@@ -254,12 +239,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Loyal</t>
-  </si>
-  <si>
-    <t>Connected</t>
-  </si>
-  <si>
     <t>Trivia</t>
   </si>
   <si>
@@ -584,9 +563,6 @@
     <t>600-700</t>
   </si>
   <si>
-    <t>Hanlo, dieses ist ein Beispielcharakter, seine backstory ist beispielhaft</t>
-  </si>
-  <si>
     <t>Artillerie</t>
   </si>
   <si>
@@ -698,9 +674,6 @@
     <t>Bein Links</t>
   </si>
   <si>
-    <t>Kaiserlich 8</t>
-  </si>
-  <si>
     <t>Waffe</t>
   </si>
   <si>
@@ -984,13 +957,46 @@
   </si>
   <si>
     <t>Rüstungsschwere</t>
+  </si>
+  <si>
+    <t>Kaiserlich 3</t>
+  </si>
+  <si>
+    <t>Wissenspunkte:</t>
+  </si>
+  <si>
+    <t>Kontaktpunkte:</t>
+  </si>
+  <si>
+    <t>Religion des Allgottes 3</t>
+  </si>
+  <si>
+    <t>Elfisch 2</t>
+  </si>
+  <si>
+    <t>Geschichte des Kaiserreichs 1</t>
+  </si>
+  <si>
+    <t>Schriftlehre 1</t>
+  </si>
+  <si>
+    <t>Wissen und Sprachen</t>
+  </si>
+  <si>
+    <t>Nur relevant für Char-Creation, danach umwandeln um die Punkte selbst zu tracken:</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Affection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1054,6 +1060,14 @@
     </font>
     <font>
       <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1707,7 +1721,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1943,12 +1957,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -2098,6 +2106,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3796,6 +3819,229 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9117329</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Textfeld 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFF9E3C1-A7D4-45D8-989A-007F2D0FFFBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9524" y="9525"/>
+          <a:ext cx="9107805" cy="6800850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1800"/>
+            <a:t>Kindheit und Jugend:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1200"/>
+            <a:t>CCrand wuchs im Herzland auf und blabla</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1800"/>
+            <a:t>Geschichte:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1200"/>
+            <a:t>Momentan ist CCrand</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1200" baseline="0"/>
+            <a:t> unterwegs um Abenteuer zu erleben da er später einmal Allgottspriester werden will</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1800"/>
+            <a:t>Religion: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1200"/>
+            <a:t>Random Charakter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1200" baseline="0"/>
+            <a:t> ist allgottgläubig seitdem er geboren wurde. Streng religiös von seinen Eltern erzogen wollte er immer Priester werden. Allerdings muss er sich dafür erstmal seine Sporen verdienen.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1800" baseline="0"/>
+            <a:t>Politische Vorstellungen:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1200" baseline="0"/>
+            <a:t>CCrand ist Unpolitisch da er ein Beispielcharakter ist </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1800" baseline="0"/>
+            <a:t>Wichtige Freundschaften:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1200"/>
+            <a:t>CCrand hat einen Saufkumpan</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1200" baseline="0"/>
+            <a:t> namens Arminius Laschet</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>118322</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>425239</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66531</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Grafik 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6418988E-C838-4C8D-A02E-BE10039CDAE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10056072" y="0"/>
+          <a:ext cx="4381500" cy="6903364"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4099,60 +4345,60 @@
   <dimension ref="A1:AE72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" style="11" customWidth="1"/>
-    <col min="6" max="7" width="3.85546875" customWidth="1"/>
-    <col min="8" max="8" width="1.42578125" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.578125" customWidth="1"/>
+    <col min="3" max="3" width="7.578125" customWidth="1"/>
+    <col min="4" max="4" width="6.83984375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="4.15625" style="11" customWidth="1"/>
+    <col min="6" max="7" width="3.83984375" customWidth="1"/>
+    <col min="8" max="8" width="1.41796875" customWidth="1"/>
+    <col min="9" max="9" width="4.26171875" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="2.42578125" customWidth="1"/>
-    <col min="12" max="12" width="2.85546875" customWidth="1"/>
-    <col min="13" max="13" width="4.42578125" customWidth="1"/>
-    <col min="14" max="14" width="1.42578125" customWidth="1"/>
-    <col min="15" max="15" width="3.42578125" customWidth="1"/>
-    <col min="16" max="16" width="3.85546875" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" customWidth="1"/>
-    <col min="18" max="18" width="5.140625" style="34" customWidth="1"/>
-    <col min="19" max="19" width="5.140625" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" style="11" customWidth="1"/>
-    <col min="21" max="21" width="6.28515625" style="11" customWidth="1"/>
-    <col min="22" max="22" width="6.42578125" style="11" customWidth="1"/>
-    <col min="23" max="23" width="3.85546875" style="11" customWidth="1"/>
-    <col min="24" max="24" width="3.42578125" style="5" customWidth="1"/>
-    <col min="25" max="25" width="3.5703125" customWidth="1"/>
-    <col min="26" max="27" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="2.41796875" customWidth="1"/>
+    <col min="12" max="12" width="2.83984375" customWidth="1"/>
+    <col min="13" max="13" width="4.41796875" customWidth="1"/>
+    <col min="14" max="14" width="1.41796875" customWidth="1"/>
+    <col min="15" max="15" width="3.41796875" customWidth="1"/>
+    <col min="16" max="16" width="3.83984375" customWidth="1"/>
+    <col min="17" max="17" width="18.15625" customWidth="1"/>
+    <col min="18" max="18" width="5.15625" style="34" customWidth="1"/>
+    <col min="19" max="19" width="5.15625" customWidth="1"/>
+    <col min="20" max="20" width="15.26171875" style="11" customWidth="1"/>
+    <col min="21" max="21" width="6.26171875" style="11" customWidth="1"/>
+    <col min="22" max="22" width="6.41796875" style="11" customWidth="1"/>
+    <col min="23" max="23" width="3.83984375" style="11" customWidth="1"/>
+    <col min="24" max="24" width="3.41796875" style="5" customWidth="1"/>
+    <col min="25" max="25" width="3.578125" customWidth="1"/>
+    <col min="26" max="27" width="11.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="138" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" s="138" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="133" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="134" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C1" s="135" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="134" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E1" s="136"/>
       <c r="F1" s="136"/>
       <c r="G1" s="136"/>
       <c r="H1" s="137"/>
-      <c r="J1" s="183" t="s">
-        <v>308</v>
-      </c>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
+      <c r="J1" s="181" t="s">
+        <v>299</v>
+      </c>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
       <c r="Q1" s="136" t="s">
         <v>4</v>
       </c>
@@ -4172,7 +4418,7 @@
       </c>
       <c r="X1" s="136"/>
       <c r="Z1" s="140" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="AA1" s="140" t="s">
         <v>9</v>
@@ -4181,9 +4427,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="156" t="s">
-        <v>270</v>
+    <row r="2" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="154" t="s">
+        <v>261</v>
       </c>
       <c r="B2" s="98" t="s">
         <v>12</v>
@@ -4199,11 +4445,11 @@
       <c r="G2" s="99"/>
       <c r="H2" s="99"/>
       <c r="I2" s="95"/>
-      <c r="J2" s="184">
+      <c r="J2" s="182">
         <v>100</v>
       </c>
-      <c r="K2" s="184"/>
-      <c r="L2" s="184"/>
+      <c r="K2" s="182"/>
+      <c r="L2" s="182"/>
       <c r="M2" s="95"/>
       <c r="N2" s="95"/>
       <c r="O2" s="95"/>
@@ -4215,31 +4461,31 @@
         <f>CharacterSheet!B2+S2</f>
         <v>12</v>
       </c>
-      <c r="S2" s="145"/>
-      <c r="T2" s="188" t="s">
+      <c r="S2" s="143"/>
+      <c r="T2" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="189"/>
-      <c r="V2" s="189"/>
-      <c r="W2" s="190"/>
+      <c r="U2" s="187"/>
+      <c r="V2" s="187"/>
+      <c r="W2" s="188"/>
       <c r="Y2" s="11"/>
       <c r="Z2" s="141"/>
-      <c r="AA2" s="141" t="s">
-        <v>15</v>
+      <c r="AA2" s="204" t="s">
+        <v>305</v>
       </c>
       <c r="AB2" s="95" t="s">
-        <v>16</v>
+        <v>308</v>
       </c>
       <c r="AC2" s="95"/>
       <c r="AD2" s="95"/>
       <c r="AE2" s="95"/>
     </row>
-    <row r="3" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="157" t="s">
-        <v>17</v>
+    <row r="3" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="155" t="s">
+        <v>15</v>
       </c>
       <c r="B3" s="106" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="106">
         <v>12</v>
@@ -4260,21 +4506,21 @@
       <c r="O3" s="95"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="40" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="R3" s="53">
         <f>CharacterSheet!B3+S3</f>
         <v>12</v>
       </c>
-      <c r="S3" s="146"/>
+      <c r="S3" s="144"/>
       <c r="T3" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="V3" s="26" t="s">
         <v>20</v>
-      </c>
-      <c r="U3" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="V3" s="26" t="s">
-        <v>22</v>
       </c>
       <c r="W3" s="94">
         <f>CharacterSheet!I2</f>
@@ -4283,18 +4529,18 @@
       <c r="Y3" s="11"/>
       <c r="Z3" s="142"/>
       <c r="AA3" s="142" t="s">
-        <v>23</v>
+        <v>309</v>
       </c>
       <c r="AB3" s="95" t="s">
-        <v>24</v>
+        <v>310</v>
       </c>
       <c r="AC3" s="95"/>
       <c r="AD3" s="95"/>
       <c r="AE3" s="95"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="157" t="s">
-        <v>223</v>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="155" t="s">
+        <v>214</v>
       </c>
       <c r="B4" s="106"/>
       <c r="C4" s="106"/>
@@ -4312,21 +4558,21 @@
       <c r="O4" s="95"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="40" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="R4" s="63">
         <f>CharacterSheet!B4+S4</f>
         <v>12</v>
       </c>
-      <c r="S4" s="146"/>
+      <c r="S4" s="144"/>
       <c r="T4" s="40" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="U4" s="32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V4" s="32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="W4" s="41">
         <f>CharacterSheet!I3</f>
@@ -4336,18 +4582,18 @@
       <c r="Z4" s="142"/>
       <c r="AA4" s="142"/>
       <c r="AB4" s="95" t="s">
-        <v>29</v>
+        <v>311</v>
       </c>
       <c r="AC4" s="95"/>
       <c r="AD4" s="95"/>
       <c r="AE4" s="95"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="157" t="s">
-        <v>26</v>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="155" t="s">
+        <v>22</v>
       </c>
       <c r="B5" s="106" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C5" s="106">
         <v>15</v>
@@ -4368,18 +4614,18 @@
       <c r="O5" s="95"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="40" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="R5" s="69">
         <f>CharacterSheet!B5+S5</f>
         <v>13</v>
       </c>
-      <c r="S5" s="146"/>
+      <c r="S5" s="144"/>
       <c r="T5" s="40" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="U5" s="32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V5" s="32"/>
       <c r="W5" s="41">
@@ -4389,12 +4635,11 @@
       <c r="Y5" s="11"/>
       <c r="Z5" s="142"/>
       <c r="AA5" s="142"/>
-      <c r="AB5" s="95"/>
       <c r="AC5" s="95"/>
       <c r="AD5" s="95"/>
       <c r="AE5" s="95"/>
     </row>
-    <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="137"/>
       <c r="B6" s="109"/>
       <c r="C6" s="99"/>
@@ -4412,21 +4657,21 @@
       <c r="O6" s="95"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="40" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="R6" s="58">
         <f>CharacterSheet!B6+S6</f>
         <v>10</v>
       </c>
-      <c r="S6" s="146"/>
+      <c r="S6" s="144"/>
       <c r="T6" s="40" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="W6" s="41">
         <f>CharacterSheet!I5</f>
@@ -4435,26 +4680,25 @@
       <c r="Y6" s="11"/>
       <c r="Z6" s="142"/>
       <c r="AA6" s="142"/>
-      <c r="AB6" s="95"/>
       <c r="AC6" s="95"/>
       <c r="AD6" s="95"/>
       <c r="AE6" s="95"/>
     </row>
-    <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="158" t="s">
-        <v>37</v>
+    <row r="7" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="156" t="s">
+        <v>32</v>
       </c>
       <c r="B7" s="111" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C7" s="112" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D7" s="113" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="111" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F7" s="99"/>
       <c r="G7" s="99"/>
@@ -4468,21 +4712,21 @@
       <c r="O7" s="95"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="72" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="R7" s="73">
         <f>CharacterSheet!B7+S7</f>
         <v>12</v>
       </c>
-      <c r="S7" s="146"/>
+      <c r="S7" s="144"/>
       <c r="T7" s="40" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="W7" s="41">
         <f>CharacterSheet!I6</f>
@@ -4496,12 +4740,12 @@
       <c r="AD7" s="95"/>
       <c r="AE7" s="95"/>
     </row>
-    <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="138" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B8" s="95" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C8" s="115">
         <v>10.5</v>
@@ -4524,29 +4768,29 @@
       <c r="O8" s="95"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="38" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="R8" s="74">
         <f>CharacterSheet!B8+S8</f>
         <v>5</v>
       </c>
-      <c r="S8" s="146"/>
+      <c r="S8" s="144"/>
       <c r="T8" s="40" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="U8" s="32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="W8" s="41">
         <f>CharacterSheet!I7</f>
         <v>20</v>
       </c>
       <c r="Y8" s="11"/>
-      <c r="Z8" s="160" t="s">
-        <v>42</v>
+      <c r="Z8" s="158" t="s">
+        <v>37</v>
       </c>
       <c r="AA8" s="138"/>
       <c r="AB8" s="95"/>
@@ -4554,12 +4798,12 @@
       <c r="AD8" s="95"/>
       <c r="AE8" s="95"/>
     </row>
-    <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="138" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B9" s="95" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C9" s="115">
         <v>6</v>
@@ -4582,31 +4826,31 @@
       <c r="O9" s="114"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="77" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="R9" s="78">
         <f>CharacterSheet!B9+S9</f>
         <v>5</v>
       </c>
-      <c r="S9" s="146"/>
+      <c r="S9" s="144"/>
       <c r="T9" s="40" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="W9" s="41">
         <f>CharacterSheet!I8</f>
         <v>20</v>
       </c>
       <c r="Y9" s="11"/>
-      <c r="Z9" s="157" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA9" s="157">
+      <c r="Z9" s="155" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA9" s="155">
         <f>Inventar!$G$22</f>
         <v>15.5</v>
       </c>
@@ -4615,12 +4859,12 @@
       <c r="AD9" s="95"/>
       <c r="AE9" s="95"/>
     </row>
-    <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="138" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B10" s="95" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C10" s="115">
         <v>6</v>
@@ -4637,7 +4881,7 @@
       <c r="I10" s="102"/>
       <c r="J10" s="99"/>
       <c r="K10" s="99" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L10" s="99"/>
       <c r="M10" s="103"/>
@@ -4645,21 +4889,21 @@
       <c r="O10" s="116"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="40" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="R10" s="64">
         <f>CharacterSheet!B10+S10</f>
         <v>18</v>
       </c>
-      <c r="S10" s="146">
+      <c r="S10" s="144">
         <f>$Q$17*(-1)</f>
         <v>0</v>
       </c>
       <c r="T10" s="42" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="U10" s="37" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="V10" s="37"/>
       <c r="W10" s="43">
@@ -4667,10 +4911,10 @@
         <v>20</v>
       </c>
       <c r="Y10" s="11"/>
-      <c r="Z10" s="157" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA10" s="157">
+      <c r="Z10" s="155" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA10" s="155">
         <f>Inventar!$G$19</f>
         <v>19.5</v>
       </c>
@@ -4679,12 +4923,12 @@
       <c r="AD10" s="95"/>
       <c r="AE10" s="95"/>
     </row>
-    <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="138" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B11" s="95" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C11" s="115">
         <v>10.5</v>
@@ -4707,24 +4951,24 @@
       <c r="O11" s="116"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="40" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="R11" s="65">
         <f>CharacterSheet!B11+S11</f>
         <v>10</v>
       </c>
-      <c r="S11" s="146"/>
-      <c r="T11" s="194" t="s">
-        <v>50</v>
-      </c>
-      <c r="U11" s="195"/>
-      <c r="V11" s="195"/>
-      <c r="W11" s="196"/>
+      <c r="S11" s="144"/>
+      <c r="T11" s="192" t="s">
+        <v>45</v>
+      </c>
+      <c r="U11" s="193"/>
+      <c r="V11" s="193"/>
+      <c r="W11" s="194"/>
       <c r="Y11" s="11"/>
-      <c r="Z11" s="157" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA11" s="157">
+      <c r="Z11" s="155" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA11" s="155">
         <f>R2*4</f>
         <v>48</v>
       </c>
@@ -4733,12 +4977,12 @@
       <c r="AD11" s="95"/>
       <c r="AE11" s="95"/>
     </row>
-    <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="159" t="s">
-        <v>58</v>
+    <row r="12" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="157" t="s">
+        <v>53</v>
       </c>
       <c r="B12" s="110" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C12" s="119">
         <v>10.5</v>
@@ -4761,31 +5005,31 @@
       <c r="O12" s="116"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="66" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="R12" s="79">
         <f>ROUNDUP((R7+R5)/2,0)</f>
         <v>13</v>
       </c>
-      <c r="S12" s="146"/>
+      <c r="S12" s="144"/>
       <c r="T12" s="38" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="U12" s="35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V12" s="35" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="W12" s="39">
         <f>CharacterSheet!I10</f>
         <v>20</v>
       </c>
       <c r="Y12" s="11"/>
-      <c r="Z12" s="157" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA12" s="157">
+      <c r="Z12" s="155" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA12" s="155">
         <f>AA11-AA10</f>
         <v>28.5</v>
       </c>
@@ -4794,9 +5038,9 @@
       <c r="AD12" s="95"/>
       <c r="AE12" s="95"/>
     </row>
-    <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="160" t="s">
-        <v>51</v>
+    <row r="13" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="158" t="s">
+        <v>46</v>
       </c>
       <c r="B13" s="120"/>
       <c r="C13" s="121">
@@ -4811,7 +5055,7 @@
       <c r="I13" s="102"/>
       <c r="J13" s="99"/>
       <c r="K13" s="99" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L13" s="99"/>
       <c r="M13" s="103"/>
@@ -4822,10 +5066,10 @@
       <c r="R13" s="95"/>
       <c r="S13" s="96"/>
       <c r="T13" s="40" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="U13" s="29" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="V13" s="29"/>
       <c r="W13" s="41">
@@ -4833,10 +5077,10 @@
         <v>24</v>
       </c>
       <c r="Y13" s="11"/>
-      <c r="Z13" s="161" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA13" s="157" t="str">
+      <c r="Z13" s="159" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA13" s="155" t="str">
         <f>IF(AA9&gt;30,"Schwer",IF(AA9&gt;18,"Mittel","Leicht"))</f>
         <v>Leicht</v>
       </c>
@@ -4845,7 +5089,7 @@
       <c r="AD13" s="95"/>
       <c r="AE13" s="95"/>
     </row>
-    <row r="14" spans="1:31" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="14.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="122"/>
       <c r="B14" s="109"/>
       <c r="C14" s="95"/>
@@ -4862,16 +5106,16 @@
       <c r="N14" s="95"/>
       <c r="O14" s="116"/>
       <c r="P14" s="95"/>
-      <c r="Q14" s="191" t="s">
-        <v>59</v>
+      <c r="Q14" s="189" t="s">
+        <v>54</v>
       </c>
       <c r="R14" s="95"/>
       <c r="S14" s="96"/>
       <c r="T14" s="40" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="U14" s="29" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="V14" s="29"/>
       <c r="W14" s="41">
@@ -4886,14 +5130,14 @@
       <c r="AD14" s="95"/>
       <c r="AE14" s="95"/>
     </row>
-    <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="95"/>
       <c r="B15" s="95"/>
       <c r="C15" s="120" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D15" s="120" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E15" s="95"/>
       <c r="F15" s="95"/>
@@ -4907,17 +5151,17 @@
       <c r="N15" s="95"/>
       <c r="O15" s="116"/>
       <c r="P15" s="95"/>
-      <c r="Q15" s="192"/>
+      <c r="Q15" s="190"/>
       <c r="R15" s="95"/>
       <c r="S15" s="96"/>
       <c r="T15" s="42" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="U15" s="37" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="V15" s="36" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="W15" s="43">
         <f>CharacterSheet!I13</f>
@@ -4931,11 +5175,11 @@
       <c r="AD15" s="95"/>
       <c r="AE15" s="95"/>
     </row>
-    <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="147" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="148">
+    <row r="16" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="146">
         <f>CharacterSheet!B15</f>
         <v>275</v>
       </c>
@@ -4943,7 +5187,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D16" s="152">
+      <c r="D16" s="150">
         <f>B16-C16</f>
         <v>275</v>
       </c>
@@ -4959,18 +5203,18 @@
       <c r="N16" s="95"/>
       <c r="O16" s="116"/>
       <c r="P16" s="95"/>
-      <c r="Q16" s="193"/>
+      <c r="Q16" s="191"/>
       <c r="R16" s="95"/>
       <c r="S16" s="97"/>
-      <c r="T16" s="188" t="s">
-        <v>62</v>
-      </c>
-      <c r="U16" s="189"/>
-      <c r="V16" s="189"/>
-      <c r="W16" s="190"/>
+      <c r="T16" s="186" t="s">
+        <v>57</v>
+      </c>
+      <c r="U16" s="187"/>
+      <c r="V16" s="187"/>
+      <c r="W16" s="188"/>
       <c r="Y16" s="11"/>
-      <c r="Z16" s="120" t="s">
-        <v>66</v>
+      <c r="Z16" s="203" t="s">
+        <v>61</v>
       </c>
       <c r="AA16" s="95"/>
       <c r="AB16" s="95"/>
@@ -4978,11 +5222,11 @@
       <c r="AD16" s="95"/>
       <c r="AE16" s="95"/>
     </row>
-    <row r="17" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="149" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="150">
+    <row r="17" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="147" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="148">
         <f>CharacterSheet!B16</f>
         <v>12</v>
       </c>
@@ -4990,7 +5234,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D17" s="163">
+      <c r="D17" s="161">
         <f>B17+C17</f>
         <v>12</v>
       </c>
@@ -5012,39 +5256,39 @@
       <c r="R17" s="95"/>
       <c r="S17" s="96"/>
       <c r="T17" s="38" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="U17" s="44" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="V17" s="44" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="W17" s="39">
         <f>CharacterSheet!I14</f>
         <v>20</v>
       </c>
       <c r="Y17" s="11"/>
-      <c r="Z17" s="143" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA17" s="144" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB17" s="144" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC17" s="144" t="s">
-        <v>72</v>
+      <c r="Z17" s="202" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA17" s="201" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB17" s="201" t="s">
+        <v>315</v>
+      </c>
+      <c r="AC17" s="201" t="s">
+        <v>65</v>
       </c>
       <c r="AD17" s="95"/>
       <c r="AE17" s="95"/>
     </row>
-    <row r="18" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="151" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="151">
+    <row r="18" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="149" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="149">
         <f>CharacterSheet!B17</f>
         <v>55</v>
       </c>
@@ -5052,7 +5296,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D18" s="152">
+      <c r="D18" s="150">
         <f>B18+C18</f>
         <v>55</v>
       </c>
@@ -5064,13 +5308,13 @@
       <c r="G18" s="95"/>
       <c r="H18" s="95"/>
       <c r="I18" s="104" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J18" s="110"/>
       <c r="K18" s="110"/>
       <c r="L18" s="110"/>
       <c r="M18" s="105" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="N18" s="95"/>
       <c r="O18" s="95"/>
@@ -5079,10 +5323,10 @@
       <c r="R18" s="95"/>
       <c r="S18" s="96"/>
       <c r="T18" s="40" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="U18" s="33" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="V18" s="33"/>
       <c r="W18" s="41">
@@ -5091,25 +5335,25 @@
       </c>
       <c r="Y18" s="11"/>
       <c r="Z18" s="95" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AA18" s="95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB18" s="95">
         <v>5</v>
       </c>
       <c r="AC18" s="95" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AD18" s="95"/>
       <c r="AE18" s="95"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19" s="152" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="152">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="150" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="150">
         <f>CharacterSheet!B18</f>
         <v>193</v>
       </c>
@@ -5117,7 +5361,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D19" s="152">
+      <c r="D19" s="150">
         <f>B19+C19</f>
         <v>193</v>
       </c>
@@ -5140,10 +5384,10 @@
       <c r="R19" s="99"/>
       <c r="S19" s="96"/>
       <c r="T19" s="40" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="U19" s="33" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="V19" s="33"/>
       <c r="W19" s="41">
@@ -5152,25 +5396,25 @@
       </c>
       <c r="Y19" s="11"/>
       <c r="Z19" s="95" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AA19" s="95">
         <v>4</v>
       </c>
       <c r="AB19" s="95">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AC19" s="95" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AD19" s="95"/>
       <c r="AE19" s="95"/>
     </row>
-    <row r="20" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="152" t="s">
-        <v>214</v>
-      </c>
-      <c r="B20" s="152">
+    <row r="20" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A20" s="150" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" s="150">
         <f>CharacterSheet!B19</f>
         <v>55</v>
       </c>
@@ -5178,7 +5422,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="150">
         <f t="shared" ref="D20:D23" si="1">B20+C20</f>
         <v>55</v>
       </c>
@@ -5201,13 +5445,13 @@
       <c r="R20" s="99"/>
       <c r="S20" s="96"/>
       <c r="T20" s="40" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="U20" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="V20" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="W20" s="41">
         <f>CharacterSheet!I17</f>
@@ -5215,7 +5459,7 @@
       </c>
       <c r="Y20" s="11"/>
       <c r="Z20" s="126" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AA20" s="95"/>
       <c r="AB20" s="95"/>
@@ -5223,11 +5467,11 @@
       <c r="AD20" s="95"/>
       <c r="AE20" s="95"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A21" s="152" t="s">
-        <v>215</v>
-      </c>
-      <c r="B21" s="152">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="150" t="s">
+        <v>207</v>
+      </c>
+      <c r="B21" s="150">
         <f>CharacterSheet!B20</f>
         <v>55</v>
       </c>
@@ -5235,7 +5479,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D21" s="152">
+      <c r="D21" s="150">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
@@ -5255,18 +5499,18 @@
       <c r="O21" s="95"/>
       <c r="P21" s="95"/>
       <c r="Q21" s="100" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="R21" s="101"/>
       <c r="S21" s="96"/>
       <c r="T21" s="40" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="W21" s="41">
         <f>CharacterSheet!I18</f>
@@ -5280,11 +5524,11 @@
       <c r="AD21" s="95"/>
       <c r="AE21" s="95"/>
     </row>
-    <row r="22" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="152" t="s">
-        <v>216</v>
-      </c>
-      <c r="B22" s="152">
+    <row r="22" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A22" s="150" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" s="150">
         <f>CharacterSheet!B21</f>
         <v>69</v>
       </c>
@@ -5292,7 +5536,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D22" s="152">
+      <c r="D22" s="150">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
@@ -5304,7 +5548,7 @@
       <c r="G22" s="95"/>
       <c r="H22" s="95"/>
       <c r="I22" s="125" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="J22" s="103"/>
       <c r="K22" s="95"/>
@@ -5314,18 +5558,18 @@
       <c r="O22" s="95"/>
       <c r="P22" s="95"/>
       <c r="Q22" s="102" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="R22" s="103"/>
       <c r="S22" s="96"/>
       <c r="T22" s="42" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="U22" s="45" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="V22" s="70" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="W22" s="43">
         <f>CharacterSheet!I19</f>
@@ -5339,11 +5583,11 @@
       <c r="AD22" s="95"/>
       <c r="AE22" s="95"/>
     </row>
-    <row r="23" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="152" t="s">
-        <v>217</v>
-      </c>
-      <c r="B23" s="152">
+    <row r="23" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A23" s="150" t="s">
+        <v>209</v>
+      </c>
+      <c r="B23" s="150">
         <f>CharacterSheet!B22</f>
         <v>69</v>
       </c>
@@ -5351,7 +5595,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="150">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
@@ -5371,16 +5615,16 @@
       <c r="O23" s="95"/>
       <c r="P23" s="95"/>
       <c r="Q23" s="104" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="R23" s="105"/>
       <c r="S23" s="97"/>
-      <c r="T23" s="188" t="s">
-        <v>92</v>
-      </c>
-      <c r="U23" s="189"/>
-      <c r="V23" s="189"/>
-      <c r="W23" s="190"/>
+      <c r="T23" s="186" t="s">
+        <v>85</v>
+      </c>
+      <c r="U23" s="187"/>
+      <c r="V23" s="187"/>
+      <c r="W23" s="188"/>
       <c r="Y23" s="11"/>
       <c r="Z23" s="95"/>
       <c r="AA23" s="95"/>
@@ -5389,7 +5633,7 @@
       <c r="AD23" s="95"/>
       <c r="AE23" s="95"/>
     </row>
-    <row r="24" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="126"/>
       <c r="B24" s="126"/>
       <c r="C24" s="126"/>
@@ -5413,10 +5657,10 @@
       <c r="R24" s="95"/>
       <c r="S24" s="96"/>
       <c r="T24" s="38" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="U24" s="46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="V24" s="71"/>
       <c r="W24" s="39">
@@ -5431,18 +5675,18 @@
       <c r="AD24" s="95"/>
       <c r="AE24" s="95"/>
     </row>
-    <row r="25" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="153" t="s">
-        <v>220</v>
+    <row r="25" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="151" t="s">
+        <v>211</v>
       </c>
       <c r="B25" s="127" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C25" s="127" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="128" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E25" s="95" t="str">
         <f>IF(D21=0,"Verkrüppelt",IF(D21&lt;=B21*0.2,"Verstümmelt",""))</f>
@@ -5463,10 +5707,10 @@
       <c r="R25" s="95"/>
       <c r="S25" s="96"/>
       <c r="T25" s="42" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="U25" s="45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="V25" s="70"/>
       <c r="W25" s="43">
@@ -5481,8 +5725,8 @@
       <c r="AD25" s="95"/>
       <c r="AE25" s="95"/>
     </row>
-    <row r="26" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="154" t="s">
+    <row r="26" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="152" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="129" t="s">
@@ -5509,12 +5753,12 @@
       <c r="Q26" s="95"/>
       <c r="R26" s="95"/>
       <c r="S26" s="97"/>
-      <c r="T26" s="188" t="s">
-        <v>97</v>
-      </c>
-      <c r="U26" s="189"/>
-      <c r="V26" s="189"/>
-      <c r="W26" s="190"/>
+      <c r="T26" s="186" t="s">
+        <v>90</v>
+      </c>
+      <c r="U26" s="187"/>
+      <c r="V26" s="187"/>
+      <c r="W26" s="188"/>
       <c r="Y26" s="11"/>
       <c r="Z26" s="95"/>
       <c r="AA26" s="95"/>
@@ -5523,12 +5767,12 @@
       <c r="AD26" s="95"/>
       <c r="AE26" s="95"/>
     </row>
-    <row r="27" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="155" t="s">
-        <v>17</v>
+    <row r="27" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="153" t="s">
+        <v>15</v>
       </c>
       <c r="B27" s="130" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C27" s="130">
         <v>5</v>
@@ -5552,10 +5796,10 @@
       <c r="R27" s="95"/>
       <c r="S27" s="96"/>
       <c r="T27" s="38" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U27" s="47" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="V27" s="48"/>
       <c r="W27" s="39">
@@ -5570,12 +5814,12 @@
       <c r="AD27" s="95"/>
       <c r="AE27" s="95"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" s="155" t="s">
-        <v>25</v>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="153" t="s">
+        <v>21</v>
       </c>
       <c r="B28" s="130" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C28" s="130">
         <v>7</v>
@@ -5587,13 +5831,13 @@
       <c r="F28" s="95"/>
       <c r="G28" s="95"/>
       <c r="H28" s="95"/>
-      <c r="I28" s="197" t="s">
-        <v>252</v>
-      </c>
-      <c r="J28" s="198"/>
-      <c r="K28" s="198"/>
-      <c r="L28" s="198"/>
-      <c r="M28" s="199"/>
+      <c r="I28" s="195" t="s">
+        <v>243</v>
+      </c>
+      <c r="J28" s="196"/>
+      <c r="K28" s="196"/>
+      <c r="L28" s="196"/>
+      <c r="M28" s="197"/>
       <c r="N28" s="95"/>
       <c r="O28" s="95"/>
       <c r="P28" s="95"/>
@@ -5601,10 +5845,10 @@
       <c r="R28" s="95"/>
       <c r="S28" s="96"/>
       <c r="T28" s="40" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="U28" s="30" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="V28" s="10"/>
       <c r="W28" s="41">
@@ -5619,9 +5863,9 @@
       <c r="AD28" s="95"/>
       <c r="AE28" s="95"/>
     </row>
-    <row r="29" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="155" t="s">
-        <v>30</v>
+    <row r="29" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="153" t="s">
+        <v>25</v>
       </c>
       <c r="B29" s="130"/>
       <c r="C29" s="130"/>
@@ -5630,13 +5874,13 @@
       <c r="F29" s="95"/>
       <c r="G29" s="131"/>
       <c r="H29" s="131"/>
-      <c r="I29" s="185" t="s">
-        <v>284</v>
-      </c>
-      <c r="J29" s="186"/>
-      <c r="K29" s="186"/>
-      <c r="L29" s="186"/>
-      <c r="M29" s="187"/>
+      <c r="I29" s="183" t="s">
+        <v>275</v>
+      </c>
+      <c r="J29" s="184"/>
+      <c r="K29" s="184"/>
+      <c r="L29" s="184"/>
+      <c r="M29" s="185"/>
       <c r="N29" s="95"/>
       <c r="O29" s="95"/>
       <c r="P29" s="95"/>
@@ -5644,13 +5888,13 @@
       <c r="R29" s="95"/>
       <c r="S29" s="96"/>
       <c r="T29" s="42" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="U29" s="36" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="V29" s="36" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="W29" s="43">
         <f>CharacterSheet!I24</f>
@@ -5664,12 +5908,12 @@
       <c r="AD29" s="95"/>
       <c r="AE29" s="95"/>
     </row>
-    <row r="30" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="155" t="s">
-        <v>26</v>
+    <row r="30" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A30" s="153" t="s">
+        <v>22</v>
       </c>
       <c r="B30" s="130" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C30" s="130">
         <v>7</v>
@@ -5692,12 +5936,12 @@
       <c r="Q30" s="95"/>
       <c r="R30" s="95"/>
       <c r="S30" s="97"/>
-      <c r="T30" s="188" t="s">
-        <v>101</v>
-      </c>
-      <c r="U30" s="189"/>
-      <c r="V30" s="189"/>
-      <c r="W30" s="190"/>
+      <c r="T30" s="186" t="s">
+        <v>94</v>
+      </c>
+      <c r="U30" s="187"/>
+      <c r="V30" s="187"/>
+      <c r="W30" s="188"/>
       <c r="Y30" s="11"/>
       <c r="Z30" s="95"/>
       <c r="AA30" s="95"/>
@@ -5706,7 +5950,7 @@
       <c r="AD30" s="95"/>
       <c r="AE30" s="95"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="132"/>
       <c r="B31" s="132"/>
       <c r="C31" s="132"/>
@@ -5727,10 +5971,10 @@
       <c r="R31" s="95"/>
       <c r="S31" s="96"/>
       <c r="T31" s="38" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="U31" s="49" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="V31" s="49"/>
       <c r="W31" s="39">
@@ -5745,7 +5989,7 @@
       <c r="AD31" s="95"/>
       <c r="AE31" s="95"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="132"/>
       <c r="B32" s="132"/>
       <c r="C32" s="132"/>
@@ -5766,10 +6010,10 @@
       <c r="R32" s="95"/>
       <c r="S32" s="96"/>
       <c r="T32" s="40" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="U32" s="31" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="V32" s="31"/>
       <c r="W32" s="41">
@@ -5784,7 +6028,7 @@
       <c r="AD32" s="95"/>
       <c r="AE32" s="95"/>
     </row>
-    <row r="33" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A33" s="132"/>
       <c r="B33" s="132"/>
       <c r="C33" s="132"/>
@@ -5805,10 +6049,10 @@
       <c r="R33" s="95"/>
       <c r="S33" s="96"/>
       <c r="T33" s="42" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="U33" s="50" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="V33" s="50"/>
       <c r="W33" s="43">
@@ -5822,7 +6066,7 @@
       <c r="AD33" s="95"/>
       <c r="AE33" s="95"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="84"/>
       <c r="B34" s="84"/>
       <c r="C34" s="84"/>
@@ -5834,7 +6078,7 @@
       <c r="AD34" s="95"/>
       <c r="AE34" s="95"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z35" s="95"/>
       <c r="AA35" s="95"/>
       <c r="AB35" s="95"/>
@@ -5842,7 +6086,7 @@
       <c r="AD35" s="95"/>
       <c r="AE35" s="95"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z36" s="95"/>
       <c r="AA36" s="95"/>
       <c r="AB36" s="95"/>
@@ -5850,7 +6094,7 @@
       <c r="AD36" s="95"/>
       <c r="AE36" s="95"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z37" s="95"/>
       <c r="AA37" s="95"/>
       <c r="AB37" s="95"/>
@@ -5858,7 +6102,7 @@
       <c r="AD37" s="95"/>
       <c r="AE37" s="95"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z38" s="95"/>
       <c r="AA38" s="95"/>
       <c r="AB38" s="95"/>
@@ -5866,7 +6110,7 @@
       <c r="AD38" s="95"/>
       <c r="AE38" s="95"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z39" s="95"/>
       <c r="AA39" s="95"/>
       <c r="AB39" s="95"/>
@@ -5874,7 +6118,7 @@
       <c r="AD39" s="95"/>
       <c r="AE39" s="95"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z40" s="95"/>
       <c r="AA40" s="95"/>
       <c r="AB40" s="95"/>
@@ -5882,7 +6126,7 @@
       <c r="AD40" s="95"/>
       <c r="AE40" s="95"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z41" s="95"/>
       <c r="AA41" s="95"/>
       <c r="AB41" s="95"/>
@@ -5890,7 +6134,7 @@
       <c r="AD41" s="95"/>
       <c r="AE41" s="95"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z42" s="95"/>
       <c r="AA42" s="95"/>
       <c r="AB42" s="95"/>
@@ -5898,7 +6142,7 @@
       <c r="AD42" s="95"/>
       <c r="AE42" s="95"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z43" s="95"/>
       <c r="AA43" s="95"/>
       <c r="AB43" s="95"/>
@@ -5906,7 +6150,7 @@
       <c r="AD43" s="95"/>
       <c r="AE43" s="95"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z44" s="95"/>
       <c r="AA44" s="95"/>
       <c r="AB44" s="95"/>
@@ -5914,7 +6158,7 @@
       <c r="AD44" s="95"/>
       <c r="AE44" s="95"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z45" s="95"/>
       <c r="AA45" s="95"/>
       <c r="AB45" s="95"/>
@@ -5922,7 +6166,7 @@
       <c r="AD45" s="95"/>
       <c r="AE45" s="95"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z46" s="95"/>
       <c r="AA46" s="95"/>
       <c r="AB46" s="95"/>
@@ -5930,7 +6174,7 @@
       <c r="AD46" s="95"/>
       <c r="AE46" s="95"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z47" s="95"/>
       <c r="AA47" s="95"/>
       <c r="AB47" s="95"/>
@@ -5938,7 +6182,7 @@
       <c r="AD47" s="95"/>
       <c r="AE47" s="95"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z48" s="95"/>
       <c r="AA48" s="95"/>
       <c r="AB48" s="95"/>
@@ -5946,7 +6190,7 @@
       <c r="AD48" s="95"/>
       <c r="AE48" s="95"/>
     </row>
-    <row r="49" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z49" s="95"/>
       <c r="AA49" s="95"/>
       <c r="AB49" s="95"/>
@@ -5954,7 +6198,7 @@
       <c r="AD49" s="95"/>
       <c r="AE49" s="95"/>
     </row>
-    <row r="50" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z50" s="95"/>
       <c r="AA50" s="95"/>
       <c r="AB50" s="95"/>
@@ -5962,7 +6206,7 @@
       <c r="AD50" s="95"/>
       <c r="AE50" s="95"/>
     </row>
-    <row r="51" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z51" s="95"/>
       <c r="AA51" s="95"/>
       <c r="AB51" s="95"/>
@@ -5970,7 +6214,7 @@
       <c r="AD51" s="95"/>
       <c r="AE51" s="95"/>
     </row>
-    <row r="52" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z52" s="95"/>
       <c r="AA52" s="95"/>
       <c r="AB52" s="95"/>
@@ -5978,7 +6222,7 @@
       <c r="AD52" s="95"/>
       <c r="AE52" s="95"/>
     </row>
-    <row r="53" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z53" s="95"/>
       <c r="AA53" s="95"/>
       <c r="AB53" s="95"/>
@@ -5986,7 +6230,7 @@
       <c r="AD53" s="95"/>
       <c r="AE53" s="95"/>
     </row>
-    <row r="54" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z54" s="95"/>
       <c r="AA54" s="95"/>
       <c r="AB54" s="95"/>
@@ -5994,7 +6238,7 @@
       <c r="AD54" s="95"/>
       <c r="AE54" s="95"/>
     </row>
-    <row r="55" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z55" s="95"/>
       <c r="AA55" s="95"/>
       <c r="AB55" s="95"/>
@@ -6002,7 +6246,7 @@
       <c r="AD55" s="95"/>
       <c r="AE55" s="95"/>
     </row>
-    <row r="56" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z56" s="95"/>
       <c r="AA56" s="95"/>
       <c r="AB56" s="95"/>
@@ -6010,7 +6254,7 @@
       <c r="AD56" s="95"/>
       <c r="AE56" s="95"/>
     </row>
-    <row r="57" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z57" s="95"/>
       <c r="AA57" s="95"/>
       <c r="AB57" s="95"/>
@@ -6018,7 +6262,7 @@
       <c r="AD57" s="95"/>
       <c r="AE57" s="95"/>
     </row>
-    <row r="58" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z58" s="95"/>
       <c r="AA58" s="95"/>
       <c r="AB58" s="95"/>
@@ -6026,7 +6270,7 @@
       <c r="AD58" s="95"/>
       <c r="AE58" s="95"/>
     </row>
-    <row r="59" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z59" s="95"/>
       <c r="AA59" s="95"/>
       <c r="AB59" s="95"/>
@@ -6034,7 +6278,7 @@
       <c r="AD59" s="95"/>
       <c r="AE59" s="95"/>
     </row>
-    <row r="60" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z60" s="95"/>
       <c r="AA60" s="95"/>
       <c r="AB60" s="95"/>
@@ -6042,7 +6286,7 @@
       <c r="AD60" s="95"/>
       <c r="AE60" s="95"/>
     </row>
-    <row r="61" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z61" s="95"/>
       <c r="AA61" s="95"/>
       <c r="AB61" s="95"/>
@@ -6050,7 +6294,7 @@
       <c r="AD61" s="95"/>
       <c r="AE61" s="95"/>
     </row>
-    <row r="62" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z62" s="95"/>
       <c r="AA62" s="95"/>
       <c r="AB62" s="95"/>
@@ -6058,7 +6302,7 @@
       <c r="AD62" s="95"/>
       <c r="AE62" s="95"/>
     </row>
-    <row r="63" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z63" s="95"/>
       <c r="AA63" s="95"/>
       <c r="AB63" s="95"/>
@@ -6066,7 +6310,7 @@
       <c r="AD63" s="95"/>
       <c r="AE63" s="95"/>
     </row>
-    <row r="64" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z64" s="95"/>
       <c r="AA64" s="95"/>
       <c r="AB64" s="95"/>
@@ -6074,7 +6318,7 @@
       <c r="AD64" s="95"/>
       <c r="AE64" s="95"/>
     </row>
-    <row r="65" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z65" s="95"/>
       <c r="AA65" s="95"/>
       <c r="AB65" s="95"/>
@@ -6082,7 +6326,7 @@
       <c r="AD65" s="95"/>
       <c r="AE65" s="95"/>
     </row>
-    <row r="66" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="66" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z66" s="95"/>
       <c r="AA66" s="95"/>
       <c r="AB66" s="95"/>
@@ -6090,7 +6334,7 @@
       <c r="AD66" s="95"/>
       <c r="AE66" s="95"/>
     </row>
-    <row r="67" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="67" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z67" s="95"/>
       <c r="AA67" s="95"/>
       <c r="AB67" s="95"/>
@@ -6098,7 +6342,7 @@
       <c r="AD67" s="95"/>
       <c r="AE67" s="95"/>
     </row>
-    <row r="68" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="68" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z68" s="95"/>
       <c r="AA68" s="95"/>
       <c r="AB68" s="95"/>
@@ -6106,7 +6350,7 @@
       <c r="AD68" s="95"/>
       <c r="AE68" s="95"/>
     </row>
-    <row r="69" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="69" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z69" s="95"/>
       <c r="AA69" s="95"/>
       <c r="AB69" s="95"/>
@@ -6114,7 +6358,7 @@
       <c r="AD69" s="95"/>
       <c r="AE69" s="95"/>
     </row>
-    <row r="70" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="70" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z70" s="95"/>
       <c r="AA70" s="95"/>
       <c r="AB70" s="95"/>
@@ -6122,7 +6366,7 @@
       <c r="AD70" s="95"/>
       <c r="AE70" s="95"/>
     </row>
-    <row r="71" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z71" s="95"/>
       <c r="AA71" s="95"/>
       <c r="AB71" s="95"/>
@@ -6130,7 +6374,7 @@
       <c r="AD71" s="95"/>
       <c r="AE71" s="95"/>
     </row>
-    <row r="72" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z72" s="95"/>
       <c r="AA72" s="95"/>
       <c r="AB72" s="95"/>
@@ -6563,36 +6807,36 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -6609,23 +6853,23 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="5" max="6" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.578125" customWidth="1"/>
+    <col min="3" max="3" width="11.83984375" customWidth="1"/>
+    <col min="5" max="6" width="6.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B1" s="11">
         <v>30000</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E1" s="11">
         <f>13490-E2+E3</f>
@@ -6636,65 +6880,65 @@
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
     </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B2" s="11">
         <f>SUM(B7:B703)</f>
         <v>27510</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E2" s="11">
         <f>200</f>
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B3" s="11">
         <f>B1-B2</f>
         <v>2490</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E3" s="11">
         <f>15000</f>
         <v>15000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="22" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="8"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="11" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B7" s="11">
         <v>5000</v>
@@ -6709,9 +6953,9 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="11" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B8" s="11">
         <v>2250</v>
@@ -6722,15 +6966,15 @@
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B9" s="11">
         <v>3000</v>
@@ -6747,9 +6991,9 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B10" s="11">
         <f>E10*1000</f>
@@ -6766,49 +7010,49 @@
         <v>2</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="11" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="22" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E14" s="22" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="11" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B15" s="11">
         <v>2000</v>
@@ -6822,14 +7066,14 @@
       <c r="E15" s="11"/>
       <c r="F15" s="8"/>
       <c r="G15" s="68" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="11" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B16" s="11">
         <v>2000</v>
@@ -6849,9 +7093,9 @@
       <c r="H16" s="5"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="11" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B17" s="11">
         <v>3000</v>
@@ -6868,9 +7112,9 @@
       <c r="H17" s="5"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="11" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B18" s="11">
         <v>3000</v>
@@ -6884,14 +7128,14 @@
       <c r="E18" s="11"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="11" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B19" s="11">
         <v>3000</v>
@@ -6911,7 +7155,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -6922,7 +7166,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -6930,12 +7174,12 @@
       <c r="E21" s="11"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="8"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -6952,7 +7196,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -6963,7 +7207,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -6974,7 +7218,7 @@
       <c r="H24" s="5"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -6985,30 +7229,30 @@
       <c r="H25" s="5"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="22" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E26" s="22" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="8"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -7016,16 +7260,16 @@
       <c r="H27" s="5"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="11" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B28" s="11">
         <f>200*E28</f>
         <v>400</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D28" s="11">
         <f>0.5*E28</f>
@@ -7039,16 +7283,16 @@
       <c r="H28" s="5"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B29" s="11">
         <f>420*E29</f>
         <v>1260</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D29" s="11">
         <f>0.5*E29</f>
@@ -7062,7 +7306,7 @@
       <c r="H29" s="5"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -7073,32 +7317,32 @@
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="22" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E32" s="22" t="s">
         <v>3</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="11" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B33" s="11">
         <v>100</v>
@@ -7108,9 +7352,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="11" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B34" s="11">
         <v>500</v>
@@ -7135,25 +7379,25 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="162"/>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="160"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -7166,7 +7410,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -7179,7 +7423,7 @@
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -7192,7 +7436,7 @@
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -7205,7 +7449,7 @@
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -7218,7 +7462,7 @@
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -7231,7 +7475,7 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -7244,7 +7488,7 @@
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -7271,62 +7515,62 @@
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="86" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B1" s="87" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C1" s="81" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D1" s="82" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E1" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="83" t="s">
         <v>276</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="83" t="s">
-        <v>285</v>
-      </c>
       <c r="J1" s="90" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="K1" s="90" t="s">
         <v>1</v>
       </c>
       <c r="L1" s="90" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M1" s="90" t="s">
         <v>3</v>
       </c>
       <c r="N1" s="90" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="88" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="12" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D2" s="13">
         <v>1</v>
       </c>
-      <c r="E2" s="200"/>
+      <c r="E2" s="198"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="I2" s="91"/>
@@ -7337,58 +7581,58 @@
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="89" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="14" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D3" s="15">
         <v>0</v>
       </c>
-      <c r="E3" s="201"/>
+      <c r="E3" s="199"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="I3" s="17" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="K3" s="17" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M3" s="17" t="s">
         <v>3</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O3" s="11"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="89" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="14" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D4" s="15">
         <v>1</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="J4" s="11">
         <v>22500</v>
@@ -7403,22 +7647,22 @@
         <v>1</v>
       </c>
       <c r="N4" s="92" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="O4" s="92"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="89" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="14" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D5" s="15">
         <v>0</v>
       </c>
-      <c r="E5" s="200"/>
+      <c r="E5" s="198"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="I5" s="11"/>
@@ -7429,45 +7673,45 @@
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="89" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="201"/>
+      <c r="E6" s="199"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="I6" s="17" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M6" s="17" t="s">
         <v>3</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O6" s="11"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="89" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
       <c r="E7" s="22" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -7479,14 +7723,14 @@
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="89" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="200"/>
+      <c r="E8" s="198"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="I8" s="11"/>
@@ -7497,37 +7741,37 @@
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="89" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="201"/>
+      <c r="E9" s="199"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="I9" s="17" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="K9" s="17"/>
       <c r="L9" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M9" s="17" t="s">
         <v>3</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O9" s="11"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="89" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="14"/>
@@ -7543,9 +7787,9 @@
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="14" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="14"/>
@@ -7554,7 +7798,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="I11" s="11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="J11" s="11">
         <f>420*M11</f>
@@ -7569,13 +7813,13 @@
         <v>4</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="O11" s="11"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="14" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="14"/>
@@ -7584,7 +7828,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="I12" s="11" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="J12" s="11">
         <f>900*M12</f>
@@ -7599,13 +7843,13 @@
         <v>4</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="O12" s="11"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="14" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="14"/>
@@ -7614,7 +7858,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="I13" s="11" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="J13" s="11">
         <f>420*M13</f>
@@ -7629,13 +7873,13 @@
         <v>4</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O13" s="11"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="14" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="14"/>
@@ -7644,7 +7888,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="I14" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J14" s="11">
         <f>900*M14</f>
@@ -7659,13 +7903,13 @@
         <v>4</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="O14" s="11"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="14" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="14"/>
@@ -7674,7 +7918,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="I15" s="11" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="J15" s="11">
         <f>5000*M15</f>
@@ -7689,13 +7933,13 @@
         <v>2</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="O15" s="11"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="14" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="14"/>
@@ -7704,7 +7948,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="I16" s="11" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="J16" s="11">
         <f>5000*M16</f>
@@ -7719,13 +7963,13 @@
         <v>3</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="O16" s="11"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="14" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="14"/>
@@ -7734,7 +7978,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="I17" s="11" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="J17" s="11">
         <f>3000*M17</f>
@@ -7749,13 +7993,13 @@
         <v>1</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="O17" s="11"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="14" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="14"/>
@@ -7764,7 +8008,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="I18" s="11" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="J18" s="11">
         <f>2000*M18</f>
@@ -7779,13 +8023,13 @@
         <v>2</v>
       </c>
       <c r="N18" s="93" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="O18" s="11"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="14" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="14"/>
@@ -7794,7 +8038,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="I19" s="11" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="J19" s="11">
         <v>4200</v>
@@ -7805,9 +8049,9 @@
       <c r="N19" s="93"/>
       <c r="O19" s="11"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="14" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="14"/>
@@ -7823,9 +8067,9 @@
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
     </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="14" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="14"/>
@@ -7834,28 +8078,28 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="I21" s="17" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="K21" s="17" t="s">
         <v>1</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M21" s="17" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O21" s="11"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="14" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="14"/>
@@ -7871,9 +8115,9 @@
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="14" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="14"/>
@@ -7882,7 +8126,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="I23" s="11" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="J23" s="11">
         <v>50</v>
@@ -7897,9 +8141,9 @@
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="16" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="16"/>
@@ -7908,7 +8152,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="I24" s="11" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="J24" s="11">
         <v>100</v>
@@ -7923,7 +8167,7 @@
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -7932,7 +8176,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="I25" s="11" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="J25" s="11">
         <v>400</v>
@@ -7947,7 +8191,7 @@
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -7956,7 +8200,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="I26" s="11" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="J26" s="11">
         <v>500</v>
@@ -7971,7 +8215,7 @@
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -7987,7 +8231,7 @@
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -8003,7 +8247,7 @@
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -8019,7 +8263,7 @@
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -8035,7 +8279,7 @@
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -8045,7 +8289,7 @@
       <c r="G31" s="11"/>
       <c r="O31" s="11"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -8055,7 +8299,7 @@
       <c r="G32" s="11"/>
       <c r="O32" s="11"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -8065,7 +8309,7 @@
       <c r="G33" s="11"/>
       <c r="O33" s="11"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -8075,7 +8319,7 @@
       <c r="G34" s="11"/>
       <c r="O34" s="11"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="O35" s="11"/>
     </row>
   </sheetData>
@@ -8094,34 +8338,40 @@
   <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.578125" customWidth="1"/>
+    <col min="2" max="2" width="10.15625" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.578125" customWidth="1"/>
+    <col min="5" max="5" width="19.578125" customWidth="1"/>
+    <col min="6" max="6" width="4.578125" customWidth="1"/>
+    <col min="7" max="7" width="5.41796875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="4.26171875" customWidth="1"/>
+    <col min="9" max="9" width="6.578125" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.1015625" customWidth="1"/>
+    <col min="12" max="12" width="14.578125" customWidth="1"/>
+    <col min="13" max="13" width="7.578125" customWidth="1"/>
+    <col min="14" max="14" width="8.7890625" customWidth="1"/>
+    <col min="15" max="15" width="13.9453125" customWidth="1"/>
+    <col min="16" max="16" width="4.578125" customWidth="1"/>
+    <col min="17" max="17" width="5.3671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="22" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>6</v>
@@ -8131,28 +8381,28 @@
       </c>
       <c r="G1" s="22"/>
       <c r="H1" s="22" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>140</v>
+      <c r="J1" s="21"/>
+      <c r="K1" s="179" t="s">
+        <v>312</v>
+      </c>
+      <c r="L1" s="83" t="s">
+        <v>133</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
       <c r="P1" s="6"/>
     </row>
-    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="164">
+      <c r="B2" s="162">
         <v>12</v>
       </c>
       <c r="C2" s="95">
@@ -8162,37 +8412,37 @@
         <v>10</v>
       </c>
       <c r="E2" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="39" t="s">
         <v>20</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>22</v>
       </c>
       <c r="H2" s="108">
         <v>-9</v>
       </c>
-      <c r="I2" s="178">
+      <c r="I2" s="176">
         <v>29</v>
       </c>
       <c r="J2" s="95"/>
       <c r="K2" s="95" t="s">
-        <v>218</v>
-      </c>
-      <c r="L2" s="143" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" s="144" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2" s="144" t="s">
-        <v>71</v>
-      </c>
-      <c r="O2" s="144" t="s">
-        <v>72</v>
-      </c>
-      <c r="P2" s="179"/>
+        <v>308</v>
+      </c>
+      <c r="L2" s="202" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="201" t="s">
+        <v>314</v>
+      </c>
+      <c r="N2" s="201" t="s">
+        <v>315</v>
+      </c>
+      <c r="O2" s="201" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="177"/>
       <c r="Q2" s="95"/>
       <c r="R2" s="95"/>
       <c r="S2" s="95"/>
@@ -8203,11 +8453,11 @@
       <c r="X2" s="95"/>
       <c r="Y2" s="95"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="165">
+        <v>17</v>
+      </c>
+      <c r="B3" s="163">
         <v>12</v>
       </c>
       <c r="C3" s="95">
@@ -8217,35 +8467,35 @@
         <v>10</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H3" s="99">
         <v>-10</v>
       </c>
-      <c r="I3" s="180">
+      <c r="I3" s="178">
         <v>30</v>
       </c>
       <c r="J3" s="95"/>
       <c r="K3" s="95" t="s">
-        <v>23</v>
+        <v>310</v>
       </c>
       <c r="L3" s="95" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="M3" s="95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N3" s="95">
         <v>5</v>
       </c>
       <c r="O3" s="95" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="P3" s="126"/>
       <c r="Q3" s="95"/>
@@ -8258,11 +8508,11 @@
       <c r="X3" s="95"/>
       <c r="Y3" s="95"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="166">
+        <v>23</v>
+      </c>
+      <c r="B4" s="164">
         <v>12</v>
       </c>
       <c r="C4" s="95">
@@ -8272,29 +8522,31 @@
         <v>10</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4" s="51"/>
       <c r="H4" s="99"/>
-      <c r="I4" s="180">
+      <c r="I4" s="178">
         <v>20</v>
       </c>
       <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
+      <c r="K4" s="95" t="s">
+        <v>311</v>
+      </c>
       <c r="L4" s="95" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M4" s="95">
         <v>4</v>
       </c>
       <c r="N4" s="95">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O4" s="95" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P4" s="99"/>
       <c r="Q4" s="95"/>
@@ -8307,11 +8559,11 @@
       <c r="X4" s="95"/>
       <c r="Y4" s="95"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="40" t="s">
-        <v>309</v>
-      </c>
-      <c r="B5" s="167">
+        <v>300</v>
+      </c>
+      <c r="B5" s="165">
         <v>13</v>
       </c>
       <c r="C5" s="95"/>
@@ -8319,24 +8571,26 @@
         <v>10</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H5" s="99">
         <v>-10</v>
       </c>
-      <c r="I5" s="180">
+      <c r="I5" s="178">
         <v>30</v>
       </c>
       <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
+      <c r="K5" s="126" t="s">
+        <v>305</v>
+      </c>
       <c r="L5" s="126" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="M5" s="95"/>
       <c r="N5" s="95"/>
@@ -8352,11 +8606,11 @@
       <c r="X5" s="95"/>
       <c r="Y5" s="95"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="168">
+        <v>28</v>
+      </c>
+      <c r="B6" s="166">
         <v>10</v>
       </c>
       <c r="C6" s="95"/>
@@ -8364,20 +8618,22 @@
         <v>10</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G6" s="58" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H6" s="99"/>
-      <c r="I6" s="180">
+      <c r="I6" s="178">
         <v>20</v>
       </c>
       <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
+      <c r="K6" s="95" t="s">
+        <v>309</v>
+      </c>
       <c r="L6" s="95"/>
       <c r="M6" s="95"/>
       <c r="N6" s="95"/>
@@ -8393,11 +8649,11 @@
       <c r="X6" s="95"/>
       <c r="Y6" s="95"/>
     </row>
-    <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="40" t="s">
-        <v>222</v>
-      </c>
-      <c r="B7" s="169">
+        <v>213</v>
+      </c>
+      <c r="B7" s="167">
         <v>12</v>
       </c>
       <c r="C7" s="95">
@@ -8407,16 +8663,16 @@
         <v>10</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H7" s="99"/>
-      <c r="I7" s="180">
+      <c r="I7" s="178">
         <v>20</v>
       </c>
       <c r="J7" s="95"/>
@@ -8436,11 +8692,11 @@
       <c r="X7" s="95"/>
       <c r="Y7" s="95"/>
     </row>
-    <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="170">
+        <v>35</v>
+      </c>
+      <c r="B8" s="168">
         <v>5</v>
       </c>
       <c r="C8" s="95">
@@ -8450,22 +8706,19 @@
         <v>10</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H8" s="99"/>
-      <c r="I8" s="180">
+      <c r="I8" s="178">
         <v>20</v>
       </c>
       <c r="J8" s="95"/>
-      <c r="K8" s="181" t="s">
-        <v>10</v>
-      </c>
       <c r="L8" s="95"/>
       <c r="M8" s="95"/>
       <c r="N8" s="95"/>
@@ -8481,30 +8734,27 @@
       <c r="X8" s="95"/>
       <c r="Y8" s="95"/>
     </row>
-    <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9" s="170">
+        <v>174</v>
+      </c>
+      <c r="B9" s="168">
         <v>5</v>
       </c>
       <c r="C9" s="95"/>
       <c r="D9" s="95"/>
       <c r="E9" s="42" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G9" s="52"/>
       <c r="H9" s="99"/>
-      <c r="I9" s="182">
+      <c r="I9" s="180">
         <v>20</v>
       </c>
       <c r="J9" s="95"/>
-      <c r="K9" s="95" t="s">
-        <v>16</v>
-      </c>
       <c r="L9" s="95"/>
       <c r="M9" s="95"/>
       <c r="N9" s="95"/>
@@ -8520,33 +8770,30 @@
       <c r="X9" s="95"/>
       <c r="Y9" s="95"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="171">
+        <v>39</v>
+      </c>
+      <c r="B10" s="169">
         <f>ROUND((B8+B5+B7+B9)/2,0)</f>
         <v>18</v>
       </c>
       <c r="C10" s="95"/>
       <c r="D10" s="95"/>
       <c r="E10" s="38" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H10" s="99"/>
-      <c r="I10" s="178">
+      <c r="I10" s="176">
         <v>20</v>
       </c>
       <c r="J10" s="95"/>
-      <c r="K10" s="95" t="s">
-        <v>24</v>
-      </c>
       <c r="L10" s="95"/>
       <c r="M10" s="95"/>
       <c r="N10" s="95"/>
@@ -8562,35 +8809,34 @@
       <c r="X10" s="95"/>
       <c r="Y10" s="95"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="172">
+        <v>44</v>
+      </c>
+      <c r="B11" s="170">
         <f>B5-Inventar!H22</f>
         <v>10</v>
       </c>
       <c r="C11" s="95"/>
       <c r="D11" s="95"/>
       <c r="E11" s="40" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G11" s="53"/>
       <c r="H11" s="99"/>
-      <c r="I11" s="180">
+      <c r="I11" s="178">
         <v>24</v>
       </c>
       <c r="J11" s="95"/>
-      <c r="K11" s="95" t="s">
-        <v>29</v>
-      </c>
       <c r="L11" s="95"/>
       <c r="M11" s="95"/>
       <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
+      <c r="O11" s="200" t="s">
+        <v>313</v>
+      </c>
       <c r="P11" s="95"/>
       <c r="Q11" s="95"/>
       <c r="R11" s="95"/>
@@ -8602,30 +8848,37 @@
       <c r="X11" s="95"/>
       <c r="Y11" s="95"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5"/>
       <c r="B12" s="126"/>
       <c r="C12" s="95"/>
       <c r="D12" s="95"/>
       <c r="E12" s="40" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G12" s="53"/>
       <c r="H12" s="99"/>
-      <c r="I12" s="180">
+      <c r="I12" s="178">
         <v>20</v>
       </c>
       <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
       <c r="L12" s="95"/>
       <c r="M12" s="95"/>
       <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="95"/>
+      <c r="O12" s="106" t="s">
+        <v>307</v>
+      </c>
+      <c r="P12" s="106">
+        <f>B4*4+B7</f>
+        <v>60</v>
+      </c>
+      <c r="Q12" s="95">
+        <f>-15-15-20-10</f>
+        <v>-60</v>
+      </c>
       <c r="R12" s="95"/>
       <c r="S12" s="95"/>
       <c r="T12" s="95"/>
@@ -8635,36 +8888,43 @@
       <c r="X12" s="95"/>
       <c r="Y12" s="95"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="27" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B13" s="126" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C13" s="95"/>
       <c r="D13" s="95"/>
       <c r="E13" s="42" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G13" s="43" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H13" s="99"/>
-      <c r="I13" s="182">
+      <c r="I13" s="180">
         <v>20</v>
       </c>
       <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
       <c r="L13" s="95"/>
       <c r="M13" s="95"/>
       <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="95"/>
+      <c r="O13" s="106" t="s">
+        <v>306</v>
+      </c>
+      <c r="P13" s="106">
+        <f>B6*4+B7</f>
+        <v>52</v>
+      </c>
+      <c r="Q13" s="95">
+        <f>-25-15-5-5</f>
+        <v>-50</v>
+      </c>
       <c r="R13" s="95"/>
       <c r="S13" s="95"/>
       <c r="T13" s="95"/>
@@ -8674,22 +8934,22 @@
       <c r="X13" s="95"/>
       <c r="Y13" s="95"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="11"/>
       <c r="B14" s="95"/>
       <c r="C14" s="95"/>
       <c r="D14" s="95"/>
       <c r="E14" s="38" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F14" s="44" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H14" s="99"/>
-      <c r="I14" s="178">
+      <c r="I14" s="176">
         <v>20</v>
       </c>
       <c r="J14" s="95"/>
@@ -8709,11 +8969,11 @@
       <c r="X14" s="95"/>
       <c r="Y14" s="95"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="173">
+        <v>81</v>
+      </c>
+      <c r="B15" s="171">
         <v>275</v>
       </c>
       <c r="C15" s="95">
@@ -8721,16 +8981,16 @@
       </c>
       <c r="D15" s="95"/>
       <c r="E15" s="40" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G15" s="54"/>
       <c r="H15" s="99">
         <v>-15</v>
       </c>
-      <c r="I15" s="180">
+      <c r="I15" s="178">
         <v>35</v>
       </c>
       <c r="J15" s="95"/>
@@ -8750,24 +9010,24 @@
       <c r="X15" s="95"/>
       <c r="Y15" s="95"/>
     </row>
-    <row r="16" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="174">
+        <v>83</v>
+      </c>
+      <c r="B16" s="172">
         <v>12</v>
       </c>
       <c r="C16" s="95"/>
       <c r="D16" s="95"/>
       <c r="E16" s="40" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G16" s="54"/>
       <c r="H16" s="99"/>
-      <c r="I16" s="180">
+      <c r="I16" s="178">
         <v>20</v>
       </c>
       <c r="J16" s="95"/>
@@ -8787,27 +9047,27 @@
       <c r="X16" s="95"/>
       <c r="Y16" s="95"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="175">
+        <v>86</v>
+      </c>
+      <c r="B17" s="173">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
         <v>55</v>
       </c>
       <c r="C17" s="95"/>
       <c r="D17" s="95"/>
       <c r="E17" s="40" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H17" s="99"/>
-      <c r="I17" s="180">
+      <c r="I17" s="178">
         <v>20</v>
       </c>
       <c r="J17" s="95"/>
@@ -8827,29 +9087,29 @@
       <c r="X17" s="95"/>
       <c r="Y17" s="95"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="176">
+        <v>88</v>
+      </c>
+      <c r="B18" s="174">
         <f>ROUNDUP(CharacterSheet!$B$15*0.7,0)</f>
         <v>193</v>
       </c>
       <c r="C18" s="95"/>
       <c r="D18" s="95"/>
       <c r="E18" s="40" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H18" s="99">
         <v>-8</v>
       </c>
-      <c r="I18" s="180">
+      <c r="I18" s="178">
         <v>28</v>
       </c>
       <c r="J18" s="95"/>
@@ -8869,11 +9129,11 @@
       <c r="X18" s="95"/>
       <c r="Y18" s="95"/>
     </row>
-    <row r="19" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="B19" s="176">
+        <v>206</v>
+      </c>
+      <c r="B19" s="174">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
         <v>55</v>
       </c>
@@ -8881,19 +9141,19 @@
         <v>25</v>
       </c>
       <c r="D19" s="95" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H19" s="99"/>
-      <c r="I19" s="182">
+      <c r="I19" s="180">
         <v>20</v>
       </c>
       <c r="J19" s="95"/>
@@ -8913,11 +9173,11 @@
       <c r="X19" s="95"/>
       <c r="Y19" s="95"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="B20" s="176">
+        <v>207</v>
+      </c>
+      <c r="B20" s="174">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
         <v>55</v>
       </c>
@@ -8926,17 +9186,17 @@
         <v>0</v>
       </c>
       <c r="D20" s="95" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G20" s="56"/>
       <c r="H20" s="99"/>
-      <c r="I20" s="178">
+      <c r="I20" s="176">
         <v>20</v>
       </c>
       <c r="J20" s="95"/>
@@ -8956,27 +9216,27 @@
       <c r="X20" s="95"/>
       <c r="Y20" s="95"/>
     </row>
-    <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="B21" s="176">
+        <v>208</v>
+      </c>
+      <c r="B21" s="174">
         <f>ROUNDUP(CharacterSheet!$B$15*0.25,0)</f>
         <v>69</v>
       </c>
       <c r="C21" s="95"/>
       <c r="D21" s="95"/>
       <c r="E21" s="42" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G21" s="55"/>
       <c r="H21" s="109">
         <v>-8</v>
       </c>
-      <c r="I21" s="182">
+      <c r="I21" s="180">
         <v>28</v>
       </c>
       <c r="J21" s="95"/>
@@ -8996,27 +9256,27 @@
       <c r="X21" s="95"/>
       <c r="Y21" s="95"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="B22" s="176">
+        <v>209</v>
+      </c>
+      <c r="B22" s="174">
         <f>ROUNDUP(CharacterSheet!$B$15*0.25,0)</f>
         <v>69</v>
       </c>
-      <c r="C22" s="177" t="s">
-        <v>144</v>
+      <c r="C22" s="175" t="s">
+        <v>137</v>
       </c>
       <c r="D22" s="95"/>
       <c r="E22" s="38" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F22" s="47" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G22" s="57"/>
       <c r="H22" s="99"/>
-      <c r="I22" s="178">
+      <c r="I22" s="176">
         <v>20</v>
       </c>
       <c r="J22" s="95"/>
@@ -9036,20 +9296,20 @@
       <c r="X22" s="95"/>
       <c r="Y22" s="95"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="11"/>
       <c r="B23" s="95"/>
       <c r="C23" s="95"/>
       <c r="D23" s="95"/>
       <c r="E23" s="40" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G23" s="58"/>
       <c r="H23" s="99"/>
-      <c r="I23" s="180">
+      <c r="I23" s="178">
         <v>20</v>
       </c>
       <c r="J23" s="95"/>
@@ -9069,22 +9329,22 @@
       <c r="X23" s="95"/>
       <c r="Y23" s="95"/>
     </row>
-    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="11"/>
       <c r="B24" s="95"/>
       <c r="C24" s="95"/>
       <c r="D24" s="95"/>
       <c r="E24" s="42" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G24" s="43" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H24" s="99"/>
-      <c r="I24" s="182">
+      <c r="I24" s="180">
         <v>20</v>
       </c>
       <c r="J24" s="95"/>
@@ -9104,20 +9364,20 @@
       <c r="X24" s="95"/>
       <c r="Y24" s="95"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="11"/>
       <c r="B25" s="95"/>
       <c r="C25" s="95"/>
       <c r="D25" s="95"/>
       <c r="E25" s="38" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F25" s="49" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G25" s="59"/>
       <c r="H25" s="99"/>
-      <c r="I25" s="178">
+      <c r="I25" s="176">
         <v>20</v>
       </c>
       <c r="J25" s="95"/>
@@ -9137,20 +9397,20 @@
       <c r="X25" s="95"/>
       <c r="Y25" s="95"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="11"/>
       <c r="B26" s="95"/>
       <c r="C26" s="95"/>
       <c r="D26" s="95"/>
       <c r="E26" s="40" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G26" s="60"/>
       <c r="H26" s="99"/>
-      <c r="I26" s="180">
+      <c r="I26" s="178">
         <v>20</v>
       </c>
       <c r="J26" s="95"/>
@@ -9170,22 +9430,22 @@
       <c r="X26" s="95"/>
       <c r="Y26" s="95"/>
     </row>
-    <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="11"/>
       <c r="B27" s="95"/>
       <c r="C27" s="95"/>
       <c r="D27" s="95"/>
       <c r="E27" s="42" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F27" s="50" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G27" s="61"/>
       <c r="H27" s="110">
         <v>-15</v>
       </c>
-      <c r="I27" s="182">
+      <c r="I27" s="180">
         <v>35</v>
       </c>
       <c r="J27" s="95"/>
@@ -9205,7 +9465,7 @@
       <c r="X27" s="95"/>
       <c r="Y27" s="95"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="11"/>
       <c r="B28" s="95"/>
       <c r="C28" s="95"/>
@@ -9231,7 +9491,7 @@
       <c r="X28" s="95"/>
       <c r="Y28" s="95"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="95"/>
       <c r="C29" s="95"/>
       <c r="D29" s="95"/>
@@ -9254,7 +9514,7 @@
       <c r="X29" s="95"/>
       <c r="Y29" s="95"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="11"/>
       <c r="B30" s="95"/>
       <c r="C30" s="95"/>
@@ -9283,7 +9543,7 @@
       <c r="X30" s="95"/>
       <c r="Y30" s="95"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="95"/>
       <c r="C31" s="95"/>
       <c r="D31" s="95"/>
@@ -9306,7 +9566,7 @@
       <c r="X31" s="95"/>
       <c r="Y31" s="95"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="95"/>
       <c r="C32" s="95"/>
       <c r="D32" s="95"/>
@@ -9329,7 +9589,7 @@
       <c r="X32" s="95"/>
       <c r="Y32" s="95"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="95"/>
       <c r="C33" s="95"/>
       <c r="D33" s="95"/>
@@ -9352,7 +9612,7 @@
       <c r="X33" s="95"/>
       <c r="Y33" s="95"/>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="95"/>
       <c r="C34" s="95"/>
       <c r="D34" s="95"/>
@@ -9375,7 +9635,7 @@
       <c r="X34" s="95"/>
       <c r="Y34" s="95"/>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="95"/>
       <c r="C35" s="95"/>
       <c r="D35" s="95"/>
@@ -9398,7 +9658,7 @@
       <c r="X35" s="95"/>
       <c r="Y35" s="95"/>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="H36" s="95"/>
       <c r="I36" s="95"/>
       <c r="J36" s="95"/>
@@ -9406,8 +9666,6 @@
       <c r="L36" s="95"/>
       <c r="M36" s="95"/>
       <c r="N36" s="95"/>
-      <c r="O36" s="95"/>
-      <c r="P36" s="95"/>
       <c r="Q36" s="95"/>
       <c r="R36" s="95"/>
       <c r="S36" s="95"/>
@@ -9819,24 +10077,24 @@
       <selection activeCell="M21" sqref="M21:M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="7" max="7" width="5.140625" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" customWidth="1"/>
-    <col min="15" max="15" width="3.5703125" customWidth="1"/>
+    <col min="7" max="7" width="5.15625" customWidth="1"/>
+    <col min="9" max="9" width="7.41796875" customWidth="1"/>
+    <col min="11" max="11" width="12.83984375" customWidth="1"/>
+    <col min="12" max="12" width="8.83984375" customWidth="1"/>
+    <col min="13" max="13" width="8.41796875" customWidth="1"/>
+    <col min="15" max="15" width="3.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="11" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
@@ -9850,46 +10108,46 @@
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="11" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="75" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="I2" s="76" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="J2" s="76" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K2" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="L2" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="N2" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="L2" s="76" t="s">
-        <v>150</v>
-      </c>
-      <c r="M2" s="76" t="s">
-        <v>151</v>
-      </c>
-      <c r="N2" s="67" t="s">
-        <v>152</v>
-      </c>
       <c r="O2" s="19"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -9906,16 +10164,16 @@
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B4" s="11">
         <v>1</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E4" s="11">
         <v>1</v>
@@ -9923,10 +10181,10 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="J4" s="11">
         <v>10</v>
@@ -9941,20 +10199,20 @@
         <v>0</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="O4" s="11"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B5" s="11">
         <v>2</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E5" s="11">
         <v>2</v>
@@ -9962,10 +10220,10 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="J5" s="11">
         <v>10</v>
@@ -9980,20 +10238,20 @@
         <v>2</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="O5" s="11"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B6" s="11">
         <v>4</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E6" s="11">
         <v>4</v>
@@ -10009,16 +10267,16 @@
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B7" s="11">
         <v>6</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E7" s="11">
         <v>6</v>
@@ -10034,16 +10292,16 @@
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B8" s="11">
         <v>8</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E8" s="11">
         <v>8</v>
@@ -10059,9 +10317,9 @@
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B9" s="11">
         <v>10</v>
@@ -10080,7 +10338,7 @@
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -10097,12 +10355,12 @@
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -10118,7 +10376,7 @@
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="1"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -10135,9 +10393,9 @@
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B13" s="11">
         <v>0.5</v>
@@ -10145,7 +10403,7 @@
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="12" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="11"/>
@@ -10158,9 +10416,9 @@
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="11" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B14" s="11">
         <v>1</v>
@@ -10168,7 +10426,7 @@
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F14" s="15">
         <v>4</v>
@@ -10183,9 +10441,9 @@
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B15" s="11">
         <v>2</v>
@@ -10204,9 +10462,9 @@
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="11" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B16" s="11">
         <v>4</v>
@@ -10214,10 +10472,10 @@
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="14" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -10229,9 +10487,9 @@
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B17" s="11">
         <v>6</v>
@@ -10245,9 +10503,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B18" s="11">
         <v>8</v>
@@ -10261,7 +10519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -10273,12 +10531,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="11" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -10289,7 +10547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -10301,9 +10559,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="11" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B22" s="11">
         <v>1</v>
@@ -10317,9 +10575,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B23" s="11">
         <v>2</v>
@@ -10333,9 +10591,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B24" s="11">
         <v>3</v>
@@ -10349,9 +10607,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B25" s="11">
         <v>4</v>
@@ -10365,9 +10623,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B26" s="11">
         <v>5</v>
@@ -10381,9 +10639,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B27" s="11">
         <v>6</v>
@@ -10397,7 +10655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -10409,7 +10667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -10421,7 +10679,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -10433,7 +10691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -10445,7 +10703,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -10461,22 +10719,25 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView view="pageLayout" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="127.42578125" customWidth="1"/>
+    <col min="1" max="1" width="127.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>180</v>
-      </c>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;24Backstory</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10489,49 +10750,49 @@
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.15625" customWidth="1"/>
+    <col min="2" max="2" width="8.41796875" customWidth="1"/>
+    <col min="4" max="4" width="5.83984375" customWidth="1"/>
+    <col min="5" max="5" width="15.83984375" customWidth="1"/>
+    <col min="6" max="6" width="8.41796875" customWidth="1"/>
+    <col min="7" max="7" width="13.41796875" customWidth="1"/>
+    <col min="8" max="8" width="6.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="80" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G1" s="85" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="H1" s="85" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="I1" s="85" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <f>CharacterSheet!B2</f>
@@ -10546,14 +10807,14 @@
         <v>29</v>
       </c>
       <c r="E2" s="85" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="F2" s="11">
         <f>CharacterSheet!B15</f>
         <v>275</v>
       </c>
       <c r="G2" s="85" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="H2">
         <f>Status!C26</f>
@@ -10564,9 +10825,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B3" s="11">
         <f>CharacterSheet!B3</f>
@@ -10581,14 +10842,14 @@
         <v>30</v>
       </c>
       <c r="E3" s="85" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F3" s="11">
         <f>CharacterSheet!B16</f>
         <v>12</v>
       </c>
       <c r="G3" s="85" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="H3" s="11">
         <f>Status!C27</f>
@@ -10599,9 +10860,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B4" s="11">
         <f>CharacterSheet!B4</f>
@@ -10616,14 +10877,14 @@
         <v>20</v>
       </c>
       <c r="E4" s="80" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="F4" s="11">
         <f>CharacterSheet!B17</f>
         <v>55</v>
       </c>
       <c r="G4" s="85" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="H4" s="11">
         <f>Status!C28</f>
@@ -10634,9 +10895,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="11">
         <f>CharacterSheet!B5</f>
@@ -10651,14 +10912,14 @@
         <v>30</v>
       </c>
       <c r="E5" s="80" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F5" s="11">
         <f>CharacterSheet!B18</f>
         <v>193</v>
       </c>
       <c r="G5" s="85" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H5">
         <f>Status!C30</f>
@@ -10669,9 +10930,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B6" s="11">
         <f>CharacterSheet!B6</f>
@@ -10686,14 +10947,14 @@
         <v>20</v>
       </c>
       <c r="E6" s="80" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="F6" s="11">
         <f>CharacterSheet!B19</f>
         <v>55</v>
       </c>
       <c r="G6" s="85" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="H6">
         <f>Status!D2</f>
@@ -10704,9 +10965,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="11" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B7" s="11">
         <f>CharacterSheet!B7</f>
@@ -10721,14 +10982,14 @@
         <v>20</v>
       </c>
       <c r="E7" s="80" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="F7" s="11">
         <f>CharacterSheet!B20</f>
         <v>55</v>
       </c>
       <c r="G7" s="85" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="H7" s="11">
         <f>Status!D3</f>
@@ -10739,7 +11000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="11" t="str">
         <f>CharacterSheet!A8</f>
         <v>Luck</v>
@@ -10757,14 +11018,14 @@
         <v>20</v>
       </c>
       <c r="E8" s="80" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F8" s="11">
         <f>CharacterSheet!B21</f>
         <v>69</v>
       </c>
       <c r="G8" s="85" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="H8" s="11">
         <f>Status!D4</f>
@@ -10772,7 +11033,7 @@
       </c>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11" t="str">
         <f>CharacterSheet!A9</f>
         <v>Glaube</v>
@@ -10790,14 +11051,14 @@
         <v>20</v>
       </c>
       <c r="E9" s="80" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F9" s="11">
         <f>CharacterSheet!B22</f>
         <v>69</v>
       </c>
       <c r="G9" s="85" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="H9" s="11">
         <f>Status!D5</f>
@@ -10805,9 +11066,9 @@
       </c>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="11" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B10" s="11">
         <f>CharacterSheet!B10</f>
@@ -10822,14 +11083,14 @@
         <v>20</v>
       </c>
       <c r="E10" s="85" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F10" s="11">
         <f>CharacterSheet!B1</f>
         <v>0</v>
       </c>
       <c r="G10" s="85" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="H10">
         <f>Status!D8</f>
@@ -10839,9 +11100,9 @@
       <c r="J10" s="85"/>
       <c r="K10" s="11"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="11" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B11" s="11">
         <f>CharacterSheet!B11</f>
@@ -10856,13 +11117,13 @@
         <v>24</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H11" s="11">
         <f>Status!D9</f>
@@ -10872,9 +11133,9 @@
       <c r="J11" s="85"/>
       <c r="K11" s="11"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B12">
         <f>Inventar!G22</f>
@@ -10889,22 +11150,22 @@
         <v>20</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="H12" s="11">
         <f>Status!D10</f>
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B13">
         <f>Inventar!G19</f>
@@ -10919,23 +11180,23 @@
         <v>20</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F13" t="str">
         <f>Status!B2</f>
         <v>Schwert</v>
       </c>
       <c r="G13" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="H13" s="11">
         <f>Status!D11</f>
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="11" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B14" s="11">
         <f>Status!AA11</f>
@@ -10950,23 +11211,23 @@
         <v>20</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F14" s="11" t="str">
         <f>Status!B3</f>
         <v>Dolch</v>
       </c>
       <c r="G14" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="H14" s="11">
         <f>Status!D12</f>
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B15" t="str">
         <f>Status!AA13</f>
@@ -10981,23 +11242,23 @@
         <v>35</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F15" s="11">
         <f>Status!B4</f>
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="H15">
         <f>Status!E8</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B16">
         <f>Status!R12</f>
@@ -11012,23 +11273,23 @@
         <v>20</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F16" s="11" t="str">
         <f>Status!B5</f>
         <v>Leichter Schild</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="H16" s="11">
         <f>Status!E9</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B17">
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
@@ -11043,23 +11304,23 @@
         <v>20</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="F17" s="11">
         <f>Status!C2</f>
         <v>42</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="H17" s="11">
         <f>Status!E10</f>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B18" s="11">
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
@@ -11074,23 +11335,23 @@
         <v>28</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F18" s="11">
         <f>Status!C3</f>
         <v>12</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="H18" s="11">
         <f>Status!E11</f>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B19">
         <f>CharacterSheet!B8+CharacterSheet!B9</f>
@@ -11105,23 +11366,23 @@
         <v>20</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F19" s="11">
         <f>Status!C4</f>
         <v>0</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="H19" s="11">
         <f>Status!E12</f>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="80" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B20" t="str">
         <f>CharacterSheet!B13</f>
@@ -11136,23 +11397,23 @@
         <v>20</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F20" s="11">
         <f>Status!C5</f>
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="H20" t="str">
         <f>Status!B8</f>
         <v>Mittel</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="80" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B21">
         <f>Status!D16</f>
@@ -11167,23 +11428,23 @@
         <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F21" s="9">
         <f>Status!C13</f>
         <v>43.5</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="H21" s="11" t="str">
         <f>Status!B9</f>
         <v>Leicht</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="80" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B22" s="11">
         <f>Status!D17</f>
@@ -11206,16 +11467,16 @@
         <v>10.5</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="H22" s="11" t="str">
         <f>Status!B10</f>
         <v>Leicht</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="80" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B23" s="11">
         <f>Status!D18</f>
@@ -11238,16 +11499,16 @@
         <v>6</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="H23" s="11" t="str">
         <f>Status!B11</f>
         <v>Mittel</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="80" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B24" s="11">
         <f>Status!D19</f>
@@ -11270,16 +11531,16 @@
         <v>6</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="H24" s="11" t="str">
         <f>Status!B12</f>
         <v>Mittel</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="80" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B25" s="11">
         <f>Status!D20</f>
@@ -11302,16 +11563,16 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="80" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B26" s="11">
         <f>Status!D21</f>
         <v>55</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D26" s="11">
         <f>CharacterSheet!I26</f>
@@ -11326,9 +11587,9 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="80" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B27" s="11">
         <f>Status!D22</f>
@@ -11343,16 +11604,16 @@
         <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="F27" t="str">
         <f>Status!I29</f>
         <v>Plötze</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="80" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B28" s="11">
         <f>Status!D23</f>
@@ -11360,9 +11621,9 @@
       </c>
       <c r="C28" s="11"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="85" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B29">
         <f>Status!Q17</f>
@@ -11370,10 +11631,10 @@
       </c>
       <c r="C29" s="11"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="11"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="11"/>
     </row>
   </sheetData>

--- a/DownloadContainer/CCrand.xlsx
+++ b/DownloadContainer/CCrand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\###Orbis\DownloadContainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F1AE3F-1532-48F0-8C2D-F7BE6D2DF396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4830FFAC-FCB8-44CA-B40A-BEA0360115EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
@@ -4320,16 +4320,6 @@
             <v>12</v>
           </cell>
         </row>
-        <row r="15">
-          <cell r="B15">
-            <v>275</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>12</v>
-          </cell>
-        </row>
         <row r="17">
           <cell r="B17">
             <v>55</v>
@@ -4670,7 +4660,7 @@
   <dimension ref="A1:AE72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41015625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -5530,7 +5520,7 @@
         <v>80</v>
       </c>
       <c r="B16" s="119">
-        <f>[1]CharacterSheet!B15</f>
+        <f>CharacterSheet!B15</f>
         <v>275</v>
       </c>
       <c r="C16" s="18">
@@ -5578,7 +5568,7 @@
         <v>82</v>
       </c>
       <c r="B17" s="121">
-        <f>[1]CharacterSheet!B16</f>
+        <f>CharacterSheet!B16</f>
         <v>12</v>
       </c>
       <c r="C17" s="18">

--- a/DownloadContainer/CCrand.xlsx
+++ b/DownloadContainer/CCrand.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\###Orbis\DownloadContainer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4830FFAC-FCB8-44CA-B40A-BEA0360115EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB37431-E3DE-45B8-9824-8D4A7E85B899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
@@ -23,9 +23,6 @@
     <sheet name="Backstory" sheetId="11" r:id="rId8"/>
     <sheet name="Abfrage" sheetId="13" state="hidden" r:id="rId9"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -4294,71 +4291,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Status"/>
-      <sheetName val="DatenExelintern"/>
-      <sheetName val="Inventar"/>
-      <sheetName val="Pflanzen"/>
-      <sheetName val="Plötze"/>
-      <sheetName val="CharacterSheet"/>
-      <sheetName val="Prices+Changelog"/>
-      <sheetName val="Backstory"/>
-      <sheetName val="Abfrage"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="2">
-          <cell r="B2">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>193</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>69</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>69</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -4660,7 +4592,7 @@
   <dimension ref="A1:AE72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41015625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -5524,7 +5456,6 @@
         <v>275</v>
       </c>
       <c r="C16" s="18">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="D16" s="4">
@@ -5631,7 +5562,7 @@
         <v>85</v>
       </c>
       <c r="B18" s="122">
-        <f>[1]CharacterSheet!B17</f>
+        <f>CharacterSheet!B17</f>
         <v>55</v>
       </c>
       <c r="C18" s="18">
@@ -5697,7 +5628,7 @@
         <v>87</v>
       </c>
       <c r="B19" s="4">
-        <f>[1]CharacterSheet!B18</f>
+        <f>CharacterSheet!B18</f>
         <v>193</v>
       </c>
       <c r="C19" s="18">
@@ -5759,7 +5690,7 @@
         <v>205</v>
       </c>
       <c r="B20" s="4">
-        <f>[1]CharacterSheet!B19</f>
+        <f>CharacterSheet!B19</f>
         <v>55</v>
       </c>
       <c r="C20" s="18">
@@ -5817,7 +5748,7 @@
         <v>206</v>
       </c>
       <c r="B21" s="4">
-        <f>[1]CharacterSheet!B20</f>
+        <f>CharacterSheet!B20</f>
         <v>55</v>
       </c>
       <c r="C21" s="18">
@@ -5875,7 +5806,7 @@
         <v>207</v>
       </c>
       <c r="B22" s="4">
-        <f>[1]CharacterSheet!B21</f>
+        <f>CharacterSheet!B21</f>
         <v>69</v>
       </c>
       <c r="C22" s="18">
@@ -5935,7 +5866,7 @@
         <v>208</v>
       </c>
       <c r="B23" s="4">
-        <f>[1]CharacterSheet!B22</f>
+        <f>CharacterSheet!B22</f>
         <v>69</v>
       </c>
       <c r="C23" s="18">
@@ -6813,6 +6744,7 @@
       <c r="AE72" s="62"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="J2:L2"/>
@@ -7279,7 +7211,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41015625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -8952,7 +8884,7 @@
   <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41015625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -10277,6 +10209,7 @@
       <c r="Y36" s="55"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="F3:G4 F6:G6">
     <cfRule type="containsText" dxfId="114" priority="110" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F3)))</formula>

--- a/DownloadContainer/CCrand.xlsx
+++ b/DownloadContainer/CCrand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF931026-880F-4801-8D95-29B490192A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B550483-2F85-4E8C-A700-F6B03AF5C830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
+    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="404">
   <si>
     <t>Ausgerüstet:</t>
   </si>
@@ -204,12 +204,6 @@
   </si>
   <si>
     <t>Summe Stufe konsumierter Tränke:</t>
-  </si>
-  <si>
-    <t>Taschendiebstahl</t>
-  </si>
-  <si>
-    <t>Schlossknacken</t>
   </si>
   <si>
     <t>Social Skills</t>
@@ -1259,6 +1253,9 @@
   </si>
   <si>
     <t>Sonderslot 2</t>
+  </si>
+  <si>
+    <t>Fingerfertigkeit</t>
   </si>
 </sst>
 </file>
@@ -2684,7 +2681,7 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{D542633D-7DF4-465B-85AC-D052E1A8B816}"/>
   </cellStyles>
-  <dxfs count="237">
+  <dxfs count="225">
     <dxf>
       <font>
         <strike val="0"/>
@@ -2734,51 +2731,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3685,51 +3637,6 @@
         <i val="0"/>
         <color rgb="FFFFC000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -5054,7 +4961,7 @@
   <dimension ref="A1:AE72"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -5091,13 +4998,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C1" s="45" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
@@ -5105,7 +5012,7 @@
       <c r="H1" s="47"/>
       <c r="I1" s="48"/>
       <c r="J1" s="252" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K1" s="252"/>
       <c r="L1" s="252"/>
@@ -5133,7 +5040,7 @@
       <c r="X1" s="46"/>
       <c r="Y1" s="48"/>
       <c r="Z1" s="50" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AA1" s="50" t="s">
         <v>9</v>
@@ -5146,7 +5053,7 @@
     </row>
     <row r="2" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="52" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>12</v>
@@ -5189,10 +5096,10 @@
       <c r="Y2" s="56"/>
       <c r="Z2" s="61"/>
       <c r="AA2" s="61" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AB2" s="55" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AC2" s="55"/>
       <c r="AD2" s="55"/>
@@ -5248,10 +5155,10 @@
       <c r="Y3" s="56"/>
       <c r="Z3" s="72"/>
       <c r="AA3" s="72" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AB3" s="55" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AC3" s="55"/>
       <c r="AD3" s="55"/>
@@ -5259,7 +5166,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A4" s="64" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B4" s="65"/>
       <c r="C4" s="65"/>
@@ -5302,7 +5209,7 @@
       <c r="Z4" s="72"/>
       <c r="AA4" s="72"/>
       <c r="AB4" s="55" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AC4" s="55"/>
       <c r="AD4" s="55"/>
@@ -5313,7 +5220,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C5" s="65">
         <v>15</v>
@@ -5334,7 +5241,7 @@
       <c r="O5" s="55"/>
       <c r="P5" s="56"/>
       <c r="Q5" s="66" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="R5" s="11">
         <f>CharacterSheet!B5+S5</f>
@@ -5422,7 +5329,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="83" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F7" s="54"/>
       <c r="G7" s="54"/>
@@ -5436,7 +5343,7 @@
       <c r="O7" s="55"/>
       <c r="P7" s="56"/>
       <c r="Q7" s="86" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R7" s="12">
         <f>CharacterSheet!B7+S7</f>
@@ -5444,13 +5351,13 @@
       </c>
       <c r="S7" s="68"/>
       <c r="T7" s="66" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="U7" s="76" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V7" s="76" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="W7" s="67">
         <f>CharacterSheet!I6</f>
@@ -5470,7 +5377,7 @@
         <v>37</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C8" s="87">
         <v>10.5</v>
@@ -5552,7 +5459,7 @@
       <c r="O9" s="85"/>
       <c r="P9" s="56"/>
       <c r="Q9" s="69" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="R9" s="14">
         <f>CharacterSheet!B9+S9</f>
@@ -5656,7 +5563,7 @@
         <v>49</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C11" s="87">
         <v>10.5</v>
@@ -5711,7 +5618,7 @@
         <v>52</v>
       </c>
       <c r="B12" s="81" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C12" s="96">
         <v>10.5</v>
@@ -5734,7 +5641,7 @@
       <c r="O12" s="88"/>
       <c r="P12" s="56"/>
       <c r="Q12" s="92" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="R12" s="15">
         <f>ROUNDUP((R7+R5)/2,0)</f>
@@ -5809,7 +5716,7 @@
       <c r="X13" s="60"/>
       <c r="Y13" s="56"/>
       <c r="Z13" s="64" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AA13" s="64" t="str">
         <f>IF(AA9&gt;30,"Schwer",IF(AA9&gt;18,"Mittel","Leicht"))</f>
@@ -5820,7 +5727,7 @@
       <c r="AD13" s="55"/>
       <c r="AE13" s="62"/>
     </row>
-    <row r="14" spans="1:31" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:31" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="100"/>
       <c r="B14" s="79"/>
       <c r="C14" s="55"/>
@@ -5843,12 +5750,14 @@
       <c r="R14" s="55"/>
       <c r="S14" s="99"/>
       <c r="T14" s="66" t="s">
-        <v>54</v>
+        <v>403</v>
       </c>
       <c r="U14" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="V14" s="29"/>
+      <c r="V14" s="29" t="s">
+        <v>175</v>
+      </c>
       <c r="W14" s="67">
         <f>CharacterSheet!I12</f>
         <v>20</v>
@@ -5866,10 +5775,10 @@
       <c r="A15" s="55"/>
       <c r="B15" s="55"/>
       <c r="C15" s="98" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D15" s="98" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E15" s="55"/>
       <c r="F15" s="55"/>
@@ -5886,19 +5795,12 @@
       <c r="Q15" s="261"/>
       <c r="R15" s="55"/>
       <c r="S15" s="99"/>
-      <c r="T15" s="92" t="s">
-        <v>55</v>
-      </c>
-      <c r="U15" s="93" t="s">
-        <v>30</v>
-      </c>
-      <c r="V15" s="93" t="s">
-        <v>177</v>
-      </c>
-      <c r="W15" s="94">
-        <f>CharacterSheet!I13</f>
-        <v>20</v>
-      </c>
+      <c r="T15" s="257" t="s">
+        <v>54</v>
+      </c>
+      <c r="U15" s="258"/>
+      <c r="V15" s="258"/>
+      <c r="W15" s="259"/>
       <c r="X15" s="60"/>
       <c r="Y15" s="56"/>
       <c r="Z15" s="55"/>
@@ -5910,7 +5812,7 @@
     </row>
     <row r="16" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="250" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" s="117">
         <f>CharacterSheet!B15</f>
@@ -5939,16 +5841,23 @@
       <c r="Q16" s="262"/>
       <c r="R16" s="55"/>
       <c r="S16" s="101"/>
-      <c r="T16" s="257" t="s">
+      <c r="T16" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="U16" s="258"/>
-      <c r="V16" s="258"/>
-      <c r="W16" s="259"/>
+      <c r="U16" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="V16" s="97" t="s">
+        <v>175</v>
+      </c>
+      <c r="W16" s="58">
+        <f>CharacterSheet!I13</f>
+        <v>20</v>
+      </c>
       <c r="X16" s="60"/>
       <c r="Y16" s="56"/>
       <c r="Z16" s="102" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AA16" s="55"/>
       <c r="AB16" s="55"/>
@@ -5958,7 +5867,7 @@
     </row>
     <row r="17" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="251" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B17" s="118">
         <f>CharacterSheet!B16</f>
@@ -5989,39 +5898,37 @@
       </c>
       <c r="R17" s="55"/>
       <c r="S17" s="99"/>
-      <c r="T17" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="U17" s="97" t="s">
-        <v>59</v>
-      </c>
-      <c r="V17" s="97" t="s">
-        <v>177</v>
-      </c>
-      <c r="W17" s="58">
+      <c r="T17" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="U17" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="V17" s="32"/>
+      <c r="W17" s="67">
         <f>CharacterSheet!I14</f>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="X17" s="60"/>
       <c r="Y17" s="56"/>
       <c r="Z17" s="104" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA17" s="105" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AB17" s="105" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AC17" s="105" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AD17" s="55"/>
       <c r="AE17" s="62"/>
     </row>
     <row r="18" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="119" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B18" s="119">
         <f>CharacterSheet!B17</f>
@@ -6048,7 +5955,7 @@
       <c r="J18" s="81"/>
       <c r="K18" s="81"/>
       <c r="L18" s="81" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M18" s="82"/>
       <c r="N18" s="55"/>
@@ -6058,20 +5965,20 @@
       <c r="R18" s="55"/>
       <c r="S18" s="99"/>
       <c r="T18" s="66" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U18" s="76" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V18" s="32"/>
       <c r="W18" s="67">
         <f>CharacterSheet!I15</f>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="X18" s="60"/>
       <c r="Y18" s="56"/>
       <c r="Z18" s="55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AA18" s="55">
         <v>5</v>
@@ -6080,14 +5987,14 @@
         <v>5</v>
       </c>
       <c r="AC18" s="55" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AD18" s="55"/>
       <c r="AE18" s="62"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A19" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B19" s="119">
         <f>CharacterSheet!B18</f>
@@ -6120,12 +6027,14 @@
       <c r="R19" s="54"/>
       <c r="S19" s="99"/>
       <c r="T19" s="66" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="U19" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="V19" s="32"/>
+        <v>68</v>
+      </c>
+      <c r="V19" s="76" t="s">
+        <v>69</v>
+      </c>
       <c r="W19" s="67">
         <f>CharacterSheet!I16</f>
         <v>20</v>
@@ -6133,7 +6042,7 @@
       <c r="X19" s="60"/>
       <c r="Y19" s="56"/>
       <c r="Z19" s="55" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AA19" s="55">
         <v>4</v>
@@ -6142,14 +6051,14 @@
         <v>6</v>
       </c>
       <c r="AC19" s="55" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AD19" s="55"/>
       <c r="AE19" s="62"/>
     </row>
     <row r="20" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B20" s="119">
         <f>CharacterSheet!B19</f>
@@ -6182,22 +6091,22 @@
       <c r="R20" s="54"/>
       <c r="S20" s="99"/>
       <c r="T20" s="66" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="U20" s="76" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="V20" s="76" t="s">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="W20" s="67">
         <f>CharacterSheet!I17</f>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="X20" s="60"/>
       <c r="Y20" s="56"/>
       <c r="Z20" s="54" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AA20" s="55"/>
       <c r="AB20" s="55"/>
@@ -6205,9 +6114,9 @@
       <c r="AD20" s="55"/>
       <c r="AE20" s="62"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B21" s="119">
         <f>CharacterSheet!B20</f>
@@ -6237,22 +6146,22 @@
       <c r="O21" s="55"/>
       <c r="P21" s="55"/>
       <c r="Q21" s="106" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R21" s="75"/>
       <c r="S21" s="99"/>
-      <c r="T21" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="U21" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="V21" s="76" t="s">
-        <v>177</v>
-      </c>
-      <c r="W21" s="67">
+      <c r="T21" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="U21" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="V21" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="W21" s="94">
         <f>CharacterSheet!I18</f>
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="X21" s="60"/>
       <c r="Y21" s="56"/>
@@ -6265,7 +6174,7 @@
     </row>
     <row r="22" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B22" s="119">
         <f>CharacterSheet!B21</f>
@@ -6287,7 +6196,7 @@
       <c r="G22" s="55"/>
       <c r="H22" s="55"/>
       <c r="I22" s="107" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J22" s="78"/>
       <c r="K22" s="55"/>
@@ -6297,23 +6206,16 @@
       <c r="O22" s="55"/>
       <c r="P22" s="55"/>
       <c r="Q22" s="77" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="R22" s="78"/>
       <c r="S22" s="99"/>
-      <c r="T22" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="U22" s="93" t="s">
-        <v>157</v>
-      </c>
-      <c r="V22" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="W22" s="94">
-        <f>CharacterSheet!I19</f>
-        <v>20</v>
-      </c>
+      <c r="T22" s="257" t="s">
+        <v>81</v>
+      </c>
+      <c r="U22" s="258"/>
+      <c r="V22" s="258"/>
+      <c r="W22" s="259"/>
       <c r="X22" s="60"/>
       <c r="Y22" s="56"/>
       <c r="Z22" s="55"/>
@@ -6325,7 +6227,7 @@
     </row>
     <row r="23" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B23" s="119">
         <f>CharacterSheet!B22</f>
@@ -6355,16 +6257,21 @@
       <c r="O23" s="55"/>
       <c r="P23" s="55"/>
       <c r="Q23" s="80" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R23" s="82"/>
       <c r="S23" s="101"/>
-      <c r="T23" s="257" t="s">
+      <c r="T23" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="U23" s="258"/>
-      <c r="V23" s="258"/>
-      <c r="W23" s="259"/>
+      <c r="U23" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="V23" s="36"/>
+      <c r="W23" s="58">
+        <f>CharacterSheet!I19</f>
+        <v>20</v>
+      </c>
       <c r="X23" s="60"/>
       <c r="Y23" s="56"/>
       <c r="Z23" s="55"/>
@@ -6397,16 +6304,16 @@
       <c r="Q24" s="55"/>
       <c r="R24" s="55"/>
       <c r="S24" s="99"/>
-      <c r="T24" s="57" t="s">
+      <c r="T24" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="U24" s="97" t="s">
+      <c r="U24" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="V24" s="36"/>
-      <c r="W24" s="58">
+      <c r="V24" s="34"/>
+      <c r="W24" s="94">
         <f>CharacterSheet!I20</f>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="X24" s="60"/>
       <c r="Y24" s="56"/>
@@ -6419,16 +6326,16 @@
     </row>
     <row r="25" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="108" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B25" s="109" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C25" s="109" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="110" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E25" s="55" t="str">
         <f>IF(D21=0,"Verkrüppelt",IF(D21&lt;=B21*0.2,"Verstümmelt",""))</f>
@@ -6448,17 +6355,12 @@
       <c r="Q25" s="55"/>
       <c r="R25" s="55"/>
       <c r="S25" s="99"/>
-      <c r="T25" s="92" t="s">
-        <v>87</v>
-      </c>
-      <c r="U25" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="V25" s="34"/>
-      <c r="W25" s="94">
-        <f>CharacterSheet!I21</f>
-        <v>28</v>
-      </c>
+      <c r="T25" s="257" t="s">
+        <v>86</v>
+      </c>
+      <c r="U25" s="258"/>
+      <c r="V25" s="258"/>
+      <c r="W25" s="259"/>
       <c r="X25" s="60"/>
       <c r="Y25" s="56"/>
       <c r="Z25" s="55"/>
@@ -6496,12 +6398,17 @@
       <c r="Q26" s="55"/>
       <c r="R26" s="55"/>
       <c r="S26" s="101"/>
-      <c r="T26" s="257" t="s">
-        <v>88</v>
-      </c>
-      <c r="U26" s="258"/>
-      <c r="V26" s="258"/>
-      <c r="W26" s="259"/>
+      <c r="T26" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="U26" s="97" t="s">
+        <v>75</v>
+      </c>
+      <c r="V26" s="38"/>
+      <c r="W26" s="58">
+        <f>CharacterSheet!I21</f>
+        <v>20</v>
+      </c>
       <c r="X26" s="60"/>
       <c r="Y26" s="56"/>
       <c r="Z26" s="55"/>
@@ -6539,14 +6446,14 @@
       <c r="Q27" s="55"/>
       <c r="R27" s="55"/>
       <c r="S27" s="99"/>
-      <c r="T27" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="U27" s="97" t="s">
-        <v>77</v>
-      </c>
-      <c r="V27" s="38"/>
-      <c r="W27" s="58">
+      <c r="T27" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="U27" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="V27" s="24"/>
+      <c r="W27" s="67">
         <f>CharacterSheet!I22</f>
         <v>20</v>
       </c>
@@ -6559,7 +6466,7 @@
       <c r="AD27" s="55"/>
       <c r="AE27" s="62"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="112" t="s">
         <v>21</v>
       </c>
@@ -6577,7 +6484,7 @@
       <c r="G28" s="55"/>
       <c r="H28" s="55"/>
       <c r="I28" s="266" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J28" s="267"/>
       <c r="K28" s="267"/>
@@ -6589,14 +6496,16 @@
       <c r="Q28" s="55"/>
       <c r="R28" s="55"/>
       <c r="S28" s="99"/>
-      <c r="T28" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="U28" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="V28" s="24"/>
-      <c r="W28" s="67">
+      <c r="T28" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="U28" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="V28" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="W28" s="94">
         <f>CharacterSheet!I23</f>
         <v>20</v>
       </c>
@@ -6621,7 +6530,7 @@
       <c r="G29" s="113"/>
       <c r="H29" s="113"/>
       <c r="I29" s="254" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J29" s="255"/>
       <c r="K29" s="255"/>
@@ -6633,19 +6542,12 @@
       <c r="Q29" s="55"/>
       <c r="R29" s="55"/>
       <c r="S29" s="99"/>
-      <c r="T29" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="U29" s="93" t="s">
-        <v>77</v>
-      </c>
-      <c r="V29" s="93" t="s">
-        <v>177</v>
-      </c>
-      <c r="W29" s="94">
-        <f>CharacterSheet!I24</f>
-        <v>20</v>
-      </c>
+      <c r="T29" s="257" t="s">
+        <v>90</v>
+      </c>
+      <c r="U29" s="258"/>
+      <c r="V29" s="258"/>
+      <c r="W29" s="259"/>
       <c r="X29" s="60"/>
       <c r="Y29" s="56"/>
       <c r="Z29" s="55"/>
@@ -6655,7 +6557,7 @@
       <c r="AD29" s="55"/>
       <c r="AE29" s="62"/>
     </row>
-    <row r="30" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A30" s="112" t="s">
         <v>22</v>
       </c>
@@ -6683,12 +6585,17 @@
       <c r="Q30" s="55"/>
       <c r="R30" s="55"/>
       <c r="S30" s="101"/>
-      <c r="T30" s="257" t="s">
-        <v>92</v>
-      </c>
-      <c r="U30" s="258"/>
-      <c r="V30" s="258"/>
-      <c r="W30" s="259"/>
+      <c r="T30" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="U30" s="97" t="s">
+        <v>175</v>
+      </c>
+      <c r="V30" s="40"/>
+      <c r="W30" s="58">
+        <f>CharacterSheet!I24</f>
+        <v>20</v>
+      </c>
       <c r="X30" s="60"/>
       <c r="Y30" s="56"/>
       <c r="Z30" s="55"/>
@@ -6700,7 +6607,7 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A31" s="105" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B31" s="105"/>
       <c r="C31" s="105"/>
@@ -6720,14 +6627,14 @@
       <c r="Q31" s="55"/>
       <c r="R31" s="55"/>
       <c r="S31" s="99"/>
-      <c r="T31" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="U31" s="97" t="s">
-        <v>177</v>
-      </c>
-      <c r="V31" s="40"/>
-      <c r="W31" s="58">
+      <c r="T31" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="U31" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="V31" s="41"/>
+      <c r="W31" s="67">
         <f>CharacterSheet!I25</f>
         <v>20</v>
       </c>
@@ -6740,9 +6647,9 @@
       <c r="AD31" s="55"/>
       <c r="AE31" s="62"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="105" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B32" s="105"/>
       <c r="C32" s="105"/>
@@ -6762,16 +6669,16 @@
       <c r="Q32" s="55"/>
       <c r="R32" s="55"/>
       <c r="S32" s="99"/>
-      <c r="T32" s="66" t="s">
-        <v>165</v>
-      </c>
-      <c r="U32" s="76" t="s">
-        <v>177</v>
-      </c>
-      <c r="V32" s="41"/>
-      <c r="W32" s="67">
+      <c r="T32" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="U32" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="V32" s="42"/>
+      <c r="W32" s="94">
         <f>CharacterSheet!I26</f>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="X32" s="60"/>
       <c r="Y32" s="56"/>
@@ -6782,7 +6689,7 @@
       <c r="AD32" s="55"/>
       <c r="AE32" s="62"/>
     </row>
-    <row r="33" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A33" s="99"/>
       <c r="B33" s="99"/>
       <c r="C33" s="99"/>
@@ -6802,17 +6709,10 @@
       <c r="Q33" s="55"/>
       <c r="R33" s="55"/>
       <c r="S33" s="99"/>
-      <c r="T33" s="92" t="s">
-        <v>94</v>
-      </c>
-      <c r="U33" s="93" t="s">
-        <v>177</v>
-      </c>
-      <c r="V33" s="42"/>
-      <c r="W33" s="94">
-        <f>CharacterSheet!I27</f>
-        <v>35</v>
-      </c>
+      <c r="T33" s="56"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="56"/>
       <c r="X33" s="60"/>
       <c r="Y33" s="56"/>
       <c r="Z33" s="55"/>
@@ -6908,10 +6808,6 @@
       <c r="Q36" s="56"/>
       <c r="R36" s="114"/>
       <c r="S36" s="56"/>
-      <c r="T36" s="56"/>
-      <c r="U36" s="56"/>
-      <c r="V36" s="56"/>
-      <c r="W36" s="56"/>
       <c r="X36" s="60"/>
       <c r="Y36" s="56"/>
       <c r="Z36" s="55"/>
@@ -7210,373 +7106,354 @@
       <c r="AE72" s="62"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="I29:M29"/>
-    <mergeCell ref="T26:W26"/>
-    <mergeCell ref="T30:W30"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="T29:W29"/>
     <mergeCell ref="Q14:Q16"/>
     <mergeCell ref="T2:W2"/>
     <mergeCell ref="T11:W11"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="T22:W22"/>
     <mergeCell ref="I28:M28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="U4:V5 U1:V1 U27:V28 U7:V7 T34:U1048576 U31:V33">
-    <cfRule type="containsText" dxfId="236" priority="119" operator="containsText" text="Phy">
+  <conditionalFormatting sqref="U4:V5 U1:V1 U26:V27 U7:V7 T33:U1048576 U30:V32">
+    <cfRule type="containsText" dxfId="224" priority="119" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="235" priority="120" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="223" priority="120" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="121" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="222" priority="121" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="233" priority="122" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="221" priority="122" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="123" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="220" priority="123" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="231" priority="124" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="219" priority="124" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R34:R1048576 S1:S33 W34:W1048576 X1:X33">
-    <cfRule type="cellIs" dxfId="230" priority="118" operator="lessThan">
+  <conditionalFormatting sqref="R34:R1048576 S1:S33 W33:W1048576 X1:X33">
+    <cfRule type="cellIs" dxfId="218" priority="118" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6:V6">
-    <cfRule type="containsText" dxfId="229" priority="111" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="217" priority="111" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="112" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="216" priority="112" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="227" priority="113" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="215" priority="113" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="114" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="214" priority="114" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="225" priority="115" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="213" priority="115" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="224" priority="116" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="212" priority="116" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8:V8">
-    <cfRule type="containsText" dxfId="223" priority="105" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="211" priority="105" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="106" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="210" priority="106" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="107" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="209" priority="107" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="108" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="208" priority="108" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="109" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="207" priority="109" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="110" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="206" priority="110" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9:V9">
-    <cfRule type="containsText" dxfId="217" priority="99" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="205" priority="99" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="100" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="204" priority="100" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="101" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="203" priority="101" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="102" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="202" priority="102" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="103" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="201" priority="103" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="104" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="200" priority="104" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10:V10">
-    <cfRule type="containsText" dxfId="211" priority="93" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="199" priority="93" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="94" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="198" priority="94" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="95" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="197" priority="95" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="96" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="196" priority="96" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="97" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="195" priority="97" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="98" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="194" priority="98" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12:V12">
-    <cfRule type="containsText" dxfId="205" priority="87" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="193" priority="87" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="88" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="192" priority="88" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="203" priority="89" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="191" priority="89" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="90" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="190" priority="90" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="91" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="189" priority="91" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="92" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="188" priority="92" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U13:V13">
-    <cfRule type="containsText" dxfId="199" priority="75" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="187" priority="75" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="76" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="186" priority="76" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="77" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="185" priority="77" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="78" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="184" priority="78" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="79" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="183" priority="79" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="80" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="182" priority="80" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U14:V14">
-    <cfRule type="containsText" dxfId="193" priority="69" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="181" priority="69" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="70" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="180" priority="70" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="71" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="179" priority="71" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="72" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="178" priority="72" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="73" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="177" priority="73" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="74" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="176" priority="74" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U16:V16">
+    <cfRule type="containsText" dxfId="175" priority="57" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="174" priority="58" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="173" priority="59" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="172" priority="60" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="171" priority="61" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="170" priority="62" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U17:V17">
-    <cfRule type="containsText" dxfId="187" priority="57" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="169" priority="51" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="58" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="168" priority="52" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="185" priority="59" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="167" priority="53" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="60" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="166" priority="54" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="61" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="165" priority="55" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="62" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="164" priority="56" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U15:V15">
-    <cfRule type="containsText" dxfId="181" priority="63" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",U15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="64" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",U15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="65" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",U15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="66" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",U15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="67" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",U15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="68" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",U15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18:V18">
-    <cfRule type="containsText" dxfId="175" priority="51" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="163" priority="45" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="52" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="162" priority="46" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="53" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="161" priority="47" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="54" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="160" priority="48" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="55" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="159" priority="49" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="56" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="158" priority="50" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U19:V19">
-    <cfRule type="containsText" dxfId="169" priority="45" operator="containsText" text="Phy">
+  <conditionalFormatting sqref="U19:V20">
+    <cfRule type="containsText" dxfId="157" priority="39" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="46" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="156" priority="40" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="47" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="155" priority="41" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="48" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="154" priority="42" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="49" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="153" priority="43" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="50" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="152" priority="44" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U20:V21">
-    <cfRule type="containsText" dxfId="163" priority="39" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",U20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="40" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",U20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="41" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",U20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="42" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",U20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="43" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",U20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="44" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",U20)))</formula>
+  <conditionalFormatting sqref="U21:V21">
+    <cfRule type="containsText" dxfId="151" priority="33" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="150" priority="34" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="149" priority="35" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="148" priority="36" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="147" priority="37" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="146" priority="38" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U22:V22">
-    <cfRule type="containsText" dxfId="157" priority="33" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",U22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="34" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",U22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="35" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",U22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="36" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",U22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="37" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",U22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="38" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",U22)))</formula>
+  <conditionalFormatting sqref="U23:V24">
+    <cfRule type="containsText" dxfId="145" priority="27" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="144" priority="28" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="143" priority="29" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="142" priority="30" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="141" priority="31" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="140" priority="32" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U24:V25">
-    <cfRule type="containsText" dxfId="151" priority="27" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",U24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="28" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",U24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="29" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",U24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="30" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",U24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="31" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",U24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="32" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",U24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U29:V29">
-    <cfRule type="containsText" dxfId="145" priority="21" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",U29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="22" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",U29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="23" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",U29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="24" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",U29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="25" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",U29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="26" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",U29)))</formula>
+  <conditionalFormatting sqref="U28:V28">
+    <cfRule type="containsText" dxfId="139" priority="21" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="138" priority="22" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="137" priority="23" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="136" priority="24" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="135" priority="25" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="134" priority="26" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:V3">
-    <cfRule type="containsText" dxfId="139" priority="15" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="133" priority="15" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="16" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="132" priority="16" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="17" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="131" priority="17" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="18" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="130" priority="18" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="19" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="129" priority="19" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="20" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="128" priority="20" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13">
-    <cfRule type="containsText" dxfId="133" priority="11" operator="containsText" text="Mittel">
+    <cfRule type="containsText" dxfId="127" priority="11" operator="containsText" text="Mittel">
       <formula>NOT(ISERROR(SEARCH("Mittel",AA13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="12" operator="containsText" text="Leicht">
+    <cfRule type="containsText" dxfId="126" priority="12" operator="containsText" text="Leicht">
       <formula>NOT(ISERROR(SEARCH("Leicht",AA13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="13" operator="containsText" text="Schwer">
+    <cfRule type="containsText" dxfId="125" priority="13" operator="containsText" text="Schwer">
       <formula>NOT(ISERROR(SEARCH("Schwer",AA13)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -7591,40 +7468,40 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:F25">
-    <cfRule type="containsText" dxfId="130" priority="10" operator="containsText" text="Debuff">
+    <cfRule type="containsText" dxfId="124" priority="10" operator="containsText" text="Debuff">
       <formula>NOT(ISERROR(SEARCH("Debuff",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:F25">
-    <cfRule type="containsText" dxfId="129" priority="8" operator="containsText" text="Verstümmelt">
+    <cfRule type="containsText" dxfId="123" priority="8" operator="containsText" text="Verstümmelt">
       <formula>NOT(ISERROR(SEARCH("Verstümmelt",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="9" operator="containsText" text="Verkrüppelt">
+    <cfRule type="containsText" dxfId="122" priority="9" operator="containsText" text="Verkrüppelt">
       <formula>NOT(ISERROR(SEARCH("Verkrüppelt",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T34:U1048576 U1:V33">
-    <cfRule type="containsText" dxfId="127" priority="7" operator="containsText" text="Inst">
+  <conditionalFormatting sqref="T33:U1048576 U1:V32">
+    <cfRule type="containsText" dxfId="121" priority="7" operator="containsText" text="Inst">
       <formula>NOT(ISERROR(SEARCH("Inst",T1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8">
-    <cfRule type="containsText" dxfId="126" priority="1" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="120" priority="1" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="2" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="119" priority="2" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="3" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="118" priority="3" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="4" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="117" priority="4" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="5" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="116" priority="5" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="6" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="115" priority="6" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7658,12 +7535,12 @@
   <sheetData>
     <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.5">
@@ -7673,17 +7550,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -7723,10 +7600,10 @@
   <sheetData>
     <row r="1" spans="1:18" ht="29" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="125" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1" s="214" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C1" s="214" t="s">
         <v>1</v>
@@ -7741,18 +7618,18 @@
         <v>2</v>
       </c>
       <c r="G1" s="216" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H1" s="217" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I1" s="227"/>
       <c r="J1" s="129" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K1" s="123"/>
       <c r="L1" s="269" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M1" s="270"/>
       <c r="N1" s="270"/>
@@ -7763,7 +7640,7 @@
     </row>
     <row r="2" spans="1:18" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="57" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B2" s="97">
         <v>5000</v>
@@ -7789,7 +7666,7 @@
         <v>2000</v>
       </c>
       <c r="L2" s="242" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="M2" s="272">
         <f>O4-M4</f>
@@ -7803,7 +7680,7 @@
     </row>
     <row r="3" spans="1:18" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="66" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B3" s="76">
         <v>3000</v>
@@ -7829,22 +7706,22 @@
         <v>1200</v>
       </c>
       <c r="L3" s="274" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M3" s="275"/>
       <c r="N3" s="276" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="O3" s="277"/>
       <c r="P3" s="278" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Q3" s="279"/>
       <c r="R3" s="63"/>
     </row>
     <row r="4" spans="1:18" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="66" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B4" s="76">
         <v>2000</v>
@@ -7866,31 +7743,31 @@
         <v>1</v>
       </c>
       <c r="H4" s="245" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I4" s="230" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="J4" s="222">
         <f>B4*0.4</f>
         <v>800</v>
       </c>
       <c r="L4" s="207" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="M4" s="208">
         <f>SUM(M5:M27)</f>
         <v>27510</v>
       </c>
       <c r="N4" s="206" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="O4" s="205">
         <f>SUM(O5:O27)</f>
         <v>30000</v>
       </c>
       <c r="P4" s="204" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="Q4" s="203">
         <f>SUM(Q5:Q27)</f>
@@ -7900,7 +7777,7 @@
     </row>
     <row r="5" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="92" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B5" s="93">
         <v>2250</v>
@@ -7922,7 +7799,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="94" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I5" s="231">
         <f>SUM(C8:C12)</f>
@@ -7930,13 +7807,13 @@
       </c>
       <c r="J5" s="223"/>
       <c r="L5" s="180" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M5" s="191">
         <v>5000</v>
       </c>
       <c r="N5" s="194" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="O5" s="195">
         <v>30000</v>
@@ -7956,7 +7833,7 @@
       <c r="H6" s="60"/>
       <c r="J6" s="116"/>
       <c r="L6" s="181" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="M6" s="192">
         <v>3000</v>
@@ -7969,13 +7846,13 @@
     </row>
     <row r="7" spans="1:18" ht="29" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="125" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B7" s="214" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C7" s="215" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D7" s="215" t="s">
         <v>36</v>
@@ -7987,17 +7864,17 @@
         <v>2</v>
       </c>
       <c r="G7" s="216" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H7" s="217" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I7" s="123"/>
       <c r="J7" s="129" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L7" s="181" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M7" s="192">
         <v>2000</v>
@@ -8010,7 +7887,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A8" s="69" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B8" s="70">
         <v>2000</v>
@@ -8032,14 +7909,14 @@
       </c>
       <c r="H8" s="71"/>
       <c r="I8" s="228" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J8" s="225">
         <f>B8*0.4</f>
         <v>800</v>
       </c>
       <c r="L8" s="181" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M8" s="192">
         <v>2250</v>
@@ -8052,7 +7929,7 @@
     </row>
     <row r="9" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="66" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B9" s="76">
         <v>2000</v>
@@ -8082,7 +7959,7 @@
         <v>800</v>
       </c>
       <c r="L9" s="181" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="M9" s="192">
         <v>2000</v>
@@ -8095,7 +7972,7 @@
     </row>
     <row r="10" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="66" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B10" s="76">
         <v>3000</v>
@@ -8122,7 +7999,7 @@
         <v>1200</v>
       </c>
       <c r="L10" s="181" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M10" s="192">
         <v>2000</v>
@@ -8135,7 +8012,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A11" s="66" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B11" s="76">
         <v>3000</v>
@@ -8157,14 +8034,14 @@
       </c>
       <c r="H11" s="67"/>
       <c r="I11" s="228" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J11" s="222">
         <f>B11*0.4</f>
         <v>1200</v>
       </c>
       <c r="L11" s="181" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M11" s="192">
         <v>3000</v>
@@ -8177,7 +8054,7 @@
     </row>
     <row r="12" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="92" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B12" s="93">
         <v>3000</v>
@@ -8207,7 +8084,7 @@
         <v>1200</v>
       </c>
       <c r="L12" s="181" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M12" s="192">
         <v>3000</v>
@@ -8230,7 +8107,7 @@
       <c r="I13" s="60"/>
       <c r="J13" s="60"/>
       <c r="L13" s="181" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M13" s="192">
         <v>3000</v>
@@ -8243,13 +8120,13 @@
     </row>
     <row r="14" spans="1:18" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="219" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B14" s="216" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C14" s="220" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D14" s="248" t="s">
         <v>36</v>
@@ -8258,19 +8135,19 @@
         <v>3</v>
       </c>
       <c r="F14" s="216" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G14" s="221" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H14" s="233"/>
       <c r="I14" s="233"/>
       <c r="J14" s="183" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K14" s="233"/>
       <c r="L14" s="181" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M14" s="192">
         <v>400</v>
@@ -8283,14 +8160,14 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A15" s="57" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B15" s="97">
         <f>200*E15</f>
         <v>400</v>
       </c>
       <c r="C15" s="246" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D15" s="218">
         <f>0.5*E15</f>
@@ -8312,7 +8189,7 @@
         <v>160</v>
       </c>
       <c r="L15" s="181" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M15" s="192">
         <v>1260</v>
@@ -8325,14 +8202,14 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A16" s="66" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B16" s="76">
         <f>420*E16</f>
         <v>0</v>
       </c>
       <c r="C16" s="76" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D16" s="185">
         <f t="shared" ref="D16:D22" si="1">0.5*E16</f>
@@ -8354,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="181" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="M16" s="192">
         <v>500</v>
@@ -8367,14 +8244,14 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A17" s="66" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B17" s="76">
         <f>900*E17</f>
         <v>0</v>
       </c>
       <c r="C17" s="76" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D17" s="185">
         <f t="shared" si="1"/>
@@ -8396,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="181" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M17" s="192">
         <v>100</v>
@@ -8409,14 +8286,14 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A18" s="66" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B18" s="76">
         <f>E18*1300</f>
         <v>0</v>
       </c>
       <c r="C18" s="76" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D18" s="185">
         <f t="shared" si="1"/>
@@ -8447,14 +8324,14 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A19" s="66" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B19" s="76">
         <f>420*E19</f>
         <v>1260</v>
       </c>
       <c r="C19" s="76" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D19" s="185">
         <f t="shared" si="1"/>
@@ -8485,14 +8362,14 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A20" s="66" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B20" s="76">
         <f>900*E20</f>
         <v>0</v>
       </c>
       <c r="C20" s="76" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D20" s="185">
         <f t="shared" si="1"/>
@@ -8523,14 +8400,14 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A21" s="66" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B21" s="76">
         <f>1300*E21</f>
         <v>0</v>
       </c>
       <c r="C21" s="76" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D21" s="185">
         <f t="shared" si="1"/>
@@ -8561,14 +8438,14 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A22" s="66" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B22" s="76">
         <f>420*E22</f>
         <v>0</v>
       </c>
       <c r="C22" s="76" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D22" s="185">
         <f t="shared" si="1"/>
@@ -8941,13 +8818,13 @@
     </row>
     <row r="40" spans="1:18" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A40" s="234" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B40" s="210" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C40" s="210" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D40" s="235" t="s">
         <v>36</v>
@@ -8959,19 +8836,19 @@
         <v>2</v>
       </c>
       <c r="G40" s="236" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H40" s="60"/>
       <c r="I40" s="233"/>
       <c r="J40" s="241" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K40" s="233"/>
       <c r="R40" s="63"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A41" s="237" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B41" s="184"/>
       <c r="C41" s="184"/>
@@ -8993,7 +8870,7 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A42" s="66" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B42" s="76">
         <v>500</v>
@@ -9018,7 +8895,7 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A43" s="66" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B43" s="76"/>
       <c r="C43" s="76"/>
@@ -9041,7 +8918,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A44" s="66" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B44" s="76">
         <v>100</v>
@@ -9407,37 +9284,37 @@
   <sheetData>
     <row r="1" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="124" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="124" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C1" s="124" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1" s="124" t="s">
+        <v>297</v>
+      </c>
+      <c r="E1" s="124" t="s">
         <v>298</v>
       </c>
-      <c r="D1" s="124" t="s">
+      <c r="F1" s="124" t="s">
         <v>299</v>
       </c>
-      <c r="E1" s="124" t="s">
+      <c r="G1" s="124" t="s">
         <v>300</v>
       </c>
-      <c r="F1" s="124" t="s">
+      <c r="H1" s="124" t="s">
         <v>301</v>
       </c>
-      <c r="G1" s="124" t="s">
+      <c r="I1" s="124" t="s">
         <v>302</v>
       </c>
-      <c r="H1" s="124" t="s">
+      <c r="J1" s="124" t="s">
         <v>303</v>
       </c>
-      <c r="I1" s="124" t="s">
+      <c r="K1" s="124" t="s">
         <v>304</v>
-      </c>
-      <c r="J1" s="124" t="s">
-        <v>305</v>
-      </c>
-      <c r="K1" s="124" t="s">
-        <v>306</v>
       </c>
       <c r="L1" s="124" t="s">
         <v>3</v>
@@ -9445,7 +9322,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" s="56" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B2" s="56">
         <v>150</v>
@@ -9454,28 +9331,28 @@
         <v>8</v>
       </c>
       <c r="D2" s="56" t="s">
+        <v>306</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="F2" s="56" t="s">
         <v>308</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="G2" s="56" t="s">
         <v>309</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="H2" s="56" t="s">
         <v>310</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="I2" s="56" t="s">
+        <v>309</v>
+      </c>
+      <c r="J2" s="56" t="s">
         <v>311</v>
       </c>
-      <c r="H2" s="56" t="s">
-        <v>312</v>
-      </c>
-      <c r="I2" s="56" t="s">
-        <v>311</v>
-      </c>
-      <c r="J2" s="56" t="s">
-        <v>313</v>
-      </c>
       <c r="K2" s="56" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L2" s="56">
         <v>3</v>
@@ -9483,7 +9360,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" s="56" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B4" s="56">
         <v>250</v>
@@ -9492,28 +9369,28 @@
         <v>6</v>
       </c>
       <c r="D4" s="56" t="s">
+        <v>311</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="F4" s="56" t="s">
         <v>313</v>
       </c>
-      <c r="E4" s="56" t="s">
-        <v>309</v>
-      </c>
-      <c r="F4" s="56" t="s">
+      <c r="G4" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="J4" s="56" t="s">
         <v>315</v>
       </c>
-      <c r="G4" s="56" t="s">
-        <v>309</v>
-      </c>
-      <c r="H4" s="56" t="s">
-        <v>316</v>
-      </c>
-      <c r="I4" s="56" t="s">
-        <v>309</v>
-      </c>
-      <c r="J4" s="56" t="s">
-        <v>317</v>
-      </c>
       <c r="K4" s="56" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L4" s="56">
         <v>3</v>
@@ -9521,7 +9398,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5" s="56" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B5" s="56">
         <v>150</v>
@@ -9530,28 +9407,28 @@
         <v>8</v>
       </c>
       <c r="D5" s="56" t="s">
+        <v>317</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="F5" s="56" t="s">
         <v>319</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="G5" s="56" t="s">
         <v>320</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="H5" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="I5" s="56" t="s">
         <v>321</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="J5" s="56" t="s">
         <v>322</v>
       </c>
-      <c r="H5" s="56" t="s">
-        <v>316</v>
-      </c>
-      <c r="I5" s="56" t="s">
-        <v>323</v>
-      </c>
-      <c r="J5" s="56" t="s">
-        <v>324</v>
-      </c>
       <c r="K5" s="56" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L5" s="56">
         <v>2</v>
@@ -9559,7 +9436,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6" s="56" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B6" s="56">
         <v>300</v>
@@ -9568,28 +9445,28 @@
         <v>5</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G6" s="56" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H6" s="56" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J6" s="56" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K6" s="56" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L6" s="56">
         <v>2</v>
@@ -9597,7 +9474,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7" s="56" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B7" s="56">
         <v>350</v>
@@ -9606,22 +9483,22 @@
         <v>4</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F7" s="56" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G7" s="56" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H7" s="56" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I7" s="56" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L7" s="56">
         <v>2</v>
@@ -9629,7 +9506,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8" s="56" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B8" s="56">
         <v>300</v>
@@ -9638,28 +9515,28 @@
         <v>5</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E8" s="56" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F8" s="56" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G8" s="56" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H8" s="56" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I8" s="56" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J8" s="56" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K8" s="56" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L8" s="56">
         <v>2</v>
@@ -9667,7 +9544,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10" s="56" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B10" s="56">
         <v>300</v>
@@ -9676,28 +9553,28 @@
         <v>5</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E10" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="G10" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="H10" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="I10" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="J10" s="56" t="s">
+        <v>333</v>
+      </c>
+      <c r="K10" s="56" t="s">
         <v>309</v>
-      </c>
-      <c r="F10" s="56" t="s">
-        <v>316</v>
-      </c>
-      <c r="G10" s="56" t="s">
-        <v>309</v>
-      </c>
-      <c r="H10" s="56" t="s">
-        <v>324</v>
-      </c>
-      <c r="I10" s="56" t="s">
-        <v>320</v>
-      </c>
-      <c r="J10" s="56" t="s">
-        <v>335</v>
-      </c>
-      <c r="K10" s="56" t="s">
-        <v>311</v>
       </c>
       <c r="L10" s="56">
         <v>1</v>
@@ -9705,7 +9582,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" s="56" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B11" s="56">
         <v>350</v>
@@ -9714,22 +9591,22 @@
         <v>4</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G11" s="56" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H11" s="56" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I11" s="56" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L11" s="56">
         <v>1</v>
@@ -9737,7 +9614,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" s="56" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B12" s="56">
         <v>150</v>
@@ -9746,28 +9623,28 @@
         <v>8</v>
       </c>
       <c r="D12" s="56" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G12" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="H12" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="I12" s="56" t="s">
+        <v>339</v>
+      </c>
+      <c r="J12" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="K12" s="56" t="s">
         <v>309</v>
-      </c>
-      <c r="H12" s="56" t="s">
-        <v>340</v>
-      </c>
-      <c r="I12" s="56" t="s">
-        <v>341</v>
-      </c>
-      <c r="J12" s="56" t="s">
-        <v>312</v>
-      </c>
-      <c r="K12" s="56" t="s">
-        <v>311</v>
       </c>
       <c r="L12" s="56">
         <v>1</v>
@@ -9775,7 +9652,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" s="56" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B13" s="56">
         <v>400</v>
@@ -9784,28 +9661,28 @@
         <v>3</v>
       </c>
       <c r="D13" s="56" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F13" s="56" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G13" s="56" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H13" s="56" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I13" s="56" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J13" s="56" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K13" s="56" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L13" s="56">
         <v>1</v>
@@ -9813,7 +9690,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14" s="56" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B14" s="56">
         <v>500</v>
@@ -9822,22 +9699,22 @@
         <v>1</v>
       </c>
       <c r="D14" s="56" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E14" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>343</v>
+      </c>
+      <c r="G14" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="H14" s="56" t="s">
+        <v>327</v>
+      </c>
+      <c r="I14" s="56" t="s">
         <v>320</v>
-      </c>
-      <c r="F14" s="56" t="s">
-        <v>345</v>
-      </c>
-      <c r="G14" s="56" t="s">
-        <v>309</v>
-      </c>
-      <c r="H14" s="56" t="s">
-        <v>329</v>
-      </c>
-      <c r="I14" s="56" t="s">
-        <v>322</v>
       </c>
       <c r="L14" s="56">
         <v>1</v>
@@ -9845,7 +9722,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A15" s="56" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B15" s="56">
         <v>150</v>
@@ -9854,28 +9731,28 @@
         <v>8</v>
       </c>
       <c r="D15" s="56" t="s">
+        <v>345</v>
+      </c>
+      <c r="E15" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>346</v>
+      </c>
+      <c r="G15" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="H15" s="56" t="s">
         <v>347</v>
       </c>
-      <c r="E15" s="56" t="s">
-        <v>309</v>
-      </c>
-      <c r="F15" s="56" t="s">
-        <v>348</v>
-      </c>
-      <c r="G15" s="56" t="s">
-        <v>323</v>
-      </c>
-      <c r="H15" s="56" t="s">
-        <v>349</v>
-      </c>
       <c r="I15" s="56" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J15" s="56" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K15" s="56" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="L15" s="56">
         <v>1</v>
@@ -9883,7 +9760,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A16" s="56" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B16" s="56">
         <v>350</v>
@@ -9892,28 +9769,28 @@
         <v>4</v>
       </c>
       <c r="D16" s="56" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E16" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="F16" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="G16" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="H16" s="56" t="s">
         <v>322</v>
       </c>
-      <c r="F16" s="56" t="s">
+      <c r="I16" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="J16" s="56" t="s">
         <v>315</v>
       </c>
-      <c r="G16" s="56" t="s">
-        <v>323</v>
-      </c>
-      <c r="H16" s="56" t="s">
-        <v>324</v>
-      </c>
-      <c r="I16" s="56" t="s">
-        <v>323</v>
-      </c>
-      <c r="J16" s="56" t="s">
-        <v>317</v>
-      </c>
       <c r="K16" s="56" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L16" s="56">
         <v>1</v>
@@ -9921,7 +9798,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A17" s="56" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B17" s="56">
         <v>50</v>
@@ -9930,28 +9807,28 @@
         <v>10</v>
       </c>
       <c r="D17" s="56" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E17" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>350</v>
+      </c>
+      <c r="G17" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="H17" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="I17" s="56" t="s">
         <v>309</v>
       </c>
-      <c r="F17" s="56" t="s">
-        <v>352</v>
-      </c>
-      <c r="G17" s="56" t="s">
-        <v>322</v>
-      </c>
-      <c r="H17" s="56" t="s">
-        <v>310</v>
-      </c>
-      <c r="I17" s="56" t="s">
-        <v>311</v>
-      </c>
       <c r="J17" s="56" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K17" s="56" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L17" s="56">
         <v>1</v>
@@ -9959,7 +9836,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A18" s="56" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B18" s="56">
         <v>150</v>
@@ -9968,28 +9845,28 @@
         <v>8</v>
       </c>
       <c r="D18" s="56" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E18" s="56" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F18" s="56" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G18" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="H18" s="56" t="s">
+        <v>306</v>
+      </c>
+      <c r="I18" s="56" t="s">
         <v>309</v>
       </c>
-      <c r="H18" s="56" t="s">
-        <v>308</v>
-      </c>
-      <c r="I18" s="56" t="s">
-        <v>311</v>
-      </c>
       <c r="J18" s="56" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K18" s="56" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L18" s="56">
         <v>1</v>
@@ -9997,7 +9874,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A19" s="56" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B19" s="56">
         <v>500</v>
@@ -10006,28 +9883,28 @@
         <v>1</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G19" s="56" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H19" s="56" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I19" s="56" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J19" s="56" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K19" s="56" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L19" s="56">
         <v>1</v>
@@ -10054,31 +9931,31 @@
   <sheetData>
     <row r="1" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="125" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="126" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="127" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="126" t="s">
+      <c r="D1" s="128" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="127" t="s">
+      <c r="E1" s="122" t="s">
         <v>246</v>
       </c>
-      <c r="D1" s="128" t="s">
+      <c r="F1" s="122" t="s">
         <v>247</v>
-      </c>
-      <c r="E1" s="122" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1" s="122" t="s">
-        <v>249</v>
       </c>
       <c r="G1" s="122" t="s">
         <v>40</v>
       </c>
       <c r="I1" s="129" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J1" s="130" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K1" s="130" t="s">
         <v>1</v>
@@ -10090,16 +9967,16 @@
         <v>3</v>
       </c>
       <c r="N1" s="130" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A2" s="131" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" s="132"/>
       <c r="C2" s="133" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D2" s="132">
         <v>1</v>
@@ -10109,21 +9986,21 @@
     </row>
     <row r="3" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="135" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" s="136"/>
       <c r="C3" s="137" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D3" s="136">
         <v>0</v>
       </c>
       <c r="E3" s="281"/>
       <c r="I3" s="138" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J3" s="138" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K3" s="138" t="s">
         <v>1</v>
@@ -10135,25 +10012,25 @@
         <v>3</v>
       </c>
       <c r="N3" s="138" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="135" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B4" s="136"/>
       <c r="C4" s="137" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D4" s="136">
         <v>1</v>
       </c>
       <c r="E4" s="122" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I4" s="56" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J4" s="56">
         <v>22500</v>
@@ -10168,17 +10045,17 @@
         <v>1</v>
       </c>
       <c r="N4" s="139" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O4" s="139"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A5" s="135" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B5" s="136"/>
       <c r="C5" s="137" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D5" s="136">
         <v>0</v>
@@ -10187,17 +10064,17 @@
     </row>
     <row r="6" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="135" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B6" s="136"/>
       <c r="C6" s="137"/>
       <c r="D6" s="136"/>
       <c r="E6" s="281"/>
       <c r="I6" s="138" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J6" s="138" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K6" s="138" t="s">
         <v>33</v>
@@ -10209,23 +10086,23 @@
         <v>3</v>
       </c>
       <c r="N6" s="138" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="135" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B7" s="136"/>
       <c r="C7" s="137"/>
       <c r="D7" s="136"/>
       <c r="E7" s="122" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A8" s="135" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B8" s="136"/>
       <c r="C8" s="137"/>
@@ -10234,17 +10111,17 @@
     </row>
     <row r="9" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="135" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B9" s="136"/>
       <c r="C9" s="137"/>
       <c r="D9" s="136"/>
       <c r="E9" s="281"/>
       <c r="I9" s="138" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J9" s="138" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K9" s="138"/>
       <c r="L9" s="138" t="s">
@@ -10254,12 +10131,12 @@
         <v>3</v>
       </c>
       <c r="N9" s="138" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A10" s="135" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B10" s="136"/>
       <c r="C10" s="137"/>
@@ -10267,13 +10144,13 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A11" s="137" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B11" s="136"/>
       <c r="C11" s="137"/>
       <c r="D11" s="136"/>
       <c r="I11" s="56" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J11" s="56">
         <f>420*M11</f>
@@ -10287,18 +10164,18 @@
         <v>4</v>
       </c>
       <c r="N11" s="56" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A12" s="137" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B12" s="136"/>
       <c r="C12" s="137"/>
       <c r="D12" s="136"/>
       <c r="I12" s="56" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J12" s="56">
         <f>900*M12</f>
@@ -10312,18 +10189,18 @@
         <v>4</v>
       </c>
       <c r="N12" s="56" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A13" s="137" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B13" s="136"/>
       <c r="C13" s="137"/>
       <c r="D13" s="136"/>
       <c r="I13" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J13" s="56">
         <f>420*M13</f>
@@ -10337,18 +10214,18 @@
         <v>4</v>
       </c>
       <c r="N13" s="56" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A14" s="137" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B14" s="136"/>
       <c r="C14" s="137"/>
       <c r="D14" s="136"/>
       <c r="I14" s="56" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J14" s="56">
         <f>900*M14</f>
@@ -10362,18 +10239,18 @@
         <v>4</v>
       </c>
       <c r="N14" s="56" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A15" s="137" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B15" s="136"/>
       <c r="C15" s="137"/>
       <c r="D15" s="136"/>
       <c r="I15" s="56" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J15" s="56">
         <f>5000*M15</f>
@@ -10387,18 +10264,18 @@
         <v>2</v>
       </c>
       <c r="N15" s="56" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A16" s="137" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B16" s="136"/>
       <c r="C16" s="137"/>
       <c r="D16" s="136"/>
       <c r="I16" s="56" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J16" s="56">
         <f>5000*M16</f>
@@ -10412,18 +10289,18 @@
         <v>3</v>
       </c>
       <c r="N16" s="56" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A17" s="137" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B17" s="136"/>
       <c r="C17" s="137"/>
       <c r="D17" s="136"/>
       <c r="I17" s="56" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J17" s="56">
         <f>3000*M17</f>
@@ -10437,18 +10314,18 @@
         <v>1</v>
       </c>
       <c r="N17" s="56" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A18" s="137" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B18" s="136"/>
       <c r="C18" s="137"/>
       <c r="D18" s="136"/>
       <c r="I18" s="56" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J18" s="56">
         <f>2000*M18</f>
@@ -10462,18 +10339,18 @@
         <v>2</v>
       </c>
       <c r="N18" s="140" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A19" s="137" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B19" s="136"/>
       <c r="C19" s="137"/>
       <c r="D19" s="136"/>
       <c r="I19" s="56" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J19" s="56">
         <v>4200</v>
@@ -10482,7 +10359,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A20" s="137" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B20" s="136"/>
       <c r="C20" s="137"/>
@@ -10490,16 +10367,16 @@
     </row>
     <row r="21" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="137" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B21" s="136"/>
       <c r="C21" s="137"/>
       <c r="D21" s="136"/>
       <c r="I21" s="138" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J21" s="138" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K21" s="138" t="s">
         <v>1</v>
@@ -10511,12 +10388,12 @@
         <v>3</v>
       </c>
       <c r="N21" s="138" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A22" s="137" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B22" s="136"/>
       <c r="C22" s="137"/>
@@ -10524,13 +10401,13 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A23" s="137" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B23" s="136"/>
       <c r="C23" s="137"/>
       <c r="D23" s="136"/>
       <c r="I23" s="56" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J23" s="56">
         <v>50</v>
@@ -10544,13 +10421,13 @@
     </row>
     <row r="24" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="141" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B24" s="142"/>
       <c r="C24" s="141"/>
       <c r="D24" s="142"/>
       <c r="I24" s="56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J24" s="56">
         <v>100</v>
@@ -10564,7 +10441,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="I25" s="56" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J25" s="56">
         <v>400</v>
@@ -10578,7 +10455,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="I26" s="56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J26" s="56">
         <v>500</v>
@@ -10605,8 +10482,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -10633,14 +10510,14 @@
   <sheetData>
     <row r="1" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="122" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1" s="122"/>
       <c r="C1" s="122" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D1" s="122" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E1" s="122" t="s">
         <v>6</v>
@@ -10650,17 +10527,17 @@
       </c>
       <c r="G1" s="122"/>
       <c r="H1" s="122" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I1" s="122" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="123"/>
       <c r="K1" s="143" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L1" s="129" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P1" s="60"/>
     </row>
@@ -10694,19 +10571,19 @@
       </c>
       <c r="J2" s="55"/>
       <c r="K2" s="55" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L2" s="104" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M2" s="105" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="N2" s="105" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O2" s="105" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P2" s="101"/>
       <c r="Q2" s="55"/>
@@ -10749,10 +10626,10 @@
       </c>
       <c r="J3" s="55"/>
       <c r="K3" s="55" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L3" s="55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M3" s="55">
         <v>5</v>
@@ -10761,7 +10638,7 @@
         <v>5</v>
       </c>
       <c r="O3" s="55" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P3" s="54"/>
       <c r="Q3" s="55"/>
@@ -10800,10 +10677,10 @@
       </c>
       <c r="J4" s="55"/>
       <c r="K4" s="55" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L4" s="55" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M4" s="55">
         <v>4</v>
@@ -10812,7 +10689,7 @@
         <v>6</v>
       </c>
       <c r="O4" s="55" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P4" s="54"/>
       <c r="Q4" s="55"/>
@@ -10827,7 +10704,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A5" s="66" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B5" s="150">
         <v>13</v>
@@ -10853,10 +10730,10 @@
       </c>
       <c r="J5" s="55"/>
       <c r="K5" s="54" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L5" s="54" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M5" s="55"/>
       <c r="N5" s="55"/>
@@ -10884,13 +10761,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="66" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H6" s="54"/>
       <c r="I6" s="148">
@@ -10898,7 +10775,7 @@
       </c>
       <c r="J6" s="55"/>
       <c r="K6" s="55" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L6" s="55"/>
       <c r="M6" s="55"/>
@@ -10917,7 +10794,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A7" s="66" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B7" s="152">
         <v>12</v>
@@ -11002,7 +10879,7 @@
     </row>
     <row r="9" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="66" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B9" s="153">
         <v>5</v>
@@ -11101,7 +10978,7 @@
       <c r="M11" s="55"/>
       <c r="N11" s="55"/>
       <c r="O11" s="158" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="P11" s="55"/>
       <c r="Q11" s="55"/>
@@ -11114,18 +10991,20 @@
       <c r="X11" s="55"/>
       <c r="Y11" s="55"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="60"/>
       <c r="B12" s="54"/>
       <c r="C12" s="55"/>
       <c r="D12" s="55"/>
       <c r="E12" s="66" t="s">
-        <v>54</v>
+        <v>403</v>
       </c>
       <c r="F12" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="19"/>
+      <c r="G12" s="19" t="s">
+        <v>175</v>
+      </c>
       <c r="H12" s="54"/>
       <c r="I12" s="148">
         <v>20</v>
@@ -11135,7 +11014,7 @@
       <c r="M12" s="55"/>
       <c r="N12" s="55"/>
       <c r="O12" s="65" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="P12" s="65">
         <f>B4*4+B7</f>
@@ -11154,26 +11033,26 @@
       <c r="X12" s="55"/>
       <c r="Y12" s="55"/>
     </row>
-    <row r="13" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A13" s="123" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C13" s="55"/>
       <c r="D13" s="55"/>
-      <c r="E13" s="92" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>177</v>
+      <c r="E13" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="159" t="s">
+        <v>75</v>
       </c>
       <c r="H13" s="54"/>
-      <c r="I13" s="155">
+      <c r="I13" s="145">
         <v>20</v>
       </c>
       <c r="J13" s="55"/>
@@ -11181,7 +11060,7 @@
       <c r="M13" s="55"/>
       <c r="N13" s="55"/>
       <c r="O13" s="65" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="P13" s="65">
         <f>B6*4+B7</f>
@@ -11204,18 +11083,18 @@
       <c r="B14" s="55"/>
       <c r="C14" s="55"/>
       <c r="D14" s="55"/>
-      <c r="E14" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="159" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="54"/>
-      <c r="I14" s="145">
-        <v>20</v>
+      <c r="E14" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="162"/>
+      <c r="H14" s="54">
+        <v>-15</v>
+      </c>
+      <c r="I14" s="148">
+        <v>35</v>
       </c>
       <c r="J14" s="55"/>
       <c r="K14" s="55"/>
@@ -11236,7 +11115,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A15" s="160" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B15" s="161">
         <v>275</v>
@@ -11246,17 +11125,15 @@
       </c>
       <c r="D15" s="55"/>
       <c r="E15" s="66" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G15" s="162"/>
-      <c r="H15" s="54">
-        <v>-15</v>
-      </c>
+      <c r="H15" s="54"/>
       <c r="I15" s="148">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J15" s="55"/>
       <c r="K15" s="55"/>
@@ -11277,7 +11154,7 @@
     </row>
     <row r="16" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="163" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="164">
         <v>12</v>
@@ -11285,12 +11162,14 @@
       <c r="C16" s="55"/>
       <c r="D16" s="55"/>
       <c r="E16" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="162"/>
+        <v>67</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>114</v>
+      </c>
       <c r="H16" s="54"/>
       <c r="I16" s="148">
         <v>20</v>
@@ -11314,7 +11193,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A17" s="165" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B17" s="166">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
@@ -11323,17 +11202,19 @@
       <c r="C17" s="55"/>
       <c r="D17" s="55"/>
       <c r="E17" s="66" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="H17" s="54"/>
+        <v>175</v>
+      </c>
+      <c r="H17" s="54">
+        <v>-8</v>
+      </c>
       <c r="I17" s="148">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J17" s="55"/>
       <c r="K17" s="55"/>
@@ -11352,9 +11233,9 @@
       <c r="X17" s="55"/>
       <c r="Y17" s="55"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="165" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B18" s="167">
         <f>ROUNDUP(CharacterSheet!$B$15*0.7,0)</f>
@@ -11362,20 +11243,18 @@
       </c>
       <c r="C18" s="55"/>
       <c r="D18" s="55"/>
-      <c r="E18" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="H18" s="54">
-        <v>-8</v>
-      </c>
-      <c r="I18" s="148">
-        <v>28</v>
+      <c r="E18" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" s="168" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="54"/>
+      <c r="I18" s="155">
+        <v>20</v>
       </c>
       <c r="J18" s="55"/>
       <c r="K18" s="55"/>
@@ -11394,9 +11273,9 @@
       <c r="X18" s="55"/>
       <c r="Y18" s="55"/>
     </row>
-    <row r="19" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A19" s="165" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B19" s="167">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
@@ -11406,19 +11285,17 @@
         <v>25</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="E19" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="G19" s="168" t="s">
-        <v>116</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="169"/>
       <c r="H19" s="54"/>
-      <c r="I19" s="155">
+      <c r="I19" s="145">
         <v>20</v>
       </c>
       <c r="J19" s="55"/>
@@ -11438,9 +11315,9 @@
       <c r="X19" s="55"/>
       <c r="Y19" s="55"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="165" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B20" s="167">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
@@ -11451,18 +11328,20 @@
         <v>0</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="F20" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="169"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="145">
-        <v>20</v>
+      <c r="G20" s="168"/>
+      <c r="H20" s="79">
+        <v>-8</v>
+      </c>
+      <c r="I20" s="155">
+        <v>28</v>
       </c>
       <c r="J20" s="55"/>
       <c r="K20" s="55"/>
@@ -11481,9 +11360,9 @@
       <c r="X20" s="55"/>
       <c r="Y20" s="55"/>
     </row>
-    <row r="21" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A21" s="165" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B21" s="167">
         <f>ROUNDUP(CharacterSheet!$B$15*0.25,0)</f>
@@ -11491,18 +11370,16 @@
       </c>
       <c r="C21" s="55"/>
       <c r="D21" s="55"/>
-      <c r="E21" s="92" t="s">
+      <c r="E21" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="171"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="145">
         <v>20</v>
-      </c>
-      <c r="G21" s="168"/>
-      <c r="H21" s="79">
-        <v>-8</v>
-      </c>
-      <c r="I21" s="155">
-        <v>28</v>
       </c>
       <c r="J21" s="55"/>
       <c r="K21" s="55"/>
@@ -11523,25 +11400,25 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A22" s="165" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B22" s="167">
         <f>ROUNDUP(CharacterSheet!$B$15*0.25,0)</f>
         <v>69</v>
       </c>
       <c r="C22" s="170" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D22" s="55"/>
-      <c r="E22" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="171"/>
+      <c r="E22" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="22"/>
       <c r="H22" s="54"/>
-      <c r="I22" s="145">
+      <c r="I22" s="148">
         <v>20</v>
       </c>
       <c r="J22" s="55"/>
@@ -11561,19 +11438,21 @@
       <c r="X22" s="55"/>
       <c r="Y22" s="55"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="55"/>
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
-      <c r="E23" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" s="22"/>
+      <c r="E23" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>175</v>
+      </c>
       <c r="H23" s="54"/>
-      <c r="I23" s="148">
+      <c r="I23" s="155">
         <v>20</v>
       </c>
       <c r="J23" s="55"/>
@@ -11593,21 +11472,19 @@
       <c r="X23" s="55"/>
       <c r="Y23" s="55"/>
     </row>
-    <row r="24" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B24" s="55"/>
       <c r="C24" s="55"/>
       <c r="D24" s="55"/>
-      <c r="E24" s="92" t="s">
+      <c r="E24" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="F24" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>177</v>
-      </c>
+      <c r="F24" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" s="172"/>
       <c r="H24" s="54"/>
-      <c r="I24" s="155">
+      <c r="I24" s="145">
         <v>20</v>
       </c>
       <c r="J24" s="55"/>
@@ -11631,15 +11508,15 @@
       <c r="B25" s="55"/>
       <c r="C25" s="55"/>
       <c r="D25" s="55"/>
-      <c r="E25" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="G25" s="172"/>
+      <c r="E25" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25" s="173"/>
       <c r="H25" s="54"/>
-      <c r="I25" s="145">
+      <c r="I25" s="148">
         <v>20</v>
       </c>
       <c r="J25" s="55"/>
@@ -11659,20 +11536,22 @@
       <c r="X25" s="55"/>
       <c r="Y25" s="55"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
       <c r="D26" s="55"/>
-      <c r="E26" s="66" t="s">
-        <v>165</v>
-      </c>
-      <c r="F26" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="G26" s="173"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="148">
-        <v>20</v>
+      <c r="E26" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" s="174"/>
+      <c r="H26" s="81">
+        <v>-15</v>
+      </c>
+      <c r="I26" s="155">
+        <v>35</v>
       </c>
       <c r="J26" s="55"/>
       <c r="K26" s="55"/>
@@ -11691,23 +11570,12 @@
       <c r="X26" s="55"/>
       <c r="Y26" s="55"/>
     </row>
-    <row r="27" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B27" s="55"/>
       <c r="C27" s="55"/>
       <c r="D27" s="55"/>
-      <c r="E27" s="92" t="s">
-        <v>94</v>
-      </c>
-      <c r="F27" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="G27" s="174"/>
-      <c r="H27" s="81">
-        <v>-15</v>
-      </c>
-      <c r="I27" s="155">
-        <v>35</v>
-      </c>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
       <c r="J27" s="55"/>
       <c r="K27" s="55"/>
       <c r="L27" s="55"/>
@@ -11752,7 +11620,10 @@
       <c r="B29" s="55"/>
       <c r="C29" s="55"/>
       <c r="D29" s="55"/>
-      <c r="H29" s="55"/>
+      <c r="H29" s="55">
+        <f>SUM(H2:H27)</f>
+        <v>-75</v>
+      </c>
       <c r="I29" s="55"/>
       <c r="J29" s="55"/>
       <c r="K29" s="55"/>
@@ -11775,10 +11646,7 @@
       <c r="B30" s="55"/>
       <c r="C30" s="55"/>
       <c r="D30" s="55"/>
-      <c r="H30" s="55">
-        <f>SUM(H2:H28)</f>
-        <v>-75</v>
-      </c>
+      <c r="H30" s="55"/>
       <c r="I30" s="55"/>
       <c r="J30" s="55"/>
       <c r="K30" s="55"/>
@@ -11913,8 +11781,6 @@
       <c r="Y35" s="55"/>
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.5">
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
       <c r="J36" s="55"/>
       <c r="K36" s="55"/>
       <c r="L36" s="55"/>
@@ -11933,383 +11799,363 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="F3:G4 F6:G6">
-    <cfRule type="containsText" dxfId="120" priority="116" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="114" priority="116" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="117" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="113" priority="117" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="118" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="112" priority="118" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="119" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="111" priority="119" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="120" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="110" priority="120" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="121" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="109" priority="121" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:G5">
-    <cfRule type="containsText" dxfId="114" priority="110" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="108" priority="110" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="111" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="107" priority="111" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="112" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="106" priority="112" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="113" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="105" priority="113" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="114" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="104" priority="114" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="115" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="103" priority="115" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:G7">
-    <cfRule type="containsText" dxfId="108" priority="104" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="102" priority="104" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="105" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="101" priority="105" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="106" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="100" priority="106" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="107" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="99" priority="107" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="108" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="98" priority="108" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="109" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="97" priority="109" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:G8">
-    <cfRule type="containsText" dxfId="102" priority="98" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="96" priority="98" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="99" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="95" priority="99" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="100" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="94" priority="100" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="101" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="93" priority="101" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="102" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="92" priority="102" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="103" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="91" priority="103" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9">
-    <cfRule type="containsText" dxfId="96" priority="92" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="90" priority="92" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="93" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="89" priority="93" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="94" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="88" priority="94" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="95" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="87" priority="95" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="96" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="86" priority="96" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="97" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="85" priority="97" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G2">
-    <cfRule type="containsText" dxfId="90" priority="86" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="84" priority="86" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="87" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="83" priority="87" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="88" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="82" priority="88" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="89" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="81" priority="89" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="90" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="80" priority="90" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="91" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="79" priority="91" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:G10">
-    <cfRule type="containsText" dxfId="84" priority="80" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="78" priority="80" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="81" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="77" priority="81" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="82" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="76" priority="82" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="83" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="75" priority="83" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="84" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="74" priority="84" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="85" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="73" priority="85" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:G11">
-    <cfRule type="containsText" dxfId="78" priority="74" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="72" priority="74" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="75" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="71" priority="75" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="76" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="70" priority="76" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="77" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="69" priority="77" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="78" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="68" priority="78" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="79" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="67" priority="79" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:G12">
-    <cfRule type="containsText" dxfId="72" priority="68" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="66" priority="68" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="69" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="65" priority="69" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="70" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="64" priority="70" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="71" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="63" priority="71" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="72" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="62" priority="72" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="73" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="61" priority="73" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:G13">
-    <cfRule type="containsText" dxfId="66" priority="62" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="60" priority="56" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="63" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="59" priority="57" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="64" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="58" priority="58" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="65" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="57" priority="59" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="66" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="56" priority="60" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="67" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="55" priority="61" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:G14">
-    <cfRule type="containsText" dxfId="60" priority="56" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="54" priority="50" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="57" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="53" priority="51" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="58" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="52" priority="52" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="59" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="51" priority="53" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="60" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="50" priority="54" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="61" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="49" priority="55" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:G15">
-    <cfRule type="containsText" dxfId="54" priority="50" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="48" priority="44" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="51" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="52" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="53" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="54" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="44" priority="48" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="55" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="43" priority="49" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:G16">
-    <cfRule type="containsText" dxfId="48" priority="44" operator="containsText" text="Phy">
+  <conditionalFormatting sqref="F16:G17">
+    <cfRule type="containsText" dxfId="42" priority="38" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="41" priority="39" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="40" priority="40" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="39" priority="41" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="48" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="38" priority="42" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="49" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="37" priority="43" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:G18">
-    <cfRule type="containsText" dxfId="42" priority="38" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",F17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="39" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",F17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="40" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",F17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="41" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",F17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="42" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",F17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="43" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",F17)))</formula>
+  <conditionalFormatting sqref="F18:G18">
+    <cfRule type="containsText" dxfId="36" priority="32" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",F18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",F18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",F18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",F18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",F18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="37" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",F18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19:G19">
-    <cfRule type="containsText" dxfId="36" priority="32" operator="containsText" text="Phy">
+  <conditionalFormatting sqref="F19:G20">
+    <cfRule type="containsText" dxfId="30" priority="26" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="28" priority="28" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="26" priority="30" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="37" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="25" priority="31" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:G21">
-    <cfRule type="containsText" dxfId="30" priority="26" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",F20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",F20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="28" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",F20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",F20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="30" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",F20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="31" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",F20)))</formula>
+  <conditionalFormatting sqref="F21:G22">
+    <cfRule type="containsText" dxfId="24" priority="20" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",F21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",F21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",F21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",F21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",F21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="25" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:G23">
-    <cfRule type="containsText" dxfId="24" priority="20" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",F22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",F22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",F22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",F22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",F22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="25" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",F22)))</formula>
+  <conditionalFormatting sqref="F23:G23">
+    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",F23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",F23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",F23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",F23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",F23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="19" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",F23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24:G24">
-    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="Phy">
+  <conditionalFormatting sqref="F24:G26">
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="19" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25:G27">
-    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",F25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",F25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",F25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",F25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",F25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",F25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:G1048576">
@@ -12347,7 +12193,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -12369,66 +12215,66 @@
   <sheetData>
     <row r="1" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="56" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B2" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="175" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="I2" s="176" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="H2" s="175" t="s">
+      <c r="J2" s="176" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="176" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2" s="176" t="s">
         <v>122</v>
       </c>
-      <c r="I2" s="176" t="s">
+      <c r="M2" s="176" t="s">
         <v>123</v>
       </c>
-      <c r="J2" s="176" t="s">
-        <v>113</v>
-      </c>
-      <c r="K2" s="176" t="s">
-        <v>119</v>
-      </c>
-      <c r="L2" s="176" t="s">
+      <c r="N2" s="177" t="s">
         <v>124</v>
-      </c>
-      <c r="M2" s="176" t="s">
-        <v>125</v>
-      </c>
-      <c r="N2" s="177" t="s">
-        <v>126</v>
       </c>
       <c r="O2" s="178"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A4" s="179" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B4" s="56">
         <v>1</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E4" s="56">
         <v>1</v>
       </c>
       <c r="H4" s="56" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I4" s="56" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J4" s="56">
         <v>10</v>
@@ -12443,27 +12289,27 @@
         <v>0</v>
       </c>
       <c r="N4" s="56" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A5" s="179" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B5" s="56">
         <v>2</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E5" s="56">
         <v>2</v>
       </c>
       <c r="H5" s="56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I5" s="56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J5" s="56">
         <v>10</v>
@@ -12478,18 +12324,18 @@
         <v>2</v>
       </c>
       <c r="N5" s="56" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A6" s="179" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B6" s="56">
         <v>4</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E6" s="56">
         <v>4</v>
@@ -12497,13 +12343,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A7" s="179" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B7" s="56">
         <v>6</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E7" s="56">
         <v>6</v>
@@ -12511,13 +12357,13 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A8" s="179" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B8" s="56">
         <v>8</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E8" s="56">
         <v>8</v>
@@ -12525,7 +12371,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A9" s="179" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B9" s="56">
         <v>10</v>
@@ -12533,10 +12379,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A11" s="179" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -12544,25 +12390,25 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A13" s="179" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B13" s="56">
         <v>0.5</v>
       </c>
       <c r="E13" s="133" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F13" s="132"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A14" s="56" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B14" s="56">
         <v>1</v>
       </c>
       <c r="E14" s="137" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F14" s="136">
         <v>3</v>
@@ -12570,7 +12416,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A15" s="179" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B15" s="56">
         <v>2</v>
@@ -12580,21 +12426,21 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A16" s="56" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B16" s="56">
         <v>4</v>
       </c>
       <c r="E16" s="137" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F16" s="136" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A17" s="179" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B17" s="56">
         <v>6</v>
@@ -12609,7 +12455,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A18" s="56" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B18" s="56">
         <v>8</v>
@@ -12633,10 +12479,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A20" s="56" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E20" s="137">
         <v>9</v>
@@ -12768,7 +12614,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
@@ -12795,10 +12641,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4CBAC1-0082-4C21-987A-8C7484178B5D}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="C13" sqref="C13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -12814,31 +12660,31 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.5">
@@ -12858,14 +12704,14 @@
         <v>29</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F2" s="3">
         <f>CharacterSheet!B15</f>
         <v>275</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H2">
         <f>Status!C26</f>
@@ -12893,14 +12739,14 @@
         <v>30</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F3" s="3">
         <f>CharacterSheet!B16</f>
         <v>12</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H3" s="3">
         <f>Status!C27</f>
@@ -12913,7 +12759,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" s="3">
         <f>CharacterSheet!B4</f>
@@ -12928,14 +12774,14 @@
         <v>20</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F4" s="3">
         <f>CharacterSheet!B17</f>
         <v>55</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H4" s="3">
         <f>Status!C28</f>
@@ -12963,14 +12809,14 @@
         <v>30</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F5" s="3">
         <f>CharacterSheet!B18</f>
         <v>193</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H5">
         <f>Status!C30</f>
@@ -12983,7 +12829,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B6" s="3">
         <f>CharacterSheet!B6</f>
@@ -12998,14 +12844,14 @@
         <v>20</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F6" s="3">
         <f>CharacterSheet!B19</f>
         <v>55</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H6">
         <f>Status!D2</f>
@@ -13018,7 +12864,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B7" s="3">
         <f>CharacterSheet!B7</f>
@@ -13033,14 +12879,14 @@
         <v>20</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F7" s="3">
         <f>CharacterSheet!B20</f>
         <v>55</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H7" s="3">
         <f>Status!D3</f>
@@ -13069,14 +12915,14 @@
         <v>20</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F8" s="3">
         <f>CharacterSheet!B21</f>
         <v>69</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H8" s="3">
         <f>Status!D4</f>
@@ -13102,14 +12948,14 @@
         <v>20</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F9" s="3">
         <f>CharacterSheet!B22</f>
         <v>69</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H9" s="3">
         <f>Status!D5</f>
@@ -13119,7 +12965,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B10" s="3">
         <f>CharacterSheet!B10</f>
@@ -13134,14 +12980,14 @@
         <v>20</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F10" s="3">
         <f>CharacterSheet!B1</f>
         <v>0</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H10">
         <f>Status!D8</f>
@@ -13153,7 +12999,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A11" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B11" s="3">
         <f>CharacterSheet!B11</f>
@@ -13168,13 +13014,13 @@
         <v>24</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H11" s="3">
         <f>Status!D9</f>
@@ -13186,7 +13032,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B12">
         <f>Inventar!G22</f>
@@ -13194,20 +13040,20 @@
       </c>
       <c r="C12" s="3" t="str">
         <f>CharacterSheet!E12</f>
-        <v>Taschendiebstahl</v>
+        <v>Fingerfertigkeit</v>
       </c>
       <c r="D12" s="3">
         <f>CharacterSheet!I12</f>
         <v>20</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H12" s="3">
         <f>Status!D10</f>
@@ -13216,7 +13062,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B13">
         <f>Inventar!G19</f>
@@ -13224,21 +13070,21 @@
       </c>
       <c r="C13" s="3" t="str">
         <f>CharacterSheet!E13</f>
-        <v>Schlossknacken</v>
+        <v>Lying</v>
       </c>
       <c r="D13" s="3">
         <f>CharacterSheet!I13</f>
         <v>20</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F13" t="str">
         <f>Status!B2</f>
         <v>Schwert</v>
       </c>
       <c r="G13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H13" s="3">
         <f>Status!D11</f>
@@ -13247,7 +13093,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A14" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B14" s="3">
         <f>Status!AA11</f>
@@ -13255,21 +13101,21 @@
       </c>
       <c r="C14" s="3" t="str">
         <f>CharacterSheet!E14</f>
-        <v>Lying</v>
+        <v>Persuation</v>
       </c>
       <c r="D14" s="3">
         <f>CharacterSheet!I14</f>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F14" s="3" t="str">
         <f>Status!B3</f>
         <v>Dolch</v>
       </c>
       <c r="G14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H14" s="3">
         <f>Status!D12</f>
@@ -13278,7 +13124,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B15" t="str">
         <f>Status!AA13</f>
@@ -13286,21 +13132,21 @@
       </c>
       <c r="C15" s="3" t="str">
         <f>CharacterSheet!E15</f>
-        <v>Persuation</v>
+        <v>Performance</v>
       </c>
       <c r="D15" s="3">
         <f>CharacterSheet!I15</f>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F15" s="3">
         <f>Status!B4</f>
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H15">
         <f>Status!E8</f>
@@ -13309,7 +13155,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B16">
         <f>Status!R12</f>
@@ -13317,7 +13163,7 @@
       </c>
       <c r="C16" s="3" t="str">
         <f>CharacterSheet!E16</f>
-        <v>Performance</v>
+        <v>Feilschen</v>
       </c>
       <c r="D16" s="3">
         <f>CharacterSheet!I16</f>
@@ -13331,7 +13177,7 @@
         <v>Leichter Schild</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H16" s="3">
         <f>Status!E9</f>
@@ -13340,7 +13186,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B17">
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
@@ -13348,21 +13194,21 @@
       </c>
       <c r="C17" s="3" t="str">
         <f>CharacterSheet!E17</f>
-        <v>Feilschen</v>
+        <v>Insight</v>
       </c>
       <c r="D17" s="3">
         <f>CharacterSheet!I17</f>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F17" s="3">
         <f>Status!C2</f>
         <v>42</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H17" s="3">
         <f>Status!E10</f>
@@ -13371,7 +13217,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B18" s="3">
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
@@ -13379,21 +13225,21 @@
       </c>
       <c r="C18" s="3" t="str">
         <f>CharacterSheet!E18</f>
-        <v>Insight</v>
+        <v>Intimidation</v>
       </c>
       <c r="D18" s="3">
         <f>CharacterSheet!I18</f>
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F18" s="3">
         <f>Status!C3</f>
         <v>12</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H18" s="3">
         <f>Status!E11</f>
@@ -13402,7 +13248,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B19">
         <f>CharacterSheet!B8+CharacterSheet!B9</f>
@@ -13410,21 +13256,21 @@
       </c>
       <c r="C19" s="3" t="str">
         <f>CharacterSheet!E19</f>
-        <v>Intimidation</v>
+        <v xml:space="preserve">Swimming </v>
       </c>
       <c r="D19" s="3">
         <f>CharacterSheet!I19</f>
         <v>20</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F19" s="3">
         <f>Status!C4</f>
         <v>0</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H19" s="3">
         <f>Status!E12</f>
@@ -13433,7 +13279,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A20" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B20" t="str">
         <f>CharacterSheet!B13</f>
@@ -13441,21 +13287,21 @@
       </c>
       <c r="C20" s="3" t="str">
         <f>CharacterSheet!E20</f>
-        <v xml:space="preserve">Swimming </v>
+        <v>Running</v>
       </c>
       <c r="D20" s="3">
         <f>CharacterSheet!I20</f>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F20" s="3">
         <f>Status!C5</f>
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H20" t="str">
         <f>Status!B8</f>
@@ -13464,7 +13310,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A21" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B21">
         <f>Status!D16</f>
@@ -13472,21 +13318,21 @@
       </c>
       <c r="C21" s="3" t="str">
         <f>CharacterSheet!E21</f>
-        <v>Running</v>
+        <v>Handwerk</v>
       </c>
       <c r="D21" s="3">
         <f>CharacterSheet!I21</f>
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F21" s="1">
         <f>Status!C13</f>
         <v>43.5</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H21" s="3" t="str">
         <f>Status!B9</f>
@@ -13495,7 +13341,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A22" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B22" s="3">
         <f>Status!D17</f>
@@ -13503,7 +13349,7 @@
       </c>
       <c r="C22" s="3" t="str">
         <f>CharacterSheet!E22</f>
-        <v>Handwerk</v>
+        <v>Alchemie</v>
       </c>
       <c r="D22" s="3">
         <f>CharacterSheet!I22</f>
@@ -13518,7 +13364,7 @@
         <v>10.5</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H22" s="3" t="str">
         <f>Status!B10</f>
@@ -13527,7 +13373,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A23" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B23" s="3">
         <f>Status!D18</f>
@@ -13535,7 +13381,7 @@
       </c>
       <c r="C23" s="3" t="str">
         <f>CharacterSheet!E23</f>
-        <v>Alchemie</v>
+        <v>Vehicles</v>
       </c>
       <c r="D23" s="3">
         <f>CharacterSheet!I23</f>
@@ -13550,7 +13396,7 @@
         <v>6</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H23" s="3" t="str">
         <f>Status!B11</f>
@@ -13559,7 +13405,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A24" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B24" s="3">
         <f>Status!D19</f>
@@ -13567,7 +13413,7 @@
       </c>
       <c r="C24" s="3" t="str">
         <f>CharacterSheet!E24</f>
-        <v>Vehicles</v>
+        <v>Animal Handling</v>
       </c>
       <c r="D24" s="3">
         <f>CharacterSheet!I24</f>
@@ -13582,7 +13428,7 @@
         <v>6</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H24" s="3" t="str">
         <f>Status!B12</f>
@@ -13591,15 +13437,14 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A25" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B25" s="3">
         <f>Status!D20</f>
         <v>55</v>
       </c>
-      <c r="C25" s="3" t="str">
-        <f>CharacterSheet!E25</f>
-        <v>Animal Handling</v>
+      <c r="C25" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="D25" s="3">
         <f>CharacterSheet!I25</f>
@@ -13616,18 +13461,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A26" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B26" s="3">
         <f>Status!D21</f>
         <v>55</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>164</v>
+      <c r="C26" s="3" t="str">
+        <f>CharacterSheet!E26</f>
+        <v>Perception</v>
       </c>
       <c r="D26" s="3">
         <f>CharacterSheet!I26</f>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E26" s="3" t="str">
         <f>Status!A12</f>
@@ -13640,22 +13486,15 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A27" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B27" s="3">
         <f>Status!D22</f>
         <v>69</v>
       </c>
-      <c r="C27" s="3" t="str">
-        <f>CharacterSheet!E27</f>
-        <v>Perception</v>
-      </c>
-      <c r="D27" s="3">
-        <f>CharacterSheet!I27</f>
-        <v>35</v>
-      </c>
+      <c r="C27" s="3"/>
       <c r="E27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F27" t="str">
         <f>Status!I29</f>
@@ -13664,7 +13503,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A28" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B28" s="3">
         <f>Status!D23</f>
@@ -13674,7 +13513,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A29" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B29">
         <f>Status!Q17</f>
@@ -13684,9 +13523,6 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.5">
       <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="C31" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/DownloadContainer/CCrand.xlsx
+++ b/DownloadContainer/CCrand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B550483-2F85-4E8C-A700-F6B03AF5C830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC8412C-2CA2-48E3-8DE7-55EEA2AA77AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
@@ -4964,36 +4964,36 @@
       <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.3515625" style="63" customWidth="1"/>
-    <col min="2" max="2" width="9.64453125" style="63" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="63" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="63" customWidth="1"/>
     <col min="3" max="3" width="9" style="63" customWidth="1"/>
-    <col min="4" max="4" width="7.87890625" style="63" customWidth="1"/>
-    <col min="5" max="5" width="4.1171875" style="63" customWidth="1"/>
-    <col min="6" max="7" width="3.87890625" style="63" customWidth="1"/>
-    <col min="8" max="8" width="1.3515625" style="63" customWidth="1"/>
-    <col min="9" max="9" width="4.3515625" style="63" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" style="63" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" style="63" customWidth="1"/>
+    <col min="6" max="7" width="3.88671875" style="63" customWidth="1"/>
+    <col min="8" max="8" width="1.33203125" style="63" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" style="63" customWidth="1"/>
     <col min="10" max="10" width="3" style="63" customWidth="1"/>
-    <col min="11" max="11" width="2.3515625" style="63" customWidth="1"/>
-    <col min="12" max="12" width="2.87890625" style="63" customWidth="1"/>
-    <col min="13" max="13" width="4.3515625" style="63" customWidth="1"/>
-    <col min="14" max="14" width="1.3515625" style="63" customWidth="1"/>
-    <col min="15" max="15" width="3.3515625" style="63" customWidth="1"/>
-    <col min="16" max="16" width="3.87890625" style="63" customWidth="1"/>
-    <col min="17" max="17" width="18.1171875" style="63" customWidth="1"/>
-    <col min="18" max="18" width="5.1171875" style="115" customWidth="1"/>
-    <col min="19" max="19" width="5.1171875" style="63" customWidth="1"/>
-    <col min="20" max="20" width="15.3515625" style="63" customWidth="1"/>
-    <col min="21" max="22" width="6.3515625" style="63" customWidth="1"/>
-    <col min="23" max="23" width="3.87890625" style="63" customWidth="1"/>
-    <col min="24" max="24" width="3.3515625" style="116" customWidth="1"/>
-    <col min="25" max="25" width="3.52734375" style="63" customWidth="1"/>
-    <col min="26" max="27" width="11.52734375" style="63" customWidth="1"/>
-    <col min="28" max="16384" width="11.3515625" style="63"/>
+    <col min="11" max="11" width="2.33203125" style="63" customWidth="1"/>
+    <col min="12" max="12" width="2.88671875" style="63" customWidth="1"/>
+    <col min="13" max="13" width="4.33203125" style="63" customWidth="1"/>
+    <col min="14" max="14" width="1.33203125" style="63" customWidth="1"/>
+    <col min="15" max="15" width="3.33203125" style="63" customWidth="1"/>
+    <col min="16" max="16" width="3.88671875" style="63" customWidth="1"/>
+    <col min="17" max="17" width="18.109375" style="63" customWidth="1"/>
+    <col min="18" max="18" width="5.109375" style="115" customWidth="1"/>
+    <col min="19" max="19" width="5.109375" style="63" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" style="63" customWidth="1"/>
+    <col min="21" max="22" width="6.33203125" style="63" customWidth="1"/>
+    <col min="23" max="23" width="3.88671875" style="63" customWidth="1"/>
+    <col min="24" max="24" width="3.33203125" style="116" customWidth="1"/>
+    <col min="25" max="25" width="3.5546875" style="63" customWidth="1"/>
+    <col min="26" max="27" width="11.5546875" style="63" customWidth="1"/>
+    <col min="28" max="16384" width="11.33203125" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="51" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:31" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -5051,7 +5051,7 @@
       <c r="AC1" s="48"/>
       <c r="AD1" s="48"/>
     </row>
-    <row r="2" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="52" t="s">
         <v>240</v>
       </c>
@@ -5105,7 +5105,7 @@
       <c r="AD2" s="55"/>
       <c r="AE2" s="62"/>
     </row>
-    <row r="3" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="64" t="s">
         <v>15</v>
       </c>
@@ -5164,7 +5164,7 @@
       <c r="AD3" s="55"/>
       <c r="AE3" s="62"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="64" t="s">
         <v>193</v>
       </c>
@@ -5215,7 +5215,7 @@
       <c r="AD4" s="55"/>
       <c r="AE4" s="62"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="64" t="s">
         <v>22</v>
       </c>
@@ -5268,7 +5268,7 @@
       <c r="AD5" s="55"/>
       <c r="AE5" s="62"/>
     </row>
-    <row r="6" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="47"/>
       <c r="B6" s="79"/>
       <c r="C6" s="54"/>
@@ -5315,7 +5315,7 @@
       <c r="AD6" s="55"/>
       <c r="AE6" s="62"/>
     </row>
-    <row r="7" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="50" t="s">
         <v>31</v>
       </c>
@@ -5372,7 +5372,7 @@
       <c r="AD7" s="55"/>
       <c r="AE7" s="62"/>
     </row>
-    <row r="8" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="48" t="s">
         <v>37</v>
       </c>
@@ -5431,7 +5431,7 @@
       <c r="AD8" s="55"/>
       <c r="AE8" s="62"/>
     </row>
-    <row r="9" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="48" t="s">
         <v>41</v>
       </c>
@@ -5493,7 +5493,7 @@
       <c r="AD9" s="55"/>
       <c r="AE9" s="62"/>
     </row>
-    <row r="10" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="48" t="s">
         <v>46</v>
       </c>
@@ -5558,7 +5558,7 @@
       <c r="AD10" s="55"/>
       <c r="AE10" s="62"/>
     </row>
-    <row r="11" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="48" t="s">
         <v>49</v>
       </c>
@@ -5613,7 +5613,7 @@
       <c r="AD11" s="55"/>
       <c r="AE11" s="62"/>
     </row>
-    <row r="12" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="95" t="s">
         <v>52</v>
       </c>
@@ -5675,7 +5675,7 @@
       <c r="AD12" s="55"/>
       <c r="AE12" s="62"/>
     </row>
-    <row r="13" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="43" t="s">
         <v>45</v>
       </c>
@@ -5727,7 +5727,7 @@
       <c r="AD13" s="55"/>
       <c r="AE13" s="62"/>
     </row>
-    <row r="14" spans="1:31" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:31" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="100"/>
       <c r="B14" s="79"/>
       <c r="C14" s="55"/>
@@ -5771,7 +5771,7 @@
       <c r="AD14" s="55"/>
       <c r="AE14" s="62"/>
     </row>
-    <row r="15" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="55"/>
       <c r="B15" s="55"/>
       <c r="C15" s="98" t="s">
@@ -5810,7 +5810,7 @@
       <c r="AD15" s="55"/>
       <c r="AE15" s="62"/>
     </row>
-    <row r="16" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="250" t="s">
         <v>77</v>
       </c>
@@ -5865,7 +5865,7 @@
       <c r="AD16" s="55"/>
       <c r="AE16" s="62"/>
     </row>
-    <row r="17" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="251" t="s">
         <v>79</v>
       </c>
@@ -5926,7 +5926,7 @@
       <c r="AD17" s="55"/>
       <c r="AE17" s="62"/>
     </row>
-    <row r="18" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="119" t="s">
         <v>82</v>
       </c>
@@ -5992,7 +5992,7 @@
       <c r="AD18" s="55"/>
       <c r="AE18" s="62"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>84</v>
       </c>
@@ -6056,7 +6056,7 @@
       <c r="AD19" s="55"/>
       <c r="AE19" s="62"/>
     </row>
-    <row r="20" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>185</v>
       </c>
@@ -6114,7 +6114,7 @@
       <c r="AD20" s="55"/>
       <c r="AE20" s="62"/>
     </row>
-    <row r="21" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>186</v>
       </c>
@@ -6172,7 +6172,7 @@
       <c r="AD21" s="55"/>
       <c r="AE21" s="62"/>
     </row>
-    <row r="22" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>187</v>
       </c>
@@ -6225,7 +6225,7 @@
       <c r="AD22" s="55"/>
       <c r="AE22" s="62"/>
     </row>
-    <row r="23" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>188</v>
       </c>
@@ -6281,7 +6281,7 @@
       <c r="AD23" s="55"/>
       <c r="AE23" s="62"/>
     </row>
-    <row r="24" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="54"/>
       <c r="B24" s="54"/>
       <c r="C24" s="54"/>
@@ -6324,7 +6324,7 @@
       <c r="AD24" s="55"/>
       <c r="AE24" s="62"/>
     </row>
-    <row r="25" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="108" t="s">
         <v>190</v>
       </c>
@@ -6370,7 +6370,7 @@
       <c r="AD25" s="55"/>
       <c r="AE25" s="62"/>
     </row>
-    <row r="26" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="111" t="s">
         <v>11</v>
       </c>
@@ -6418,7 +6418,7 @@
       <c r="AD26" s="55"/>
       <c r="AE26" s="62"/>
     </row>
-    <row r="27" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="112" t="s">
         <v>15</v>
       </c>
@@ -6466,7 +6466,7 @@
       <c r="AD27" s="55"/>
       <c r="AE27" s="62"/>
     </row>
-    <row r="28" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="112" t="s">
         <v>21</v>
       </c>
@@ -6518,7 +6518,7 @@
       <c r="AD28" s="55"/>
       <c r="AE28" s="62"/>
     </row>
-    <row r="29" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="112" t="s">
         <v>25</v>
       </c>
@@ -6557,7 +6557,7 @@
       <c r="AD29" s="55"/>
       <c r="AE29" s="62"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="112" t="s">
         <v>22</v>
       </c>
@@ -6605,7 +6605,7 @@
       <c r="AD30" s="55"/>
       <c r="AE30" s="62"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="105" t="s">
         <v>401</v>
       </c>
@@ -6647,7 +6647,7 @@
       <c r="AD31" s="55"/>
       <c r="AE31" s="62"/>
     </row>
-    <row r="32" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="105" t="s">
         <v>402</v>
       </c>
@@ -6689,7 +6689,7 @@
       <c r="AD32" s="55"/>
       <c r="AE32" s="62"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="99"/>
       <c r="B33" s="99"/>
       <c r="C33" s="99"/>
@@ -6722,7 +6722,7 @@
       <c r="AD33" s="55"/>
       <c r="AE33" s="62"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="114"/>
       <c r="B34" s="114"/>
       <c r="C34" s="114"/>
@@ -6755,7 +6755,7 @@
       <c r="AD34" s="55"/>
       <c r="AE34" s="62"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="56"/>
       <c r="B35" s="56"/>
       <c r="C35" s="56"/>
@@ -6788,7 +6788,7 @@
       <c r="AD35" s="55"/>
       <c r="AE35" s="62"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" s="56"/>
       <c r="B36" s="56"/>
       <c r="C36" s="56"/>
@@ -6817,7 +6817,7 @@
       <c r="AD36" s="55"/>
       <c r="AE36" s="62"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="Z37" s="62"/>
       <c r="AA37" s="62"/>
       <c r="AB37" s="62"/>
@@ -6825,7 +6825,7 @@
       <c r="AD37" s="62"/>
       <c r="AE37" s="62"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="Z38" s="62"/>
       <c r="AA38" s="62"/>
       <c r="AB38" s="62"/>
@@ -6833,7 +6833,7 @@
       <c r="AD38" s="62"/>
       <c r="AE38" s="62"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="Z39" s="62"/>
       <c r="AA39" s="62"/>
       <c r="AB39" s="62"/>
@@ -6841,7 +6841,7 @@
       <c r="AD39" s="62"/>
       <c r="AE39" s="62"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="Z40" s="62"/>
       <c r="AA40" s="62"/>
       <c r="AB40" s="62"/>
@@ -6849,7 +6849,7 @@
       <c r="AD40" s="62"/>
       <c r="AE40" s="62"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="Z41" s="62"/>
       <c r="AA41" s="62"/>
       <c r="AB41" s="62"/>
@@ -6857,7 +6857,7 @@
       <c r="AD41" s="62"/>
       <c r="AE41" s="62"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="Z42" s="62"/>
       <c r="AA42" s="62"/>
       <c r="AB42" s="62"/>
@@ -6865,7 +6865,7 @@
       <c r="AD42" s="62"/>
       <c r="AE42" s="62"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="Z43" s="62"/>
       <c r="AA43" s="62"/>
       <c r="AB43" s="62"/>
@@ -6873,7 +6873,7 @@
       <c r="AD43" s="62"/>
       <c r="AE43" s="62"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="Z44" s="62"/>
       <c r="AA44" s="62"/>
       <c r="AB44" s="62"/>
@@ -6881,7 +6881,7 @@
       <c r="AD44" s="62"/>
       <c r="AE44" s="62"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="Z45" s="62"/>
       <c r="AA45" s="62"/>
       <c r="AB45" s="62"/>
@@ -6889,7 +6889,7 @@
       <c r="AD45" s="62"/>
       <c r="AE45" s="62"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="Z46" s="62"/>
       <c r="AA46" s="62"/>
       <c r="AB46" s="62"/>
@@ -6897,7 +6897,7 @@
       <c r="AD46" s="62"/>
       <c r="AE46" s="62"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="Z47" s="62"/>
       <c r="AA47" s="62"/>
       <c r="AB47" s="62"/>
@@ -6905,7 +6905,7 @@
       <c r="AD47" s="62"/>
       <c r="AE47" s="62"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="Z48" s="62"/>
       <c r="AA48" s="62"/>
       <c r="AB48" s="62"/>
@@ -6913,7 +6913,7 @@
       <c r="AD48" s="62"/>
       <c r="AE48" s="62"/>
     </row>
-    <row r="49" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="49" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z49" s="62"/>
       <c r="AA49" s="62"/>
       <c r="AB49" s="62"/>
@@ -6921,7 +6921,7 @@
       <c r="AD49" s="62"/>
       <c r="AE49" s="62"/>
     </row>
-    <row r="50" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="50" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z50" s="62"/>
       <c r="AA50" s="62"/>
       <c r="AB50" s="62"/>
@@ -6929,7 +6929,7 @@
       <c r="AD50" s="62"/>
       <c r="AE50" s="62"/>
     </row>
-    <row r="51" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="51" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z51" s="62"/>
       <c r="AA51" s="62"/>
       <c r="AB51" s="62"/>
@@ -6937,7 +6937,7 @@
       <c r="AD51" s="62"/>
       <c r="AE51" s="62"/>
     </row>
-    <row r="52" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="52" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z52" s="62"/>
       <c r="AA52" s="62"/>
       <c r="AB52" s="62"/>
@@ -6945,7 +6945,7 @@
       <c r="AD52" s="62"/>
       <c r="AE52" s="62"/>
     </row>
-    <row r="53" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="53" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z53" s="62"/>
       <c r="AA53" s="62"/>
       <c r="AB53" s="62"/>
@@ -6953,7 +6953,7 @@
       <c r="AD53" s="62"/>
       <c r="AE53" s="62"/>
     </row>
-    <row r="54" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="54" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z54" s="62"/>
       <c r="AA54" s="62"/>
       <c r="AB54" s="62"/>
@@ -6961,7 +6961,7 @@
       <c r="AD54" s="62"/>
       <c r="AE54" s="62"/>
     </row>
-    <row r="55" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="55" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z55" s="62"/>
       <c r="AA55" s="62"/>
       <c r="AB55" s="62"/>
@@ -6969,7 +6969,7 @@
       <c r="AD55" s="62"/>
       <c r="AE55" s="62"/>
     </row>
-    <row r="56" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="56" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z56" s="62"/>
       <c r="AA56" s="62"/>
       <c r="AB56" s="62"/>
@@ -6977,7 +6977,7 @@
       <c r="AD56" s="62"/>
       <c r="AE56" s="62"/>
     </row>
-    <row r="57" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="57" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z57" s="62"/>
       <c r="AA57" s="62"/>
       <c r="AB57" s="62"/>
@@ -6985,7 +6985,7 @@
       <c r="AD57" s="62"/>
       <c r="AE57" s="62"/>
     </row>
-    <row r="58" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="58" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z58" s="62"/>
       <c r="AA58" s="62"/>
       <c r="AB58" s="62"/>
@@ -6993,7 +6993,7 @@
       <c r="AD58" s="62"/>
       <c r="AE58" s="62"/>
     </row>
-    <row r="59" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="59" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z59" s="62"/>
       <c r="AA59" s="62"/>
       <c r="AB59" s="62"/>
@@ -7001,7 +7001,7 @@
       <c r="AD59" s="62"/>
       <c r="AE59" s="62"/>
     </row>
-    <row r="60" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="60" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z60" s="62"/>
       <c r="AA60" s="62"/>
       <c r="AB60" s="62"/>
@@ -7009,7 +7009,7 @@
       <c r="AD60" s="62"/>
       <c r="AE60" s="62"/>
     </row>
-    <row r="61" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="61" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z61" s="62"/>
       <c r="AA61" s="62"/>
       <c r="AB61" s="62"/>
@@ -7017,7 +7017,7 @@
       <c r="AD61" s="62"/>
       <c r="AE61" s="62"/>
     </row>
-    <row r="62" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="62" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z62" s="62"/>
       <c r="AA62" s="62"/>
       <c r="AB62" s="62"/>
@@ -7025,7 +7025,7 @@
       <c r="AD62" s="62"/>
       <c r="AE62" s="62"/>
     </row>
-    <row r="63" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="63" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z63" s="62"/>
       <c r="AA63" s="62"/>
       <c r="AB63" s="62"/>
@@ -7033,7 +7033,7 @@
       <c r="AD63" s="62"/>
       <c r="AE63" s="62"/>
     </row>
-    <row r="64" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="64" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z64" s="62"/>
       <c r="AA64" s="62"/>
       <c r="AB64" s="62"/>
@@ -7041,7 +7041,7 @@
       <c r="AD64" s="62"/>
       <c r="AE64" s="62"/>
     </row>
-    <row r="65" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="65" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z65" s="62"/>
       <c r="AA65" s="62"/>
       <c r="AB65" s="62"/>
@@ -7049,7 +7049,7 @@
       <c r="AD65" s="62"/>
       <c r="AE65" s="62"/>
     </row>
-    <row r="66" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="66" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z66" s="62"/>
       <c r="AA66" s="62"/>
       <c r="AB66" s="62"/>
@@ -7057,7 +7057,7 @@
       <c r="AD66" s="62"/>
       <c r="AE66" s="62"/>
     </row>
-    <row r="67" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="67" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z67" s="62"/>
       <c r="AA67" s="62"/>
       <c r="AB67" s="62"/>
@@ -7065,7 +7065,7 @@
       <c r="AD67" s="62"/>
       <c r="AE67" s="62"/>
     </row>
-    <row r="68" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="68" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z68" s="62"/>
       <c r="AA68" s="62"/>
       <c r="AB68" s="62"/>
@@ -7073,7 +7073,7 @@
       <c r="AD68" s="62"/>
       <c r="AE68" s="62"/>
     </row>
-    <row r="69" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="69" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z69" s="62"/>
       <c r="AA69" s="62"/>
       <c r="AB69" s="62"/>
@@ -7081,7 +7081,7 @@
       <c r="AD69" s="62"/>
       <c r="AE69" s="62"/>
     </row>
-    <row r="70" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="70" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z70" s="62"/>
       <c r="AA70" s="62"/>
       <c r="AB70" s="62"/>
@@ -7089,7 +7089,7 @@
       <c r="AD70" s="62"/>
       <c r="AE70" s="62"/>
     </row>
-    <row r="71" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="71" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z71" s="62"/>
       <c r="AA71" s="62"/>
       <c r="AB71" s="62"/>
@@ -7097,7 +7097,7 @@
       <c r="AD71" s="62"/>
       <c r="AE71" s="62"/>
     </row>
-    <row r="72" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="72" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z72" s="62"/>
       <c r="AA72" s="62"/>
       <c r="AB72" s="62"/>
@@ -7531,34 +7531,34 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>282</v>
       </c>
@@ -7577,28 +7577,28 @@
       <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.52734375" style="56" customWidth="1"/>
-    <col min="2" max="2" width="11.3515625" style="56"/>
-    <col min="3" max="3" width="22.64453125" style="56" customWidth="1"/>
-    <col min="4" max="4" width="11.3515625" style="56"/>
-    <col min="5" max="5" width="8.3515625" style="56" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" style="56" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="56"/>
+    <col min="3" max="3" width="22.6640625" style="56" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="56"/>
+    <col min="5" max="5" width="8.33203125" style="56" customWidth="1"/>
     <col min="6" max="6" width="19" style="56" customWidth="1"/>
-    <col min="7" max="7" width="8.1171875" style="56" customWidth="1"/>
-    <col min="8" max="8" width="33.3515625" style="56" customWidth="1"/>
-    <col min="9" max="9" width="18.3515625" style="56" customWidth="1"/>
-    <col min="10" max="10" width="14.3515625" style="56" customWidth="1"/>
-    <col min="11" max="11" width="11.3515625" style="60"/>
-    <col min="12" max="12" width="16.52734375" style="56" customWidth="1"/>
-    <col min="13" max="13" width="11.3515625" style="56"/>
-    <col min="14" max="14" width="18.1171875" style="56" customWidth="1"/>
-    <col min="15" max="15" width="11.3515625" style="56"/>
-    <col min="16" max="16" width="16.64453125" style="56" customWidth="1"/>
-    <col min="17" max="16384" width="11.3515625" style="56"/>
+    <col min="7" max="7" width="8.109375" style="56" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" style="56" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="56" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="56" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="60"/>
+    <col min="12" max="12" width="16.5546875" style="56" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" style="56"/>
+    <col min="14" max="14" width="18.109375" style="56" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="56"/>
+    <col min="16" max="16" width="16.6640625" style="56" customWidth="1"/>
+    <col min="17" max="16384" width="11.33203125" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="29" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="125" t="s">
         <v>94</v>
       </c>
@@ -7638,7 +7638,7 @@
       <c r="Q1" s="271"/>
       <c r="R1" s="63"/>
     </row>
-    <row r="2" spans="1:18" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="57" t="s">
         <v>359</v>
       </c>
@@ -7678,7 +7678,7 @@
       <c r="Q2" s="273"/>
       <c r="R2" s="63"/>
     </row>
-    <row r="3" spans="1:18" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="66" t="s">
         <v>388</v>
       </c>
@@ -7719,7 +7719,7 @@
       <c r="Q3" s="279"/>
       <c r="R3" s="63"/>
     </row>
-    <row r="4" spans="1:18" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="66" t="s">
         <v>389</v>
       </c>
@@ -7775,7 +7775,7 @@
       </c>
       <c r="R4" s="63"/>
     </row>
-    <row r="5" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="92" t="s">
         <v>387</v>
       </c>
@@ -7822,7 +7822,7 @@
       <c r="Q5" s="188"/>
       <c r="R5" s="63"/>
     </row>
-    <row r="6" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="60"/>
       <c r="B6" s="60"/>
       <c r="C6" s="60"/>
@@ -7844,7 +7844,7 @@
       <c r="Q6" s="189"/>
       <c r="R6" s="63"/>
     </row>
-    <row r="7" spans="1:18" ht="29" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="125" t="s">
         <v>97</v>
       </c>
@@ -7885,7 +7885,7 @@
       <c r="Q7" s="189"/>
       <c r="R7" s="63"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="69" t="s">
         <v>383</v>
       </c>
@@ -7927,7 +7927,7 @@
       <c r="Q8" s="189"/>
       <c r="R8" s="63"/>
     </row>
-    <row r="9" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="66" t="s">
         <v>384</v>
       </c>
@@ -7970,7 +7970,7 @@
       <c r="Q9" s="189"/>
       <c r="R9" s="63"/>
     </row>
-    <row r="10" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="66" t="s">
         <v>385</v>
       </c>
@@ -8010,7 +8010,7 @@
       <c r="Q10" s="189"/>
       <c r="R10" s="63"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="66" t="s">
         <v>386</v>
       </c>
@@ -8052,7 +8052,7 @@
       <c r="Q11" s="189"/>
       <c r="R11" s="63"/>
     </row>
-    <row r="12" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="92" t="s">
         <v>397</v>
       </c>
@@ -8095,7 +8095,7 @@
       <c r="Q12" s="189"/>
       <c r="R12" s="63"/>
     </row>
-    <row r="13" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="60"/>
       <c r="B13" s="60"/>
       <c r="C13" s="240"/>
@@ -8118,7 +8118,7 @@
       <c r="Q13" s="189"/>
       <c r="R13" s="63"/>
     </row>
-    <row r="14" spans="1:18" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:18" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="219" t="s">
         <v>100</v>
       </c>
@@ -8158,7 +8158,7 @@
       <c r="Q14" s="189"/>
       <c r="R14" s="63"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="57" t="s">
         <v>102</v>
       </c>
@@ -8200,7 +8200,7 @@
       <c r="Q15" s="189"/>
       <c r="R15" s="63"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="66" t="s">
         <v>262</v>
       </c>
@@ -8242,7 +8242,7 @@
       <c r="Q16" s="189"/>
       <c r="R16" s="63"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="66" t="s">
         <v>264</v>
       </c>
@@ -8284,7 +8284,7 @@
       <c r="Q17" s="189"/>
       <c r="R17" s="63"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="66" t="s">
         <v>370</v>
       </c>
@@ -8322,7 +8322,7 @@
       <c r="Q18" s="189"/>
       <c r="R18" s="63"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="66" t="s">
         <v>104</v>
       </c>
@@ -8360,7 +8360,7 @@
       <c r="Q19" s="189"/>
       <c r="R19" s="63"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="66" t="s">
         <v>260</v>
       </c>
@@ -8398,7 +8398,7 @@
       <c r="Q20" s="189"/>
       <c r="R20" s="63"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="66" t="s">
         <v>373</v>
       </c>
@@ -8436,7 +8436,7 @@
       <c r="Q21" s="189"/>
       <c r="R21" s="63"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="66" t="s">
         <v>375</v>
       </c>
@@ -8472,7 +8472,7 @@
       <c r="Q22" s="189"/>
       <c r="R22" s="63"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="66"/>
       <c r="B23" s="76"/>
       <c r="C23" s="76"/>
@@ -8494,7 +8494,7 @@
       <c r="Q23" s="189"/>
       <c r="R23" s="63"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="66"/>
       <c r="B24" s="76"/>
       <c r="C24" s="76"/>
@@ -8516,7 +8516,7 @@
       <c r="Q24" s="189"/>
       <c r="R24" s="63"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="66"/>
       <c r="B25" s="76"/>
       <c r="C25" s="76"/>
@@ -8538,7 +8538,7 @@
       <c r="Q25" s="189"/>
       <c r="R25" s="63"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="66"/>
       <c r="B26" s="76"/>
       <c r="C26" s="76"/>
@@ -8560,7 +8560,7 @@
       <c r="Q26" s="189"/>
       <c r="R26" s="63"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="66"/>
       <c r="B27" s="76"/>
       <c r="C27" s="76"/>
@@ -8582,7 +8582,7 @@
       <c r="Q27" s="189"/>
       <c r="R27" s="63"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="66"/>
       <c r="B28" s="76"/>
       <c r="C28" s="76"/>
@@ -8604,7 +8604,7 @@
       <c r="Q28" s="189"/>
       <c r="R28" s="63"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="66"/>
       <c r="B29" s="76"/>
       <c r="C29" s="76"/>
@@ -8626,7 +8626,7 @@
       <c r="Q29" s="189"/>
       <c r="R29" s="63"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="66"/>
       <c r="B30" s="76"/>
       <c r="C30" s="76"/>
@@ -8648,7 +8648,7 @@
       <c r="Q30" s="189"/>
       <c r="R30" s="63"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="66"/>
       <c r="B31" s="76"/>
       <c r="C31" s="76"/>
@@ -8670,7 +8670,7 @@
       <c r="Q31" s="189"/>
       <c r="R31" s="63"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="66"/>
       <c r="B32" s="76"/>
       <c r="C32" s="76"/>
@@ -8692,7 +8692,7 @@
       <c r="Q32" s="189"/>
       <c r="R32" s="63"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="66"/>
       <c r="B33" s="76"/>
       <c r="C33" s="76"/>
@@ -8714,7 +8714,7 @@
       <c r="Q33" s="189"/>
       <c r="R33" s="63"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="66"/>
       <c r="B34" s="76"/>
       <c r="C34" s="76"/>
@@ -8736,7 +8736,7 @@
       <c r="Q34" s="189"/>
       <c r="R34" s="63"/>
     </row>
-    <row r="35" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="66"/>
       <c r="B35" s="76"/>
       <c r="C35" s="76"/>
@@ -8758,7 +8758,7 @@
       <c r="Q35" s="190"/>
       <c r="R35" s="63"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="66"/>
       <c r="B36" s="76"/>
       <c r="C36" s="76"/>
@@ -8774,7 +8774,7 @@
       </c>
       <c r="R36" s="63"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="66"/>
       <c r="B37" s="76"/>
       <c r="C37" s="185"/>
@@ -8790,7 +8790,7 @@
       </c>
       <c r="R37" s="63"/>
     </row>
-    <row r="38" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="92"/>
       <c r="B38" s="93"/>
       <c r="C38" s="211"/>
@@ -8803,7 +8803,7 @@
       <c r="J38" s="226"/>
       <c r="R38" s="63"/>
     </row>
-    <row r="39" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="60"/>
       <c r="B39" s="60"/>
       <c r="C39" s="240"/>
@@ -8816,7 +8816,7 @@
       <c r="J39" s="60"/>
       <c r="R39" s="63"/>
     </row>
-    <row r="40" spans="1:18" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="234" t="s">
         <v>377</v>
       </c>
@@ -8846,7 +8846,7 @@
       <c r="K40" s="233"/>
       <c r="R40" s="63"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="237" t="s">
         <v>379</v>
       </c>
@@ -8868,7 +8868,7 @@
       </c>
       <c r="R41" s="63"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="66" t="s">
         <v>107</v>
       </c>
@@ -8893,7 +8893,7 @@
       </c>
       <c r="R42" s="63"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="66" t="s">
         <v>380</v>
       </c>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="R43" s="63"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="66" t="s">
         <v>400</v>
       </c>
@@ -8938,7 +8938,7 @@
       <c r="J44" s="222"/>
       <c r="R44" s="63"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="66"/>
       <c r="B45" s="76"/>
       <c r="C45" s="185"/>
@@ -8951,7 +8951,7 @@
       <c r="J45" s="222"/>
       <c r="R45" s="63"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="66"/>
       <c r="B46" s="76"/>
       <c r="C46" s="185"/>
@@ -8964,7 +8964,7 @@
       <c r="J46" s="222"/>
       <c r="R46" s="63"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="66"/>
       <c r="B47" s="76"/>
       <c r="C47" s="185"/>
@@ -8977,7 +8977,7 @@
       <c r="J47" s="222"/>
       <c r="R47" s="63"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="66"/>
       <c r="B48" s="76"/>
       <c r="C48" s="185"/>
@@ -8990,7 +8990,7 @@
       <c r="J48" s="222"/>
       <c r="R48" s="63"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="66"/>
       <c r="B49" s="76"/>
       <c r="C49" s="185"/>
@@ -9003,7 +9003,7 @@
       <c r="J49" s="222"/>
       <c r="R49" s="63"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="66"/>
       <c r="B50" s="76"/>
       <c r="C50" s="185"/>
@@ -9016,7 +9016,7 @@
       <c r="J50" s="222"/>
       <c r="R50" s="63"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="66"/>
       <c r="B51" s="76"/>
       <c r="C51" s="185"/>
@@ -9029,7 +9029,7 @@
       <c r="J51" s="222"/>
       <c r="R51" s="63"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="66"/>
       <c r="B52" s="76"/>
       <c r="C52" s="185"/>
@@ -9042,7 +9042,7 @@
       <c r="J52" s="222"/>
       <c r="R52" s="63"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="66"/>
       <c r="B53" s="76"/>
       <c r="C53" s="185"/>
@@ -9055,7 +9055,7 @@
       <c r="J53" s="222"/>
       <c r="R53" s="63"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="66"/>
       <c r="B54" s="76"/>
       <c r="C54" s="185"/>
@@ -9068,7 +9068,7 @@
       <c r="J54" s="222"/>
       <c r="R54" s="63"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="66"/>
       <c r="B55" s="76"/>
       <c r="C55" s="185"/>
@@ -9081,7 +9081,7 @@
       <c r="J55" s="222"/>
       <c r="R55" s="63"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="66"/>
       <c r="B56" s="76"/>
       <c r="C56" s="185"/>
@@ -9094,7 +9094,7 @@
       <c r="J56" s="222"/>
       <c r="R56" s="63"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="66"/>
       <c r="B57" s="76"/>
       <c r="C57" s="185"/>
@@ -9107,7 +9107,7 @@
       <c r="J57" s="222"/>
       <c r="R57" s="63"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="66"/>
       <c r="B58" s="76"/>
       <c r="C58" s="185"/>
@@ -9120,7 +9120,7 @@
       <c r="J58" s="222"/>
       <c r="R58" s="63"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="66"/>
       <c r="B59" s="76"/>
       <c r="C59" s="185"/>
@@ -9133,7 +9133,7 @@
       <c r="J59" s="222"/>
       <c r="R59" s="63"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="66"/>
       <c r="B60" s="76"/>
       <c r="C60" s="185"/>
@@ -9146,7 +9146,7 @@
       <c r="J60" s="222"/>
       <c r="R60" s="63"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="66"/>
       <c r="B61" s="76"/>
       <c r="C61" s="185"/>
@@ -9159,7 +9159,7 @@
       <c r="J61" s="222"/>
       <c r="R61" s="63"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="66"/>
       <c r="B62" s="76"/>
       <c r="C62" s="185"/>
@@ -9172,7 +9172,7 @@
       <c r="J62" s="222"/>
       <c r="R62" s="63"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="66"/>
       <c r="B63" s="76"/>
       <c r="C63" s="185"/>
@@ -9185,7 +9185,7 @@
       <c r="J63" s="222"/>
       <c r="R63" s="63"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="66"/>
       <c r="B64" s="76"/>
       <c r="C64" s="185"/>
@@ -9198,7 +9198,7 @@
       <c r="J64" s="222"/>
       <c r="R64" s="63"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="66"/>
       <c r="B65" s="76"/>
       <c r="C65" s="185"/>
@@ -9211,7 +9211,7 @@
       <c r="J65" s="222"/>
       <c r="R65" s="63"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="66"/>
       <c r="B66" s="76"/>
       <c r="C66" s="185"/>
@@ -9224,7 +9224,7 @@
       <c r="J66" s="222"/>
       <c r="R66" s="63"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="66"/>
       <c r="B67" s="76"/>
       <c r="C67" s="76"/>
@@ -9237,7 +9237,7 @@
       <c r="J67" s="222"/>
       <c r="R67" s="63"/>
     </row>
-    <row r="68" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="92"/>
       <c r="B68" s="93"/>
       <c r="C68" s="93"/>
@@ -9250,7 +9250,7 @@
       <c r="J68" s="226"/>
       <c r="R68" s="63"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="H69" s="60"/>
       <c r="I69" s="60"/>
     </row>
@@ -9276,13 +9276,13 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.1171875" style="56" customWidth="1"/>
-    <col min="2" max="16384" width="11.3515625" style="56"/>
+    <col min="1" max="1" width="18.109375" style="56" customWidth="1"/>
+    <col min="2" max="16384" width="11.33203125" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="124" t="s">
         <v>61</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
         <v>305</v>
       </c>
@@ -9358,7 +9358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="56" t="s">
         <v>312</v>
       </c>
@@ -9396,7 +9396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="56" t="s">
         <v>316</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="56" t="s">
         <v>323</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="56" t="s">
         <v>326</v>
       </c>
@@ -9504,7 +9504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="56" t="s">
         <v>329</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
         <v>332</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="56" t="s">
         <v>334</v>
       </c>
@@ -9612,7 +9612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="56" t="s">
         <v>337</v>
       </c>
@@ -9650,7 +9650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="56" t="s">
         <v>340</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="56" t="s">
         <v>341</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="56" t="s">
         <v>344</v>
       </c>
@@ -9758,7 +9758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="56" t="s">
         <v>348</v>
       </c>
@@ -9796,7 +9796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="56" t="s">
         <v>349</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="56" t="s">
         <v>352</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="56" t="s">
         <v>354</v>
       </c>
@@ -9924,12 +9924,12 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="10.87890625" style="56"/>
+    <col min="1" max="16384" width="10.88671875" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="125" t="s">
         <v>242</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="131" t="s">
         <v>77</v>
       </c>
@@ -9984,7 +9984,7 @@
       <c r="E2" s="280"/>
       <c r="I2" s="134"/>
     </row>
-    <row r="3" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="135" t="s">
         <v>79</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="135" t="s">
         <v>179</v>
       </c>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="O4" s="139"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="135" t="s">
         <v>180</v>
       </c>
@@ -10062,7 +10062,7 @@
       </c>
       <c r="E5" s="280"/>
     </row>
-    <row r="6" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="135" t="s">
         <v>183</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="135" t="s">
         <v>184</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="135" t="s">
         <v>181</v>
       </c>
@@ -10109,7 +10109,7 @@
       <c r="D8" s="136"/>
       <c r="E8" s="280"/>
     </row>
-    <row r="9" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="135" t="s">
         <v>182</v>
       </c>
@@ -10134,7 +10134,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="135" t="s">
         <v>206</v>
       </c>
@@ -10142,7 +10142,7 @@
       <c r="C10" s="137"/>
       <c r="D10" s="136"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="137" t="s">
         <v>207</v>
       </c>
@@ -10167,7 +10167,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="137" t="s">
         <v>208</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="137" t="s">
         <v>209</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="137" t="s">
         <v>210</v>
       </c>
@@ -10242,7 +10242,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="137" t="s">
         <v>211</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="137" t="s">
         <v>213</v>
       </c>
@@ -10292,7 +10292,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="137" t="s">
         <v>216</v>
       </c>
@@ -10317,7 +10317,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="137" t="s">
         <v>217</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="137" t="s">
         <v>220</v>
       </c>
@@ -10357,7 +10357,7 @@
       </c>
       <c r="N19" s="140"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="137" t="s">
         <v>212</v>
       </c>
@@ -10365,7 +10365,7 @@
       <c r="C20" s="137"/>
       <c r="D20" s="136"/>
     </row>
-    <row r="21" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="137" t="s">
         <v>214</v>
       </c>
@@ -10391,7 +10391,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="137" t="s">
         <v>215</v>
       </c>
@@ -10399,7 +10399,7 @@
       <c r="C22" s="137"/>
       <c r="D22" s="136"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="137" t="s">
         <v>218</v>
       </c>
@@ -10419,7 +10419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="141" t="s">
         <v>219</v>
       </c>
@@ -10439,7 +10439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I25" s="56" t="s">
         <v>277</v>
       </c>
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I26" s="56" t="s">
         <v>107</v>
       </c>
@@ -10486,29 +10486,29 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.52734375" style="56" customWidth="1"/>
-    <col min="2" max="2" width="10.1171875" style="56" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" style="56" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="56" customWidth="1"/>
     <col min="3" max="3" width="6" style="56" customWidth="1"/>
-    <col min="4" max="4" width="8.52734375" style="56" customWidth="1"/>
-    <col min="5" max="5" width="19.52734375" style="56" customWidth="1"/>
-    <col min="6" max="6" width="4.52734375" style="56" customWidth="1"/>
-    <col min="7" max="7" width="5.3515625" style="56" customWidth="1"/>
-    <col min="8" max="8" width="4.3515625" style="56" customWidth="1"/>
-    <col min="9" max="9" width="6.52734375" style="56" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="56" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" style="56" customWidth="1"/>
+    <col min="6" max="6" width="4.5546875" style="56" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" style="56" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" style="56" customWidth="1"/>
+    <col min="9" max="9" width="6.5546875" style="56" customWidth="1"/>
     <col min="10" max="10" width="3" style="56" customWidth="1"/>
-    <col min="11" max="11" width="25.1171875" style="56" customWidth="1"/>
-    <col min="12" max="12" width="14.52734375" style="56" customWidth="1"/>
-    <col min="13" max="13" width="7.52734375" style="56" customWidth="1"/>
-    <col min="14" max="14" width="8.64453125" style="56" customWidth="1"/>
+    <col min="11" max="11" width="25.109375" style="56" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" style="56" customWidth="1"/>
+    <col min="13" max="13" width="7.5546875" style="56" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="56" customWidth="1"/>
     <col min="15" max="15" width="14" style="56" customWidth="1"/>
-    <col min="16" max="16" width="4.52734375" style="56" customWidth="1"/>
-    <col min="17" max="17" width="5.3515625" style="56" customWidth="1"/>
-    <col min="18" max="16384" width="11.3515625" style="56"/>
+    <col min="16" max="16" width="4.5546875" style="56" customWidth="1"/>
+    <col min="17" max="17" width="5.33203125" style="56" customWidth="1"/>
+    <col min="18" max="16384" width="11.33203125" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="122" t="s">
         <v>108</v>
       </c>
@@ -10541,7 +10541,7 @@
       </c>
       <c r="P1" s="60"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
         <v>13</v>
       </c>
@@ -10596,7 +10596,7 @@
       <c r="X2" s="55"/>
       <c r="Y2" s="55"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="66" t="s">
         <v>17</v>
       </c>
@@ -10651,7 +10651,7 @@
       <c r="X3" s="55"/>
       <c r="Y3" s="55"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="66" t="s">
         <v>23</v>
       </c>
@@ -10702,7 +10702,7 @@
       <c r="X4" s="55"/>
       <c r="Y4" s="55"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="66" t="s">
         <v>279</v>
       </c>
@@ -10749,7 +10749,7 @@
       <c r="X5" s="55"/>
       <c r="Y5" s="55"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="66" t="s">
         <v>27</v>
       </c>
@@ -10792,7 +10792,7 @@
       <c r="X6" s="55"/>
       <c r="Y6" s="55"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="66" t="s">
         <v>192</v>
       </c>
@@ -10835,7 +10835,7 @@
       <c r="X7" s="55"/>
       <c r="Y7" s="55"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="66" t="s">
         <v>34</v>
       </c>
@@ -10877,7 +10877,7 @@
       <c r="X8" s="55"/>
       <c r="Y8" s="55"/>
     </row>
-    <row r="9" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="66" t="s">
         <v>153</v>
       </c>
@@ -10913,7 +10913,7 @@
       <c r="X9" s="55"/>
       <c r="Y9" s="55"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="66" t="s">
         <v>38</v>
       </c>
@@ -10952,7 +10952,7 @@
       <c r="X10" s="55"/>
       <c r="Y10" s="55"/>
     </row>
-    <row r="11" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="92" t="s">
         <v>43</v>
       </c>
@@ -10991,7 +10991,7 @@
       <c r="X11" s="55"/>
       <c r="Y11" s="55"/>
     </row>
-    <row r="12" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="60"/>
       <c r="B12" s="54"/>
       <c r="C12" s="55"/>
@@ -11033,7 +11033,7 @@
       <c r="X12" s="55"/>
       <c r="Y12" s="55"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="123" t="s">
         <v>61</v>
       </c>
@@ -11079,7 +11079,7 @@
       <c r="X13" s="55"/>
       <c r="Y13" s="55"/>
     </row>
-    <row r="14" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="55"/>
       <c r="C14" s="55"/>
       <c r="D14" s="55"/>
@@ -11113,7 +11113,7 @@
       <c r="X14" s="55"/>
       <c r="Y14" s="55"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="160" t="s">
         <v>77</v>
       </c>
@@ -11152,7 +11152,7 @@
       <c r="X15" s="55"/>
       <c r="Y15" s="55"/>
     </row>
-    <row r="16" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="163" t="s">
         <v>79</v>
       </c>
@@ -11191,7 +11191,7 @@
       <c r="X16" s="55"/>
       <c r="Y16" s="55"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="165" t="s">
         <v>82</v>
       </c>
@@ -11233,7 +11233,7 @@
       <c r="X17" s="55"/>
       <c r="Y17" s="55"/>
     </row>
-    <row r="18" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="165" t="s">
         <v>84</v>
       </c>
@@ -11273,7 +11273,7 @@
       <c r="X18" s="55"/>
       <c r="Y18" s="55"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="165" t="s">
         <v>185</v>
       </c>
@@ -11315,7 +11315,7 @@
       <c r="X19" s="55"/>
       <c r="Y19" s="55"/>
     </row>
-    <row r="20" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="165" t="s">
         <v>186</v>
       </c>
@@ -11360,7 +11360,7 @@
       <c r="X20" s="55"/>
       <c r="Y20" s="55"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="165" t="s">
         <v>187</v>
       </c>
@@ -11398,7 +11398,7 @@
       <c r="X21" s="55"/>
       <c r="Y21" s="55"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="165" t="s">
         <v>188</v>
       </c>
@@ -11438,7 +11438,7 @@
       <c r="X22" s="55"/>
       <c r="Y22" s="55"/>
     </row>
-    <row r="23" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="55"/>
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
@@ -11472,7 +11472,7 @@
       <c r="X23" s="55"/>
       <c r="Y23" s="55"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B24" s="55"/>
       <c r="C24" s="55"/>
       <c r="D24" s="55"/>
@@ -11504,7 +11504,7 @@
       <c r="X24" s="55"/>
       <c r="Y24" s="55"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B25" s="55"/>
       <c r="C25" s="55"/>
       <c r="D25" s="55"/>
@@ -11536,7 +11536,7 @@
       <c r="X25" s="55"/>
       <c r="Y25" s="55"/>
     </row>
-    <row r="26" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
       <c r="D26" s="55"/>
@@ -11570,7 +11570,7 @@
       <c r="X26" s="55"/>
       <c r="Y26" s="55"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B27" s="55"/>
       <c r="C27" s="55"/>
       <c r="D27" s="55"/>
@@ -11593,7 +11593,7 @@
       <c r="X27" s="55"/>
       <c r="Y27" s="55"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B28" s="55"/>
       <c r="C28" s="55"/>
       <c r="D28" s="55"/>
@@ -11616,7 +11616,7 @@
       <c r="X28" s="55"/>
       <c r="Y28" s="55"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B29" s="55"/>
       <c r="C29" s="55"/>
       <c r="D29" s="55"/>
@@ -11642,7 +11642,7 @@
       <c r="X29" s="55"/>
       <c r="Y29" s="55"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B30" s="55"/>
       <c r="C30" s="55"/>
       <c r="D30" s="55"/>
@@ -11665,7 +11665,7 @@
       <c r="X30" s="55"/>
       <c r="Y30" s="55"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B31" s="55"/>
       <c r="C31" s="55"/>
       <c r="D31" s="55"/>
@@ -11688,7 +11688,7 @@
       <c r="X31" s="55"/>
       <c r="Y31" s="55"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B32" s="55"/>
       <c r="C32" s="55"/>
       <c r="D32" s="55"/>
@@ -11711,7 +11711,7 @@
       <c r="X32" s="55"/>
       <c r="Y32" s="55"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B33" s="55"/>
       <c r="C33" s="55"/>
       <c r="D33" s="55"/>
@@ -11734,7 +11734,7 @@
       <c r="X33" s="55"/>
       <c r="Y33" s="55"/>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
       <c r="D34" s="55"/>
@@ -11757,7 +11757,7 @@
       <c r="X34" s="55"/>
       <c r="Y34" s="55"/>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B35" s="55"/>
       <c r="C35" s="55"/>
       <c r="D35" s="55"/>
@@ -11780,7 +11780,7 @@
       <c r="X35" s="55"/>
       <c r="Y35" s="55"/>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
       <c r="J36" s="55"/>
       <c r="K36" s="55"/>
       <c r="L36" s="55"/>
@@ -12197,23 +12197,23 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.703125" style="56" customWidth="1"/>
-    <col min="2" max="6" width="11.3515625" style="56"/>
-    <col min="7" max="7" width="5.1171875" style="56" customWidth="1"/>
-    <col min="8" max="8" width="11.3515625" style="56"/>
-    <col min="9" max="9" width="7.3515625" style="56" customWidth="1"/>
-    <col min="10" max="10" width="11.3515625" style="56"/>
-    <col min="11" max="11" width="12.87890625" style="56" customWidth="1"/>
-    <col min="12" max="12" width="8.87890625" style="56" customWidth="1"/>
-    <col min="13" max="13" width="8.3515625" style="56" customWidth="1"/>
-    <col min="14" max="14" width="11.3515625" style="56"/>
-    <col min="15" max="15" width="3.52734375" style="56" customWidth="1"/>
-    <col min="16" max="16384" width="11.3515625" style="56"/>
+    <col min="1" max="1" width="8.6640625" style="56" customWidth="1"/>
+    <col min="2" max="6" width="11.33203125" style="56"/>
+    <col min="7" max="7" width="5.109375" style="56" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="56"/>
+    <col min="9" max="9" width="7.33203125" style="56" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="56"/>
+    <col min="11" max="11" width="12.88671875" style="56" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="56" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" style="56" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="56"/>
+    <col min="15" max="15" width="3.5546875" style="56" customWidth="1"/>
+    <col min="16" max="16384" width="11.33203125" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="56" t="s">
         <v>117</v>
       </c>
@@ -12221,7 +12221,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="56" t="s">
         <v>108</v>
       </c>
@@ -12257,7 +12257,7 @@
       </c>
       <c r="O2" s="178"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="179" t="s">
         <v>125</v>
       </c>
@@ -12292,7 +12292,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="179" t="s">
         <v>130</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="179" t="s">
         <v>135</v>
       </c>
@@ -12341,7 +12341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="179" t="s">
         <v>137</v>
       </c>
@@ -12355,7 +12355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="179" t="s">
         <v>139</v>
       </c>
@@ -12369,7 +12369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="179" t="s">
         <v>141</v>
       </c>
@@ -12377,7 +12377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="179" t="s">
         <v>77</v>
       </c>
@@ -12385,10 +12385,10 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="179"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="179" t="s">
         <v>143</v>
       </c>
@@ -12400,7 +12400,7 @@
       </c>
       <c r="F13" s="132"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="56" t="s">
         <v>145</v>
       </c>
@@ -12414,7 +12414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="179" t="s">
         <v>147</v>
       </c>
@@ -12424,7 +12424,7 @@
       <c r="E15" s="137"/>
       <c r="F15" s="136"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="56" t="s">
         <v>148</v>
       </c>
@@ -12438,7 +12438,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="179" t="s">
         <v>150</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="56" t="s">
         <v>151</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E19" s="137">
         <v>8</v>
       </c>
@@ -12477,7 +12477,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="56" t="s">
         <v>79</v>
       </c>
@@ -12492,7 +12492,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E21" s="137">
         <v>10</v>
       </c>
@@ -12501,7 +12501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="56">
         <v>2</v>
       </c>
@@ -12516,7 +12516,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="179"/>
       <c r="E23" s="137">
         <v>12</v>
@@ -12526,7 +12526,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="179"/>
       <c r="E24" s="137">
         <v>13</v>
@@ -12536,7 +12536,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="179"/>
       <c r="E25" s="137">
         <v>14</v>
@@ -12546,7 +12546,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="179"/>
       <c r="E26" s="137">
         <v>15</v>
@@ -12556,7 +12556,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="179"/>
       <c r="E27" s="137">
         <v>16</v>
@@ -12566,7 +12566,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="179"/>
       <c r="E28" s="137">
         <v>17</v>
@@ -12576,7 +12576,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="179"/>
       <c r="E29" s="137">
         <v>18</v>
@@ -12586,7 +12586,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E30" s="137">
         <v>19</v>
       </c>
@@ -12595,7 +12595,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E31" s="141">
         <v>20</v>
       </c>
@@ -12618,14 +12618,14 @@
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="127.3515625" style="63" customWidth="1"/>
-    <col min="2" max="8" width="11.3515625" style="63" customWidth="1"/>
-    <col min="9" max="16384" width="11.3515625" style="63" hidden="1"/>
+    <col min="1" max="1" width="127.33203125" style="63" customWidth="1"/>
+    <col min="2" max="8" width="11.33203125" style="63" customWidth="1"/>
+    <col min="9" max="16384" width="11.33203125" style="63" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="121"/>
     </row>
   </sheetData>
@@ -12644,21 +12644,21 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:D13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1171875" customWidth="1"/>
-    <col min="2" max="2" width="8.3515625" customWidth="1"/>
-    <col min="4" max="4" width="5.87890625" customWidth="1"/>
-    <col min="5" max="5" width="15.87890625" customWidth="1"/>
-    <col min="6" max="6" width="8.3515625" customWidth="1"/>
-    <col min="7" max="7" width="13.3515625" customWidth="1"/>
-    <col min="8" max="8" width="6.52734375" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>156</v>
       </c>
@@ -12687,7 +12687,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -12722,7 +12722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -12757,7 +12757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>57</v>
       </c>
@@ -12792,7 +12792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -12827,7 +12827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>75</v>
       </c>
@@ -12862,7 +12862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>175</v>
       </c>
@@ -12897,7 +12897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="str">
         <f>CharacterSheet!A8</f>
         <v>Luck</v>
@@ -12930,7 +12930,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="str">
         <f>CharacterSheet!A9</f>
         <v>Glaube</v>
@@ -12963,7 +12963,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>165</v>
       </c>
@@ -12997,7 +12997,7 @@
       <c r="J10" s="17"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>166</v>
       </c>
@@ -13030,13 +13030,13 @@
       <c r="J11" s="17"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>167</v>
       </c>
       <c r="B12">
-        <f>Inventar!G22</f>
-        <v>0</v>
+        <f>Inventar!I12</f>
+        <v>18</v>
       </c>
       <c r="C12" s="3" t="str">
         <f>CharacterSheet!E12</f>
@@ -13060,13 +13060,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>168</v>
       </c>
       <c r="B13">
-        <f>Inventar!G19</f>
-        <v>2</v>
+        <f>Inventar!I9</f>
+        <v>21.1</v>
       </c>
       <c r="C13" s="3" t="str">
         <f>CharacterSheet!E13</f>
@@ -13091,7 +13091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>230</v>
       </c>
@@ -13122,7 +13122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>154</v>
       </c>
@@ -13153,7 +13153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>161</v>
       </c>
@@ -13184,7 +13184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>170</v>
       </c>
@@ -13215,7 +13215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>171</v>
       </c>
@@ -13246,7 +13246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>164</v>
       </c>
@@ -13277,7 +13277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>61</v>
       </c>
@@ -13308,7 +13308,7 @@
         <v>Mittel</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>77</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>Leicht</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>79</v>
       </c>
@@ -13371,7 +13371,7 @@
         <v>Leicht</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>179</v>
       </c>
@@ -13403,7 +13403,7 @@
         <v>Mittel</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>180</v>
       </c>
@@ -13435,7 +13435,7 @@
         <v>Mittel</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>183</v>
       </c>
@@ -13459,7 +13459,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>184</v>
       </c>
@@ -13484,7 +13484,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>181</v>
       </c>
@@ -13501,7 +13501,7 @@
         <v>Plötze</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>182</v>
       </c>
@@ -13511,7 +13511,7 @@
       </c>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>233</v>
       </c>
@@ -13521,7 +13521,7 @@
       </c>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C30" s="3"/>
     </row>
   </sheetData>
